--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>615500</v>
+        <v>579500</v>
       </c>
       <c r="E8" s="3">
-        <v>674000</v>
+        <v>634700</v>
       </c>
       <c r="F8" s="3">
-        <v>539600</v>
+        <v>508100</v>
       </c>
       <c r="G8" s="3">
-        <v>563900</v>
+        <v>531000</v>
       </c>
       <c r="H8" s="3">
-        <v>540500</v>
+        <v>509000</v>
       </c>
       <c r="I8" s="3">
-        <v>533200</v>
+        <v>502100</v>
       </c>
       <c r="J8" s="3">
-        <v>522400</v>
+        <v>491900</v>
       </c>
       <c r="K8" s="3">
         <v>511100</v>
@@ -787,25 +787,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>282400</v>
+        <v>265900</v>
       </c>
       <c r="E9" s="3">
-        <v>286300</v>
+        <v>269500</v>
       </c>
       <c r="F9" s="3">
-        <v>260800</v>
+        <v>245600</v>
       </c>
       <c r="G9" s="3">
-        <v>268300</v>
+        <v>252700</v>
       </c>
       <c r="H9" s="3">
-        <v>249200</v>
+        <v>234600</v>
       </c>
       <c r="I9" s="3">
-        <v>239800</v>
+        <v>225800</v>
       </c>
       <c r="J9" s="3">
-        <v>231400</v>
+        <v>217900</v>
       </c>
       <c r="K9" s="3">
         <v>237900</v>
@@ -834,25 +834,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>333100</v>
+        <v>313600</v>
       </c>
       <c r="E10" s="3">
-        <v>387800</v>
+        <v>365100</v>
       </c>
       <c r="F10" s="3">
-        <v>278800</v>
+        <v>262500</v>
       </c>
       <c r="G10" s="3">
-        <v>295600</v>
+        <v>278300</v>
       </c>
       <c r="H10" s="3">
-        <v>291400</v>
+        <v>274300</v>
       </c>
       <c r="I10" s="3">
-        <v>293400</v>
+        <v>276300</v>
       </c>
       <c r="J10" s="3">
-        <v>291000</v>
+        <v>274000</v>
       </c>
       <c r="K10" s="3">
         <v>273200</v>
@@ -900,25 +900,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>51600</v>
+        <v>48600</v>
       </c>
       <c r="E12" s="3">
-        <v>47700</v>
+        <v>44900</v>
       </c>
       <c r="F12" s="3">
-        <v>46900</v>
+        <v>44200</v>
       </c>
       <c r="G12" s="3">
-        <v>46300</v>
+        <v>43600</v>
       </c>
       <c r="H12" s="3">
-        <v>47800</v>
+        <v>45000</v>
       </c>
       <c r="I12" s="3">
-        <v>53800</v>
+        <v>50600</v>
       </c>
       <c r="J12" s="3">
-        <v>53500</v>
+        <v>50400</v>
       </c>
       <c r="K12" s="3">
         <v>58400</v>
@@ -994,7 +994,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>185300</v>
+        <v>174500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
@@ -1041,25 +1041,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20700</v>
+        <v>19500</v>
       </c>
       <c r="E15" s="3">
-        <v>22500</v>
+        <v>21200</v>
       </c>
       <c r="F15" s="3">
-        <v>19900</v>
+        <v>18700</v>
       </c>
       <c r="G15" s="3">
-        <v>20100</v>
+        <v>18900</v>
       </c>
       <c r="H15" s="3">
-        <v>19800</v>
+        <v>18600</v>
       </c>
       <c r="I15" s="3">
-        <v>18900</v>
+        <v>17800</v>
       </c>
       <c r="J15" s="3">
-        <v>18200</v>
+        <v>17200</v>
       </c>
       <c r="K15" s="3">
         <v>19900</v>
@@ -1104,25 +1104,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>697900</v>
+        <v>657100</v>
       </c>
       <c r="E17" s="3">
-        <v>571300</v>
+        <v>538000</v>
       </c>
       <c r="F17" s="3">
-        <v>428100</v>
+        <v>403100</v>
       </c>
       <c r="G17" s="3">
-        <v>488900</v>
+        <v>460300</v>
       </c>
       <c r="H17" s="3">
-        <v>460100</v>
+        <v>433200</v>
       </c>
       <c r="I17" s="3">
-        <v>462400</v>
+        <v>435400</v>
       </c>
       <c r="J17" s="3">
-        <v>455400</v>
+        <v>428800</v>
       </c>
       <c r="K17" s="3">
         <v>472900</v>
@@ -1151,25 +1151,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-82400</v>
+        <v>-77600</v>
       </c>
       <c r="E18" s="3">
-        <v>102700</v>
+        <v>96700</v>
       </c>
       <c r="F18" s="3">
-        <v>111500</v>
+        <v>105000</v>
       </c>
       <c r="G18" s="3">
-        <v>75000</v>
+        <v>70700</v>
       </c>
       <c r="H18" s="3">
-        <v>80400</v>
+        <v>75700</v>
       </c>
       <c r="I18" s="3">
-        <v>70800</v>
+        <v>66700</v>
       </c>
       <c r="J18" s="3">
-        <v>66900</v>
+        <v>63000</v>
       </c>
       <c r="K18" s="3">
         <v>38300</v>
@@ -1217,25 +1217,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10500</v>
+        <v>9900</v>
       </c>
       <c r="E20" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="F20" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="G20" s="3">
-        <v>15700</v>
+        <v>14800</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="I20" s="3">
-        <v>13200</v>
+        <v>12500</v>
       </c>
       <c r="J20" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="K20" s="3">
         <v>18500</v>
@@ -1264,25 +1264,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-28600</v>
+        <v>-26900</v>
       </c>
       <c r="E21" s="3">
-        <v>158800</v>
+        <v>149500</v>
       </c>
       <c r="F21" s="3">
-        <v>166800</v>
+        <v>157100</v>
       </c>
       <c r="G21" s="3">
-        <v>134300</v>
+        <v>126500</v>
       </c>
       <c r="H21" s="3">
-        <v>129000</v>
+        <v>121500</v>
       </c>
       <c r="I21" s="3">
-        <v>126200</v>
+        <v>118800</v>
       </c>
       <c r="J21" s="3">
-        <v>114900</v>
+        <v>108200</v>
       </c>
       <c r="K21" s="3">
         <v>100100</v>
@@ -1311,25 +1311,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="G22" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="H22" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I22" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1358,25 +1358,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-74000</v>
+        <v>-69700</v>
       </c>
       <c r="E23" s="3">
-        <v>107600</v>
+        <v>101300</v>
       </c>
       <c r="F23" s="3">
-        <v>119300</v>
+        <v>112400</v>
       </c>
       <c r="G23" s="3">
-        <v>82100</v>
+        <v>77400</v>
       </c>
       <c r="H23" s="3">
-        <v>81500</v>
+        <v>76700</v>
       </c>
       <c r="I23" s="3">
-        <v>81200</v>
+        <v>76400</v>
       </c>
       <c r="J23" s="3">
-        <v>70300</v>
+        <v>66200</v>
       </c>
       <c r="K23" s="3">
         <v>54200</v>
@@ -1405,25 +1405,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J24" s="3">
         <v>5900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-45800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>26300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>6300</v>
       </c>
       <c r="K24" s="3">
         <v>5100</v>
@@ -1499,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-80000</v>
+        <v>-75300</v>
       </c>
       <c r="E26" s="3">
-        <v>153400</v>
+        <v>144400</v>
       </c>
       <c r="F26" s="3">
-        <v>93100</v>
+        <v>87600</v>
       </c>
       <c r="G26" s="3">
-        <v>61000</v>
+        <v>57400</v>
       </c>
       <c r="H26" s="3">
-        <v>68100</v>
+        <v>64100</v>
       </c>
       <c r="I26" s="3">
-        <v>70700</v>
+        <v>66600</v>
       </c>
       <c r="J26" s="3">
-        <v>64000</v>
+        <v>60300</v>
       </c>
       <c r="K26" s="3">
         <v>49100</v>
@@ -1546,25 +1546,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-80000</v>
+        <v>-75300</v>
       </c>
       <c r="E27" s="3">
-        <v>153400</v>
+        <v>144400</v>
       </c>
       <c r="F27" s="3">
-        <v>93100</v>
+        <v>87600</v>
       </c>
       <c r="G27" s="3">
-        <v>61000</v>
+        <v>57400</v>
       </c>
       <c r="H27" s="3">
-        <v>68100</v>
+        <v>64100</v>
       </c>
       <c r="I27" s="3">
-        <v>70700</v>
+        <v>66600</v>
       </c>
       <c r="J27" s="3">
-        <v>64000</v>
+        <v>60300</v>
       </c>
       <c r="K27" s="3">
         <v>49100</v>
@@ -1781,25 +1781,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10500</v>
+        <v>-9900</v>
       </c>
       <c r="E32" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="F32" s="3">
-        <v>-12000</v>
+        <v>-11300</v>
       </c>
       <c r="G32" s="3">
-        <v>-15700</v>
+        <v>-14800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="I32" s="3">
-        <v>-13200</v>
+        <v>-12500</v>
       </c>
       <c r="J32" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="K32" s="3">
         <v>-18500</v>
@@ -1828,25 +1828,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-80000</v>
+        <v>-75300</v>
       </c>
       <c r="E33" s="3">
-        <v>153400</v>
+        <v>144400</v>
       </c>
       <c r="F33" s="3">
-        <v>93100</v>
+        <v>87600</v>
       </c>
       <c r="G33" s="3">
-        <v>61000</v>
+        <v>57400</v>
       </c>
       <c r="H33" s="3">
-        <v>68100</v>
+        <v>64100</v>
       </c>
       <c r="I33" s="3">
-        <v>70700</v>
+        <v>66600</v>
       </c>
       <c r="J33" s="3">
-        <v>64000</v>
+        <v>60300</v>
       </c>
       <c r="K33" s="3">
         <v>43700</v>
@@ -1922,25 +1922,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-80000</v>
+        <v>-75300</v>
       </c>
       <c r="E35" s="3">
-        <v>153400</v>
+        <v>144400</v>
       </c>
       <c r="F35" s="3">
-        <v>93100</v>
+        <v>87600</v>
       </c>
       <c r="G35" s="3">
-        <v>61000</v>
+        <v>57400</v>
       </c>
       <c r="H35" s="3">
-        <v>68100</v>
+        <v>64100</v>
       </c>
       <c r="I35" s="3">
-        <v>70700</v>
+        <v>66600</v>
       </c>
       <c r="J35" s="3">
-        <v>64000</v>
+        <v>60300</v>
       </c>
       <c r="K35" s="3">
         <v>43700</v>
@@ -2059,25 +2059,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31500</v>
+        <v>29700</v>
       </c>
       <c r="E41" s="3">
-        <v>42300</v>
+        <v>39800</v>
       </c>
       <c r="F41" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>29500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J41" s="3">
         <v>29000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>31300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>24000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>53100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>30800</v>
       </c>
       <c r="K41" s="3">
         <v>38100</v>
@@ -2106,25 +2106,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>245800</v>
+        <v>231400</v>
       </c>
       <c r="E42" s="3">
-        <v>358600</v>
+        <v>337600</v>
       </c>
       <c r="F42" s="3">
-        <v>345800</v>
+        <v>325600</v>
       </c>
       <c r="G42" s="3">
-        <v>316300</v>
+        <v>297800</v>
       </c>
       <c r="H42" s="3">
-        <v>323800</v>
+        <v>304900</v>
       </c>
       <c r="I42" s="3">
-        <v>219100</v>
+        <v>206300</v>
       </c>
       <c r="J42" s="3">
-        <v>188300</v>
+        <v>177300</v>
       </c>
       <c r="K42" s="3">
         <v>265100</v>
@@ -2153,25 +2153,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>665400</v>
+        <v>626500</v>
       </c>
       <c r="E43" s="3">
-        <v>612800</v>
+        <v>577000</v>
       </c>
       <c r="F43" s="3">
-        <v>566700</v>
+        <v>533600</v>
       </c>
       <c r="G43" s="3">
-        <v>607500</v>
+        <v>572000</v>
       </c>
       <c r="H43" s="3">
-        <v>572200</v>
+        <v>538800</v>
       </c>
       <c r="I43" s="3">
-        <v>693900</v>
+        <v>653300</v>
       </c>
       <c r="J43" s="3">
-        <v>725600</v>
+        <v>683200</v>
       </c>
       <c r="K43" s="3">
         <v>587300</v>
@@ -2200,25 +2200,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>530000</v>
+        <v>499000</v>
       </c>
       <c r="E44" s="3">
-        <v>491900</v>
+        <v>463100</v>
       </c>
       <c r="F44" s="3">
-        <v>493300</v>
+        <v>464500</v>
       </c>
       <c r="G44" s="3">
-        <v>471400</v>
+        <v>443900</v>
       </c>
       <c r="H44" s="3">
-        <v>476100</v>
+        <v>448300</v>
       </c>
       <c r="I44" s="3">
-        <v>456200</v>
+        <v>429500</v>
       </c>
       <c r="J44" s="3">
-        <v>442200</v>
+        <v>416400</v>
       </c>
       <c r="K44" s="3">
         <v>420600</v>
@@ -2247,25 +2247,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>173600</v>
+        <v>163500</v>
       </c>
       <c r="E45" s="3">
-        <v>180400</v>
+        <v>169900</v>
       </c>
       <c r="F45" s="3">
-        <v>187700</v>
+        <v>176700</v>
       </c>
       <c r="G45" s="3">
-        <v>181100</v>
+        <v>170500</v>
       </c>
       <c r="H45" s="3">
-        <v>189100</v>
+        <v>178100</v>
       </c>
       <c r="I45" s="3">
-        <v>201000</v>
+        <v>189200</v>
       </c>
       <c r="J45" s="3">
-        <v>226200</v>
+        <v>213000</v>
       </c>
       <c r="K45" s="3">
         <v>274300</v>
@@ -2294,25 +2294,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1646200</v>
+        <v>1550100</v>
       </c>
       <c r="E46" s="3">
-        <v>1686000</v>
+        <v>1587500</v>
       </c>
       <c r="F46" s="3">
-        <v>1622500</v>
+        <v>1527700</v>
       </c>
       <c r="G46" s="3">
-        <v>1607600</v>
+        <v>1513700</v>
       </c>
       <c r="H46" s="3">
-        <v>1585300</v>
+        <v>1492700</v>
       </c>
       <c r="I46" s="3">
-        <v>1623200</v>
+        <v>1528400</v>
       </c>
       <c r="J46" s="3">
-        <v>1613200</v>
+        <v>1518900</v>
       </c>
       <c r="K46" s="3">
         <v>1585500</v>
@@ -2341,25 +2341,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69800</v>
+        <v>65700</v>
       </c>
       <c r="E47" s="3">
-        <v>79600</v>
+        <v>75000</v>
       </c>
       <c r="F47" s="3">
-        <v>57400</v>
+        <v>54100</v>
       </c>
       <c r="G47" s="3">
-        <v>48500</v>
+        <v>45700</v>
       </c>
       <c r="H47" s="3">
-        <v>45900</v>
+        <v>43200</v>
       </c>
       <c r="I47" s="3">
-        <v>55600</v>
+        <v>52400</v>
       </c>
       <c r="J47" s="3">
-        <v>53300</v>
+        <v>50200</v>
       </c>
       <c r="K47" s="3">
         <v>69700</v>
@@ -2388,25 +2388,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>740000</v>
+        <v>696800</v>
       </c>
       <c r="E48" s="3">
-        <v>744200</v>
+        <v>700800</v>
       </c>
       <c r="F48" s="3">
-        <v>759300</v>
+        <v>715000</v>
       </c>
       <c r="G48" s="3">
-        <v>759400</v>
+        <v>715000</v>
       </c>
       <c r="H48" s="3">
-        <v>777000</v>
+        <v>731600</v>
       </c>
       <c r="I48" s="3">
-        <v>795200</v>
+        <v>748800</v>
       </c>
       <c r="J48" s="3">
-        <v>800600</v>
+        <v>753800</v>
       </c>
       <c r="K48" s="3">
         <v>836800</v>
@@ -2435,25 +2435,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>433100</v>
+        <v>407800</v>
       </c>
       <c r="E49" s="3">
-        <v>622500</v>
+        <v>586200</v>
       </c>
       <c r="F49" s="3">
-        <v>671400</v>
+        <v>632200</v>
       </c>
       <c r="G49" s="3">
-        <v>677700</v>
+        <v>638100</v>
       </c>
       <c r="H49" s="3">
-        <v>690800</v>
+        <v>650500</v>
       </c>
       <c r="I49" s="3">
-        <v>720100</v>
+        <v>678100</v>
       </c>
       <c r="J49" s="3">
-        <v>692000</v>
+        <v>651600</v>
       </c>
       <c r="K49" s="3">
         <v>702900</v>
@@ -2576,25 +2576,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>170100</v>
+        <v>160200</v>
       </c>
       <c r="E52" s="3">
-        <v>151000</v>
+        <v>142200</v>
       </c>
       <c r="F52" s="3">
+        <v>73100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>67600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>78600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>89000</v>
+      </c>
+      <c r="J52" s="3">
         <v>77700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>71800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>83500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>94500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>82600</v>
       </c>
       <c r="K52" s="3">
         <v>67400</v>
@@ -2670,25 +2670,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3059300</v>
+        <v>2880600</v>
       </c>
       <c r="E54" s="3">
-        <v>3283400</v>
+        <v>3091600</v>
       </c>
       <c r="F54" s="3">
-        <v>3188300</v>
+        <v>3002100</v>
       </c>
       <c r="G54" s="3">
-        <v>3165000</v>
+        <v>2980100</v>
       </c>
       <c r="H54" s="3">
-        <v>3182500</v>
+        <v>2996600</v>
       </c>
       <c r="I54" s="3">
-        <v>3288600</v>
+        <v>3096600</v>
       </c>
       <c r="J54" s="3">
-        <v>3241600</v>
+        <v>3052200</v>
       </c>
       <c r="K54" s="3">
         <v>3262200</v>
@@ -2755,25 +2755,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>250100</v>
+        <v>235400</v>
       </c>
       <c r="E57" s="3">
-        <v>216700</v>
+        <v>204000</v>
       </c>
       <c r="F57" s="3">
-        <v>208400</v>
+        <v>196200</v>
       </c>
       <c r="G57" s="3">
-        <v>204300</v>
+        <v>192400</v>
       </c>
       <c r="H57" s="3">
-        <v>223800</v>
+        <v>210700</v>
       </c>
       <c r="I57" s="3">
-        <v>197600</v>
+        <v>186000</v>
       </c>
       <c r="J57" s="3">
-        <v>208000</v>
+        <v>195900</v>
       </c>
       <c r="K57" s="3">
         <v>232100</v>
@@ -2802,25 +2802,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>211600</v>
+        <v>199300</v>
       </c>
       <c r="E58" s="3">
-        <v>228300</v>
+        <v>215000</v>
       </c>
       <c r="F58" s="3">
-        <v>249000</v>
+        <v>234400</v>
       </c>
       <c r="G58" s="3">
-        <v>230000</v>
+        <v>216600</v>
       </c>
       <c r="H58" s="3">
-        <v>268700</v>
+        <v>253000</v>
       </c>
       <c r="I58" s="3">
-        <v>392100</v>
+        <v>369200</v>
       </c>
       <c r="J58" s="3">
-        <v>395600</v>
+        <v>372500</v>
       </c>
       <c r="K58" s="3">
         <v>370500</v>
@@ -2849,25 +2849,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>446600</v>
+        <v>420500</v>
       </c>
       <c r="E59" s="3">
-        <v>413900</v>
+        <v>389700</v>
       </c>
       <c r="F59" s="3">
-        <v>398800</v>
+        <v>375500</v>
       </c>
       <c r="G59" s="3">
-        <v>403900</v>
+        <v>380300</v>
       </c>
       <c r="H59" s="3">
-        <v>385900</v>
+        <v>363400</v>
       </c>
       <c r="I59" s="3">
-        <v>411500</v>
+        <v>387500</v>
       </c>
       <c r="J59" s="3">
-        <v>382900</v>
+        <v>360500</v>
       </c>
       <c r="K59" s="3">
         <v>405100</v>
@@ -2896,25 +2896,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>908300</v>
+        <v>855300</v>
       </c>
       <c r="E60" s="3">
-        <v>858900</v>
+        <v>808700</v>
       </c>
       <c r="F60" s="3">
-        <v>856200</v>
+        <v>806200</v>
       </c>
       <c r="G60" s="3">
-        <v>838200</v>
+        <v>789200</v>
       </c>
       <c r="H60" s="3">
-        <v>878300</v>
+        <v>827000</v>
       </c>
       <c r="I60" s="3">
-        <v>1001100</v>
+        <v>942700</v>
       </c>
       <c r="J60" s="3">
-        <v>986500</v>
+        <v>928900</v>
       </c>
       <c r="K60" s="3">
         <v>1007700</v>
@@ -2943,25 +2943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="E61" s="3">
-        <v>214600</v>
+        <v>202100</v>
       </c>
       <c r="F61" s="3">
-        <v>233900</v>
+        <v>220200</v>
       </c>
       <c r="G61" s="3">
-        <v>308900</v>
+        <v>290800</v>
       </c>
       <c r="H61" s="3">
-        <v>346800</v>
+        <v>326500</v>
       </c>
       <c r="I61" s="3">
-        <v>387500</v>
+        <v>364800</v>
       </c>
       <c r="J61" s="3">
-        <v>366400</v>
+        <v>345000</v>
       </c>
       <c r="K61" s="3">
         <v>362800</v>
@@ -2990,25 +2990,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46100</v>
+        <v>43400</v>
       </c>
       <c r="E62" s="3">
-        <v>50300</v>
+        <v>47400</v>
       </c>
       <c r="F62" s="3">
-        <v>45600</v>
+        <v>42900</v>
       </c>
       <c r="G62" s="3">
-        <v>49600</v>
+        <v>46700</v>
       </c>
       <c r="H62" s="3">
-        <v>52000</v>
+        <v>49000</v>
       </c>
       <c r="I62" s="3">
-        <v>54500</v>
+        <v>51400</v>
       </c>
       <c r="J62" s="3">
-        <v>57400</v>
+        <v>54100</v>
       </c>
       <c r="K62" s="3">
         <v>63100</v>
@@ -3178,25 +3178,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>971900</v>
+        <v>915200</v>
       </c>
       <c r="E66" s="3">
-        <v>1123800</v>
+        <v>1058200</v>
       </c>
       <c r="F66" s="3">
-        <v>1135600</v>
+        <v>1069300</v>
       </c>
       <c r="G66" s="3">
-        <v>1196600</v>
+        <v>1126700</v>
       </c>
       <c r="H66" s="3">
-        <v>1277200</v>
+        <v>1202600</v>
       </c>
       <c r="I66" s="3">
-        <v>1443100</v>
+        <v>1358900</v>
       </c>
       <c r="J66" s="3">
-        <v>1410300</v>
+        <v>1327900</v>
       </c>
       <c r="K66" s="3">
         <v>1433600</v>
@@ -3432,25 +3432,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1936300</v>
+        <v>1823200</v>
       </c>
       <c r="E72" s="3">
-        <v>2015100</v>
+        <v>1897500</v>
       </c>
       <c r="F72" s="3">
-        <v>1915900</v>
+        <v>1804000</v>
       </c>
       <c r="G72" s="3">
-        <v>1822500</v>
+        <v>1716100</v>
       </c>
       <c r="H72" s="3">
-        <v>1760100</v>
+        <v>1657300</v>
       </c>
       <c r="I72" s="3">
-        <v>1691000</v>
+        <v>1592200</v>
       </c>
       <c r="J72" s="3">
-        <v>1678200</v>
+        <v>1580100</v>
       </c>
       <c r="K72" s="3">
         <v>1663800</v>
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2087400</v>
+        <v>1965400</v>
       </c>
       <c r="E76" s="3">
-        <v>2159600</v>
+        <v>2033400</v>
       </c>
       <c r="F76" s="3">
-        <v>2052800</v>
+        <v>1932900</v>
       </c>
       <c r="G76" s="3">
-        <v>1968400</v>
+        <v>1853400</v>
       </c>
       <c r="H76" s="3">
-        <v>1905300</v>
+        <v>1794100</v>
       </c>
       <c r="I76" s="3">
-        <v>1845500</v>
+        <v>1737700</v>
       </c>
       <c r="J76" s="3">
-        <v>1831200</v>
+        <v>1724300</v>
       </c>
       <c r="K76" s="3">
         <v>1828600</v>
@@ -3766,25 +3766,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-80000</v>
+        <v>-75300</v>
       </c>
       <c r="E81" s="3">
-        <v>153400</v>
+        <v>144400</v>
       </c>
       <c r="F81" s="3">
-        <v>93100</v>
+        <v>87600</v>
       </c>
       <c r="G81" s="3">
-        <v>61000</v>
+        <v>57400</v>
       </c>
       <c r="H81" s="3">
-        <v>68100</v>
+        <v>64100</v>
       </c>
       <c r="I81" s="3">
-        <v>70700</v>
+        <v>66600</v>
       </c>
       <c r="J81" s="3">
-        <v>64000</v>
+        <v>60300</v>
       </c>
       <c r="K81" s="3">
         <v>43700</v>
@@ -3832,25 +3832,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43300</v>
+        <v>40800</v>
       </c>
       <c r="E83" s="3">
-        <v>46900</v>
+        <v>44100</v>
       </c>
       <c r="F83" s="3">
-        <v>43300</v>
+        <v>40800</v>
       </c>
       <c r="G83" s="3">
-        <v>43500</v>
+        <v>41000</v>
       </c>
       <c r="H83" s="3">
-        <v>43600</v>
+        <v>41100</v>
       </c>
       <c r="I83" s="3">
-        <v>42100</v>
+        <v>39600</v>
       </c>
       <c r="J83" s="3">
-        <v>41900</v>
+        <v>39400</v>
       </c>
       <c r="K83" s="3">
         <v>43400</v>
@@ -4114,25 +4114,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>103300</v>
+        <v>97200</v>
       </c>
       <c r="E89" s="3">
-        <v>141900</v>
+        <v>133600</v>
       </c>
       <c r="F89" s="3">
-        <v>138100</v>
+        <v>130000</v>
       </c>
       <c r="G89" s="3">
-        <v>94200</v>
+        <v>88700</v>
       </c>
       <c r="H89" s="3">
-        <v>228700</v>
+        <v>215300</v>
       </c>
       <c r="I89" s="3">
-        <v>150600</v>
+        <v>141800</v>
       </c>
       <c r="J89" s="3">
-        <v>-70500</v>
+        <v>-66400</v>
       </c>
       <c r="K89" s="3">
         <v>83600</v>
@@ -4180,25 +4180,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17000</v>
+        <v>-16000</v>
       </c>
       <c r="E91" s="3">
-        <v>-15100</v>
+        <v>-14300</v>
       </c>
       <c r="F91" s="3">
-        <v>-14900</v>
+        <v>-14000</v>
       </c>
       <c r="G91" s="3">
-        <v>-24700</v>
+        <v>-23300</v>
       </c>
       <c r="H91" s="3">
-        <v>-21500</v>
+        <v>-20200</v>
       </c>
       <c r="I91" s="3">
-        <v>-19100</v>
+        <v>-18000</v>
       </c>
       <c r="J91" s="3">
-        <v>-32400</v>
+        <v>-30500</v>
       </c>
       <c r="K91" s="3">
         <v>-21800</v>
@@ -4321,25 +4321,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>114300</v>
+        <v>107600</v>
       </c>
       <c r="E94" s="3">
-        <v>-16900</v>
+        <v>-15900</v>
       </c>
       <c r="F94" s="3">
-        <v>-51800</v>
+        <v>-48800</v>
       </c>
       <c r="G94" s="3">
-        <v>-8000</v>
+        <v>-7600</v>
       </c>
       <c r="H94" s="3">
-        <v>-108000</v>
+        <v>-101700</v>
       </c>
       <c r="I94" s="3">
-        <v>-41100</v>
+        <v>-38700</v>
       </c>
       <c r="J94" s="3">
-        <v>48600</v>
+        <v>45800</v>
       </c>
       <c r="K94" s="3">
         <v>11500</v>
@@ -4575,25 +4575,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-228900</v>
+        <v>-215500</v>
       </c>
       <c r="E100" s="3">
-        <v>-112000</v>
+        <v>-105500</v>
       </c>
       <c r="F100" s="3">
-        <v>-88600</v>
+        <v>-83500</v>
       </c>
       <c r="G100" s="3">
-        <v>-78800</v>
+        <v>-74200</v>
       </c>
       <c r="H100" s="3">
-        <v>-148400</v>
+        <v>-139800</v>
       </c>
       <c r="I100" s="3">
-        <v>-89000</v>
+        <v>-83800</v>
       </c>
       <c r="J100" s="3">
-        <v>16800</v>
+        <v>15800</v>
       </c>
       <c r="K100" s="3">
         <v>-87300</v>
@@ -4625,7 +4625,7 @@
         <v>600</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -4637,7 +4637,7 @@
         <v>-1300</v>
       </c>
       <c r="I101" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
@@ -4669,25 +4669,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10700</v>
+        <v>-10100</v>
       </c>
       <c r="E102" s="3">
-        <v>13200</v>
+        <v>12500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G102" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H102" s="3">
-        <v>-29100</v>
+        <v>-27400</v>
       </c>
       <c r="I102" s="3">
-        <v>22500</v>
+        <v>21200</v>
       </c>
       <c r="J102" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="K102" s="3">
         <v>8900</v>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>RDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>579500</v>
+        <v>595000</v>
       </c>
       <c r="E8" s="3">
-        <v>634700</v>
+        <v>597000</v>
       </c>
       <c r="F8" s="3">
-        <v>508100</v>
+        <v>590500</v>
       </c>
       <c r="G8" s="3">
-        <v>531000</v>
+        <v>646700</v>
       </c>
       <c r="H8" s="3">
-        <v>509000</v>
+        <v>517700</v>
       </c>
       <c r="I8" s="3">
+        <v>541000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>518600</v>
+      </c>
+      <c r="K8" s="3">
         <v>502100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>491900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>511100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>550300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>512800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>479500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>489800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>510800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>265900</v>
+        <v>261600</v>
       </c>
       <c r="E9" s="3">
-        <v>269500</v>
+        <v>289700</v>
       </c>
       <c r="F9" s="3">
-        <v>245600</v>
+        <v>271000</v>
       </c>
       <c r="G9" s="3">
-        <v>252700</v>
+        <v>274600</v>
       </c>
       <c r="H9" s="3">
-        <v>234600</v>
+        <v>250200</v>
       </c>
       <c r="I9" s="3">
+        <v>257500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>239100</v>
+      </c>
+      <c r="K9" s="3">
         <v>225800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>217900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>237900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>240700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>239400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>232300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>239200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>209000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>313600</v>
+        <v>333400</v>
       </c>
       <c r="E10" s="3">
-        <v>365100</v>
+        <v>307200</v>
       </c>
       <c r="F10" s="3">
-        <v>262500</v>
+        <v>319500</v>
       </c>
       <c r="G10" s="3">
-        <v>278300</v>
+        <v>372000</v>
       </c>
       <c r="H10" s="3">
-        <v>274300</v>
+        <v>267500</v>
       </c>
       <c r="I10" s="3">
+        <v>283600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>279500</v>
+      </c>
+      <c r="K10" s="3">
         <v>276300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>274000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>273200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>309600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>273300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>247200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>250500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>301800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>48600</v>
+        <v>50000</v>
       </c>
       <c r="E12" s="3">
-        <v>44900</v>
+        <v>52600</v>
       </c>
       <c r="F12" s="3">
-        <v>44200</v>
+        <v>49500</v>
       </c>
       <c r="G12" s="3">
-        <v>43600</v>
+        <v>45800</v>
       </c>
       <c r="H12" s="3">
         <v>45000</v>
       </c>
       <c r="I12" s="3">
+        <v>44500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K12" s="3">
         <v>50600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>50400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>58400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>63000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>55800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>69100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>59000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>64000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,37 +1022,43 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>174500</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>177800</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>11</v>
+      <c r="I14" s="3">
+        <v>1100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1035,55 +1075,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>19500</v>
+        <v>21600</v>
       </c>
       <c r="E15" s="3">
-        <v>21200</v>
+        <v>19400</v>
       </c>
       <c r="F15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>17800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N15" s="3">
         <v>18700</v>
       </c>
-      <c r="G15" s="3">
-        <v>18900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>17800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>17200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>19900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>18700</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>18300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>17100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>17000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>18300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>657100</v>
+        <v>485800</v>
       </c>
       <c r="E17" s="3">
-        <v>538000</v>
+        <v>508000</v>
       </c>
       <c r="F17" s="3">
-        <v>403100</v>
+        <v>669600</v>
       </c>
       <c r="G17" s="3">
-        <v>460300</v>
+        <v>548100</v>
       </c>
       <c r="H17" s="3">
-        <v>433200</v>
+        <v>410700</v>
       </c>
       <c r="I17" s="3">
+        <v>469000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K17" s="3">
         <v>435400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>428800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>472900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>477900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>457700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>472900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>446600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>431000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-77600</v>
+        <v>109200</v>
       </c>
       <c r="E18" s="3">
-        <v>96700</v>
+        <v>88900</v>
       </c>
       <c r="F18" s="3">
-        <v>105000</v>
+        <v>-79100</v>
       </c>
       <c r="G18" s="3">
-        <v>70700</v>
+        <v>98500</v>
       </c>
       <c r="H18" s="3">
-        <v>75700</v>
+        <v>107000</v>
       </c>
       <c r="I18" s="3">
+        <v>72000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K18" s="3">
         <v>66700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>38300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>72400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>55100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>43200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>79800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1277,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9900</v>
+        <v>12300</v>
       </c>
       <c r="E20" s="3">
-        <v>8600</v>
+        <v>10400</v>
       </c>
       <c r="F20" s="3">
-        <v>11300</v>
+        <v>10100</v>
       </c>
       <c r="G20" s="3">
-        <v>14800</v>
+        <v>8800</v>
       </c>
       <c r="H20" s="3">
-        <v>4600</v>
+        <v>11500</v>
       </c>
       <c r="I20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K20" s="3">
         <v>12500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>18500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-26900</v>
+        <v>163800</v>
       </c>
       <c r="E21" s="3">
-        <v>149500</v>
+        <v>139200</v>
       </c>
       <c r="F21" s="3">
-        <v>157100</v>
+        <v>-27400</v>
       </c>
       <c r="G21" s="3">
-        <v>126500</v>
+        <v>152300</v>
       </c>
       <c r="H21" s="3">
-        <v>121500</v>
+        <v>160000</v>
       </c>
       <c r="I21" s="3">
+        <v>128900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K21" s="3">
         <v>118800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>108200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>100100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>131400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>101800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>54700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>86000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>123700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3600</v>
-      </c>
       <c r="I22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69700</v>
+        <v>118400</v>
       </c>
       <c r="E23" s="3">
-        <v>101300</v>
+        <v>96200</v>
       </c>
       <c r="F23" s="3">
-        <v>112400</v>
+        <v>-71000</v>
       </c>
       <c r="G23" s="3">
-        <v>77400</v>
+        <v>103200</v>
       </c>
       <c r="H23" s="3">
-        <v>76700</v>
+        <v>114500</v>
       </c>
       <c r="I23" s="3">
+        <v>78800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K23" s="3">
         <v>76400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>66200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>54200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>86000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>56000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>11200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>43900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>81600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5600</v>
+        <v>40400</v>
       </c>
       <c r="E24" s="3">
-        <v>-43100</v>
+        <v>-6700</v>
       </c>
       <c r="F24" s="3">
-        <v>24700</v>
+        <v>5700</v>
       </c>
       <c r="G24" s="3">
-        <v>19900</v>
+        <v>-43900</v>
       </c>
       <c r="H24" s="3">
-        <v>12600</v>
+        <v>25200</v>
       </c>
       <c r="I24" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K24" s="3">
         <v>9800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>24200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>16800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-75300</v>
+        <v>78000</v>
       </c>
       <c r="E26" s="3">
-        <v>144400</v>
+        <v>102900</v>
       </c>
       <c r="F26" s="3">
-        <v>87600</v>
+        <v>-76700</v>
       </c>
       <c r="G26" s="3">
-        <v>57400</v>
+        <v>147200</v>
       </c>
       <c r="H26" s="3">
-        <v>64100</v>
+        <v>89300</v>
       </c>
       <c r="I26" s="3">
+        <v>58500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K26" s="3">
         <v>66600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>60300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>49100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>61800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>41200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>43100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>64800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-75300</v>
+        <v>78000</v>
       </c>
       <c r="E27" s="3">
-        <v>144400</v>
+        <v>102900</v>
       </c>
       <c r="F27" s="3">
-        <v>87600</v>
+        <v>-76700</v>
       </c>
       <c r="G27" s="3">
-        <v>57400</v>
+        <v>147200</v>
       </c>
       <c r="H27" s="3">
-        <v>64100</v>
+        <v>89300</v>
       </c>
       <c r="I27" s="3">
+        <v>58500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K27" s="3">
         <v>66600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>60300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>49100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>61800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>41200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>43100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>64800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1660,17 +1782,17 @@
       <c r="J29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3">
         <v>-5400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>11</v>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9900</v>
+        <v>-12300</v>
       </c>
       <c r="E32" s="3">
-        <v>-8600</v>
+        <v>-10400</v>
       </c>
       <c r="F32" s="3">
-        <v>-11300</v>
+        <v>-10100</v>
       </c>
       <c r="G32" s="3">
-        <v>-14800</v>
+        <v>-8800</v>
       </c>
       <c r="H32" s="3">
-        <v>-4600</v>
+        <v>-11500</v>
       </c>
       <c r="I32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-18500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-75300</v>
+        <v>78000</v>
       </c>
       <c r="E33" s="3">
-        <v>144400</v>
+        <v>102900</v>
       </c>
       <c r="F33" s="3">
-        <v>87600</v>
+        <v>-76700</v>
       </c>
       <c r="G33" s="3">
-        <v>57400</v>
+        <v>147200</v>
       </c>
       <c r="H33" s="3">
-        <v>64100</v>
+        <v>89300</v>
       </c>
       <c r="I33" s="3">
+        <v>58500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K33" s="3">
         <v>66600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>60300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>43700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>48400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>41200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>43100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>64800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-75300</v>
+        <v>78000</v>
       </c>
       <c r="E35" s="3">
-        <v>144400</v>
+        <v>102900</v>
       </c>
       <c r="F35" s="3">
-        <v>87600</v>
+        <v>-76700</v>
       </c>
       <c r="G35" s="3">
-        <v>57400</v>
+        <v>147200</v>
       </c>
       <c r="H35" s="3">
-        <v>64100</v>
+        <v>89300</v>
       </c>
       <c r="I35" s="3">
+        <v>58500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K35" s="3">
         <v>66600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>60300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>43700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>48400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>41200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>43100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>64800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2225,487 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29700</v>
+        <v>59300</v>
       </c>
       <c r="E41" s="3">
-        <v>39800</v>
+        <v>27700</v>
       </c>
       <c r="F41" s="3">
-        <v>27300</v>
+        <v>30200</v>
       </c>
       <c r="G41" s="3">
-        <v>29500</v>
+        <v>40600</v>
       </c>
       <c r="H41" s="3">
-        <v>22600</v>
+        <v>27800</v>
       </c>
       <c r="I41" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K41" s="3">
         <v>50000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>29000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>38100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>29100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>35600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>40800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>53300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>83100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>231400</v>
+        <v>313700</v>
       </c>
       <c r="E42" s="3">
-        <v>337600</v>
+        <v>319100</v>
       </c>
       <c r="F42" s="3">
-        <v>325600</v>
+        <v>235800</v>
       </c>
       <c r="G42" s="3">
-        <v>297800</v>
+        <v>344000</v>
       </c>
       <c r="H42" s="3">
-        <v>304900</v>
+        <v>331700</v>
       </c>
       <c r="I42" s="3">
+        <v>303500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>310600</v>
+      </c>
+      <c r="K42" s="3">
         <v>206300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>177300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>265100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>288400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>207300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>169900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>196600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>194500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>626500</v>
+        <v>661000</v>
       </c>
       <c r="E43" s="3">
-        <v>577000</v>
+        <v>736200</v>
       </c>
       <c r="F43" s="3">
-        <v>533600</v>
+        <v>638400</v>
       </c>
       <c r="G43" s="3">
-        <v>572000</v>
+        <v>588000</v>
       </c>
       <c r="H43" s="3">
-        <v>538800</v>
+        <v>543700</v>
       </c>
       <c r="I43" s="3">
+        <v>582800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>549000</v>
+      </c>
+      <c r="K43" s="3">
         <v>653300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>683200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>587300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>613600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>610300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>594900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>524500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>566600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>499000</v>
+        <v>527300</v>
       </c>
       <c r="E44" s="3">
-        <v>463100</v>
+        <v>472300</v>
       </c>
       <c r="F44" s="3">
-        <v>464500</v>
+        <v>508400</v>
       </c>
       <c r="G44" s="3">
-        <v>443900</v>
+        <v>471900</v>
       </c>
       <c r="H44" s="3">
-        <v>448300</v>
+        <v>473300</v>
       </c>
       <c r="I44" s="3">
+        <v>452300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>456800</v>
+      </c>
+      <c r="K44" s="3">
         <v>429500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>416400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>420600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>387900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>390400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>406300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>393100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>414100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>163500</v>
+        <v>229400</v>
       </c>
       <c r="E45" s="3">
-        <v>169900</v>
+        <v>200800</v>
       </c>
       <c r="F45" s="3">
-        <v>176700</v>
+        <v>166600</v>
       </c>
       <c r="G45" s="3">
-        <v>170500</v>
+        <v>173100</v>
       </c>
       <c r="H45" s="3">
-        <v>178100</v>
+        <v>180100</v>
       </c>
       <c r="I45" s="3">
+        <v>173700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>181400</v>
+      </c>
+      <c r="K45" s="3">
         <v>189200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>213000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>274300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>264300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>246000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>234200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>215600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>193600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1550100</v>
+        <v>1790700</v>
       </c>
       <c r="E46" s="3">
-        <v>1587500</v>
+        <v>1756100</v>
       </c>
       <c r="F46" s="3">
-        <v>1527700</v>
+        <v>1579400</v>
       </c>
       <c r="G46" s="3">
-        <v>1513700</v>
+        <v>1617500</v>
       </c>
       <c r="H46" s="3">
-        <v>1492700</v>
+        <v>1556600</v>
       </c>
       <c r="I46" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1520900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1528400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1518900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1585500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1583200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1489500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1446100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1383200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1451900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65700</v>
+        <v>69200</v>
       </c>
       <c r="E47" s="3">
-        <v>75000</v>
+        <v>65000</v>
       </c>
       <c r="F47" s="3">
-        <v>54100</v>
+        <v>67000</v>
       </c>
       <c r="G47" s="3">
-        <v>45700</v>
+        <v>76400</v>
       </c>
       <c r="H47" s="3">
-        <v>43200</v>
+        <v>55100</v>
       </c>
       <c r="I47" s="3">
+        <v>46500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44000</v>
+      </c>
+      <c r="K47" s="3">
         <v>52400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>50200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>69700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>74800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>73000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>80600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>97100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>101800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>696800</v>
+        <v>729800</v>
       </c>
       <c r="E48" s="3">
-        <v>700800</v>
+        <v>704900</v>
       </c>
       <c r="F48" s="3">
-        <v>715000</v>
+        <v>710000</v>
       </c>
       <c r="G48" s="3">
-        <v>715000</v>
+        <v>714000</v>
       </c>
       <c r="H48" s="3">
-        <v>731600</v>
+        <v>728500</v>
       </c>
       <c r="I48" s="3">
+        <v>728600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>745500</v>
+      </c>
+      <c r="K48" s="3">
         <v>748800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>753800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>836800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>841400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>837300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>833100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>787700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>788300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>407800</v>
+        <v>619500</v>
       </c>
       <c r="E49" s="3">
-        <v>586200</v>
+        <v>426400</v>
       </c>
       <c r="F49" s="3">
-        <v>632200</v>
+        <v>415500</v>
       </c>
       <c r="G49" s="3">
-        <v>638100</v>
+        <v>597300</v>
       </c>
       <c r="H49" s="3">
-        <v>650500</v>
+        <v>644100</v>
       </c>
       <c r="I49" s="3">
+        <v>650200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>662800</v>
+      </c>
+      <c r="K49" s="3">
         <v>678100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>651600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>702900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>696700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>717700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>702200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>670800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>688700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>160200</v>
+        <v>175100</v>
       </c>
       <c r="E52" s="3">
-        <v>142200</v>
+        <v>175900</v>
       </c>
       <c r="F52" s="3">
-        <v>73100</v>
+        <v>163200</v>
       </c>
       <c r="G52" s="3">
-        <v>67600</v>
+        <v>144900</v>
       </c>
       <c r="H52" s="3">
-        <v>78600</v>
+        <v>74500</v>
       </c>
       <c r="I52" s="3">
+        <v>68900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K52" s="3">
         <v>89000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>77700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>67400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>71100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>92900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>95900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>90400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>99900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2880600</v>
+        <v>3384200</v>
       </c>
       <c r="E54" s="3">
-        <v>3091600</v>
+        <v>3128300</v>
       </c>
       <c r="F54" s="3">
-        <v>3002100</v>
+        <v>2935100</v>
       </c>
       <c r="G54" s="3">
-        <v>2980100</v>
+        <v>3150100</v>
       </c>
       <c r="H54" s="3">
-        <v>2996600</v>
+        <v>3058900</v>
       </c>
       <c r="I54" s="3">
+        <v>3036500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3053300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3096600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3052200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3262200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3267300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3210400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3157900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3029100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3130700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>235400</v>
+        <v>256400</v>
       </c>
       <c r="E57" s="3">
-        <v>204000</v>
+        <v>224400</v>
       </c>
       <c r="F57" s="3">
-        <v>196200</v>
+        <v>239900</v>
       </c>
       <c r="G57" s="3">
-        <v>192400</v>
+        <v>207900</v>
       </c>
       <c r="H57" s="3">
-        <v>210700</v>
+        <v>199900</v>
       </c>
       <c r="I57" s="3">
+        <v>196000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K57" s="3">
         <v>186000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>195900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>232100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>210800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>205200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>191200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>184900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>183400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>199300</v>
+        <v>334000</v>
       </c>
       <c r="E58" s="3">
-        <v>215000</v>
+        <v>280100</v>
       </c>
       <c r="F58" s="3">
-        <v>234400</v>
+        <v>203000</v>
       </c>
       <c r="G58" s="3">
-        <v>216600</v>
+        <v>219000</v>
       </c>
       <c r="H58" s="3">
-        <v>253000</v>
+        <v>238900</v>
       </c>
       <c r="I58" s="3">
+        <v>220700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>257800</v>
+      </c>
+      <c r="K58" s="3">
         <v>369200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>372500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>370500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>440300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>415200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>374500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>602700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>720400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>420500</v>
+        <v>485600</v>
       </c>
       <c r="E59" s="3">
-        <v>389700</v>
+        <v>476300</v>
       </c>
       <c r="F59" s="3">
-        <v>375500</v>
+        <v>428500</v>
       </c>
       <c r="G59" s="3">
-        <v>380300</v>
+        <v>397100</v>
       </c>
       <c r="H59" s="3">
-        <v>363400</v>
+        <v>382600</v>
       </c>
       <c r="I59" s="3">
         <v>387500</v>
       </c>
       <c r="J59" s="3">
+        <v>370200</v>
+      </c>
+      <c r="K59" s="3">
+        <v>387500</v>
+      </c>
+      <c r="L59" s="3">
         <v>360500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>405100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>407400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>396700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>381600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>383700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>409100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>855300</v>
+        <v>1076000</v>
       </c>
       <c r="E60" s="3">
-        <v>808700</v>
+        <v>980800</v>
       </c>
       <c r="F60" s="3">
-        <v>806200</v>
+        <v>871400</v>
       </c>
       <c r="G60" s="3">
-        <v>789200</v>
+        <v>824000</v>
       </c>
       <c r="H60" s="3">
-        <v>827000</v>
+        <v>821400</v>
       </c>
       <c r="I60" s="3">
+        <v>804200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>842700</v>
+      </c>
+      <c r="K60" s="3">
         <v>942700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>928900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1007700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1058400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1017100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>947400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1171300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1313000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16500</v>
+        <v>91400</v>
       </c>
       <c r="E61" s="3">
-        <v>202100</v>
+        <v>17600</v>
       </c>
       <c r="F61" s="3">
-        <v>220200</v>
+        <v>16800</v>
       </c>
       <c r="G61" s="3">
-        <v>290800</v>
+        <v>205900</v>
       </c>
       <c r="H61" s="3">
-        <v>326500</v>
+        <v>224400</v>
       </c>
       <c r="I61" s="3">
+        <v>296300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>332700</v>
+      </c>
+      <c r="K61" s="3">
         <v>364800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>345000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>362800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>353700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>360800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>355100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>75100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>78800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43400</v>
+        <v>38000</v>
       </c>
       <c r="E62" s="3">
-        <v>47400</v>
+        <v>42200</v>
       </c>
       <c r="F62" s="3">
-        <v>42900</v>
+        <v>44300</v>
       </c>
       <c r="G62" s="3">
-        <v>46700</v>
+        <v>48300</v>
       </c>
       <c r="H62" s="3">
-        <v>49000</v>
+        <v>43700</v>
       </c>
       <c r="I62" s="3">
+        <v>47500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K62" s="3">
         <v>51400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>54100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>63100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>66700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>70700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>70600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>73400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>71000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>915200</v>
+        <v>1205500</v>
       </c>
       <c r="E66" s="3">
-        <v>1058200</v>
+        <v>1040600</v>
       </c>
       <c r="F66" s="3">
-        <v>1069300</v>
+        <v>932500</v>
       </c>
       <c r="G66" s="3">
-        <v>1126700</v>
+        <v>1078200</v>
       </c>
       <c r="H66" s="3">
-        <v>1202600</v>
+        <v>1089500</v>
       </c>
       <c r="I66" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1225300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1358900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1327900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1433600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1478800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1448600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1373200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1319800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1462700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1823200</v>
+        <v>2039800</v>
       </c>
       <c r="E72" s="3">
-        <v>1897500</v>
+        <v>1961900</v>
       </c>
       <c r="F72" s="3">
-        <v>1804000</v>
+        <v>1857700</v>
       </c>
       <c r="G72" s="3">
-        <v>1716100</v>
+        <v>1933300</v>
       </c>
       <c r="H72" s="3">
-        <v>1657300</v>
+        <v>1838200</v>
       </c>
       <c r="I72" s="3">
+        <v>1748500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1688700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1592200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1580100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1663800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1618700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1569400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1587400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1505100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1461100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1965400</v>
+        <v>2178700</v>
       </c>
       <c r="E76" s="3">
-        <v>2033400</v>
+        <v>2087700</v>
       </c>
       <c r="F76" s="3">
-        <v>1932900</v>
+        <v>2002600</v>
       </c>
       <c r="G76" s="3">
-        <v>1853400</v>
+        <v>2071900</v>
       </c>
       <c r="H76" s="3">
-        <v>1794100</v>
+        <v>1969400</v>
       </c>
       <c r="I76" s="3">
+        <v>1888500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1737700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1724300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1828600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1788500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1761800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1784700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1709300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1667900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-75300</v>
+        <v>78000</v>
       </c>
       <c r="E81" s="3">
-        <v>144400</v>
+        <v>102900</v>
       </c>
       <c r="F81" s="3">
-        <v>87600</v>
+        <v>-76700</v>
       </c>
       <c r="G81" s="3">
-        <v>57400</v>
+        <v>147200</v>
       </c>
       <c r="H81" s="3">
-        <v>64100</v>
+        <v>89300</v>
       </c>
       <c r="I81" s="3">
+        <v>58500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K81" s="3">
         <v>66600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>60300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>43700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>48400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>41200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>43100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>64800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40800</v>
+        <v>42300</v>
       </c>
       <c r="E83" s="3">
-        <v>44100</v>
+        <v>39900</v>
       </c>
       <c r="F83" s="3">
-        <v>40800</v>
+        <v>41600</v>
       </c>
       <c r="G83" s="3">
-        <v>41000</v>
+        <v>45000</v>
       </c>
       <c r="H83" s="3">
-        <v>41100</v>
+        <v>41500</v>
       </c>
       <c r="I83" s="3">
+        <v>41800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K83" s="3">
         <v>39600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>39400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>43400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>43000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>42500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>40500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>39400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>39800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>97200</v>
+        <v>147000</v>
       </c>
       <c r="E89" s="3">
-        <v>133600</v>
+        <v>34300</v>
       </c>
       <c r="F89" s="3">
-        <v>130000</v>
+        <v>99100</v>
       </c>
       <c r="G89" s="3">
-        <v>88700</v>
+        <v>136100</v>
       </c>
       <c r="H89" s="3">
-        <v>215300</v>
+        <v>132500</v>
       </c>
       <c r="I89" s="3">
+        <v>90400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>219400</v>
+      </c>
+      <c r="K89" s="3">
         <v>141800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-66400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>83600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>108700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>97000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-28600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>117400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>72100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16000</v>
+        <v>-20200</v>
       </c>
       <c r="E91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-14300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-23300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-20200</v>
-      </c>
       <c r="I91" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-30500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-39800</v>
       </c>
       <c r="O91" s="3">
         <v>-40700</v>
       </c>
       <c r="P91" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="R91" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>107600</v>
+        <v>-211800</v>
       </c>
       <c r="E94" s="3">
-        <v>-15900</v>
+        <v>-110000</v>
       </c>
       <c r="F94" s="3">
-        <v>-48800</v>
+        <v>109600</v>
       </c>
       <c r="G94" s="3">
-        <v>-7600</v>
+        <v>-16200</v>
       </c>
       <c r="H94" s="3">
-        <v>-101700</v>
+        <v>-49700</v>
       </c>
       <c r="I94" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-38700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>45800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>11500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-147800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-75600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-44600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>28400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-215500</v>
+        <v>96700</v>
       </c>
       <c r="E100" s="3">
-        <v>-105500</v>
+        <v>73200</v>
       </c>
       <c r="F100" s="3">
-        <v>-83500</v>
+        <v>-219600</v>
       </c>
       <c r="G100" s="3">
-        <v>-74200</v>
+        <v>-107500</v>
       </c>
       <c r="H100" s="3">
-        <v>-139800</v>
+        <v>-85000</v>
       </c>
       <c r="I100" s="3">
+        <v>-75600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-83800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>15800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-87300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>32400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-28000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>18700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-101900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10100</v>
+        <v>32800</v>
       </c>
       <c r="E102" s="3">
-        <v>12500</v>
+        <v>-3800</v>
       </c>
       <c r="F102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-27400</v>
-      </c>
       <c r="I102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="K102" s="3">
         <v>21200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-13800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-31000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>51300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>595000</v>
+        <v>597700</v>
       </c>
       <c r="E8" s="3">
-        <v>597000</v>
+        <v>599600</v>
       </c>
       <c r="F8" s="3">
-        <v>590500</v>
+        <v>593100</v>
       </c>
       <c r="G8" s="3">
-        <v>646700</v>
+        <v>649600</v>
       </c>
       <c r="H8" s="3">
-        <v>517700</v>
+        <v>520000</v>
       </c>
       <c r="I8" s="3">
-        <v>541000</v>
+        <v>543400</v>
       </c>
       <c r="J8" s="3">
-        <v>518600</v>
+        <v>520900</v>
       </c>
       <c r="K8" s="3">
         <v>502100</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>261600</v>
+        <v>262800</v>
       </c>
       <c r="E9" s="3">
-        <v>289700</v>
+        <v>291000</v>
       </c>
       <c r="F9" s="3">
-        <v>271000</v>
+        <v>272200</v>
       </c>
       <c r="G9" s="3">
-        <v>274600</v>
+        <v>275900</v>
       </c>
       <c r="H9" s="3">
-        <v>250200</v>
+        <v>251300</v>
       </c>
       <c r="I9" s="3">
-        <v>257500</v>
+        <v>258600</v>
       </c>
       <c r="J9" s="3">
-        <v>239100</v>
+        <v>240100</v>
       </c>
       <c r="K9" s="3">
         <v>225800</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>333400</v>
+        <v>334900</v>
       </c>
       <c r="E10" s="3">
-        <v>307200</v>
+        <v>308600</v>
       </c>
       <c r="F10" s="3">
-        <v>319500</v>
+        <v>321000</v>
       </c>
       <c r="G10" s="3">
-        <v>372000</v>
+        <v>373700</v>
       </c>
       <c r="H10" s="3">
-        <v>267500</v>
+        <v>268700</v>
       </c>
       <c r="I10" s="3">
-        <v>283600</v>
+        <v>284800</v>
       </c>
       <c r="J10" s="3">
-        <v>279500</v>
+        <v>280800</v>
       </c>
       <c r="K10" s="3">
         <v>276300</v>
@@ -928,25 +928,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50000</v>
+        <v>50300</v>
       </c>
       <c r="E12" s="3">
-        <v>52600</v>
+        <v>52800</v>
       </c>
       <c r="F12" s="3">
-        <v>49500</v>
+        <v>49700</v>
       </c>
       <c r="G12" s="3">
-        <v>45800</v>
+        <v>46000</v>
       </c>
       <c r="H12" s="3">
-        <v>45000</v>
+        <v>45200</v>
       </c>
       <c r="I12" s="3">
-        <v>44500</v>
+        <v>44700</v>
       </c>
       <c r="J12" s="3">
-        <v>45800</v>
+        <v>46000</v>
       </c>
       <c r="K12" s="3">
         <v>50600</v>
@@ -1040,7 +1040,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>177800</v>
+        <v>178600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>11</v>
@@ -1087,25 +1087,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="E15" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="F15" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="G15" s="3">
         <v>21600</v>
       </c>
       <c r="H15" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="I15" s="3">
         <v>19300</v>
       </c>
       <c r="J15" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="K15" s="3">
         <v>17800</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>485800</v>
+        <v>488000</v>
       </c>
       <c r="E17" s="3">
-        <v>508000</v>
+        <v>510300</v>
       </c>
       <c r="F17" s="3">
-        <v>669600</v>
+        <v>672500</v>
       </c>
       <c r="G17" s="3">
-        <v>548100</v>
+        <v>550600</v>
       </c>
       <c r="H17" s="3">
-        <v>410700</v>
+        <v>412500</v>
       </c>
       <c r="I17" s="3">
-        <v>469000</v>
+        <v>471100</v>
       </c>
       <c r="J17" s="3">
-        <v>441400</v>
+        <v>443400</v>
       </c>
       <c r="K17" s="3">
         <v>435400</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>109200</v>
+        <v>109700</v>
       </c>
       <c r="E18" s="3">
-        <v>88900</v>
+        <v>89300</v>
       </c>
       <c r="F18" s="3">
-        <v>-79100</v>
+        <v>-79400</v>
       </c>
       <c r="G18" s="3">
-        <v>98500</v>
+        <v>99000</v>
       </c>
       <c r="H18" s="3">
-        <v>107000</v>
+        <v>107500</v>
       </c>
       <c r="I18" s="3">
-        <v>72000</v>
+        <v>72300</v>
       </c>
       <c r="J18" s="3">
-        <v>77200</v>
+        <v>77500</v>
       </c>
       <c r="K18" s="3">
         <v>66700</v>
@@ -1285,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="E20" s="3">
         <v>10400</v>
@@ -1300,7 +1300,7 @@
         <v>11500</v>
       </c>
       <c r="I20" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J20" s="3">
         <v>4700</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>163800</v>
+        <v>164600</v>
       </c>
       <c r="E21" s="3">
-        <v>139200</v>
+        <v>139900</v>
       </c>
       <c r="F21" s="3">
-        <v>-27400</v>
+        <v>-27600</v>
       </c>
       <c r="G21" s="3">
-        <v>152300</v>
+        <v>153000</v>
       </c>
       <c r="H21" s="3">
-        <v>160000</v>
+        <v>160700</v>
       </c>
       <c r="I21" s="3">
-        <v>128900</v>
+        <v>129400</v>
       </c>
       <c r="J21" s="3">
-        <v>123700</v>
+        <v>124300</v>
       </c>
       <c r="K21" s="3">
         <v>118800</v>
@@ -1391,13 +1391,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
         <v>3100</v>
       </c>
       <c r="F22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="3">
         <v>4100</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>118400</v>
+        <v>118900</v>
       </c>
       <c r="E23" s="3">
-        <v>96200</v>
+        <v>96600</v>
       </c>
       <c r="F23" s="3">
-        <v>-71000</v>
+        <v>-71400</v>
       </c>
       <c r="G23" s="3">
-        <v>103200</v>
+        <v>103700</v>
       </c>
       <c r="H23" s="3">
-        <v>114500</v>
+        <v>115000</v>
       </c>
       <c r="I23" s="3">
-        <v>78800</v>
+        <v>79200</v>
       </c>
       <c r="J23" s="3">
-        <v>78200</v>
+        <v>78500</v>
       </c>
       <c r="K23" s="3">
         <v>76400</v>
@@ -1497,25 +1497,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="E24" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="F24" s="3">
         <v>5700</v>
       </c>
       <c r="G24" s="3">
-        <v>-43900</v>
+        <v>-44100</v>
       </c>
       <c r="H24" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="I24" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="J24" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="K24" s="3">
         <v>9800</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78000</v>
+        <v>78400</v>
       </c>
       <c r="E26" s="3">
-        <v>102900</v>
+        <v>103400</v>
       </c>
       <c r="F26" s="3">
-        <v>-76700</v>
+        <v>-77100</v>
       </c>
       <c r="G26" s="3">
-        <v>147200</v>
+        <v>147800</v>
       </c>
       <c r="H26" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="I26" s="3">
-        <v>58500</v>
+        <v>58800</v>
       </c>
       <c r="J26" s="3">
-        <v>65400</v>
+        <v>65600</v>
       </c>
       <c r="K26" s="3">
         <v>66600</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78000</v>
+        <v>78400</v>
       </c>
       <c r="E27" s="3">
-        <v>102900</v>
+        <v>103400</v>
       </c>
       <c r="F27" s="3">
-        <v>-76700</v>
+        <v>-77100</v>
       </c>
       <c r="G27" s="3">
-        <v>147200</v>
+        <v>147800</v>
       </c>
       <c r="H27" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="I27" s="3">
-        <v>58500</v>
+        <v>58800</v>
       </c>
       <c r="J27" s="3">
-        <v>65400</v>
+        <v>65600</v>
       </c>
       <c r="K27" s="3">
         <v>66600</v>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12300</v>
+        <v>-12400</v>
       </c>
       <c r="E32" s="3">
         <v>-10400</v>
@@ -1936,7 +1936,7 @@
         <v>-11500</v>
       </c>
       <c r="I32" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="J32" s="3">
         <v>-4700</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78000</v>
+        <v>78400</v>
       </c>
       <c r="E33" s="3">
-        <v>102900</v>
+        <v>103400</v>
       </c>
       <c r="F33" s="3">
-        <v>-76700</v>
+        <v>-77100</v>
       </c>
       <c r="G33" s="3">
-        <v>147200</v>
+        <v>147800</v>
       </c>
       <c r="H33" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="I33" s="3">
-        <v>58500</v>
+        <v>58800</v>
       </c>
       <c r="J33" s="3">
-        <v>65400</v>
+        <v>65600</v>
       </c>
       <c r="K33" s="3">
         <v>66600</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78000</v>
+        <v>78400</v>
       </c>
       <c r="E35" s="3">
-        <v>102900</v>
+        <v>103400</v>
       </c>
       <c r="F35" s="3">
-        <v>-76700</v>
+        <v>-77100</v>
       </c>
       <c r="G35" s="3">
-        <v>147200</v>
+        <v>147800</v>
       </c>
       <c r="H35" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="I35" s="3">
-        <v>58500</v>
+        <v>58800</v>
       </c>
       <c r="J35" s="3">
-        <v>65400</v>
+        <v>65600</v>
       </c>
       <c r="K35" s="3">
         <v>66600</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59300</v>
+        <v>59500</v>
       </c>
       <c r="E41" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="F41" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="G41" s="3">
-        <v>40600</v>
+        <v>40800</v>
       </c>
       <c r="H41" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="I41" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="J41" s="3">
-        <v>23100</v>
+        <v>23200</v>
       </c>
       <c r="K41" s="3">
         <v>50000</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>313700</v>
+        <v>315100</v>
       </c>
       <c r="E42" s="3">
-        <v>319100</v>
+        <v>320500</v>
       </c>
       <c r="F42" s="3">
-        <v>235800</v>
+        <v>236800</v>
       </c>
       <c r="G42" s="3">
-        <v>344000</v>
+        <v>345600</v>
       </c>
       <c r="H42" s="3">
-        <v>331700</v>
+        <v>333200</v>
       </c>
       <c r="I42" s="3">
-        <v>303500</v>
+        <v>304800</v>
       </c>
       <c r="J42" s="3">
-        <v>310600</v>
+        <v>312000</v>
       </c>
       <c r="K42" s="3">
         <v>206300</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>661000</v>
+        <v>663900</v>
       </c>
       <c r="E43" s="3">
-        <v>736200</v>
+        <v>739500</v>
       </c>
       <c r="F43" s="3">
-        <v>638400</v>
+        <v>641200</v>
       </c>
       <c r="G43" s="3">
-        <v>588000</v>
+        <v>590600</v>
       </c>
       <c r="H43" s="3">
-        <v>543700</v>
+        <v>546100</v>
       </c>
       <c r="I43" s="3">
-        <v>582800</v>
+        <v>585400</v>
       </c>
       <c r="J43" s="3">
-        <v>549000</v>
+        <v>551500</v>
       </c>
       <c r="K43" s="3">
         <v>653300</v>
@@ -2392,25 +2392,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>527300</v>
+        <v>529700</v>
       </c>
       <c r="E44" s="3">
-        <v>472300</v>
+        <v>474400</v>
       </c>
       <c r="F44" s="3">
-        <v>508400</v>
+        <v>510700</v>
       </c>
       <c r="G44" s="3">
-        <v>471900</v>
+        <v>474000</v>
       </c>
       <c r="H44" s="3">
-        <v>473300</v>
+        <v>475400</v>
       </c>
       <c r="I44" s="3">
-        <v>452300</v>
+        <v>454300</v>
       </c>
       <c r="J44" s="3">
-        <v>456800</v>
+        <v>458800</v>
       </c>
       <c r="K44" s="3">
         <v>429500</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>229400</v>
+        <v>230400</v>
       </c>
       <c r="E45" s="3">
-        <v>200800</v>
+        <v>201700</v>
       </c>
       <c r="F45" s="3">
-        <v>166600</v>
+        <v>167300</v>
       </c>
       <c r="G45" s="3">
-        <v>173100</v>
+        <v>173900</v>
       </c>
       <c r="H45" s="3">
-        <v>180100</v>
+        <v>180900</v>
       </c>
       <c r="I45" s="3">
-        <v>173700</v>
+        <v>174500</v>
       </c>
       <c r="J45" s="3">
-        <v>181400</v>
+        <v>182200</v>
       </c>
       <c r="K45" s="3">
         <v>189200</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1790700</v>
+        <v>1798600</v>
       </c>
       <c r="E46" s="3">
-        <v>1756100</v>
+        <v>1763900</v>
       </c>
       <c r="F46" s="3">
-        <v>1579400</v>
+        <v>1586400</v>
       </c>
       <c r="G46" s="3">
-        <v>1617500</v>
+        <v>1624800</v>
       </c>
       <c r="H46" s="3">
-        <v>1556600</v>
+        <v>1563600</v>
       </c>
       <c r="I46" s="3">
-        <v>1542300</v>
+        <v>1549200</v>
       </c>
       <c r="J46" s="3">
-        <v>1520900</v>
+        <v>1527700</v>
       </c>
       <c r="K46" s="3">
         <v>1528400</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69200</v>
+        <v>69500</v>
       </c>
       <c r="E47" s="3">
-        <v>65000</v>
+        <v>65300</v>
       </c>
       <c r="F47" s="3">
-        <v>67000</v>
+        <v>67300</v>
       </c>
       <c r="G47" s="3">
-        <v>76400</v>
+        <v>76700</v>
       </c>
       <c r="H47" s="3">
-        <v>55100</v>
+        <v>55400</v>
       </c>
       <c r="I47" s="3">
-        <v>46500</v>
+        <v>46700</v>
       </c>
       <c r="J47" s="3">
-        <v>44000</v>
+        <v>44200</v>
       </c>
       <c r="K47" s="3">
         <v>52400</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>729800</v>
+        <v>733100</v>
       </c>
       <c r="E48" s="3">
-        <v>704900</v>
+        <v>708100</v>
       </c>
       <c r="F48" s="3">
-        <v>710000</v>
+        <v>713200</v>
       </c>
       <c r="G48" s="3">
-        <v>714000</v>
+        <v>717200</v>
       </c>
       <c r="H48" s="3">
-        <v>728500</v>
+        <v>731700</v>
       </c>
       <c r="I48" s="3">
-        <v>728600</v>
+        <v>731800</v>
       </c>
       <c r="J48" s="3">
-        <v>745500</v>
+        <v>748800</v>
       </c>
       <c r="K48" s="3">
         <v>748800</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>619500</v>
+        <v>622300</v>
       </c>
       <c r="E49" s="3">
-        <v>426400</v>
+        <v>428300</v>
       </c>
       <c r="F49" s="3">
-        <v>415500</v>
+        <v>417400</v>
       </c>
       <c r="G49" s="3">
-        <v>597300</v>
+        <v>599900</v>
       </c>
       <c r="H49" s="3">
-        <v>644100</v>
+        <v>647000</v>
       </c>
       <c r="I49" s="3">
-        <v>650200</v>
+        <v>653100</v>
       </c>
       <c r="J49" s="3">
-        <v>662800</v>
+        <v>665700</v>
       </c>
       <c r="K49" s="3">
         <v>678100</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>175100</v>
+        <v>175800</v>
       </c>
       <c r="E52" s="3">
-        <v>175900</v>
+        <v>176700</v>
       </c>
       <c r="F52" s="3">
-        <v>163200</v>
+        <v>163900</v>
       </c>
       <c r="G52" s="3">
-        <v>144900</v>
+        <v>145500</v>
       </c>
       <c r="H52" s="3">
-        <v>74500</v>
+        <v>74900</v>
       </c>
       <c r="I52" s="3">
-        <v>68900</v>
+        <v>69200</v>
       </c>
       <c r="J52" s="3">
-        <v>80100</v>
+        <v>80400</v>
       </c>
       <c r="K52" s="3">
         <v>89000</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3384200</v>
+        <v>3399300</v>
       </c>
       <c r="E54" s="3">
-        <v>3128300</v>
+        <v>3142200</v>
       </c>
       <c r="F54" s="3">
-        <v>2935100</v>
+        <v>2948200</v>
       </c>
       <c r="G54" s="3">
-        <v>3150100</v>
+        <v>3164100</v>
       </c>
       <c r="H54" s="3">
-        <v>3058900</v>
+        <v>3072500</v>
       </c>
       <c r="I54" s="3">
-        <v>3036500</v>
+        <v>3050000</v>
       </c>
       <c r="J54" s="3">
-        <v>3053300</v>
+        <v>3066900</v>
       </c>
       <c r="K54" s="3">
         <v>3096600</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>256400</v>
+        <v>257600</v>
       </c>
       <c r="E57" s="3">
-        <v>224400</v>
+        <v>225400</v>
       </c>
       <c r="F57" s="3">
-        <v>239900</v>
+        <v>241000</v>
       </c>
       <c r="G57" s="3">
-        <v>207900</v>
+        <v>208800</v>
       </c>
       <c r="H57" s="3">
-        <v>199900</v>
+        <v>200800</v>
       </c>
       <c r="I57" s="3">
-        <v>196000</v>
+        <v>196900</v>
       </c>
       <c r="J57" s="3">
-        <v>214700</v>
+        <v>215700</v>
       </c>
       <c r="K57" s="3">
         <v>186000</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>334000</v>
+        <v>335400</v>
       </c>
       <c r="E58" s="3">
-        <v>280100</v>
+        <v>281400</v>
       </c>
       <c r="F58" s="3">
-        <v>203000</v>
+        <v>204000</v>
       </c>
       <c r="G58" s="3">
-        <v>219000</v>
+        <v>220000</v>
       </c>
       <c r="H58" s="3">
-        <v>238900</v>
+        <v>239900</v>
       </c>
       <c r="I58" s="3">
-        <v>220700</v>
+        <v>221600</v>
       </c>
       <c r="J58" s="3">
-        <v>257800</v>
+        <v>258900</v>
       </c>
       <c r="K58" s="3">
         <v>369200</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>485600</v>
+        <v>487800</v>
       </c>
       <c r="E59" s="3">
-        <v>476300</v>
+        <v>478400</v>
       </c>
       <c r="F59" s="3">
-        <v>428500</v>
+        <v>430400</v>
       </c>
       <c r="G59" s="3">
-        <v>397100</v>
+        <v>398900</v>
       </c>
       <c r="H59" s="3">
-        <v>382600</v>
+        <v>384300</v>
       </c>
       <c r="I59" s="3">
-        <v>387500</v>
+        <v>389200</v>
       </c>
       <c r="J59" s="3">
-        <v>370200</v>
+        <v>371900</v>
       </c>
       <c r="K59" s="3">
         <v>387500</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1076000</v>
+        <v>1080800</v>
       </c>
       <c r="E60" s="3">
-        <v>980800</v>
+        <v>985200</v>
       </c>
       <c r="F60" s="3">
-        <v>871400</v>
+        <v>875300</v>
       </c>
       <c r="G60" s="3">
-        <v>824000</v>
+        <v>827700</v>
       </c>
       <c r="H60" s="3">
-        <v>821400</v>
+        <v>825100</v>
       </c>
       <c r="I60" s="3">
-        <v>804200</v>
+        <v>807700</v>
       </c>
       <c r="J60" s="3">
-        <v>842700</v>
+        <v>846400</v>
       </c>
       <c r="K60" s="3">
         <v>942700</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91400</v>
+        <v>91900</v>
       </c>
       <c r="E61" s="3">
         <v>17600</v>
       </c>
       <c r="F61" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="G61" s="3">
-        <v>205900</v>
+        <v>206800</v>
       </c>
       <c r="H61" s="3">
-        <v>224400</v>
+        <v>225400</v>
       </c>
       <c r="I61" s="3">
-        <v>296300</v>
+        <v>297700</v>
       </c>
       <c r="J61" s="3">
-        <v>332700</v>
+        <v>334200</v>
       </c>
       <c r="K61" s="3">
         <v>364800</v>
@@ -3282,25 +3282,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38000</v>
+        <v>38200</v>
       </c>
       <c r="E62" s="3">
-        <v>42200</v>
+        <v>42400</v>
       </c>
       <c r="F62" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="G62" s="3">
-        <v>48300</v>
+        <v>48500</v>
       </c>
       <c r="H62" s="3">
-        <v>43700</v>
+        <v>43900</v>
       </c>
       <c r="I62" s="3">
-        <v>47500</v>
+        <v>47800</v>
       </c>
       <c r="J62" s="3">
-        <v>49900</v>
+        <v>50200</v>
       </c>
       <c r="K62" s="3">
         <v>51400</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1205500</v>
+        <v>1210900</v>
       </c>
       <c r="E66" s="3">
-        <v>1040600</v>
+        <v>1045200</v>
       </c>
       <c r="F66" s="3">
-        <v>932500</v>
+        <v>936600</v>
       </c>
       <c r="G66" s="3">
-        <v>1078200</v>
+        <v>1083000</v>
       </c>
       <c r="H66" s="3">
-        <v>1089500</v>
+        <v>1094300</v>
       </c>
       <c r="I66" s="3">
-        <v>1148000</v>
+        <v>1153200</v>
       </c>
       <c r="J66" s="3">
-        <v>1225300</v>
+        <v>1230800</v>
       </c>
       <c r="K66" s="3">
         <v>1358900</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2039800</v>
+        <v>2048900</v>
       </c>
       <c r="E72" s="3">
-        <v>1961900</v>
+        <v>1970700</v>
       </c>
       <c r="F72" s="3">
-        <v>1857700</v>
+        <v>1866000</v>
       </c>
       <c r="G72" s="3">
-        <v>1933300</v>
+        <v>1941900</v>
       </c>
       <c r="H72" s="3">
-        <v>1838200</v>
+        <v>1846300</v>
       </c>
       <c r="I72" s="3">
-        <v>1748500</v>
+        <v>1756300</v>
       </c>
       <c r="J72" s="3">
-        <v>1688700</v>
+        <v>1696200</v>
       </c>
       <c r="K72" s="3">
         <v>1592200</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2178700</v>
+        <v>2188500</v>
       </c>
       <c r="E76" s="3">
-        <v>2087700</v>
+        <v>2097000</v>
       </c>
       <c r="F76" s="3">
-        <v>2002600</v>
+        <v>2011500</v>
       </c>
       <c r="G76" s="3">
-        <v>2071900</v>
+        <v>2081100</v>
       </c>
       <c r="H76" s="3">
-        <v>1969400</v>
+        <v>1978200</v>
       </c>
       <c r="I76" s="3">
-        <v>1888500</v>
+        <v>1896900</v>
       </c>
       <c r="J76" s="3">
-        <v>1828000</v>
+        <v>1836100</v>
       </c>
       <c r="K76" s="3">
         <v>1737700</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78000</v>
+        <v>78400</v>
       </c>
       <c r="E81" s="3">
-        <v>102900</v>
+        <v>103400</v>
       </c>
       <c r="F81" s="3">
-        <v>-76700</v>
+        <v>-77100</v>
       </c>
       <c r="G81" s="3">
-        <v>147200</v>
+        <v>147800</v>
       </c>
       <c r="H81" s="3">
-        <v>89300</v>
+        <v>89700</v>
       </c>
       <c r="I81" s="3">
-        <v>58500</v>
+        <v>58800</v>
       </c>
       <c r="J81" s="3">
-        <v>65400</v>
+        <v>65600</v>
       </c>
       <c r="K81" s="3">
         <v>66600</v>
@@ -4230,25 +4230,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42300</v>
+        <v>42500</v>
       </c>
       <c r="E83" s="3">
-        <v>39900</v>
+        <v>40100</v>
       </c>
       <c r="F83" s="3">
-        <v>41600</v>
+        <v>41700</v>
       </c>
       <c r="G83" s="3">
-        <v>45000</v>
+        <v>45200</v>
       </c>
       <c r="H83" s="3">
-        <v>41500</v>
+        <v>41700</v>
       </c>
       <c r="I83" s="3">
-        <v>41800</v>
+        <v>42000</v>
       </c>
       <c r="J83" s="3">
-        <v>41900</v>
+        <v>42100</v>
       </c>
       <c r="K83" s="3">
         <v>39600</v>
@@ -4548,25 +4548,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>147000</v>
+        <v>147700</v>
       </c>
       <c r="E89" s="3">
-        <v>34300</v>
+        <v>34400</v>
       </c>
       <c r="F89" s="3">
-        <v>99100</v>
+        <v>99500</v>
       </c>
       <c r="G89" s="3">
-        <v>136100</v>
+        <v>136700</v>
       </c>
       <c r="H89" s="3">
-        <v>132500</v>
+        <v>133000</v>
       </c>
       <c r="I89" s="3">
-        <v>90400</v>
+        <v>90800</v>
       </c>
       <c r="J89" s="3">
-        <v>219400</v>
+        <v>220400</v>
       </c>
       <c r="K89" s="3">
         <v>141800</v>
@@ -4622,25 +4622,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-20100</v>
       </c>
       <c r="F91" s="3">
         <v>-16400</v>
       </c>
       <c r="G91" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="H91" s="3">
         <v>-14300</v>
       </c>
       <c r="I91" s="3">
-        <v>-23700</v>
+        <v>-23800</v>
       </c>
       <c r="J91" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="K91" s="3">
         <v>-18000</v>
@@ -4781,25 +4781,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-211800</v>
+        <v>-212700</v>
       </c>
       <c r="E94" s="3">
-        <v>-110000</v>
+        <v>-110500</v>
       </c>
       <c r="F94" s="3">
-        <v>109600</v>
+        <v>110100</v>
       </c>
       <c r="G94" s="3">
         <v>-16200</v>
       </c>
       <c r="H94" s="3">
-        <v>-49700</v>
+        <v>-49900</v>
       </c>
       <c r="I94" s="3">
         <v>-7700</v>
       </c>
       <c r="J94" s="3">
-        <v>-103600</v>
+        <v>-104100</v>
       </c>
       <c r="K94" s="3">
         <v>-38700</v>
@@ -5067,25 +5067,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>96700</v>
+        <v>97200</v>
       </c>
       <c r="E100" s="3">
-        <v>73200</v>
+        <v>73600</v>
       </c>
       <c r="F100" s="3">
-        <v>-219600</v>
+        <v>-220600</v>
       </c>
       <c r="G100" s="3">
-        <v>-107500</v>
+        <v>-108000</v>
       </c>
       <c r="H100" s="3">
-        <v>-85000</v>
+        <v>-85400</v>
       </c>
       <c r="I100" s="3">
-        <v>-75600</v>
+        <v>-75900</v>
       </c>
       <c r="J100" s="3">
-        <v>-142400</v>
+        <v>-143000</v>
       </c>
       <c r="K100" s="3">
         <v>-83800</v>
@@ -5173,7 +5173,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="E102" s="3">
         <v>-3800</v>
@@ -5182,7 +5182,7 @@
         <v>-10300</v>
       </c>
       <c r="G102" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="H102" s="3">
         <v>-2200</v>
@@ -5191,7 +5191,7 @@
         <v>7100</v>
       </c>
       <c r="J102" s="3">
-        <v>-27900</v>
+        <v>-28000</v>
       </c>
       <c r="K102" s="3">
         <v>21200</v>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>RDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>597700</v>
+        <v>678300</v>
       </c>
       <c r="E8" s="3">
-        <v>599600</v>
+        <v>673800</v>
       </c>
       <c r="F8" s="3">
-        <v>593100</v>
+        <v>607800</v>
       </c>
       <c r="G8" s="3">
-        <v>649600</v>
+        <v>609800</v>
       </c>
       <c r="H8" s="3">
-        <v>520000</v>
+        <v>603200</v>
       </c>
       <c r="I8" s="3">
+        <v>660600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>528900</v>
+      </c>
+      <c r="K8" s="3">
         <v>543400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>520900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>502100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>491900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>511100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>550300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>512800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>479500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>489800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>510800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>262800</v>
+        <v>313200</v>
       </c>
       <c r="E9" s="3">
-        <v>291000</v>
+        <v>310400</v>
       </c>
       <c r="F9" s="3">
-        <v>272200</v>
+        <v>267200</v>
       </c>
       <c r="G9" s="3">
-        <v>275900</v>
+        <v>296000</v>
       </c>
       <c r="H9" s="3">
-        <v>251300</v>
+        <v>276800</v>
       </c>
       <c r="I9" s="3">
+        <v>280600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>255600</v>
+      </c>
+      <c r="K9" s="3">
         <v>258600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>240100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>225800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>217900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>237900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>240700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>239400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>232300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>239200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>209000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>334900</v>
+        <v>365200</v>
       </c>
       <c r="E10" s="3">
-        <v>308600</v>
+        <v>363400</v>
       </c>
       <c r="F10" s="3">
-        <v>321000</v>
+        <v>340600</v>
       </c>
       <c r="G10" s="3">
-        <v>373700</v>
+        <v>313800</v>
       </c>
       <c r="H10" s="3">
-        <v>268700</v>
+        <v>326400</v>
       </c>
       <c r="I10" s="3">
+        <v>380100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K10" s="3">
         <v>284800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>280800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>276300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>274000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>273200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>309600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>273300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>247200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>250500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>301800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +947,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50300</v>
+        <v>52800</v>
       </c>
       <c r="E12" s="3">
-        <v>52800</v>
+        <v>52600</v>
       </c>
       <c r="F12" s="3">
-        <v>49700</v>
+        <v>51100</v>
       </c>
       <c r="G12" s="3">
-        <v>46000</v>
+        <v>53700</v>
       </c>
       <c r="H12" s="3">
-        <v>45200</v>
+        <v>50600</v>
       </c>
       <c r="I12" s="3">
-        <v>44700</v>
+        <v>46800</v>
       </c>
       <c r="J12" s="3">
         <v>46000</v>
       </c>
       <c r="K12" s="3">
+        <v>44700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>46000</v>
+      </c>
+      <c r="M12" s="3">
         <v>50600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>50400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>58400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>63000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>55800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>69100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>59000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>64000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,43 +1061,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>82200</v>
       </c>
       <c r="E14" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>178600</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>181600</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
+      <c r="K14" s="3">
+        <v>1100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,61 +1120,73 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>21700</v>
+        <v>23500</v>
       </c>
       <c r="E15" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>22100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J15" s="3">
         <v>19500</v>
       </c>
-      <c r="F15" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>21600</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="L15" s="3">
         <v>19100</v>
       </c>
-      <c r="I15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>19100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>17800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>17200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>19900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>18700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>18300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>17100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>17000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>18300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>488000</v>
+        <v>648100</v>
       </c>
       <c r="E17" s="3">
-        <v>510300</v>
+        <v>559400</v>
       </c>
       <c r="F17" s="3">
-        <v>672500</v>
+        <v>496300</v>
       </c>
       <c r="G17" s="3">
-        <v>550600</v>
+        <v>519000</v>
       </c>
       <c r="H17" s="3">
-        <v>412500</v>
+        <v>684000</v>
       </c>
       <c r="I17" s="3">
+        <v>559900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>419600</v>
+      </c>
+      <c r="K17" s="3">
         <v>471100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>443400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>435400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>428800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>472900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>477900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>457700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>472900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>446600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>431000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>109700</v>
+        <v>30300</v>
       </c>
       <c r="E18" s="3">
-        <v>89300</v>
+        <v>114400</v>
       </c>
       <c r="F18" s="3">
-        <v>-79400</v>
+        <v>111600</v>
       </c>
       <c r="G18" s="3">
-        <v>99000</v>
+        <v>90800</v>
       </c>
       <c r="H18" s="3">
-        <v>107500</v>
+        <v>-80800</v>
       </c>
       <c r="I18" s="3">
+        <v>100700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K18" s="3">
         <v>72300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>77500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>66700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>63000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>38300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>72400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>55100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>43200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>79800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1344,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12400</v>
+        <v>11400</v>
       </c>
       <c r="E20" s="3">
-        <v>10400</v>
+        <v>7700</v>
       </c>
       <c r="F20" s="3">
-        <v>10100</v>
+        <v>12600</v>
       </c>
       <c r="G20" s="3">
-        <v>8800</v>
+        <v>10600</v>
       </c>
       <c r="H20" s="3">
-        <v>11500</v>
+        <v>10300</v>
       </c>
       <c r="I20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K20" s="3">
         <v>15200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>12500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>18500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>164600</v>
+        <v>86000</v>
       </c>
       <c r="E21" s="3">
-        <v>139900</v>
+        <v>167100</v>
       </c>
       <c r="F21" s="3">
-        <v>-27600</v>
+        <v>167300</v>
       </c>
       <c r="G21" s="3">
-        <v>153000</v>
+        <v>142200</v>
       </c>
       <c r="H21" s="3">
-        <v>160700</v>
+        <v>-28000</v>
       </c>
       <c r="I21" s="3">
+        <v>155600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K21" s="3">
         <v>129400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>124300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>118800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>108200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>131400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>101800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>54700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>86000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>123700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="F22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>118900</v>
+        <v>39100</v>
       </c>
       <c r="E23" s="3">
-        <v>96600</v>
+        <v>118600</v>
       </c>
       <c r="F23" s="3">
-        <v>-71400</v>
+        <v>120900</v>
       </c>
       <c r="G23" s="3">
-        <v>103700</v>
+        <v>98300</v>
       </c>
       <c r="H23" s="3">
-        <v>115000</v>
+        <v>-72600</v>
       </c>
       <c r="I23" s="3">
+        <v>105500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K23" s="3">
         <v>79200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>78500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>76400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>66200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>54200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>86000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>56000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>43900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>81600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40500</v>
+        <v>36400</v>
       </c>
       <c r="E24" s="3">
-        <v>-6800</v>
+        <v>13700</v>
       </c>
       <c r="F24" s="3">
-        <v>5700</v>
+        <v>41200</v>
       </c>
       <c r="G24" s="3">
-        <v>-44100</v>
+        <v>-6900</v>
       </c>
       <c r="H24" s="3">
-        <v>25300</v>
+        <v>5800</v>
       </c>
       <c r="I24" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K24" s="3">
         <v>20400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>12900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>24200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>16800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78400</v>
+        <v>2700</v>
       </c>
       <c r="E26" s="3">
-        <v>103400</v>
+        <v>104900</v>
       </c>
       <c r="F26" s="3">
-        <v>-77100</v>
+        <v>79700</v>
       </c>
       <c r="G26" s="3">
-        <v>147800</v>
+        <v>105200</v>
       </c>
       <c r="H26" s="3">
-        <v>89700</v>
+        <v>-78400</v>
       </c>
       <c r="I26" s="3">
+        <v>150300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K26" s="3">
         <v>58800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>65600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>66600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>60300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>49100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>61800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>41200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>43100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>64800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78400</v>
+        <v>2700</v>
       </c>
       <c r="E27" s="3">
-        <v>103400</v>
+        <v>104900</v>
       </c>
       <c r="F27" s="3">
-        <v>-77100</v>
+        <v>79700</v>
       </c>
       <c r="G27" s="3">
-        <v>147800</v>
+        <v>105200</v>
       </c>
       <c r="H27" s="3">
-        <v>89700</v>
+        <v>-78400</v>
       </c>
       <c r="I27" s="3">
+        <v>150300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K27" s="3">
         <v>58800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>65600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>66600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>60300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>49100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>61800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>41200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>43100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>64800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1788,17 +1909,17 @@
       <c r="L29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3">
         <v>-5400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>11</v>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12400</v>
+        <v>-11400</v>
       </c>
       <c r="E32" s="3">
-        <v>-10400</v>
+        <v>-7700</v>
       </c>
       <c r="F32" s="3">
-        <v>-10100</v>
+        <v>-12600</v>
       </c>
       <c r="G32" s="3">
-        <v>-8800</v>
+        <v>-10600</v>
       </c>
       <c r="H32" s="3">
-        <v>-11500</v>
+        <v>-10300</v>
       </c>
       <c r="I32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-15200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-12500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-18500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78400</v>
+        <v>2700</v>
       </c>
       <c r="E33" s="3">
-        <v>103400</v>
+        <v>104900</v>
       </c>
       <c r="F33" s="3">
-        <v>-77100</v>
+        <v>79700</v>
       </c>
       <c r="G33" s="3">
-        <v>147800</v>
+        <v>105200</v>
       </c>
       <c r="H33" s="3">
-        <v>89700</v>
+        <v>-78400</v>
       </c>
       <c r="I33" s="3">
+        <v>150300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K33" s="3">
         <v>58800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>65600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>66600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>60300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>43700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>48400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>41200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>43100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>64800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78400</v>
+        <v>2700</v>
       </c>
       <c r="E35" s="3">
-        <v>103400</v>
+        <v>104900</v>
       </c>
       <c r="F35" s="3">
-        <v>-77100</v>
+        <v>79700</v>
       </c>
       <c r="G35" s="3">
-        <v>147800</v>
+        <v>105200</v>
       </c>
       <c r="H35" s="3">
-        <v>89700</v>
+        <v>-78400</v>
       </c>
       <c r="I35" s="3">
+        <v>150300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K35" s="3">
         <v>58800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>65600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>66600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>60300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>43700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>48400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>41200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>43100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>64800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,476 +2409,530 @@
         <v>59500</v>
       </c>
       <c r="E41" s="3">
-        <v>27800</v>
+        <v>53500</v>
       </c>
       <c r="F41" s="3">
-        <v>30400</v>
+        <v>60500</v>
       </c>
       <c r="G41" s="3">
+        <v>28200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K41" s="3">
+        <v>30100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>50000</v>
+      </c>
+      <c r="N41" s="3">
+        <v>29000</v>
+      </c>
+      <c r="O41" s="3">
+        <v>38100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>29100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>35600</v>
+      </c>
+      <c r="R41" s="3">
         <v>40800</v>
       </c>
-      <c r="H41" s="3">
-        <v>28000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>30100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>23200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>50000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>29000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>38100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>29100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>35600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>40800</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>53300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>83100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>315100</v>
+        <v>158700</v>
       </c>
       <c r="E42" s="3">
+        <v>291100</v>
+      </c>
+      <c r="F42" s="3">
         <v>320500</v>
       </c>
-      <c r="F42" s="3">
-        <v>236800</v>
-      </c>
       <c r="G42" s="3">
-        <v>345600</v>
+        <v>325900</v>
       </c>
       <c r="H42" s="3">
-        <v>333200</v>
+        <v>240900</v>
       </c>
       <c r="I42" s="3">
+        <v>351400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>338900</v>
+      </c>
+      <c r="K42" s="3">
         <v>304800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>312000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>206300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>177300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>265100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>288400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>207300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>169900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>196600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>194500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>663900</v>
+        <v>758800</v>
       </c>
       <c r="E43" s="3">
-        <v>739500</v>
+        <v>719400</v>
       </c>
       <c r="F43" s="3">
-        <v>641200</v>
+        <v>675200</v>
       </c>
       <c r="G43" s="3">
-        <v>590600</v>
+        <v>752100</v>
       </c>
       <c r="H43" s="3">
-        <v>546100</v>
+        <v>652100</v>
       </c>
       <c r="I43" s="3">
+        <v>600600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>555400</v>
+      </c>
+      <c r="K43" s="3">
         <v>585400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>551500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>653300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>683200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>587300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>613600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>610300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>594900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>524500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>566600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>529700</v>
+        <v>609700</v>
       </c>
       <c r="E44" s="3">
-        <v>474400</v>
+        <v>566000</v>
       </c>
       <c r="F44" s="3">
-        <v>510700</v>
+        <v>538700</v>
       </c>
       <c r="G44" s="3">
-        <v>474000</v>
+        <v>482500</v>
       </c>
       <c r="H44" s="3">
-        <v>475400</v>
+        <v>519400</v>
       </c>
       <c r="I44" s="3">
+        <v>482100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K44" s="3">
         <v>454300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>458800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>429500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>416400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>420600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>387900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>390400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>406300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>393100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>414100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>230400</v>
+        <v>249300</v>
       </c>
       <c r="E45" s="3">
-        <v>201700</v>
+        <v>227700</v>
       </c>
       <c r="F45" s="3">
-        <v>167300</v>
+        <v>234300</v>
       </c>
       <c r="G45" s="3">
-        <v>173900</v>
+        <v>205100</v>
       </c>
       <c r="H45" s="3">
-        <v>180900</v>
+        <v>170100</v>
       </c>
       <c r="I45" s="3">
+        <v>176800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K45" s="3">
         <v>174500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>182200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>189200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>213000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>274300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>264300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>246000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>234200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>215600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>193600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1798600</v>
+        <v>1835800</v>
       </c>
       <c r="E46" s="3">
-        <v>1763900</v>
+        <v>1857700</v>
       </c>
       <c r="F46" s="3">
-        <v>1586400</v>
+        <v>1829200</v>
       </c>
       <c r="G46" s="3">
-        <v>1624800</v>
+        <v>1793900</v>
       </c>
       <c r="H46" s="3">
-        <v>1563600</v>
+        <v>1613400</v>
       </c>
       <c r="I46" s="3">
+        <v>1652400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1590100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1549200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1527700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1528400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1518900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1585500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1583200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1489500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1446100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1383200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1451900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69500</v>
+        <v>122100</v>
       </c>
       <c r="E47" s="3">
-        <v>65300</v>
+        <v>58500</v>
       </c>
       <c r="F47" s="3">
-        <v>67300</v>
+        <v>70700</v>
       </c>
       <c r="G47" s="3">
-        <v>76700</v>
+        <v>66400</v>
       </c>
       <c r="H47" s="3">
-        <v>55400</v>
+        <v>68400</v>
       </c>
       <c r="I47" s="3">
+        <v>78000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K47" s="3">
         <v>46700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>44200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>52400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>50200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>69700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>74800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>73000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>80600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>97100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>101800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>733100</v>
+        <v>774200</v>
       </c>
       <c r="E48" s="3">
-        <v>708100</v>
+        <v>757200</v>
       </c>
       <c r="F48" s="3">
-        <v>713200</v>
+        <v>745600</v>
       </c>
       <c r="G48" s="3">
-        <v>717200</v>
+        <v>720100</v>
       </c>
       <c r="H48" s="3">
-        <v>731700</v>
+        <v>725300</v>
       </c>
       <c r="I48" s="3">
+        <v>729400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>744200</v>
+      </c>
+      <c r="K48" s="3">
         <v>731800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>748800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>748800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>753800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>836800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>841400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>837300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>833100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>787700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>788300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>622300</v>
+        <v>565000</v>
       </c>
       <c r="E49" s="3">
-        <v>428300</v>
+        <v>626800</v>
       </c>
       <c r="F49" s="3">
-        <v>417400</v>
+        <v>632800</v>
       </c>
       <c r="G49" s="3">
-        <v>599900</v>
+        <v>435500</v>
       </c>
       <c r="H49" s="3">
-        <v>647000</v>
+        <v>424500</v>
       </c>
       <c r="I49" s="3">
+        <v>610100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>658000</v>
+      </c>
+      <c r="K49" s="3">
         <v>653100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>665700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>678100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>651600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>702900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>696700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>717700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>702200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>670800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>688700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>175800</v>
+        <v>175100</v>
       </c>
       <c r="E52" s="3">
-        <v>176700</v>
+        <v>186300</v>
       </c>
       <c r="F52" s="3">
-        <v>163900</v>
+        <v>178800</v>
       </c>
       <c r="G52" s="3">
-        <v>145500</v>
+        <v>179700</v>
       </c>
       <c r="H52" s="3">
-        <v>74900</v>
+        <v>166700</v>
       </c>
       <c r="I52" s="3">
+        <v>148000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>76100</v>
+      </c>
+      <c r="K52" s="3">
         <v>69200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>80400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>89000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>77700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>67400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>71100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>92900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>95900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>90400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>99900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3399300</v>
+        <v>3472300</v>
       </c>
       <c r="E54" s="3">
-        <v>3142200</v>
+        <v>3486500</v>
       </c>
       <c r="F54" s="3">
-        <v>2948200</v>
+        <v>3457100</v>
       </c>
       <c r="G54" s="3">
-        <v>3164100</v>
+        <v>3195600</v>
       </c>
       <c r="H54" s="3">
-        <v>3072500</v>
+        <v>2998300</v>
       </c>
       <c r="I54" s="3">
+        <v>3217900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3124800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3050000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3066900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3096600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3052200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3262200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3267300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3210400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3157900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3029100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3130700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>257600</v>
+        <v>317500</v>
       </c>
       <c r="E57" s="3">
-        <v>225400</v>
+        <v>314200</v>
       </c>
       <c r="F57" s="3">
-        <v>241000</v>
+        <v>262000</v>
       </c>
       <c r="G57" s="3">
-        <v>208800</v>
+        <v>229200</v>
       </c>
       <c r="H57" s="3">
-        <v>200800</v>
+        <v>245100</v>
       </c>
       <c r="I57" s="3">
+        <v>212400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K57" s="3">
         <v>196900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>215700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>186000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>195900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>232100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>210800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>205200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>191200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>184900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>183400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>335400</v>
+        <v>191700</v>
       </c>
       <c r="E58" s="3">
-        <v>281400</v>
+        <v>285800</v>
       </c>
       <c r="F58" s="3">
-        <v>204000</v>
+        <v>341200</v>
       </c>
       <c r="G58" s="3">
-        <v>220000</v>
+        <v>286200</v>
       </c>
       <c r="H58" s="3">
-        <v>239900</v>
+        <v>207400</v>
       </c>
       <c r="I58" s="3">
+        <v>223800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>244000</v>
+      </c>
+      <c r="K58" s="3">
         <v>221600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>258900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>369200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>372500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>370500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>440300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>415200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>374500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>602700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>720400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>487800</v>
+        <v>507300</v>
       </c>
       <c r="E59" s="3">
-        <v>478400</v>
+        <v>481200</v>
       </c>
       <c r="F59" s="3">
-        <v>430400</v>
+        <v>496100</v>
       </c>
       <c r="G59" s="3">
-        <v>398900</v>
+        <v>486500</v>
       </c>
       <c r="H59" s="3">
-        <v>384300</v>
+        <v>437700</v>
       </c>
       <c r="I59" s="3">
+        <v>405700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>390900</v>
+      </c>
+      <c r="K59" s="3">
         <v>389200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>371900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>387500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>360500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>405100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>407400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>396700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>381600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>383700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>409100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1080800</v>
+        <v>1016500</v>
       </c>
       <c r="E60" s="3">
-        <v>985200</v>
+        <v>1081100</v>
       </c>
       <c r="F60" s="3">
-        <v>875300</v>
+        <v>1099200</v>
       </c>
       <c r="G60" s="3">
-        <v>827700</v>
+        <v>1001900</v>
       </c>
       <c r="H60" s="3">
-        <v>825100</v>
+        <v>890200</v>
       </c>
       <c r="I60" s="3">
+        <v>841800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>839100</v>
+      </c>
+      <c r="K60" s="3">
         <v>807700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>846400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>942700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>928900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1007700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1058400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1017100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>947400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1171300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1313000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91900</v>
+        <v>89600</v>
       </c>
       <c r="E61" s="3">
-        <v>17600</v>
+        <v>91700</v>
       </c>
       <c r="F61" s="3">
-        <v>16900</v>
+        <v>93400</v>
       </c>
       <c r="G61" s="3">
-        <v>206800</v>
+        <v>17900</v>
       </c>
       <c r="H61" s="3">
-        <v>225400</v>
+        <v>17100</v>
       </c>
       <c r="I61" s="3">
+        <v>210300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>229200</v>
+      </c>
+      <c r="K61" s="3">
         <v>297700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>334200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>364800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>345000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>362800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>353700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>360800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>355100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>75100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>78800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38200</v>
+        <v>35400</v>
       </c>
       <c r="E62" s="3">
-        <v>42400</v>
+        <v>38700</v>
       </c>
       <c r="F62" s="3">
-        <v>44500</v>
+        <v>38800</v>
       </c>
       <c r="G62" s="3">
-        <v>48500</v>
+        <v>43100</v>
       </c>
       <c r="H62" s="3">
-        <v>43900</v>
+        <v>45200</v>
       </c>
       <c r="I62" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K62" s="3">
         <v>47800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>50200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>51400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>54100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>63100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>66700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>70700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>70600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>73400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>71000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1210900</v>
+        <v>1141400</v>
       </c>
       <c r="E66" s="3">
-        <v>1045200</v>
+        <v>1211400</v>
       </c>
       <c r="F66" s="3">
-        <v>936600</v>
+        <v>1231500</v>
       </c>
       <c r="G66" s="3">
-        <v>1083000</v>
+        <v>1063000</v>
       </c>
       <c r="H66" s="3">
-        <v>1094300</v>
+        <v>952500</v>
       </c>
       <c r="I66" s="3">
+        <v>1101400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1112900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1153200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1230800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1358900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1327900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1433600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1478800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1448600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1373200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1319800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1462700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2048900</v>
+        <v>2136000</v>
       </c>
       <c r="E72" s="3">
-        <v>1970700</v>
+        <v>2132200</v>
       </c>
       <c r="F72" s="3">
-        <v>1866000</v>
+        <v>2083700</v>
       </c>
       <c r="G72" s="3">
-        <v>1941900</v>
+        <v>2004200</v>
       </c>
       <c r="H72" s="3">
-        <v>1846300</v>
+        <v>1897700</v>
       </c>
       <c r="I72" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1877700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1756300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1696200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1592200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1580100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1663800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1618700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1569400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1587400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1505100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1461100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2188500</v>
+        <v>2330900</v>
       </c>
       <c r="E76" s="3">
-        <v>2097000</v>
+        <v>2275000</v>
       </c>
       <c r="F76" s="3">
-        <v>2011500</v>
+        <v>2225700</v>
       </c>
       <c r="G76" s="3">
-        <v>2081100</v>
+        <v>2132600</v>
       </c>
       <c r="H76" s="3">
-        <v>1978200</v>
+        <v>2045700</v>
       </c>
       <c r="I76" s="3">
+        <v>2116500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2011800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1896900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1836100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1737700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1724300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1828600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1788500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1761800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1784700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1709300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1667900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78400</v>
+        <v>2700</v>
       </c>
       <c r="E81" s="3">
-        <v>103400</v>
+        <v>104900</v>
       </c>
       <c r="F81" s="3">
-        <v>-77100</v>
+        <v>79700</v>
       </c>
       <c r="G81" s="3">
-        <v>147800</v>
+        <v>105200</v>
       </c>
       <c r="H81" s="3">
-        <v>89700</v>
+        <v>-78400</v>
       </c>
       <c r="I81" s="3">
+        <v>150300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K81" s="3">
         <v>58800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>65600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>66600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>60300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>43700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>48400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>41200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>43100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>64800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>43200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>40800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>45900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>42000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>42100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>39400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>43400</v>
+      </c>
+      <c r="P83" s="3">
+        <v>43000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>42500</v>
       </c>
-      <c r="E83" s="3">
-        <v>40100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>41700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>45200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>41700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>42000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>42100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>39600</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="R83" s="3">
+        <v>40500</v>
+      </c>
+      <c r="S83" s="3">
         <v>39400</v>
       </c>
-      <c r="M83" s="3">
-        <v>43400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>43000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>42500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>40500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>39400</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>39800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>147700</v>
+        <v>58800</v>
       </c>
       <c r="E89" s="3">
-        <v>34400</v>
+        <v>127300</v>
       </c>
       <c r="F89" s="3">
-        <v>99500</v>
+        <v>150200</v>
       </c>
       <c r="G89" s="3">
-        <v>136700</v>
+        <v>35000</v>
       </c>
       <c r="H89" s="3">
-        <v>133000</v>
+        <v>101200</v>
       </c>
       <c r="I89" s="3">
+        <v>139100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K89" s="3">
         <v>90800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>220400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>141800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-66400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>83600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>108700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>97000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>117400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>72100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20300</v>
+        <v>-39400</v>
       </c>
       <c r="E91" s="3">
-        <v>-20200</v>
+        <v>-34400</v>
       </c>
       <c r="F91" s="3">
-        <v>-16400</v>
+        <v>-20600</v>
       </c>
       <c r="G91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-14600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-23800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-20700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-30500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-21800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-39800</v>
       </c>
       <c r="Q91" s="3">
         <v>-40700</v>
       </c>
       <c r="R91" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="T91" s="3">
         <v>-40900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-212700</v>
+        <v>51700</v>
       </c>
       <c r="E94" s="3">
-        <v>-110500</v>
+        <v>-17100</v>
       </c>
       <c r="F94" s="3">
-        <v>110100</v>
+        <v>-216400</v>
       </c>
       <c r="G94" s="3">
-        <v>-16200</v>
+        <v>-112400</v>
       </c>
       <c r="H94" s="3">
-        <v>-49900</v>
+        <v>112000</v>
       </c>
       <c r="I94" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-104100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-38700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>45800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>11500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-147800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-75600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-44600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>28400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>97200</v>
+        <v>-103900</v>
       </c>
       <c r="E100" s="3">
-        <v>73600</v>
+        <v>-117900</v>
       </c>
       <c r="F100" s="3">
-        <v>-220600</v>
+        <v>98800</v>
       </c>
       <c r="G100" s="3">
-        <v>-108000</v>
+        <v>74800</v>
       </c>
       <c r="H100" s="3">
-        <v>-85400</v>
+        <v>-224300</v>
       </c>
       <c r="I100" s="3">
+        <v>-109800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-86900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-75900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-143000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-83800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>15800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-87300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>32400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-28000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>18700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-101900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-48500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-1800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>33000</v>
+        <v>7300</v>
       </c>
       <c r="E102" s="3">
-        <v>-3800</v>
+        <v>-8400</v>
       </c>
       <c r="F102" s="3">
-        <v>-10300</v>
+        <v>33500</v>
       </c>
       <c r="G102" s="3">
-        <v>12800</v>
+        <v>-3900</v>
       </c>
       <c r="H102" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-28000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>21200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>8900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-31000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>51300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>678300</v>
+        <v>677300</v>
       </c>
       <c r="E8" s="3">
-        <v>673800</v>
+        <v>672800</v>
       </c>
       <c r="F8" s="3">
-        <v>607800</v>
+        <v>607000</v>
       </c>
       <c r="G8" s="3">
-        <v>609800</v>
+        <v>608900</v>
       </c>
       <c r="H8" s="3">
-        <v>603200</v>
+        <v>602300</v>
       </c>
       <c r="I8" s="3">
-        <v>660600</v>
+        <v>659600</v>
       </c>
       <c r="J8" s="3">
-        <v>528900</v>
+        <v>528100</v>
       </c>
       <c r="K8" s="3">
         <v>543400</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>313200</v>
+        <v>312700</v>
       </c>
       <c r="E9" s="3">
-        <v>310400</v>
+        <v>309900</v>
       </c>
       <c r="F9" s="3">
-        <v>267200</v>
+        <v>266800</v>
       </c>
       <c r="G9" s="3">
-        <v>296000</v>
+        <v>295500</v>
       </c>
       <c r="H9" s="3">
-        <v>276800</v>
+        <v>276400</v>
       </c>
       <c r="I9" s="3">
-        <v>280600</v>
+        <v>280100</v>
       </c>
       <c r="J9" s="3">
-        <v>255600</v>
+        <v>255200</v>
       </c>
       <c r="K9" s="3">
         <v>258600</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>365200</v>
+        <v>364600</v>
       </c>
       <c r="E10" s="3">
-        <v>363400</v>
+        <v>362900</v>
       </c>
       <c r="F10" s="3">
-        <v>340600</v>
+        <v>340100</v>
       </c>
       <c r="G10" s="3">
-        <v>313800</v>
+        <v>313400</v>
       </c>
       <c r="H10" s="3">
-        <v>326400</v>
+        <v>325900</v>
       </c>
       <c r="I10" s="3">
-        <v>380100</v>
+        <v>379500</v>
       </c>
       <c r="J10" s="3">
-        <v>273300</v>
+        <v>272900</v>
       </c>
       <c r="K10" s="3">
         <v>284800</v>
@@ -955,25 +955,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>52800</v>
+        <v>52700</v>
       </c>
       <c r="E12" s="3">
-        <v>52600</v>
+        <v>52500</v>
       </c>
       <c r="F12" s="3">
-        <v>51100</v>
+        <v>51000</v>
       </c>
       <c r="G12" s="3">
-        <v>53700</v>
+        <v>53600</v>
       </c>
       <c r="H12" s="3">
-        <v>50600</v>
+        <v>50500</v>
       </c>
       <c r="I12" s="3">
-        <v>46800</v>
+        <v>46700</v>
       </c>
       <c r="J12" s="3">
-        <v>46000</v>
+        <v>45900</v>
       </c>
       <c r="K12" s="3">
         <v>44700</v>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>82200</v>
+        <v>82100</v>
       </c>
       <c r="E14" s="3">
         <v>10700</v>
@@ -1085,7 +1085,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>181600</v>
+        <v>181400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>11</v>
@@ -1132,7 +1132,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>23500</v>
+        <v>23400</v>
       </c>
       <c r="E15" s="3">
         <v>27300</v>
@@ -1150,7 +1150,7 @@
         <v>22000</v>
       </c>
       <c r="J15" s="3">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="K15" s="3">
         <v>19300</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>648100</v>
+        <v>647100</v>
       </c>
       <c r="E17" s="3">
-        <v>559400</v>
+        <v>558600</v>
       </c>
       <c r="F17" s="3">
-        <v>496300</v>
+        <v>495600</v>
       </c>
       <c r="G17" s="3">
-        <v>519000</v>
+        <v>518200</v>
       </c>
       <c r="H17" s="3">
-        <v>684000</v>
+        <v>683000</v>
       </c>
       <c r="I17" s="3">
-        <v>559900</v>
+        <v>559100</v>
       </c>
       <c r="J17" s="3">
-        <v>419600</v>
+        <v>418900</v>
       </c>
       <c r="K17" s="3">
         <v>471100</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30300</v>
+        <v>30200</v>
       </c>
       <c r="E18" s="3">
-        <v>114400</v>
+        <v>114200</v>
       </c>
       <c r="F18" s="3">
-        <v>111600</v>
+        <v>111400</v>
       </c>
       <c r="G18" s="3">
-        <v>90800</v>
+        <v>90700</v>
       </c>
       <c r="H18" s="3">
-        <v>-80800</v>
+        <v>-80600</v>
       </c>
       <c r="I18" s="3">
-        <v>100700</v>
+        <v>100500</v>
       </c>
       <c r="J18" s="3">
-        <v>109300</v>
+        <v>109200</v>
       </c>
       <c r="K18" s="3">
         <v>72300</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>86000</v>
+        <v>85800</v>
       </c>
       <c r="E21" s="3">
+        <v>166900</v>
+      </c>
+      <c r="F21" s="3">
         <v>167100</v>
       </c>
-      <c r="F21" s="3">
-        <v>167300</v>
-      </c>
       <c r="G21" s="3">
-        <v>142200</v>
+        <v>142000</v>
       </c>
       <c r="H21" s="3">
         <v>-28000</v>
       </c>
       <c r="I21" s="3">
-        <v>155600</v>
+        <v>155400</v>
       </c>
       <c r="J21" s="3">
-        <v>163500</v>
+        <v>163200</v>
       </c>
       <c r="K21" s="3">
         <v>129400</v>
@@ -1532,22 +1532,22 @@
         <v>39100</v>
       </c>
       <c r="E23" s="3">
-        <v>118600</v>
+        <v>118500</v>
       </c>
       <c r="F23" s="3">
-        <v>120900</v>
+        <v>120800</v>
       </c>
       <c r="G23" s="3">
-        <v>98300</v>
+        <v>98100</v>
       </c>
       <c r="H23" s="3">
-        <v>-72600</v>
+        <v>-72500</v>
       </c>
       <c r="I23" s="3">
-        <v>105500</v>
+        <v>105300</v>
       </c>
       <c r="J23" s="3">
-        <v>117000</v>
+        <v>116800</v>
       </c>
       <c r="K23" s="3">
         <v>79200</v>
@@ -1588,7 +1588,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36400</v>
+        <v>36300</v>
       </c>
       <c r="E24" s="3">
         <v>13700</v>
@@ -1603,10 +1603,10 @@
         <v>5800</v>
       </c>
       <c r="I24" s="3">
-        <v>-44900</v>
+        <v>-44800</v>
       </c>
       <c r="J24" s="3">
-        <v>25800</v>
+        <v>25700</v>
       </c>
       <c r="K24" s="3">
         <v>20400</v>
@@ -1709,22 +1709,22 @@
         <v>2700</v>
       </c>
       <c r="E26" s="3">
-        <v>104900</v>
+        <v>104700</v>
       </c>
       <c r="F26" s="3">
-        <v>79700</v>
+        <v>79600</v>
       </c>
       <c r="G26" s="3">
-        <v>105200</v>
+        <v>105000</v>
       </c>
       <c r="H26" s="3">
-        <v>-78400</v>
+        <v>-78300</v>
       </c>
       <c r="I26" s="3">
-        <v>150300</v>
+        <v>150100</v>
       </c>
       <c r="J26" s="3">
-        <v>91200</v>
+        <v>91100</v>
       </c>
       <c r="K26" s="3">
         <v>58800</v>
@@ -1768,22 +1768,22 @@
         <v>2700</v>
       </c>
       <c r="E27" s="3">
-        <v>104900</v>
+        <v>104700</v>
       </c>
       <c r="F27" s="3">
-        <v>79700</v>
+        <v>79600</v>
       </c>
       <c r="G27" s="3">
-        <v>105200</v>
+        <v>105000</v>
       </c>
       <c r="H27" s="3">
-        <v>-78400</v>
+        <v>-78300</v>
       </c>
       <c r="I27" s="3">
-        <v>150300</v>
+        <v>150100</v>
       </c>
       <c r="J27" s="3">
-        <v>91200</v>
+        <v>91100</v>
       </c>
       <c r="K27" s="3">
         <v>58800</v>
@@ -2122,22 +2122,22 @@
         <v>2700</v>
       </c>
       <c r="E33" s="3">
-        <v>104900</v>
+        <v>104700</v>
       </c>
       <c r="F33" s="3">
-        <v>79700</v>
+        <v>79600</v>
       </c>
       <c r="G33" s="3">
-        <v>105200</v>
+        <v>105000</v>
       </c>
       <c r="H33" s="3">
-        <v>-78400</v>
+        <v>-78300</v>
       </c>
       <c r="I33" s="3">
-        <v>150300</v>
+        <v>150100</v>
       </c>
       <c r="J33" s="3">
-        <v>91200</v>
+        <v>91100</v>
       </c>
       <c r="K33" s="3">
         <v>58800</v>
@@ -2240,22 +2240,22 @@
         <v>2700</v>
       </c>
       <c r="E35" s="3">
-        <v>104900</v>
+        <v>104700</v>
       </c>
       <c r="F35" s="3">
-        <v>79700</v>
+        <v>79600</v>
       </c>
       <c r="G35" s="3">
-        <v>105200</v>
+        <v>105000</v>
       </c>
       <c r="H35" s="3">
-        <v>-78400</v>
+        <v>-78300</v>
       </c>
       <c r="I35" s="3">
-        <v>150300</v>
+        <v>150100</v>
       </c>
       <c r="J35" s="3">
-        <v>91200</v>
+        <v>91100</v>
       </c>
       <c r="K35" s="3">
         <v>58800</v>
@@ -2406,10 +2406,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59500</v>
+        <v>59400</v>
       </c>
       <c r="E41" s="3">
-        <v>53500</v>
+        <v>53400</v>
       </c>
       <c r="F41" s="3">
         <v>60500</v>
@@ -2418,7 +2418,7 @@
         <v>28200</v>
       </c>
       <c r="H41" s="3">
-        <v>30900</v>
+        <v>30800</v>
       </c>
       <c r="I41" s="3">
         <v>41400</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>158700</v>
+        <v>158400</v>
       </c>
       <c r="E42" s="3">
-        <v>291100</v>
+        <v>290700</v>
       </c>
       <c r="F42" s="3">
-        <v>320500</v>
+        <v>320000</v>
       </c>
       <c r="G42" s="3">
-        <v>325900</v>
+        <v>325500</v>
       </c>
       <c r="H42" s="3">
-        <v>240900</v>
+        <v>240500</v>
       </c>
       <c r="I42" s="3">
-        <v>351400</v>
+        <v>350900</v>
       </c>
       <c r="J42" s="3">
-        <v>338900</v>
+        <v>338400</v>
       </c>
       <c r="K42" s="3">
         <v>304800</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>758800</v>
+        <v>757700</v>
       </c>
       <c r="E43" s="3">
-        <v>719400</v>
+        <v>718400</v>
       </c>
       <c r="F43" s="3">
-        <v>675200</v>
+        <v>674200</v>
       </c>
       <c r="G43" s="3">
-        <v>752100</v>
+        <v>751000</v>
       </c>
       <c r="H43" s="3">
-        <v>652100</v>
+        <v>651200</v>
       </c>
       <c r="I43" s="3">
-        <v>600600</v>
+        <v>599700</v>
       </c>
       <c r="J43" s="3">
-        <v>555400</v>
+        <v>554600</v>
       </c>
       <c r="K43" s="3">
         <v>585400</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>609700</v>
+        <v>608800</v>
       </c>
       <c r="E44" s="3">
-        <v>566000</v>
+        <v>565200</v>
       </c>
       <c r="F44" s="3">
-        <v>538700</v>
+        <v>537900</v>
       </c>
       <c r="G44" s="3">
-        <v>482500</v>
+        <v>481800</v>
       </c>
       <c r="H44" s="3">
-        <v>519400</v>
+        <v>518600</v>
       </c>
       <c r="I44" s="3">
-        <v>482100</v>
+        <v>481400</v>
       </c>
       <c r="J44" s="3">
-        <v>483500</v>
+        <v>482800</v>
       </c>
       <c r="K44" s="3">
         <v>454300</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>249300</v>
+        <v>248900</v>
       </c>
       <c r="E45" s="3">
-        <v>227700</v>
+        <v>227300</v>
       </c>
       <c r="F45" s="3">
-        <v>234300</v>
+        <v>234000</v>
       </c>
       <c r="G45" s="3">
-        <v>205100</v>
+        <v>204800</v>
       </c>
       <c r="H45" s="3">
-        <v>170100</v>
+        <v>169900</v>
       </c>
       <c r="I45" s="3">
-        <v>176800</v>
+        <v>176600</v>
       </c>
       <c r="J45" s="3">
-        <v>184000</v>
+        <v>183700</v>
       </c>
       <c r="K45" s="3">
         <v>174500</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1835800</v>
+        <v>1833200</v>
       </c>
       <c r="E46" s="3">
-        <v>1857700</v>
+        <v>1855000</v>
       </c>
       <c r="F46" s="3">
-        <v>1829200</v>
+        <v>1826600</v>
       </c>
       <c r="G46" s="3">
-        <v>1793900</v>
+        <v>1791300</v>
       </c>
       <c r="H46" s="3">
-        <v>1613400</v>
+        <v>1611100</v>
       </c>
       <c r="I46" s="3">
-        <v>1652400</v>
+        <v>1650000</v>
       </c>
       <c r="J46" s="3">
-        <v>1590100</v>
+        <v>1587800</v>
       </c>
       <c r="K46" s="3">
         <v>1549200</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>122100</v>
+        <v>121900</v>
       </c>
       <c r="E47" s="3">
-        <v>58500</v>
+        <v>58400</v>
       </c>
       <c r="F47" s="3">
-        <v>70700</v>
+        <v>70600</v>
       </c>
       <c r="G47" s="3">
-        <v>66400</v>
+        <v>66300</v>
       </c>
       <c r="H47" s="3">
-        <v>68400</v>
+        <v>68300</v>
       </c>
       <c r="I47" s="3">
-        <v>78000</v>
+        <v>77900</v>
       </c>
       <c r="J47" s="3">
-        <v>56300</v>
+        <v>56200</v>
       </c>
       <c r="K47" s="3">
         <v>46700</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>774200</v>
+        <v>773100</v>
       </c>
       <c r="E48" s="3">
-        <v>757200</v>
+        <v>756100</v>
       </c>
       <c r="F48" s="3">
-        <v>745600</v>
+        <v>744500</v>
       </c>
       <c r="G48" s="3">
-        <v>720100</v>
+        <v>719000</v>
       </c>
       <c r="H48" s="3">
-        <v>725300</v>
+        <v>724200</v>
       </c>
       <c r="I48" s="3">
-        <v>729400</v>
+        <v>728300</v>
       </c>
       <c r="J48" s="3">
-        <v>744200</v>
+        <v>743100</v>
       </c>
       <c r="K48" s="3">
         <v>731800</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>565000</v>
+        <v>564200</v>
       </c>
       <c r="E49" s="3">
-        <v>626800</v>
+        <v>625900</v>
       </c>
       <c r="F49" s="3">
-        <v>632800</v>
+        <v>631900</v>
       </c>
       <c r="G49" s="3">
-        <v>435500</v>
+        <v>434900</v>
       </c>
       <c r="H49" s="3">
-        <v>424500</v>
+        <v>423800</v>
       </c>
       <c r="I49" s="3">
-        <v>610100</v>
+        <v>609200</v>
       </c>
       <c r="J49" s="3">
-        <v>658000</v>
+        <v>657100</v>
       </c>
       <c r="K49" s="3">
         <v>653100</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>175100</v>
+        <v>174900</v>
       </c>
       <c r="E52" s="3">
-        <v>186300</v>
+        <v>186100</v>
       </c>
       <c r="F52" s="3">
-        <v>178800</v>
+        <v>178600</v>
       </c>
       <c r="G52" s="3">
-        <v>179700</v>
+        <v>179400</v>
       </c>
       <c r="H52" s="3">
-        <v>166700</v>
+        <v>166500</v>
       </c>
       <c r="I52" s="3">
-        <v>148000</v>
+        <v>147800</v>
       </c>
       <c r="J52" s="3">
-        <v>76100</v>
+        <v>76000</v>
       </c>
       <c r="K52" s="3">
         <v>69200</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3472300</v>
+        <v>3467200</v>
       </c>
       <c r="E54" s="3">
-        <v>3486500</v>
+        <v>3481400</v>
       </c>
       <c r="F54" s="3">
-        <v>3457100</v>
+        <v>3452100</v>
       </c>
       <c r="G54" s="3">
-        <v>3195600</v>
+        <v>3191000</v>
       </c>
       <c r="H54" s="3">
-        <v>2998300</v>
+        <v>2993900</v>
       </c>
       <c r="I54" s="3">
-        <v>3217900</v>
+        <v>3213300</v>
       </c>
       <c r="J54" s="3">
-        <v>3124800</v>
+        <v>3120200</v>
       </c>
       <c r="K54" s="3">
         <v>3050000</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>317500</v>
+        <v>317000</v>
       </c>
       <c r="E57" s="3">
-        <v>314200</v>
+        <v>313700</v>
       </c>
       <c r="F57" s="3">
-        <v>262000</v>
+        <v>261600</v>
       </c>
       <c r="G57" s="3">
-        <v>229200</v>
+        <v>228900</v>
       </c>
       <c r="H57" s="3">
-        <v>245100</v>
+        <v>244700</v>
       </c>
       <c r="I57" s="3">
-        <v>212400</v>
+        <v>212100</v>
       </c>
       <c r="J57" s="3">
-        <v>204200</v>
+        <v>203900</v>
       </c>
       <c r="K57" s="3">
         <v>196900</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>191700</v>
+        <v>191500</v>
       </c>
       <c r="E58" s="3">
+        <v>285400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>340700</v>
+      </c>
+      <c r="G58" s="3">
         <v>285800</v>
       </c>
-      <c r="F58" s="3">
-        <v>341200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>286200</v>
-      </c>
       <c r="H58" s="3">
-        <v>207400</v>
+        <v>207100</v>
       </c>
       <c r="I58" s="3">
-        <v>223800</v>
+        <v>223400</v>
       </c>
       <c r="J58" s="3">
-        <v>244000</v>
+        <v>243600</v>
       </c>
       <c r="K58" s="3">
         <v>221600</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>507300</v>
+        <v>506500</v>
       </c>
       <c r="E59" s="3">
-        <v>481200</v>
+        <v>480500</v>
       </c>
       <c r="F59" s="3">
-        <v>496100</v>
+        <v>495400</v>
       </c>
       <c r="G59" s="3">
-        <v>486500</v>
+        <v>485800</v>
       </c>
       <c r="H59" s="3">
-        <v>437700</v>
+        <v>437100</v>
       </c>
       <c r="I59" s="3">
-        <v>405700</v>
+        <v>405100</v>
       </c>
       <c r="J59" s="3">
-        <v>390900</v>
+        <v>390300</v>
       </c>
       <c r="K59" s="3">
         <v>389200</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1016500</v>
+        <v>1015000</v>
       </c>
       <c r="E60" s="3">
-        <v>1081100</v>
+        <v>1079500</v>
       </c>
       <c r="F60" s="3">
-        <v>1099200</v>
+        <v>1097600</v>
       </c>
       <c r="G60" s="3">
-        <v>1001900</v>
+        <v>1000500</v>
       </c>
       <c r="H60" s="3">
-        <v>890200</v>
+        <v>888900</v>
       </c>
       <c r="I60" s="3">
-        <v>841800</v>
+        <v>840600</v>
       </c>
       <c r="J60" s="3">
-        <v>839100</v>
+        <v>837900</v>
       </c>
       <c r="K60" s="3">
         <v>807700</v>
@@ -3514,13 +3514,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>89600</v>
+        <v>89400</v>
       </c>
       <c r="E61" s="3">
-        <v>91700</v>
+        <v>91500</v>
       </c>
       <c r="F61" s="3">
-        <v>93400</v>
+        <v>93300</v>
       </c>
       <c r="G61" s="3">
         <v>17900</v>
@@ -3529,10 +3529,10 @@
         <v>17100</v>
       </c>
       <c r="I61" s="3">
-        <v>210300</v>
+        <v>210000</v>
       </c>
       <c r="J61" s="3">
-        <v>229200</v>
+        <v>228900</v>
       </c>
       <c r="K61" s="3">
         <v>297700</v>
@@ -3573,10 +3573,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35400</v>
+        <v>35300</v>
       </c>
       <c r="E62" s="3">
-        <v>38700</v>
+        <v>38600</v>
       </c>
       <c r="F62" s="3">
         <v>38800</v>
@@ -3585,13 +3585,13 @@
         <v>43100</v>
       </c>
       <c r="H62" s="3">
-        <v>45200</v>
+        <v>45100</v>
       </c>
       <c r="I62" s="3">
         <v>49300</v>
       </c>
       <c r="J62" s="3">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="K62" s="3">
         <v>47800</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1141400</v>
+        <v>1139700</v>
       </c>
       <c r="E66" s="3">
-        <v>1211400</v>
+        <v>1209700</v>
       </c>
       <c r="F66" s="3">
-        <v>1231500</v>
+        <v>1229700</v>
       </c>
       <c r="G66" s="3">
-        <v>1063000</v>
+        <v>1061500</v>
       </c>
       <c r="H66" s="3">
-        <v>952500</v>
+        <v>951200</v>
       </c>
       <c r="I66" s="3">
-        <v>1101400</v>
+        <v>1099800</v>
       </c>
       <c r="J66" s="3">
-        <v>1112900</v>
+        <v>1111300</v>
       </c>
       <c r="K66" s="3">
         <v>1153200</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2136000</v>
+        <v>2132900</v>
       </c>
       <c r="E72" s="3">
-        <v>2132200</v>
+        <v>2129100</v>
       </c>
       <c r="F72" s="3">
-        <v>2083700</v>
+        <v>2080700</v>
       </c>
       <c r="G72" s="3">
-        <v>2004200</v>
+        <v>2001300</v>
       </c>
       <c r="H72" s="3">
-        <v>1897700</v>
+        <v>1894900</v>
       </c>
       <c r="I72" s="3">
-        <v>1975000</v>
+        <v>1972100</v>
       </c>
       <c r="J72" s="3">
-        <v>1877700</v>
+        <v>1875000</v>
       </c>
       <c r="K72" s="3">
         <v>1756300</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2330900</v>
+        <v>2327500</v>
       </c>
       <c r="E76" s="3">
-        <v>2275000</v>
+        <v>2271700</v>
       </c>
       <c r="F76" s="3">
-        <v>2225700</v>
+        <v>2222400</v>
       </c>
       <c r="G76" s="3">
-        <v>2132600</v>
+        <v>2129500</v>
       </c>
       <c r="H76" s="3">
-        <v>2045700</v>
+        <v>2042800</v>
       </c>
       <c r="I76" s="3">
-        <v>2116500</v>
+        <v>2113400</v>
       </c>
       <c r="J76" s="3">
-        <v>2011800</v>
+        <v>2008900</v>
       </c>
       <c r="K76" s="3">
         <v>1896900</v>
@@ -4548,22 +4548,22 @@
         <v>2700</v>
       </c>
       <c r="E81" s="3">
-        <v>104900</v>
+        <v>104700</v>
       </c>
       <c r="F81" s="3">
-        <v>79700</v>
+        <v>79600</v>
       </c>
       <c r="G81" s="3">
-        <v>105200</v>
+        <v>105000</v>
       </c>
       <c r="H81" s="3">
-        <v>-78400</v>
+        <v>-78300</v>
       </c>
       <c r="I81" s="3">
-        <v>150300</v>
+        <v>150100</v>
       </c>
       <c r="J81" s="3">
-        <v>91200</v>
+        <v>91100</v>
       </c>
       <c r="K81" s="3">
         <v>58800</v>
@@ -4627,16 +4627,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44300</v>
+        <v>44200</v>
       </c>
       <c r="E83" s="3">
-        <v>45000</v>
+        <v>44900</v>
       </c>
       <c r="F83" s="3">
-        <v>43200</v>
+        <v>43100</v>
       </c>
       <c r="G83" s="3">
-        <v>40800</v>
+        <v>40700</v>
       </c>
       <c r="H83" s="3">
         <v>42400</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>58800</v>
+        <v>58700</v>
       </c>
       <c r="E89" s="3">
-        <v>127300</v>
+        <v>127100</v>
       </c>
       <c r="F89" s="3">
-        <v>150200</v>
+        <v>149900</v>
       </c>
       <c r="G89" s="3">
         <v>35000</v>
       </c>
       <c r="H89" s="3">
-        <v>101200</v>
+        <v>101100</v>
       </c>
       <c r="I89" s="3">
-        <v>139100</v>
+        <v>138900</v>
       </c>
       <c r="J89" s="3">
-        <v>135300</v>
+        <v>135100</v>
       </c>
       <c r="K89" s="3">
         <v>90800</v>
@@ -5072,7 +5072,7 @@
         <v>-20600</v>
       </c>
       <c r="G91" s="3">
-        <v>-20600</v>
+        <v>-20500</v>
       </c>
       <c r="H91" s="3">
         <v>-16700</v>
@@ -5081,7 +5081,7 @@
         <v>-14800</v>
       </c>
       <c r="J91" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="K91" s="3">
         <v>-23800</v>
@@ -5246,19 +5246,19 @@
         <v>-17100</v>
       </c>
       <c r="F94" s="3">
-        <v>-216400</v>
+        <v>-216000</v>
       </c>
       <c r="G94" s="3">
-        <v>-112400</v>
+        <v>-112300</v>
       </c>
       <c r="H94" s="3">
-        <v>112000</v>
+        <v>111800</v>
       </c>
       <c r="I94" s="3">
         <v>-16500</v>
       </c>
       <c r="J94" s="3">
-        <v>-50800</v>
+        <v>-50700</v>
       </c>
       <c r="K94" s="3">
         <v>-7700</v>
@@ -5558,25 +5558,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-103900</v>
+        <v>-103800</v>
       </c>
       <c r="E100" s="3">
-        <v>-117900</v>
+        <v>-117700</v>
       </c>
       <c r="F100" s="3">
-        <v>98800</v>
+        <v>98700</v>
       </c>
       <c r="G100" s="3">
-        <v>74800</v>
+        <v>74700</v>
       </c>
       <c r="H100" s="3">
-        <v>-224300</v>
+        <v>-224000</v>
       </c>
       <c r="I100" s="3">
-        <v>-109800</v>
+        <v>-109600</v>
       </c>
       <c r="J100" s="3">
-        <v>-86900</v>
+        <v>-86700</v>
       </c>
       <c r="K100" s="3">
         <v>-75900</v>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>RDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,295 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>677300</v>
+        <v>661700</v>
       </c>
       <c r="E8" s="3">
-        <v>672800</v>
+        <v>636000</v>
       </c>
       <c r="F8" s="3">
-        <v>607000</v>
+        <v>663000</v>
       </c>
       <c r="G8" s="3">
-        <v>608900</v>
+        <v>658600</v>
       </c>
       <c r="H8" s="3">
-        <v>602300</v>
+        <v>594200</v>
       </c>
       <c r="I8" s="3">
+        <v>596100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>589600</v>
+      </c>
+      <c r="K8" s="3">
         <v>659600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>528100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>543400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>520900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>502100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>491900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>511100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>550300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>512800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>479500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>489800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>510800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>312700</v>
+        <v>316000</v>
       </c>
       <c r="E9" s="3">
-        <v>309900</v>
+        <v>294700</v>
       </c>
       <c r="F9" s="3">
-        <v>266800</v>
+        <v>306100</v>
       </c>
       <c r="G9" s="3">
-        <v>295500</v>
+        <v>303400</v>
       </c>
       <c r="H9" s="3">
-        <v>276400</v>
+        <v>261200</v>
       </c>
       <c r="I9" s="3">
+        <v>289300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K9" s="3">
         <v>280100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>255200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>258600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>240100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>225800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>217900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>237900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>240700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>239400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>232300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>239200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>209000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>364600</v>
+        <v>345700</v>
       </c>
       <c r="E10" s="3">
-        <v>362900</v>
+        <v>341300</v>
       </c>
       <c r="F10" s="3">
-        <v>340100</v>
+        <v>356900</v>
       </c>
       <c r="G10" s="3">
-        <v>313400</v>
+        <v>355200</v>
       </c>
       <c r="H10" s="3">
-        <v>325900</v>
+        <v>333000</v>
       </c>
       <c r="I10" s="3">
+        <v>306800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>319100</v>
+      </c>
+      <c r="K10" s="3">
         <v>379500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>272900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>284800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>280800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>276300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>274000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>273200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>309600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>273300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>247200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>250500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>301800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>52700</v>
+        <v>57500</v>
       </c>
       <c r="E12" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>51600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>55000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I12" s="3">
         <v>52500</v>
       </c>
-      <c r="F12" s="3">
-        <v>51000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>53600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>50500</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K12" s="3">
         <v>46700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>45900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>44700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>46000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>50600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>50400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>58400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>63000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>55800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>69100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>59000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>64000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,49 +1101,55 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>82100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>10700</v>
+        <v>24700</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>80300</v>
       </c>
       <c r="G14" s="3">
+        <v>10500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>181400</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
+      <c r="M14" s="3">
+        <v>1100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,67 +1166,79 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>23400</v>
+        <v>20900</v>
       </c>
       <c r="E15" s="3">
-        <v>27300</v>
+        <v>22900</v>
       </c>
       <c r="F15" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="G15" s="3">
-        <v>19800</v>
+        <v>23100</v>
       </c>
       <c r="H15" s="3">
-        <v>20300</v>
+        <v>21600</v>
       </c>
       <c r="I15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K15" s="3">
         <v>22000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>19400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>19300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>19100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>17800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>17200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>19900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>18700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>18300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>17100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>17000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>18300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>647100</v>
+        <v>572800</v>
       </c>
       <c r="E17" s="3">
-        <v>558600</v>
+        <v>559800</v>
       </c>
       <c r="F17" s="3">
-        <v>495600</v>
+        <v>633500</v>
       </c>
       <c r="G17" s="3">
-        <v>518200</v>
+        <v>546800</v>
       </c>
       <c r="H17" s="3">
-        <v>683000</v>
+        <v>485100</v>
       </c>
       <c r="I17" s="3">
+        <v>507300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>668600</v>
+      </c>
+      <c r="K17" s="3">
         <v>559100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>418900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>471100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>443400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>435400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>428800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>472900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>477900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>457700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>472900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>446600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>431000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30200</v>
+        <v>88900</v>
       </c>
       <c r="E18" s="3">
-        <v>114200</v>
+        <v>76200</v>
       </c>
       <c r="F18" s="3">
-        <v>111400</v>
+        <v>29600</v>
       </c>
       <c r="G18" s="3">
-        <v>90700</v>
+        <v>111800</v>
       </c>
       <c r="H18" s="3">
-        <v>-80600</v>
+        <v>109000</v>
       </c>
       <c r="I18" s="3">
+        <v>88800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="K18" s="3">
         <v>100500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>109200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>72300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>77500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>66700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>38300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>72400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>55100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>43200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>79800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1412,140 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11400</v>
+        <v>13600</v>
       </c>
       <c r="E20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="P20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>18500</v>
+      </c>
+      <c r="R20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="S20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T20" s="3">
         <v>7700</v>
       </c>
-      <c r="F20" s="3">
-        <v>12600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>11700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>12500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>5700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>18500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>16000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>4200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>7700</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>85800</v>
+        <v>141500</v>
       </c>
       <c r="E21" s="3">
-        <v>166900</v>
+        <v>129500</v>
       </c>
       <c r="F21" s="3">
-        <v>167100</v>
+        <v>84000</v>
       </c>
       <c r="G21" s="3">
-        <v>142000</v>
+        <v>163300</v>
       </c>
       <c r="H21" s="3">
-        <v>-28000</v>
+        <v>163600</v>
       </c>
       <c r="I21" s="3">
+        <v>139000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="K21" s="3">
         <v>155400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>163200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>129400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>124300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>118800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>108200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>100100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>131400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>101800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>54700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>86000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>123700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,176 +1553,194 @@
         <v>2600</v>
       </c>
       <c r="E22" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="T22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39100</v>
+        <v>99900</v>
       </c>
       <c r="E23" s="3">
-        <v>118500</v>
+        <v>82900</v>
       </c>
       <c r="F23" s="3">
-        <v>120800</v>
+        <v>38200</v>
       </c>
       <c r="G23" s="3">
-        <v>98100</v>
+        <v>116000</v>
       </c>
       <c r="H23" s="3">
-        <v>-72500</v>
+        <v>118200</v>
       </c>
       <c r="I23" s="3">
+        <v>96100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="K23" s="3">
         <v>105300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>116800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>79200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>78500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>76400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>66200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>54200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>86000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>56000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>11200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>43900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>81600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36300</v>
+        <v>23100</v>
       </c>
       <c r="E24" s="3">
-        <v>13700</v>
+        <v>34100</v>
       </c>
       <c r="F24" s="3">
-        <v>41200</v>
+        <v>35600</v>
       </c>
       <c r="G24" s="3">
-        <v>-6900</v>
+        <v>13400</v>
       </c>
       <c r="H24" s="3">
-        <v>5800</v>
+        <v>40300</v>
       </c>
       <c r="I24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-44800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>25700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>20400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>9800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>24200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>16800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
-        <v>104700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>79600</v>
-      </c>
       <c r="G26" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="H26" s="3">
-        <v>-78300</v>
+        <v>77900</v>
       </c>
       <c r="I26" s="3">
+        <v>102800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K26" s="3">
         <v>150100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>91100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>58800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>65600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>66600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>60300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>49100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>61800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>41200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>43100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>64800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
-        <v>104700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>79600</v>
-      </c>
       <c r="G27" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="H27" s="3">
-        <v>-78300</v>
+        <v>77900</v>
       </c>
       <c r="I27" s="3">
+        <v>102800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K27" s="3">
         <v>150100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>91100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>58800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>65600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>66600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>60300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>49100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>61800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>41200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>43100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>64800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,31 +1993,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>11</v>
@@ -1915,17 +2037,17 @@
       <c r="N29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-5400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11400</v>
+        <v>-13600</v>
       </c>
       <c r="E32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="T32" s="3">
         <v>-7700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
-        <v>104700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>79600</v>
-      </c>
       <c r="G33" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="H33" s="3">
-        <v>-78300</v>
+        <v>77900</v>
       </c>
       <c r="I33" s="3">
+        <v>102800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K33" s="3">
         <v>150100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>91100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>58800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>65600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>66600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>60300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>43700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>48400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>41200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>43100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>64800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
-        <v>104700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>79600</v>
-      </c>
       <c r="G35" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="H35" s="3">
-        <v>-78300</v>
+        <v>77900</v>
       </c>
       <c r="I35" s="3">
+        <v>102800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K35" s="3">
         <v>150100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>91100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>58800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>65600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>66600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>60300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>43700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>48400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>41200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>43100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>64800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2572,595 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59400</v>
+        <v>109900</v>
       </c>
       <c r="E41" s="3">
-        <v>53400</v>
+        <v>199500</v>
       </c>
       <c r="F41" s="3">
-        <v>60500</v>
+        <v>58100</v>
       </c>
       <c r="G41" s="3">
-        <v>28200</v>
+        <v>52300</v>
       </c>
       <c r="H41" s="3">
-        <v>30800</v>
+        <v>59200</v>
       </c>
       <c r="I41" s="3">
+        <v>27600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K41" s="3">
         <v>41400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>30100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>23200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>50000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>29000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>38100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>29100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>35600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>40800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>53300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>83100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>158400</v>
+        <v>273500</v>
       </c>
       <c r="E42" s="3">
-        <v>290700</v>
+        <v>265600</v>
       </c>
       <c r="F42" s="3">
-        <v>320000</v>
+        <v>155100</v>
       </c>
       <c r="G42" s="3">
-        <v>325500</v>
+        <v>284500</v>
       </c>
       <c r="H42" s="3">
-        <v>240500</v>
+        <v>313300</v>
       </c>
       <c r="I42" s="3">
+        <v>318600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>235400</v>
+      </c>
+      <c r="K42" s="3">
         <v>350900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>338400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>304800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>312000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>206300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>177300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>265100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>288400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>207300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>169900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>196600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>194500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>757700</v>
+        <v>854500</v>
       </c>
       <c r="E43" s="3">
-        <v>718400</v>
+        <v>704600</v>
       </c>
       <c r="F43" s="3">
-        <v>674200</v>
+        <v>741700</v>
       </c>
       <c r="G43" s="3">
-        <v>751000</v>
+        <v>703200</v>
       </c>
       <c r="H43" s="3">
-        <v>651200</v>
+        <v>660000</v>
       </c>
       <c r="I43" s="3">
+        <v>735100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>637400</v>
+      </c>
+      <c r="K43" s="3">
         <v>599700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>554600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>585400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>551500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>653300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>683200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>587300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>613600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>610300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>594900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>524500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>566600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>608800</v>
+        <v>682900</v>
       </c>
       <c r="E44" s="3">
-        <v>565200</v>
+        <v>610800</v>
       </c>
       <c r="F44" s="3">
-        <v>537900</v>
+        <v>596000</v>
       </c>
       <c r="G44" s="3">
-        <v>481800</v>
+        <v>553300</v>
       </c>
       <c r="H44" s="3">
-        <v>518600</v>
+        <v>526500</v>
       </c>
       <c r="I44" s="3">
+        <v>471600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>507700</v>
+      </c>
+      <c r="K44" s="3">
         <v>481400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>482800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>454300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>458800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>429500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>416400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>420600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>387900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>390400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>406300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>393100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>414100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>248900</v>
+        <v>214900</v>
       </c>
       <c r="E45" s="3">
-        <v>227300</v>
+        <v>213600</v>
       </c>
       <c r="F45" s="3">
-        <v>234000</v>
+        <v>243700</v>
       </c>
       <c r="G45" s="3">
-        <v>204800</v>
+        <v>222500</v>
       </c>
       <c r="H45" s="3">
-        <v>169900</v>
+        <v>229000</v>
       </c>
       <c r="I45" s="3">
+        <v>200500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K45" s="3">
         <v>176600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>183700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>174500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>182200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>189200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>213000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>274300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>264300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>246000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>234200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>215600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>193600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1833200</v>
+        <v>2135500</v>
       </c>
       <c r="E46" s="3">
-        <v>1855000</v>
+        <v>1993900</v>
       </c>
       <c r="F46" s="3">
-        <v>1826600</v>
+        <v>1794500</v>
       </c>
       <c r="G46" s="3">
-        <v>1791300</v>
+        <v>1815800</v>
       </c>
       <c r="H46" s="3">
-        <v>1611100</v>
+        <v>1788000</v>
       </c>
       <c r="I46" s="3">
+        <v>1753500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1577100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1650000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1587800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1549200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1527700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1528400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1518900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1585500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1583200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1489500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1446100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1383200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1451900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>121900</v>
+        <v>129400</v>
       </c>
       <c r="E47" s="3">
-        <v>58400</v>
+        <v>113700</v>
       </c>
       <c r="F47" s="3">
-        <v>70600</v>
+        <v>119400</v>
       </c>
       <c r="G47" s="3">
-        <v>66300</v>
+        <v>57200</v>
       </c>
       <c r="H47" s="3">
-        <v>68300</v>
+        <v>69100</v>
       </c>
       <c r="I47" s="3">
+        <v>64900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K47" s="3">
         <v>77900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>56200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>46700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>44200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>52400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>50200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>69700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>74800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>73000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>80600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>97100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>101800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>773100</v>
+        <v>788700</v>
       </c>
       <c r="E48" s="3">
-        <v>756100</v>
+        <v>768100</v>
       </c>
       <c r="F48" s="3">
-        <v>744500</v>
+        <v>756700</v>
       </c>
       <c r="G48" s="3">
-        <v>719000</v>
+        <v>740100</v>
       </c>
       <c r="H48" s="3">
-        <v>724200</v>
+        <v>728800</v>
       </c>
       <c r="I48" s="3">
+        <v>703900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>708900</v>
+      </c>
+      <c r="K48" s="3">
         <v>728300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>743100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>731800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>748800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>748800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>753800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>836800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>841400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>837300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>833100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>787700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>788300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>564200</v>
+        <v>534600</v>
       </c>
       <c r="E49" s="3">
-        <v>625900</v>
+        <v>540900</v>
       </c>
       <c r="F49" s="3">
-        <v>631900</v>
+        <v>552300</v>
       </c>
       <c r="G49" s="3">
-        <v>434900</v>
+        <v>612700</v>
       </c>
       <c r="H49" s="3">
-        <v>423800</v>
+        <v>618600</v>
       </c>
       <c r="I49" s="3">
+        <v>425700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>414900</v>
+      </c>
+      <c r="K49" s="3">
         <v>609200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>657100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>653100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>665700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>678100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>651600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>702900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>696700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>717700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>702200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>670800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>688700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>174900</v>
+        <v>153800</v>
       </c>
       <c r="E52" s="3">
-        <v>186100</v>
+        <v>154200</v>
       </c>
       <c r="F52" s="3">
-        <v>178600</v>
+        <v>171200</v>
       </c>
       <c r="G52" s="3">
-        <v>179400</v>
+        <v>182100</v>
       </c>
       <c r="H52" s="3">
-        <v>166500</v>
+        <v>174800</v>
       </c>
       <c r="I52" s="3">
+        <v>175600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>162900</v>
+      </c>
+      <c r="K52" s="3">
         <v>147800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>76000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>69200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>80400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>89000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>77700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>67400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>71100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>92900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>95900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>90400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>99900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3467200</v>
+        <v>3742000</v>
       </c>
       <c r="E54" s="3">
-        <v>3481400</v>
+        <v>3570900</v>
       </c>
       <c r="F54" s="3">
-        <v>3452100</v>
+        <v>3394100</v>
       </c>
       <c r="G54" s="3">
-        <v>3191000</v>
+        <v>3407900</v>
       </c>
       <c r="H54" s="3">
-        <v>2993900</v>
+        <v>3379200</v>
       </c>
       <c r="I54" s="3">
+        <v>3123600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2930700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3213300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3120200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3050000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3066900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3096600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3052200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3262200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3267300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3210400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3157900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3029100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3130700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3532,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>317000</v>
+        <v>384800</v>
       </c>
       <c r="E57" s="3">
-        <v>313700</v>
+        <v>319400</v>
       </c>
       <c r="F57" s="3">
-        <v>261600</v>
+        <v>310300</v>
       </c>
       <c r="G57" s="3">
-        <v>228900</v>
+        <v>307100</v>
       </c>
       <c r="H57" s="3">
-        <v>244700</v>
+        <v>256100</v>
       </c>
       <c r="I57" s="3">
+        <v>224100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K57" s="3">
         <v>212100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>203900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>196900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>215700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>186000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>195900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>232100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>210800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>205200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>191200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>184900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>183400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>191500</v>
+        <v>365900</v>
       </c>
       <c r="E58" s="3">
-        <v>285400</v>
+        <v>322900</v>
       </c>
       <c r="F58" s="3">
-        <v>340700</v>
+        <v>187400</v>
       </c>
       <c r="G58" s="3">
-        <v>285800</v>
+        <v>279300</v>
       </c>
       <c r="H58" s="3">
-        <v>207100</v>
+        <v>333500</v>
       </c>
       <c r="I58" s="3">
+        <v>279700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>202700</v>
+      </c>
+      <c r="K58" s="3">
         <v>223400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>243600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>221600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>258900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>369200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>372500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>370500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>440300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>415200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>374500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>602700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>720400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>506500</v>
+        <v>480300</v>
       </c>
       <c r="E59" s="3">
-        <v>480500</v>
+        <v>479300</v>
       </c>
       <c r="F59" s="3">
-        <v>495400</v>
+        <v>495800</v>
       </c>
       <c r="G59" s="3">
-        <v>485800</v>
+        <v>470300</v>
       </c>
       <c r="H59" s="3">
-        <v>437100</v>
+        <v>484900</v>
       </c>
       <c r="I59" s="3">
+        <v>475600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>427800</v>
+      </c>
+      <c r="K59" s="3">
         <v>405100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>390300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>389200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>371900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>387500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>360500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>405100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>407400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>396700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>381600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>383700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>409100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1015000</v>
+        <v>1231000</v>
       </c>
       <c r="E60" s="3">
-        <v>1079500</v>
+        <v>1121600</v>
       </c>
       <c r="F60" s="3">
-        <v>1097600</v>
+        <v>993600</v>
       </c>
       <c r="G60" s="3">
-        <v>1000500</v>
+        <v>1056800</v>
       </c>
       <c r="H60" s="3">
-        <v>888900</v>
+        <v>1074400</v>
       </c>
       <c r="I60" s="3">
+        <v>979300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>870100</v>
+      </c>
+      <c r="K60" s="3">
         <v>840600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>837900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>807700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>846400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>942700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>928900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1007700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1058400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1017100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>947400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1171300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1313000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>89400</v>
+        <v>82900</v>
       </c>
       <c r="E61" s="3">
-        <v>91500</v>
+        <v>84700</v>
       </c>
       <c r="F61" s="3">
-        <v>93300</v>
+        <v>87500</v>
       </c>
       <c r="G61" s="3">
-        <v>17900</v>
+        <v>89600</v>
       </c>
       <c r="H61" s="3">
-        <v>17100</v>
+        <v>91300</v>
       </c>
       <c r="I61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K61" s="3">
         <v>210000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>228900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>297700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>334200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>364800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>345000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>362800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>353700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>360800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>355100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>75100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>78800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35300</v>
+        <v>32400</v>
       </c>
       <c r="E62" s="3">
-        <v>38600</v>
+        <v>36800</v>
       </c>
       <c r="F62" s="3">
-        <v>38800</v>
+        <v>34600</v>
       </c>
       <c r="G62" s="3">
-        <v>43100</v>
+        <v>37800</v>
       </c>
       <c r="H62" s="3">
-        <v>45100</v>
+        <v>38000</v>
       </c>
       <c r="I62" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K62" s="3">
         <v>49300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>44600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>47800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>50200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>51400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>54100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>63100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>66700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>70700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>70600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>73400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>71000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1139700</v>
+        <v>1346300</v>
       </c>
       <c r="E66" s="3">
-        <v>1209700</v>
+        <v>1243200</v>
       </c>
       <c r="F66" s="3">
-        <v>1229700</v>
+        <v>1115700</v>
       </c>
       <c r="G66" s="3">
-        <v>1061500</v>
+        <v>1184100</v>
       </c>
       <c r="H66" s="3">
-        <v>951200</v>
+        <v>1203700</v>
       </c>
       <c r="I66" s="3">
+        <v>1039100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>931100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1099800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1111300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1153200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1230800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1358900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1327900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1433600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1478800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1448600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1373200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1319800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1462700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2132900</v>
+        <v>2214300</v>
       </c>
       <c r="E72" s="3">
-        <v>2129100</v>
+        <v>2138300</v>
       </c>
       <c r="F72" s="3">
-        <v>2080700</v>
+        <v>2087900</v>
       </c>
       <c r="G72" s="3">
-        <v>2001300</v>
+        <v>2084200</v>
       </c>
       <c r="H72" s="3">
-        <v>1894900</v>
+        <v>2036800</v>
       </c>
       <c r="I72" s="3">
+        <v>1959000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1854900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1972100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1875000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1756300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1696200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1592200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1580100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1663800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1618700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1569400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1587400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1505100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1461100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2327500</v>
+        <v>2395600</v>
       </c>
       <c r="E76" s="3">
-        <v>2271700</v>
+        <v>2327700</v>
       </c>
       <c r="F76" s="3">
-        <v>2222400</v>
+        <v>2278400</v>
       </c>
       <c r="G76" s="3">
-        <v>2129500</v>
+        <v>2223800</v>
       </c>
       <c r="H76" s="3">
-        <v>2042800</v>
+        <v>2175500</v>
       </c>
       <c r="I76" s="3">
+        <v>2084600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1999600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2113400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2008900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1896900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1836100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1737700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1724300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1828600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1788500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1761800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1784700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1709300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1667900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
-        <v>104700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>79600</v>
-      </c>
       <c r="G81" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="H81" s="3">
-        <v>-78300</v>
+        <v>77900</v>
       </c>
       <c r="I81" s="3">
+        <v>102800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K81" s="3">
         <v>150100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>91100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>58800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>65600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>66600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>60300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>43700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>48400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>41200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>43100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>64800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +5017,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44200</v>
+        <v>39100</v>
       </c>
       <c r="E83" s="3">
-        <v>44900</v>
+        <v>42600</v>
       </c>
       <c r="F83" s="3">
-        <v>43100</v>
+        <v>43300</v>
       </c>
       <c r="G83" s="3">
-        <v>40700</v>
+        <v>44000</v>
       </c>
       <c r="H83" s="3">
+        <v>42200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>45900</v>
+      </c>
+      <c r="L83" s="3">
         <v>42400</v>
       </c>
-      <c r="I83" s="3">
-        <v>45900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>42400</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>42000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>42100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>39600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>39400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>43400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>43000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>42500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>40500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>39400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>39800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>58700</v>
+        <v>-46400</v>
       </c>
       <c r="E89" s="3">
-        <v>127100</v>
+        <v>151500</v>
       </c>
       <c r="F89" s="3">
-        <v>149900</v>
+        <v>57400</v>
       </c>
       <c r="G89" s="3">
-        <v>35000</v>
+        <v>124500</v>
       </c>
       <c r="H89" s="3">
-        <v>101100</v>
+        <v>146800</v>
       </c>
       <c r="I89" s="3">
+        <v>34200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K89" s="3">
         <v>138900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>135100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>90800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>220400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>141800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-66400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>83600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>108700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>97000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-28600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>117400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>72100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39400</v>
+        <v>-43000</v>
       </c>
       <c r="E91" s="3">
-        <v>-34400</v>
+        <v>-38700</v>
       </c>
       <c r="F91" s="3">
-        <v>-20600</v>
+        <v>-38600</v>
       </c>
       <c r="G91" s="3">
-        <v>-20500</v>
+        <v>-33600</v>
       </c>
       <c r="H91" s="3">
-        <v>-16700</v>
+        <v>-20200</v>
       </c>
       <c r="I91" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-14500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-20700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-30500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-21800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-39800</v>
       </c>
       <c r="S91" s="3">
         <v>-40700</v>
       </c>
       <c r="T91" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="V91" s="3">
         <v>-40900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>51700</v>
+        <v>-75400</v>
       </c>
       <c r="E94" s="3">
-        <v>-17100</v>
+        <v>-127100</v>
       </c>
       <c r="F94" s="3">
-        <v>-216000</v>
+        <v>50600</v>
       </c>
       <c r="G94" s="3">
-        <v>-112300</v>
+        <v>-16800</v>
       </c>
       <c r="H94" s="3">
-        <v>111800</v>
+        <v>-211500</v>
       </c>
       <c r="I94" s="3">
+        <v>-109900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-50700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-104100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-38700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>45800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>11500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-147800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-75600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-44600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>28400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-103800</v>
+        <v>30400</v>
       </c>
       <c r="E100" s="3">
-        <v>-117700</v>
+        <v>116200</v>
       </c>
       <c r="F100" s="3">
-        <v>98700</v>
+        <v>-101600</v>
       </c>
       <c r="G100" s="3">
-        <v>74700</v>
+        <v>-115200</v>
       </c>
       <c r="H100" s="3">
-        <v>-224000</v>
+        <v>96600</v>
       </c>
       <c r="I100" s="3">
+        <v>73100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-109600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-86700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-75900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-143000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-83800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>15800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-87300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>32400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-28000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>18700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-101900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-48500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7300</v>
+        <v>-89500</v>
       </c>
       <c r="E102" s="3">
-        <v>-8400</v>
+        <v>141200</v>
       </c>
       <c r="F102" s="3">
-        <v>33500</v>
+        <v>7200</v>
       </c>
       <c r="G102" s="3">
-        <v>-3900</v>
+        <v>-8200</v>
       </c>
       <c r="H102" s="3">
-        <v>-10500</v>
+        <v>32800</v>
       </c>
       <c r="I102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-28000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>21200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>8900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-13800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-31000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>51300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>661700</v>
+        <v>655800</v>
       </c>
       <c r="E8" s="3">
-        <v>636000</v>
+        <v>630300</v>
       </c>
       <c r="F8" s="3">
-        <v>663000</v>
+        <v>657100</v>
       </c>
       <c r="G8" s="3">
-        <v>658600</v>
+        <v>652700</v>
       </c>
       <c r="H8" s="3">
-        <v>594200</v>
+        <v>588900</v>
       </c>
       <c r="I8" s="3">
-        <v>596100</v>
+        <v>590800</v>
       </c>
       <c r="J8" s="3">
-        <v>589600</v>
+        <v>584400</v>
       </c>
       <c r="K8" s="3">
         <v>659600</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>316000</v>
+        <v>313200</v>
       </c>
       <c r="E9" s="3">
-        <v>294700</v>
+        <v>292000</v>
       </c>
       <c r="F9" s="3">
-        <v>306100</v>
+        <v>303400</v>
       </c>
       <c r="G9" s="3">
-        <v>303400</v>
+        <v>300700</v>
       </c>
       <c r="H9" s="3">
-        <v>261200</v>
+        <v>258900</v>
       </c>
       <c r="I9" s="3">
-        <v>289300</v>
+        <v>286700</v>
       </c>
       <c r="J9" s="3">
-        <v>270600</v>
+        <v>268100</v>
       </c>
       <c r="K9" s="3">
         <v>280100</v>
@@ -893,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>345700</v>
+        <v>342600</v>
       </c>
       <c r="E10" s="3">
-        <v>341300</v>
+        <v>338200</v>
       </c>
       <c r="F10" s="3">
-        <v>356900</v>
+        <v>353800</v>
       </c>
       <c r="G10" s="3">
-        <v>355200</v>
+        <v>352000</v>
       </c>
       <c r="H10" s="3">
-        <v>333000</v>
+        <v>330000</v>
       </c>
       <c r="I10" s="3">
-        <v>306800</v>
+        <v>304000</v>
       </c>
       <c r="J10" s="3">
-        <v>319100</v>
+        <v>316200</v>
       </c>
       <c r="K10" s="3">
         <v>379500</v>
@@ -983,25 +983,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="E12" s="3">
-        <v>51500</v>
+        <v>51000</v>
       </c>
       <c r="F12" s="3">
-        <v>51600</v>
+        <v>51200</v>
       </c>
       <c r="G12" s="3">
-        <v>55000</v>
+        <v>54500</v>
       </c>
       <c r="H12" s="3">
-        <v>50000</v>
+        <v>49500</v>
       </c>
       <c r="I12" s="3">
-        <v>52500</v>
+        <v>52000</v>
       </c>
       <c r="J12" s="3">
-        <v>49400</v>
+        <v>49000</v>
       </c>
       <c r="K12" s="3">
         <v>46700</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>24700</v>
+        <v>24500</v>
       </c>
       <c r="F14" s="3">
-        <v>80300</v>
+        <v>79600</v>
       </c>
       <c r="G14" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>177500</v>
+        <v>176000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>11</v>
@@ -1178,25 +1178,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="E15" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G15" s="3">
         <v>22900</v>
       </c>
-      <c r="F15" s="3">
-        <v>22900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>23100</v>
-      </c>
       <c r="H15" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="I15" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="J15" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="K15" s="3">
         <v>22000</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>572800</v>
+        <v>567700</v>
       </c>
       <c r="E17" s="3">
-        <v>559800</v>
+        <v>554800</v>
       </c>
       <c r="F17" s="3">
-        <v>633500</v>
+        <v>627800</v>
       </c>
       <c r="G17" s="3">
-        <v>546800</v>
+        <v>541900</v>
       </c>
       <c r="H17" s="3">
-        <v>485100</v>
+        <v>480800</v>
       </c>
       <c r="I17" s="3">
-        <v>507300</v>
+        <v>502800</v>
       </c>
       <c r="J17" s="3">
-        <v>668600</v>
+        <v>662600</v>
       </c>
       <c r="K17" s="3">
         <v>559100</v>
@@ -1330,25 +1330,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88900</v>
+        <v>88100</v>
       </c>
       <c r="E18" s="3">
-        <v>76200</v>
+        <v>75500</v>
       </c>
       <c r="F18" s="3">
-        <v>29600</v>
+        <v>29300</v>
       </c>
       <c r="G18" s="3">
-        <v>111800</v>
+        <v>110800</v>
       </c>
       <c r="H18" s="3">
-        <v>109000</v>
+        <v>108100</v>
       </c>
       <c r="I18" s="3">
-        <v>88800</v>
+        <v>88000</v>
       </c>
       <c r="J18" s="3">
-        <v>-78900</v>
+        <v>-78200</v>
       </c>
       <c r="K18" s="3">
         <v>100500</v>
@@ -1420,22 +1420,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="E20" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="F20" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="G20" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H20" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I20" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="J20" s="3">
         <v>10000</v>
@@ -1485,25 +1485,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>141500</v>
+        <v>140300</v>
       </c>
       <c r="E21" s="3">
-        <v>129500</v>
+        <v>128300</v>
       </c>
       <c r="F21" s="3">
-        <v>84000</v>
+        <v>83300</v>
       </c>
       <c r="G21" s="3">
-        <v>163300</v>
+        <v>161900</v>
       </c>
       <c r="H21" s="3">
-        <v>163600</v>
+        <v>162100</v>
       </c>
       <c r="I21" s="3">
-        <v>139000</v>
+        <v>137800</v>
       </c>
       <c r="J21" s="3">
-        <v>-27400</v>
+        <v>-27200</v>
       </c>
       <c r="K21" s="3">
         <v>155400</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>99900</v>
+        <v>99000</v>
       </c>
       <c r="E23" s="3">
-        <v>82900</v>
+        <v>82100</v>
       </c>
       <c r="F23" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="G23" s="3">
-        <v>116000</v>
+        <v>114900</v>
       </c>
       <c r="H23" s="3">
-        <v>118200</v>
+        <v>117200</v>
       </c>
       <c r="I23" s="3">
-        <v>96100</v>
+        <v>95200</v>
       </c>
       <c r="J23" s="3">
-        <v>-70900</v>
+        <v>-70300</v>
       </c>
       <c r="K23" s="3">
         <v>105300</v>
@@ -1680,25 +1680,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="E24" s="3">
-        <v>34100</v>
+        <v>33800</v>
       </c>
       <c r="F24" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="G24" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="H24" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="I24" s="3">
         <v>-6700</v>
       </c>
       <c r="J24" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="K24" s="3">
         <v>-44800</v>
@@ -1810,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76800</v>
+        <v>76100</v>
       </c>
       <c r="E26" s="3">
-        <v>48700</v>
+        <v>48300</v>
       </c>
       <c r="F26" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G26" s="3">
-        <v>102500</v>
+        <v>101600</v>
       </c>
       <c r="H26" s="3">
-        <v>77900</v>
+        <v>77200</v>
       </c>
       <c r="I26" s="3">
-        <v>102800</v>
+        <v>101900</v>
       </c>
       <c r="J26" s="3">
-        <v>-76600</v>
+        <v>-75900</v>
       </c>
       <c r="K26" s="3">
         <v>150100</v>
@@ -1875,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76800</v>
+        <v>76100</v>
       </c>
       <c r="E27" s="3">
-        <v>48700</v>
+        <v>48300</v>
       </c>
       <c r="F27" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G27" s="3">
-        <v>102500</v>
+        <v>101600</v>
       </c>
       <c r="H27" s="3">
-        <v>77900</v>
+        <v>77200</v>
       </c>
       <c r="I27" s="3">
-        <v>102800</v>
+        <v>101900</v>
       </c>
       <c r="J27" s="3">
-        <v>-76600</v>
+        <v>-75900</v>
       </c>
       <c r="K27" s="3">
         <v>150100</v>
@@ -2200,22 +2200,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="E32" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="F32" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="G32" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="H32" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="I32" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="J32" s="3">
         <v>-10000</v>
@@ -2265,25 +2265,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76800</v>
+        <v>76100</v>
       </c>
       <c r="E33" s="3">
-        <v>48700</v>
+        <v>48300</v>
       </c>
       <c r="F33" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G33" s="3">
-        <v>102500</v>
+        <v>101600</v>
       </c>
       <c r="H33" s="3">
-        <v>77900</v>
+        <v>77200</v>
       </c>
       <c r="I33" s="3">
-        <v>102800</v>
+        <v>101900</v>
       </c>
       <c r="J33" s="3">
-        <v>-76600</v>
+        <v>-75900</v>
       </c>
       <c r="K33" s="3">
         <v>150100</v>
@@ -2395,25 +2395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76800</v>
+        <v>76100</v>
       </c>
       <c r="E35" s="3">
-        <v>48700</v>
+        <v>48300</v>
       </c>
       <c r="F35" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="3">
-        <v>102500</v>
+        <v>101600</v>
       </c>
       <c r="H35" s="3">
-        <v>77900</v>
+        <v>77200</v>
       </c>
       <c r="I35" s="3">
-        <v>102800</v>
+        <v>101900</v>
       </c>
       <c r="J35" s="3">
-        <v>-76600</v>
+        <v>-75900</v>
       </c>
       <c r="K35" s="3">
         <v>150100</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109900</v>
+        <v>108900</v>
       </c>
       <c r="E41" s="3">
-        <v>199500</v>
+        <v>197700</v>
       </c>
       <c r="F41" s="3">
-        <v>58100</v>
+        <v>57600</v>
       </c>
       <c r="G41" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="H41" s="3">
-        <v>59200</v>
+        <v>58700</v>
       </c>
       <c r="I41" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="J41" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="K41" s="3">
         <v>41400</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>273500</v>
+        <v>271000</v>
       </c>
       <c r="E42" s="3">
-        <v>265600</v>
+        <v>263200</v>
       </c>
       <c r="F42" s="3">
-        <v>155100</v>
+        <v>153700</v>
       </c>
       <c r="G42" s="3">
-        <v>284500</v>
+        <v>282000</v>
       </c>
       <c r="H42" s="3">
-        <v>313300</v>
+        <v>310500</v>
       </c>
       <c r="I42" s="3">
-        <v>318600</v>
+        <v>315700</v>
       </c>
       <c r="J42" s="3">
-        <v>235400</v>
+        <v>233300</v>
       </c>
       <c r="K42" s="3">
         <v>350900</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>854500</v>
+        <v>846800</v>
       </c>
       <c r="E43" s="3">
-        <v>704600</v>
+        <v>698300</v>
       </c>
       <c r="F43" s="3">
-        <v>741700</v>
+        <v>735000</v>
       </c>
       <c r="G43" s="3">
-        <v>703200</v>
+        <v>696900</v>
       </c>
       <c r="H43" s="3">
-        <v>660000</v>
+        <v>654100</v>
       </c>
       <c r="I43" s="3">
-        <v>735100</v>
+        <v>728600</v>
       </c>
       <c r="J43" s="3">
-        <v>637400</v>
+        <v>631800</v>
       </c>
       <c r="K43" s="3">
         <v>599700</v>
@@ -2775,25 +2775,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>682900</v>
+        <v>676800</v>
       </c>
       <c r="E44" s="3">
-        <v>610800</v>
+        <v>605300</v>
       </c>
       <c r="F44" s="3">
-        <v>596000</v>
+        <v>590600</v>
       </c>
       <c r="G44" s="3">
-        <v>553300</v>
+        <v>548300</v>
       </c>
       <c r="H44" s="3">
-        <v>526500</v>
+        <v>521800</v>
       </c>
       <c r="I44" s="3">
-        <v>471600</v>
+        <v>467400</v>
       </c>
       <c r="J44" s="3">
-        <v>507700</v>
+        <v>503200</v>
       </c>
       <c r="K44" s="3">
         <v>481400</v>
@@ -2840,25 +2840,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>214900</v>
+        <v>213000</v>
       </c>
       <c r="E45" s="3">
-        <v>213600</v>
+        <v>211700</v>
       </c>
       <c r="F45" s="3">
-        <v>243700</v>
+        <v>241500</v>
       </c>
       <c r="G45" s="3">
-        <v>222500</v>
+        <v>220600</v>
       </c>
       <c r="H45" s="3">
-        <v>229000</v>
+        <v>227000</v>
       </c>
       <c r="I45" s="3">
-        <v>200500</v>
+        <v>198700</v>
       </c>
       <c r="J45" s="3">
-        <v>166300</v>
+        <v>164800</v>
       </c>
       <c r="K45" s="3">
         <v>176600</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2135500</v>
+        <v>2116500</v>
       </c>
       <c r="E46" s="3">
-        <v>1993900</v>
+        <v>1976200</v>
       </c>
       <c r="F46" s="3">
-        <v>1794500</v>
+        <v>1778500</v>
       </c>
       <c r="G46" s="3">
-        <v>1815800</v>
+        <v>1799600</v>
       </c>
       <c r="H46" s="3">
-        <v>1788000</v>
+        <v>1772100</v>
       </c>
       <c r="I46" s="3">
-        <v>1753500</v>
+        <v>1737800</v>
       </c>
       <c r="J46" s="3">
-        <v>1577100</v>
+        <v>1563000</v>
       </c>
       <c r="K46" s="3">
         <v>1650000</v>
@@ -2970,25 +2970,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>129400</v>
+        <v>128300</v>
       </c>
       <c r="E47" s="3">
-        <v>113700</v>
+        <v>112700</v>
       </c>
       <c r="F47" s="3">
-        <v>119400</v>
+        <v>118300</v>
       </c>
       <c r="G47" s="3">
-        <v>57200</v>
+        <v>56700</v>
       </c>
       <c r="H47" s="3">
-        <v>69100</v>
+        <v>68400</v>
       </c>
       <c r="I47" s="3">
-        <v>64900</v>
+        <v>64400</v>
       </c>
       <c r="J47" s="3">
-        <v>66900</v>
+        <v>66300</v>
       </c>
       <c r="K47" s="3">
         <v>77900</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>788700</v>
+        <v>781600</v>
       </c>
       <c r="E48" s="3">
-        <v>768100</v>
+        <v>761300</v>
       </c>
       <c r="F48" s="3">
-        <v>756700</v>
+        <v>750000</v>
       </c>
       <c r="G48" s="3">
-        <v>740100</v>
+        <v>733500</v>
       </c>
       <c r="H48" s="3">
-        <v>728800</v>
+        <v>722300</v>
       </c>
       <c r="I48" s="3">
-        <v>703900</v>
+        <v>697600</v>
       </c>
       <c r="J48" s="3">
-        <v>708900</v>
+        <v>702600</v>
       </c>
       <c r="K48" s="3">
         <v>728300</v>
@@ -3100,25 +3100,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>534600</v>
+        <v>529800</v>
       </c>
       <c r="E49" s="3">
-        <v>540900</v>
+        <v>536100</v>
       </c>
       <c r="F49" s="3">
-        <v>552300</v>
+        <v>547400</v>
       </c>
       <c r="G49" s="3">
-        <v>612700</v>
+        <v>607200</v>
       </c>
       <c r="H49" s="3">
-        <v>618600</v>
+        <v>613100</v>
       </c>
       <c r="I49" s="3">
-        <v>425700</v>
+        <v>421900</v>
       </c>
       <c r="J49" s="3">
-        <v>414900</v>
+        <v>411200</v>
       </c>
       <c r="K49" s="3">
         <v>609200</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>153800</v>
+        <v>152400</v>
       </c>
       <c r="E52" s="3">
-        <v>154200</v>
+        <v>152800</v>
       </c>
       <c r="F52" s="3">
-        <v>171200</v>
+        <v>169700</v>
       </c>
       <c r="G52" s="3">
-        <v>182100</v>
+        <v>180500</v>
       </c>
       <c r="H52" s="3">
-        <v>174800</v>
+        <v>173300</v>
       </c>
       <c r="I52" s="3">
-        <v>175600</v>
+        <v>174100</v>
       </c>
       <c r="J52" s="3">
-        <v>162900</v>
+        <v>161500</v>
       </c>
       <c r="K52" s="3">
         <v>147800</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3742000</v>
+        <v>3708600</v>
       </c>
       <c r="E54" s="3">
-        <v>3570900</v>
+        <v>3539000</v>
       </c>
       <c r="F54" s="3">
-        <v>3394100</v>
+        <v>3363800</v>
       </c>
       <c r="G54" s="3">
-        <v>3407900</v>
+        <v>3377500</v>
       </c>
       <c r="H54" s="3">
-        <v>3379200</v>
+        <v>3349100</v>
       </c>
       <c r="I54" s="3">
-        <v>3123600</v>
+        <v>3095800</v>
       </c>
       <c r="J54" s="3">
-        <v>2930700</v>
+        <v>2904600</v>
       </c>
       <c r="K54" s="3">
         <v>3213300</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>384800</v>
+        <v>381300</v>
       </c>
       <c r="E57" s="3">
-        <v>319400</v>
+        <v>316500</v>
       </c>
       <c r="F57" s="3">
-        <v>310300</v>
+        <v>307500</v>
       </c>
       <c r="G57" s="3">
-        <v>307100</v>
+        <v>304400</v>
       </c>
       <c r="H57" s="3">
-        <v>256100</v>
+        <v>253800</v>
       </c>
       <c r="I57" s="3">
-        <v>224100</v>
+        <v>222100</v>
       </c>
       <c r="J57" s="3">
-        <v>239500</v>
+        <v>237400</v>
       </c>
       <c r="K57" s="3">
         <v>212100</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>365900</v>
+        <v>362700</v>
       </c>
       <c r="E58" s="3">
-        <v>322900</v>
+        <v>320000</v>
       </c>
       <c r="F58" s="3">
-        <v>187400</v>
+        <v>185800</v>
       </c>
       <c r="G58" s="3">
-        <v>279300</v>
+        <v>276800</v>
       </c>
       <c r="H58" s="3">
-        <v>333500</v>
+        <v>330500</v>
       </c>
       <c r="I58" s="3">
-        <v>279700</v>
+        <v>277200</v>
       </c>
       <c r="J58" s="3">
-        <v>202700</v>
+        <v>200900</v>
       </c>
       <c r="K58" s="3">
         <v>223400</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>480300</v>
+        <v>476000</v>
       </c>
       <c r="E59" s="3">
-        <v>479300</v>
+        <v>475100</v>
       </c>
       <c r="F59" s="3">
-        <v>495800</v>
+        <v>491400</v>
       </c>
       <c r="G59" s="3">
-        <v>470300</v>
+        <v>466100</v>
       </c>
       <c r="H59" s="3">
-        <v>484900</v>
+        <v>480600</v>
       </c>
       <c r="I59" s="3">
-        <v>475600</v>
+        <v>471300</v>
       </c>
       <c r="J59" s="3">
-        <v>427800</v>
+        <v>424000</v>
       </c>
       <c r="K59" s="3">
         <v>405100</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1231000</v>
+        <v>1220000</v>
       </c>
       <c r="E60" s="3">
-        <v>1121600</v>
+        <v>1111600</v>
       </c>
       <c r="F60" s="3">
-        <v>993600</v>
+        <v>984700</v>
       </c>
       <c r="G60" s="3">
-        <v>1056800</v>
+        <v>1047300</v>
       </c>
       <c r="H60" s="3">
-        <v>1074400</v>
+        <v>1064900</v>
       </c>
       <c r="I60" s="3">
-        <v>979300</v>
+        <v>970600</v>
       </c>
       <c r="J60" s="3">
-        <v>870100</v>
+        <v>862400</v>
       </c>
       <c r="K60" s="3">
         <v>840600</v>
@@ -3800,25 +3800,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82900</v>
+        <v>82200</v>
       </c>
       <c r="E61" s="3">
-        <v>84700</v>
+        <v>84000</v>
       </c>
       <c r="F61" s="3">
-        <v>87500</v>
+        <v>86800</v>
       </c>
       <c r="G61" s="3">
-        <v>89600</v>
+        <v>88800</v>
       </c>
       <c r="H61" s="3">
-        <v>91300</v>
+        <v>90500</v>
       </c>
       <c r="I61" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="J61" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="K61" s="3">
         <v>210000</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="E62" s="3">
-        <v>36800</v>
+        <v>36500</v>
       </c>
       <c r="F62" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="G62" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="H62" s="3">
-        <v>38000</v>
+        <v>37600</v>
       </c>
       <c r="I62" s="3">
-        <v>42200</v>
+        <v>41800</v>
       </c>
       <c r="J62" s="3">
-        <v>44200</v>
+        <v>43800</v>
       </c>
       <c r="K62" s="3">
         <v>49300</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1346300</v>
+        <v>1334300</v>
       </c>
       <c r="E66" s="3">
-        <v>1243200</v>
+        <v>1232100</v>
       </c>
       <c r="F66" s="3">
-        <v>1115700</v>
+        <v>1105700</v>
       </c>
       <c r="G66" s="3">
-        <v>1184100</v>
+        <v>1173600</v>
       </c>
       <c r="H66" s="3">
-        <v>1203700</v>
+        <v>1193000</v>
       </c>
       <c r="I66" s="3">
-        <v>1039100</v>
+        <v>1029800</v>
       </c>
       <c r="J66" s="3">
-        <v>931100</v>
+        <v>922800</v>
       </c>
       <c r="K66" s="3">
         <v>1099800</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2214300</v>
+        <v>2194600</v>
       </c>
       <c r="E72" s="3">
-        <v>2138300</v>
+        <v>2119200</v>
       </c>
       <c r="F72" s="3">
-        <v>2087900</v>
+        <v>2069200</v>
       </c>
       <c r="G72" s="3">
-        <v>2084200</v>
+        <v>2065600</v>
       </c>
       <c r="H72" s="3">
-        <v>2036800</v>
+        <v>2018600</v>
       </c>
       <c r="I72" s="3">
-        <v>1959000</v>
+        <v>1941600</v>
       </c>
       <c r="J72" s="3">
-        <v>1854900</v>
+        <v>1838400</v>
       </c>
       <c r="K72" s="3">
         <v>1972100</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2395600</v>
+        <v>2374300</v>
       </c>
       <c r="E76" s="3">
-        <v>2327700</v>
+        <v>2306900</v>
       </c>
       <c r="F76" s="3">
-        <v>2278400</v>
+        <v>2258000</v>
       </c>
       <c r="G76" s="3">
-        <v>2223800</v>
+        <v>2203900</v>
       </c>
       <c r="H76" s="3">
-        <v>2175500</v>
+        <v>2156100</v>
       </c>
       <c r="I76" s="3">
-        <v>2084600</v>
+        <v>2066000</v>
       </c>
       <c r="J76" s="3">
-        <v>1999600</v>
+        <v>1981800</v>
       </c>
       <c r="K76" s="3">
         <v>2113400</v>
@@ -4935,25 +4935,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76800</v>
+        <v>76100</v>
       </c>
       <c r="E81" s="3">
-        <v>48700</v>
+        <v>48300</v>
       </c>
       <c r="F81" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G81" s="3">
-        <v>102500</v>
+        <v>101600</v>
       </c>
       <c r="H81" s="3">
-        <v>77900</v>
+        <v>77200</v>
       </c>
       <c r="I81" s="3">
-        <v>102800</v>
+        <v>101900</v>
       </c>
       <c r="J81" s="3">
-        <v>-76600</v>
+        <v>-75900</v>
       </c>
       <c r="K81" s="3">
         <v>150100</v>
@@ -5025,25 +5025,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="E83" s="3">
-        <v>42600</v>
+        <v>42200</v>
       </c>
       <c r="F83" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="G83" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="H83" s="3">
-        <v>42200</v>
+        <v>41900</v>
       </c>
       <c r="I83" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="J83" s="3">
-        <v>41500</v>
+        <v>41100</v>
       </c>
       <c r="K83" s="3">
         <v>45900</v>
@@ -5415,25 +5415,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-46400</v>
+        <v>-46000</v>
       </c>
       <c r="E89" s="3">
-        <v>151500</v>
+        <v>150200</v>
       </c>
       <c r="F89" s="3">
-        <v>57400</v>
+        <v>56900</v>
       </c>
       <c r="G89" s="3">
-        <v>124500</v>
+        <v>123400</v>
       </c>
       <c r="H89" s="3">
-        <v>146800</v>
+        <v>145500</v>
       </c>
       <c r="I89" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="J89" s="3">
-        <v>98900</v>
+        <v>98100</v>
       </c>
       <c r="K89" s="3">
         <v>138900</v>
@@ -5505,25 +5505,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43000</v>
+        <v>-42700</v>
       </c>
       <c r="E91" s="3">
-        <v>-38700</v>
+        <v>-38300</v>
       </c>
       <c r="F91" s="3">
-        <v>-38600</v>
+        <v>-38200</v>
       </c>
       <c r="G91" s="3">
-        <v>-33600</v>
+        <v>-33300</v>
       </c>
       <c r="H91" s="3">
-        <v>-20200</v>
+        <v>-20000</v>
       </c>
       <c r="I91" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="J91" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="K91" s="3">
         <v>-14800</v>
@@ -5700,25 +5700,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-75400</v>
+        <v>-74700</v>
       </c>
       <c r="E94" s="3">
-        <v>-127100</v>
+        <v>-126000</v>
       </c>
       <c r="F94" s="3">
-        <v>50600</v>
+        <v>50100</v>
       </c>
       <c r="G94" s="3">
-        <v>-16800</v>
+        <v>-16600</v>
       </c>
       <c r="H94" s="3">
-        <v>-211500</v>
+        <v>-209600</v>
       </c>
       <c r="I94" s="3">
-        <v>-109900</v>
+        <v>-108900</v>
       </c>
       <c r="J94" s="3">
-        <v>109500</v>
+        <v>108500</v>
       </c>
       <c r="K94" s="3">
         <v>-16500</v>
@@ -6050,25 +6050,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="E100" s="3">
-        <v>116200</v>
+        <v>115200</v>
       </c>
       <c r="F100" s="3">
-        <v>-101600</v>
+        <v>-100700</v>
       </c>
       <c r="G100" s="3">
-        <v>-115200</v>
+        <v>-114200</v>
       </c>
       <c r="H100" s="3">
-        <v>96600</v>
+        <v>95700</v>
       </c>
       <c r="I100" s="3">
-        <v>73100</v>
+        <v>72500</v>
       </c>
       <c r="J100" s="3">
-        <v>-219300</v>
+        <v>-217300</v>
       </c>
       <c r="K100" s="3">
         <v>-109600</v>
@@ -6180,25 +6180,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-89500</v>
+        <v>-88700</v>
       </c>
       <c r="E102" s="3">
-        <v>141200</v>
+        <v>140000</v>
       </c>
       <c r="F102" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="G102" s="3">
         <v>-8200</v>
       </c>
       <c r="H102" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="I102" s="3">
         <v>-3800</v>
       </c>
       <c r="J102" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="K102" s="3">
         <v>13000</v>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>655800</v>
+        <v>753300</v>
       </c>
       <c r="E8" s="3">
-        <v>630300</v>
+        <v>643000</v>
       </c>
       <c r="F8" s="3">
-        <v>657100</v>
+        <v>618000</v>
       </c>
       <c r="G8" s="3">
-        <v>652700</v>
+        <v>644300</v>
       </c>
       <c r="H8" s="3">
-        <v>588900</v>
+        <v>640000</v>
       </c>
       <c r="I8" s="3">
-        <v>590800</v>
+        <v>577400</v>
       </c>
       <c r="J8" s="3">
+        <v>579200</v>
+      </c>
+      <c r="K8" s="3">
         <v>584400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>659600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>528100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>543400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>520900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>502100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>491900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>511100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>550300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>512800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>479500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>489800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>510800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>313200</v>
+        <v>350900</v>
       </c>
       <c r="E9" s="3">
-        <v>292000</v>
+        <v>307100</v>
       </c>
       <c r="F9" s="3">
-        <v>303400</v>
+        <v>286400</v>
       </c>
       <c r="G9" s="3">
-        <v>300700</v>
+        <v>297400</v>
       </c>
       <c r="H9" s="3">
-        <v>258900</v>
+        <v>294800</v>
       </c>
       <c r="I9" s="3">
-        <v>286700</v>
+        <v>253800</v>
       </c>
       <c r="J9" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K9" s="3">
         <v>268100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>280100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>255200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>258600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>240100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>225800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>217900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>237900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>240700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>239400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>232300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>239200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>209000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>342600</v>
+        <v>402400</v>
       </c>
       <c r="E10" s="3">
-        <v>338200</v>
+        <v>335900</v>
       </c>
       <c r="F10" s="3">
-        <v>353800</v>
+        <v>331700</v>
       </c>
       <c r="G10" s="3">
-        <v>352000</v>
+        <v>346900</v>
       </c>
       <c r="H10" s="3">
-        <v>330000</v>
+        <v>345200</v>
       </c>
       <c r="I10" s="3">
-        <v>304000</v>
+        <v>323500</v>
       </c>
       <c r="J10" s="3">
+        <v>298100</v>
+      </c>
+      <c r="K10" s="3">
         <v>316200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>379500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>272900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>284800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>280800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>276300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>274000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>273200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>309600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>273300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>247200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>250500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>301800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>57000</v>
+        <v>54900</v>
       </c>
       <c r="E12" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>50200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>53400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>48600</v>
+      </c>
+      <c r="J12" s="3">
         <v>51000</v>
       </c>
-      <c r="F12" s="3">
-        <v>51200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>54500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>49500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>52000</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>49000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>46700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>44700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>46000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>50400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>58400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>63000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>55800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>69100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>59000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>64000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,34 +1136,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>79600</v>
+        <v>24000</v>
       </c>
       <c r="G14" s="3">
-        <v>10400</v>
+        <v>78100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>176000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>11</v>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="E15" s="3">
-        <v>22700</v>
+        <v>20300</v>
       </c>
       <c r="F15" s="3">
-        <v>22700</v>
+        <v>22300</v>
       </c>
       <c r="G15" s="3">
-        <v>22900</v>
+        <v>22300</v>
       </c>
       <c r="H15" s="3">
-        <v>21400</v>
+        <v>22500</v>
       </c>
       <c r="I15" s="3">
-        <v>19200</v>
+        <v>21000</v>
       </c>
       <c r="J15" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K15" s="3">
         <v>19700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>18300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>18300</v>
       </c>
       <c r="W15" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>567700</v>
+        <v>594900</v>
       </c>
       <c r="E17" s="3">
-        <v>554800</v>
+        <v>556600</v>
       </c>
       <c r="F17" s="3">
-        <v>627800</v>
+        <v>544000</v>
       </c>
       <c r="G17" s="3">
-        <v>541900</v>
+        <v>615600</v>
       </c>
       <c r="H17" s="3">
-        <v>480800</v>
+        <v>531400</v>
       </c>
       <c r="I17" s="3">
-        <v>502800</v>
+        <v>471400</v>
       </c>
       <c r="J17" s="3">
+        <v>492900</v>
+      </c>
+      <c r="K17" s="3">
         <v>662600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>559100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>418900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>471100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>443400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>435400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>428800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>472900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>477900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>457700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>472900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>446600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>431000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>88100</v>
+        <v>158300</v>
       </c>
       <c r="E18" s="3">
-        <v>75500</v>
+        <v>86400</v>
       </c>
       <c r="F18" s="3">
-        <v>29300</v>
+        <v>74000</v>
       </c>
       <c r="G18" s="3">
-        <v>110800</v>
+        <v>28700</v>
       </c>
       <c r="H18" s="3">
-        <v>108100</v>
+        <v>108600</v>
       </c>
       <c r="I18" s="3">
-        <v>88000</v>
+        <v>106000</v>
       </c>
       <c r="J18" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-78200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>109200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>72300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>77500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>72400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>55100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>43200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>79800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="E20" s="3">
-        <v>10600</v>
+        <v>13200</v>
       </c>
       <c r="F20" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="G20" s="3">
-        <v>7500</v>
+        <v>10900</v>
       </c>
       <c r="H20" s="3">
-        <v>12200</v>
+        <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>10300</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K20" s="3">
         <v>10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>18500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>140300</v>
+        <v>207800</v>
       </c>
       <c r="E21" s="3">
-        <v>128300</v>
+        <v>137500</v>
       </c>
       <c r="F21" s="3">
-        <v>83300</v>
+        <v>125800</v>
       </c>
       <c r="G21" s="3">
-        <v>161900</v>
+        <v>81600</v>
       </c>
       <c r="H21" s="3">
-        <v>162100</v>
+        <v>158700</v>
       </c>
       <c r="I21" s="3">
-        <v>137800</v>
+        <v>159000</v>
       </c>
       <c r="J21" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-27200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>155400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>163200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>129400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>124300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>118800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>131400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>101800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>54700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>86000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>123700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="F22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
-        <v>3400</v>
-      </c>
       <c r="H22" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I22" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2600</v>
       </c>
       <c r="Q22" s="3">
         <v>2600</v>
       </c>
       <c r="R22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>99000</v>
+        <v>165700</v>
       </c>
       <c r="E23" s="3">
-        <v>82100</v>
+        <v>97000</v>
       </c>
       <c r="F23" s="3">
-        <v>37900</v>
+        <v>80500</v>
       </c>
       <c r="G23" s="3">
+        <v>37200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>112700</v>
+      </c>
+      <c r="I23" s="3">
         <v>114900</v>
       </c>
-      <c r="H23" s="3">
-        <v>117200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>95200</v>
-      </c>
       <c r="J23" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-70300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>105300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>116800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>79200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>76400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>54200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>86000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>56000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>43900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>81600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22900</v>
+        <v>36100</v>
       </c>
       <c r="E24" s="3">
-        <v>33800</v>
+        <v>22400</v>
       </c>
       <c r="F24" s="3">
-        <v>35300</v>
+        <v>33100</v>
       </c>
       <c r="G24" s="3">
-        <v>13300</v>
+        <v>34600</v>
       </c>
       <c r="H24" s="3">
-        <v>39900</v>
+        <v>13000</v>
       </c>
       <c r="I24" s="3">
-        <v>-6700</v>
+        <v>39200</v>
       </c>
       <c r="J24" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-44800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>24200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76100</v>
+        <v>129700</v>
       </c>
       <c r="E26" s="3">
-        <v>48300</v>
+        <v>74600</v>
       </c>
       <c r="F26" s="3">
+        <v>47400</v>
+      </c>
+      <c r="G26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
-        <v>101600</v>
-      </c>
       <c r="H26" s="3">
-        <v>77200</v>
+        <v>99600</v>
       </c>
       <c r="I26" s="3">
-        <v>101900</v>
+        <v>75700</v>
       </c>
       <c r="J26" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-75900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>91100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>58800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>49100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>61800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>43100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>64800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76100</v>
+        <v>129700</v>
       </c>
       <c r="E27" s="3">
-        <v>48300</v>
+        <v>74600</v>
       </c>
       <c r="F27" s="3">
+        <v>47400</v>
+      </c>
+      <c r="G27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
-        <v>101600</v>
-      </c>
       <c r="H27" s="3">
-        <v>77200</v>
+        <v>99600</v>
       </c>
       <c r="I27" s="3">
-        <v>101900</v>
+        <v>75700</v>
       </c>
       <c r="J27" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-75900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>150100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>91100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>58800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>66600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>49100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>43100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>64800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>11</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>11</v>
@@ -2043,14 +2104,14 @@
       <c r="P29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="3">
         <v>-5400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>11</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13500</v>
+        <v>-10500</v>
       </c>
       <c r="E32" s="3">
-        <v>-10600</v>
+        <v>-13200</v>
       </c>
       <c r="F32" s="3">
-        <v>-11100</v>
+        <v>-10400</v>
       </c>
       <c r="G32" s="3">
-        <v>-7500</v>
+        <v>-10900</v>
       </c>
       <c r="H32" s="3">
-        <v>-12200</v>
+        <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-10300</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-18500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76100</v>
+        <v>129700</v>
       </c>
       <c r="E33" s="3">
-        <v>48300</v>
+        <v>74600</v>
       </c>
       <c r="F33" s="3">
+        <v>47400</v>
+      </c>
+      <c r="G33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
-        <v>101600</v>
-      </c>
       <c r="H33" s="3">
-        <v>77200</v>
+        <v>99600</v>
       </c>
       <c r="I33" s="3">
-        <v>101900</v>
+        <v>75700</v>
       </c>
       <c r="J33" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-75900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>150100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>91100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>58800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>66600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>41200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>64800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76100</v>
+        <v>129700</v>
       </c>
       <c r="E35" s="3">
-        <v>48300</v>
+        <v>74600</v>
       </c>
       <c r="F35" s="3">
+        <v>47400</v>
+      </c>
+      <c r="G35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
-        <v>101600</v>
-      </c>
       <c r="H35" s="3">
-        <v>77200</v>
+        <v>99600</v>
       </c>
       <c r="I35" s="3">
-        <v>101900</v>
+        <v>75700</v>
       </c>
       <c r="J35" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-75900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>150100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>91100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>58800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>66600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>41200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>64800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108900</v>
+        <v>130400</v>
       </c>
       <c r="E41" s="3">
-        <v>197700</v>
+        <v>106800</v>
       </c>
       <c r="F41" s="3">
-        <v>57600</v>
+        <v>193800</v>
       </c>
       <c r="G41" s="3">
-        <v>51800</v>
+        <v>56500</v>
       </c>
       <c r="H41" s="3">
-        <v>58700</v>
+        <v>50800</v>
       </c>
       <c r="I41" s="3">
-        <v>27400</v>
+        <v>57500</v>
       </c>
       <c r="J41" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K41" s="3">
         <v>29900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>40800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>53300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>83100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>271000</v>
+        <v>190800</v>
       </c>
       <c r="E42" s="3">
-        <v>263200</v>
+        <v>265700</v>
       </c>
       <c r="F42" s="3">
-        <v>153700</v>
+        <v>258100</v>
       </c>
       <c r="G42" s="3">
-        <v>282000</v>
+        <v>150700</v>
       </c>
       <c r="H42" s="3">
-        <v>310500</v>
+        <v>276500</v>
       </c>
       <c r="I42" s="3">
-        <v>315700</v>
+        <v>304400</v>
       </c>
       <c r="J42" s="3">
+        <v>309600</v>
+      </c>
+      <c r="K42" s="3">
         <v>233300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>350900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>338400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>304800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>312000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>206300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>177300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>265100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>288400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>207300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>169900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>196600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>194500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>846800</v>
+        <v>938200</v>
       </c>
       <c r="E43" s="3">
-        <v>698300</v>
+        <v>830300</v>
       </c>
       <c r="F43" s="3">
-        <v>735000</v>
+        <v>684700</v>
       </c>
       <c r="G43" s="3">
-        <v>696900</v>
+        <v>720700</v>
       </c>
       <c r="H43" s="3">
-        <v>654100</v>
+        <v>683300</v>
       </c>
       <c r="I43" s="3">
-        <v>728600</v>
+        <v>641300</v>
       </c>
       <c r="J43" s="3">
+        <v>714400</v>
+      </c>
+      <c r="K43" s="3">
         <v>631800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>599700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>554600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>585400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>551500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>653300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>683200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>587300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>613600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>610300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>594900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>524500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>566600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>676800</v>
+        <v>649600</v>
       </c>
       <c r="E44" s="3">
-        <v>605300</v>
+        <v>663600</v>
       </c>
       <c r="F44" s="3">
-        <v>590600</v>
+        <v>593500</v>
       </c>
       <c r="G44" s="3">
-        <v>548300</v>
+        <v>579100</v>
       </c>
       <c r="H44" s="3">
-        <v>521800</v>
+        <v>537600</v>
       </c>
       <c r="I44" s="3">
-        <v>467400</v>
+        <v>511700</v>
       </c>
       <c r="J44" s="3">
+        <v>458300</v>
+      </c>
+      <c r="K44" s="3">
         <v>503200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>481400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>482800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>454300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>458800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>429500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>416400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>420600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>387900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>390400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>406300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>393100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>414100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>208800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>207500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>236800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>216300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>222600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>194800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>164800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>176600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>183700</v>
+      </c>
+      <c r="N45" s="3">
+        <v>174500</v>
+      </c>
+      <c r="O45" s="3">
+        <v>182200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>189200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>213000</v>
       </c>
-      <c r="E45" s="3">
-        <v>211700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>241500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>220600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>227000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>198700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>164800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>176600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>183700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>174500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>182200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>189200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>213000</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>274300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>264300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>246000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>234200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>215600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>193600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2116500</v>
+        <v>2134000</v>
       </c>
       <c r="E46" s="3">
-        <v>1976200</v>
+        <v>2075200</v>
       </c>
       <c r="F46" s="3">
-        <v>1778500</v>
+        <v>1937600</v>
       </c>
       <c r="G46" s="3">
-        <v>1799600</v>
+        <v>1743800</v>
       </c>
       <c r="H46" s="3">
-        <v>1772100</v>
+        <v>1764500</v>
       </c>
       <c r="I46" s="3">
-        <v>1737800</v>
+        <v>1737500</v>
       </c>
       <c r="J46" s="3">
+        <v>1703900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1563000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1650000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1587800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1549200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1527700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1528400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1518900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1585500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1583200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1489500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1446100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1383200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1451900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>128300</v>
+        <v>98600</v>
       </c>
       <c r="E47" s="3">
-        <v>112700</v>
+        <v>125800</v>
       </c>
       <c r="F47" s="3">
-        <v>118300</v>
+        <v>110500</v>
       </c>
       <c r="G47" s="3">
-        <v>56700</v>
+        <v>116000</v>
       </c>
       <c r="H47" s="3">
-        <v>68400</v>
+        <v>55500</v>
       </c>
       <c r="I47" s="3">
-        <v>64400</v>
+        <v>67100</v>
       </c>
       <c r="J47" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K47" s="3">
         <v>66300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>56200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>46700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>44200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>52400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>50200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>69700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>74800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>73000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>80600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>97100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>101800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>781600</v>
+        <v>787200</v>
       </c>
       <c r="E48" s="3">
-        <v>761300</v>
+        <v>766400</v>
       </c>
       <c r="F48" s="3">
-        <v>750000</v>
+        <v>746400</v>
       </c>
       <c r="G48" s="3">
-        <v>733500</v>
+        <v>735400</v>
       </c>
       <c r="H48" s="3">
-        <v>722300</v>
+        <v>719200</v>
       </c>
       <c r="I48" s="3">
-        <v>697600</v>
+        <v>708200</v>
       </c>
       <c r="J48" s="3">
+        <v>684000</v>
+      </c>
+      <c r="K48" s="3">
         <v>702600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>728300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>743100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>731800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>748800</v>
       </c>
       <c r="O48" s="3">
         <v>748800</v>
       </c>
       <c r="P48" s="3">
+        <v>748800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>753800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>836800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>841400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>837300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>833100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>787700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>788300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>529800</v>
+        <v>486300</v>
       </c>
       <c r="E49" s="3">
-        <v>536100</v>
+        <v>519500</v>
       </c>
       <c r="F49" s="3">
-        <v>547400</v>
+        <v>525600</v>
       </c>
       <c r="G49" s="3">
-        <v>607200</v>
+        <v>536700</v>
       </c>
       <c r="H49" s="3">
-        <v>613100</v>
+        <v>595400</v>
       </c>
       <c r="I49" s="3">
-        <v>421900</v>
+        <v>601100</v>
       </c>
       <c r="J49" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K49" s="3">
         <v>411200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>609200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>657100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>653100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>665700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>678100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>651600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>702900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>696700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>717700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>702200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>670800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>688700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>152400</v>
+        <v>134000</v>
       </c>
       <c r="E52" s="3">
-        <v>152800</v>
+        <v>149400</v>
       </c>
       <c r="F52" s="3">
-        <v>169700</v>
+        <v>149800</v>
       </c>
       <c r="G52" s="3">
-        <v>180500</v>
+        <v>166400</v>
       </c>
       <c r="H52" s="3">
-        <v>173300</v>
+        <v>177000</v>
       </c>
       <c r="I52" s="3">
-        <v>174100</v>
+        <v>169900</v>
       </c>
       <c r="J52" s="3">
+        <v>170700</v>
+      </c>
+      <c r="K52" s="3">
         <v>161500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>147800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>77700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>92900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>95900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>90400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>99900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3708600</v>
+        <v>3640000</v>
       </c>
       <c r="E54" s="3">
-        <v>3539000</v>
+        <v>3636300</v>
       </c>
       <c r="F54" s="3">
-        <v>3363800</v>
+        <v>3470000</v>
       </c>
       <c r="G54" s="3">
-        <v>3377500</v>
+        <v>3298200</v>
       </c>
       <c r="H54" s="3">
-        <v>3349100</v>
+        <v>3311600</v>
       </c>
       <c r="I54" s="3">
-        <v>3095800</v>
+        <v>3283700</v>
       </c>
       <c r="J54" s="3">
+        <v>3035400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2904600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3213300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3120200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3050000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3066900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3096600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3052200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3262200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3267300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3210400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3157900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3029100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3130700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>381300</v>
+        <v>334000</v>
       </c>
       <c r="E57" s="3">
-        <v>316500</v>
+        <v>373900</v>
       </c>
       <c r="F57" s="3">
-        <v>307500</v>
+        <v>310300</v>
       </c>
       <c r="G57" s="3">
-        <v>304400</v>
+        <v>301600</v>
       </c>
       <c r="H57" s="3">
-        <v>253800</v>
+        <v>298400</v>
       </c>
       <c r="I57" s="3">
-        <v>222100</v>
+        <v>248800</v>
       </c>
       <c r="J57" s="3">
+        <v>217700</v>
+      </c>
+      <c r="K57" s="3">
         <v>237400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>212100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>203900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>196900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>215700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>186000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>195900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>232100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>210800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>205200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>191200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>184900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>183400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>362700</v>
+        <v>317500</v>
       </c>
       <c r="E58" s="3">
-        <v>320000</v>
+        <v>355600</v>
       </c>
       <c r="F58" s="3">
-        <v>185800</v>
+        <v>313800</v>
       </c>
       <c r="G58" s="3">
-        <v>276800</v>
+        <v>182100</v>
       </c>
       <c r="H58" s="3">
-        <v>330500</v>
+        <v>271400</v>
       </c>
       <c r="I58" s="3">
-        <v>277200</v>
+        <v>324000</v>
       </c>
       <c r="J58" s="3">
+        <v>271800</v>
+      </c>
+      <c r="K58" s="3">
         <v>200900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>223400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>243600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>221600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>258900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>369200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>372500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>370500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>440300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>415200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>374500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>602700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>720400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>476000</v>
+        <v>471200</v>
       </c>
       <c r="E59" s="3">
-        <v>475100</v>
+        <v>466700</v>
       </c>
       <c r="F59" s="3">
-        <v>491400</v>
+        <v>465800</v>
       </c>
       <c r="G59" s="3">
-        <v>466100</v>
+        <v>481800</v>
       </c>
       <c r="H59" s="3">
-        <v>480600</v>
+        <v>457000</v>
       </c>
       <c r="I59" s="3">
-        <v>471300</v>
+        <v>471200</v>
       </c>
       <c r="J59" s="3">
+        <v>462100</v>
+      </c>
+      <c r="K59" s="3">
         <v>424000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>405100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>390300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>389200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>371900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>387500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>360500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>405100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>407400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>396700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>381600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>383700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>409100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1220000</v>
+        <v>1122700</v>
       </c>
       <c r="E60" s="3">
-        <v>1111600</v>
+        <v>1196200</v>
       </c>
       <c r="F60" s="3">
-        <v>984700</v>
+        <v>1089900</v>
       </c>
       <c r="G60" s="3">
-        <v>1047300</v>
+        <v>965500</v>
       </c>
       <c r="H60" s="3">
-        <v>1064900</v>
+        <v>1026900</v>
       </c>
       <c r="I60" s="3">
-        <v>970600</v>
+        <v>1044100</v>
       </c>
       <c r="J60" s="3">
+        <v>951700</v>
+      </c>
+      <c r="K60" s="3">
         <v>862400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>840600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>837900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>807700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>846400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>942700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>928900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1007700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1058400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1017100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>947400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1171300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1313000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82200</v>
+        <v>78100</v>
       </c>
       <c r="E61" s="3">
-        <v>84000</v>
+        <v>80600</v>
       </c>
       <c r="F61" s="3">
-        <v>86800</v>
+        <v>82300</v>
       </c>
       <c r="G61" s="3">
-        <v>88800</v>
+        <v>85100</v>
       </c>
       <c r="H61" s="3">
-        <v>90500</v>
+        <v>87100</v>
       </c>
       <c r="I61" s="3">
-        <v>17400</v>
+        <v>88700</v>
       </c>
       <c r="J61" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K61" s="3">
         <v>16600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>210000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>228900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>297700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>334200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>364800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>345000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>362800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>353700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>360800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>355100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>75100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>78800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32100</v>
+        <v>35200</v>
       </c>
       <c r="E62" s="3">
-        <v>36500</v>
+        <v>31500</v>
       </c>
       <c r="F62" s="3">
-        <v>34300</v>
+        <v>35800</v>
       </c>
       <c r="G62" s="3">
-        <v>37500</v>
+        <v>33600</v>
       </c>
       <c r="H62" s="3">
-        <v>37600</v>
+        <v>36700</v>
       </c>
       <c r="I62" s="3">
-        <v>41800</v>
+        <v>36900</v>
       </c>
       <c r="J62" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K62" s="3">
         <v>43800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>50200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>54100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>66700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>70600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>73400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>71000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1334300</v>
+        <v>1236100</v>
       </c>
       <c r="E66" s="3">
-        <v>1232100</v>
+        <v>1308300</v>
       </c>
       <c r="F66" s="3">
-        <v>1105700</v>
+        <v>1208000</v>
       </c>
       <c r="G66" s="3">
-        <v>1173600</v>
+        <v>1084200</v>
       </c>
       <c r="H66" s="3">
-        <v>1193000</v>
+        <v>1150700</v>
       </c>
       <c r="I66" s="3">
-        <v>1029800</v>
+        <v>1169700</v>
       </c>
       <c r="J66" s="3">
+        <v>1009700</v>
+      </c>
+      <c r="K66" s="3">
         <v>922800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1099800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1111300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1153200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1230800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1358900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1327900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1433600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1478800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1448600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1373200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1319800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1462700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2194600</v>
+        <v>2227300</v>
       </c>
       <c r="E72" s="3">
-        <v>2119200</v>
+        <v>2151800</v>
       </c>
       <c r="F72" s="3">
-        <v>2069200</v>
+        <v>2077900</v>
       </c>
       <c r="G72" s="3">
-        <v>2065600</v>
+        <v>2028900</v>
       </c>
       <c r="H72" s="3">
-        <v>2018600</v>
+        <v>2025300</v>
       </c>
       <c r="I72" s="3">
-        <v>1941600</v>
+        <v>1979200</v>
       </c>
       <c r="J72" s="3">
+        <v>1903700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1838400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1972100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1875000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1756300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1696200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1592200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1580100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1663800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1618700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1569400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1587400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1505100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1461100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2374300</v>
+        <v>2403900</v>
       </c>
       <c r="E76" s="3">
-        <v>2306900</v>
+        <v>2327900</v>
       </c>
       <c r="F76" s="3">
-        <v>2258000</v>
+        <v>2261900</v>
       </c>
       <c r="G76" s="3">
-        <v>2203900</v>
+        <v>2214000</v>
       </c>
       <c r="H76" s="3">
-        <v>2156100</v>
+        <v>2161000</v>
       </c>
       <c r="I76" s="3">
-        <v>2066000</v>
+        <v>2114000</v>
       </c>
       <c r="J76" s="3">
+        <v>2025700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1981800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2113400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2008900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1896900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1836100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1737700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1724300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1828600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1788500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1761800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1784700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1709300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1667900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76100</v>
+        <v>129700</v>
       </c>
       <c r="E81" s="3">
-        <v>48300</v>
+        <v>74600</v>
       </c>
       <c r="F81" s="3">
+        <v>47400</v>
+      </c>
+      <c r="G81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
-        <v>101600</v>
-      </c>
       <c r="H81" s="3">
-        <v>77200</v>
+        <v>99600</v>
       </c>
       <c r="I81" s="3">
-        <v>101900</v>
+        <v>75700</v>
       </c>
       <c r="J81" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-75900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>150100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>91100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>58800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>66600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>41200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>64800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38700</v>
+        <v>39000</v>
       </c>
       <c r="E83" s="3">
-        <v>42200</v>
+        <v>38000</v>
       </c>
       <c r="F83" s="3">
-        <v>42900</v>
+        <v>41400</v>
       </c>
       <c r="G83" s="3">
-        <v>43600</v>
+        <v>42000</v>
       </c>
       <c r="H83" s="3">
-        <v>41900</v>
+        <v>42800</v>
       </c>
       <c r="I83" s="3">
-        <v>39500</v>
+        <v>41000</v>
       </c>
       <c r="J83" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K83" s="3">
         <v>41100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>42400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-46000</v>
+        <v>66700</v>
       </c>
       <c r="E89" s="3">
-        <v>150200</v>
+        <v>-45100</v>
       </c>
       <c r="F89" s="3">
-        <v>56900</v>
+        <v>147200</v>
       </c>
       <c r="G89" s="3">
-        <v>123400</v>
+        <v>55800</v>
       </c>
       <c r="H89" s="3">
-        <v>145500</v>
+        <v>120900</v>
       </c>
       <c r="I89" s="3">
-        <v>33900</v>
+        <v>142600</v>
       </c>
       <c r="J89" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K89" s="3">
         <v>98100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>135100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>90800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>220400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-66400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>83600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>108700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>97000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-28600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>117400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>72100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42700</v>
+        <v>-46800</v>
       </c>
       <c r="E91" s="3">
-        <v>-38300</v>
+        <v>-41800</v>
       </c>
       <c r="F91" s="3">
-        <v>-38200</v>
+        <v>-37600</v>
       </c>
       <c r="G91" s="3">
-        <v>-33300</v>
+        <v>-37500</v>
       </c>
       <c r="H91" s="3">
-        <v>-20000</v>
+        <v>-32700</v>
       </c>
       <c r="I91" s="3">
-        <v>-19900</v>
+        <v>-19600</v>
       </c>
       <c r="J91" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-40700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74700</v>
+        <v>51900</v>
       </c>
       <c r="E94" s="3">
-        <v>-126000</v>
+        <v>-73300</v>
       </c>
       <c r="F94" s="3">
-        <v>50100</v>
+        <v>-123500</v>
       </c>
       <c r="G94" s="3">
-        <v>-16600</v>
+        <v>49100</v>
       </c>
       <c r="H94" s="3">
-        <v>-209600</v>
+        <v>-16300</v>
       </c>
       <c r="I94" s="3">
-        <v>-108900</v>
+        <v>-205500</v>
       </c>
       <c r="J94" s="3">
+        <v>-106800</v>
+      </c>
+      <c r="K94" s="3">
         <v>108500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-104100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>45800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-147800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-75600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-44600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>28400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>30100</v>
+        <v>-94300</v>
       </c>
       <c r="E100" s="3">
-        <v>115200</v>
+        <v>29600</v>
       </c>
       <c r="F100" s="3">
-        <v>-100700</v>
+        <v>112900</v>
       </c>
       <c r="G100" s="3">
-        <v>-114200</v>
+        <v>-98700</v>
       </c>
       <c r="H100" s="3">
-        <v>95700</v>
+        <v>-111900</v>
       </c>
       <c r="I100" s="3">
-        <v>72500</v>
+        <v>93900</v>
       </c>
       <c r="J100" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-217300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-86700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-75900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-143000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-83800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-87300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>32400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>18700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-101900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-48500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>800</v>
-      </c>
       <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
-        <v>600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-88700</v>
+        <v>23700</v>
       </c>
       <c r="E102" s="3">
-        <v>140000</v>
+        <v>-86900</v>
       </c>
       <c r="F102" s="3">
+        <v>137200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>31900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>32500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="K102" s="3">
-        <v>13000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>7100</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-31000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>51300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>753300</v>
+        <v>744600</v>
       </c>
       <c r="E8" s="3">
-        <v>643000</v>
+        <v>635600</v>
       </c>
       <c r="F8" s="3">
-        <v>618000</v>
+        <v>610900</v>
       </c>
       <c r="G8" s="3">
-        <v>644300</v>
+        <v>636900</v>
       </c>
       <c r="H8" s="3">
-        <v>640000</v>
+        <v>632700</v>
       </c>
       <c r="I8" s="3">
-        <v>577400</v>
+        <v>570700</v>
       </c>
       <c r="J8" s="3">
-        <v>579200</v>
+        <v>572600</v>
       </c>
       <c r="K8" s="3">
         <v>584400</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>350900</v>
+        <v>346900</v>
       </c>
       <c r="E9" s="3">
-        <v>307100</v>
+        <v>303600</v>
       </c>
       <c r="F9" s="3">
-        <v>286400</v>
+        <v>283100</v>
       </c>
       <c r="G9" s="3">
-        <v>297400</v>
+        <v>294000</v>
       </c>
       <c r="H9" s="3">
-        <v>294800</v>
+        <v>291400</v>
       </c>
       <c r="I9" s="3">
-        <v>253800</v>
+        <v>250900</v>
       </c>
       <c r="J9" s="3">
-        <v>281100</v>
+        <v>277900</v>
       </c>
       <c r="K9" s="3">
         <v>268100</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>402400</v>
+        <v>397800</v>
       </c>
       <c r="E10" s="3">
-        <v>335900</v>
+        <v>332000</v>
       </c>
       <c r="F10" s="3">
-        <v>331700</v>
+        <v>327800</v>
       </c>
       <c r="G10" s="3">
-        <v>346900</v>
+        <v>342900</v>
       </c>
       <c r="H10" s="3">
-        <v>345200</v>
+        <v>341200</v>
       </c>
       <c r="I10" s="3">
-        <v>323500</v>
+        <v>319800</v>
       </c>
       <c r="J10" s="3">
-        <v>298100</v>
+        <v>294700</v>
       </c>
       <c r="K10" s="3">
         <v>316200</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>54900</v>
+        <v>54300</v>
       </c>
       <c r="E12" s="3">
-        <v>55900</v>
+        <v>55200</v>
       </c>
       <c r="F12" s="3">
-        <v>50000</v>
+        <v>49400</v>
       </c>
       <c r="G12" s="3">
-        <v>50200</v>
+        <v>49600</v>
       </c>
       <c r="H12" s="3">
-        <v>53400</v>
+        <v>52800</v>
       </c>
       <c r="I12" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="J12" s="3">
-        <v>51000</v>
+        <v>50400</v>
       </c>
       <c r="K12" s="3">
         <v>49000</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="G14" s="3">
-        <v>78100</v>
+        <v>77200</v>
       </c>
       <c r="H14" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1201,25 +1201,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E15" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="F15" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="G15" s="3">
-        <v>22300</v>
+        <v>22000</v>
       </c>
       <c r="H15" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="I15" s="3">
-        <v>21000</v>
+        <v>20700</v>
       </c>
       <c r="J15" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="K15" s="3">
         <v>19700</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>594900</v>
+        <v>588100</v>
       </c>
       <c r="E17" s="3">
-        <v>556600</v>
+        <v>550200</v>
       </c>
       <c r="F17" s="3">
-        <v>544000</v>
+        <v>537700</v>
       </c>
       <c r="G17" s="3">
-        <v>615600</v>
+        <v>608500</v>
       </c>
       <c r="H17" s="3">
-        <v>531400</v>
+        <v>525300</v>
       </c>
       <c r="I17" s="3">
-        <v>471400</v>
+        <v>466000</v>
       </c>
       <c r="J17" s="3">
-        <v>492900</v>
+        <v>487300</v>
       </c>
       <c r="K17" s="3">
         <v>662600</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>158300</v>
+        <v>156500</v>
       </c>
       <c r="E18" s="3">
-        <v>86400</v>
+        <v>85400</v>
       </c>
       <c r="F18" s="3">
-        <v>74000</v>
+        <v>73200</v>
       </c>
       <c r="G18" s="3">
-        <v>28700</v>
+        <v>28400</v>
       </c>
       <c r="H18" s="3">
-        <v>108600</v>
+        <v>107400</v>
       </c>
       <c r="I18" s="3">
-        <v>106000</v>
+        <v>104700</v>
       </c>
       <c r="J18" s="3">
-        <v>86300</v>
+        <v>85300</v>
       </c>
       <c r="K18" s="3">
         <v>-78200</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="E20" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="F20" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="G20" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="H20" s="3">
         <v>7300</v>
       </c>
       <c r="I20" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="J20" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="K20" s="3">
         <v>10000</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>207800</v>
+        <v>205400</v>
       </c>
       <c r="E21" s="3">
-        <v>137500</v>
+        <v>136000</v>
       </c>
       <c r="F21" s="3">
-        <v>125800</v>
+        <v>124400</v>
       </c>
       <c r="G21" s="3">
-        <v>81600</v>
+        <v>80700</v>
       </c>
       <c r="H21" s="3">
-        <v>158700</v>
+        <v>156900</v>
       </c>
       <c r="I21" s="3">
-        <v>159000</v>
+        <v>157100</v>
       </c>
       <c r="J21" s="3">
-        <v>135100</v>
+        <v>133600</v>
       </c>
       <c r="K21" s="3">
         <v>-27200</v>
@@ -1590,16 +1590,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
         <v>2500</v>
       </c>
       <c r="F22" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H22" s="3">
         <v>3300</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>165700</v>
+        <v>163800</v>
       </c>
       <c r="E23" s="3">
-        <v>97000</v>
+        <v>95900</v>
       </c>
       <c r="F23" s="3">
-        <v>80500</v>
+        <v>79600</v>
       </c>
       <c r="G23" s="3">
-        <v>37200</v>
+        <v>36700</v>
       </c>
       <c r="H23" s="3">
-        <v>112700</v>
+        <v>111400</v>
       </c>
       <c r="I23" s="3">
-        <v>114900</v>
+        <v>113600</v>
       </c>
       <c r="J23" s="3">
-        <v>93300</v>
+        <v>92300</v>
       </c>
       <c r="K23" s="3">
         <v>-70300</v>
@@ -1726,22 +1726,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36100</v>
+        <v>35700</v>
       </c>
       <c r="E24" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="F24" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="G24" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="H24" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="I24" s="3">
-        <v>39200</v>
+        <v>38700</v>
       </c>
       <c r="J24" s="3">
         <v>-6500</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>129700</v>
+        <v>128200</v>
       </c>
       <c r="E26" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="F26" s="3">
-        <v>47400</v>
+        <v>46800</v>
       </c>
       <c r="G26" s="3">
         <v>2600</v>
       </c>
       <c r="H26" s="3">
-        <v>99600</v>
+        <v>98500</v>
       </c>
       <c r="I26" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="J26" s="3">
-        <v>99900</v>
+        <v>98700</v>
       </c>
       <c r="K26" s="3">
         <v>-75900</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>129700</v>
+        <v>128200</v>
       </c>
       <c r="E27" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="F27" s="3">
-        <v>47400</v>
+        <v>46800</v>
       </c>
       <c r="G27" s="3">
         <v>2600</v>
       </c>
       <c r="H27" s="3">
-        <v>99600</v>
+        <v>98500</v>
       </c>
       <c r="I27" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="J27" s="3">
-        <v>99900</v>
+        <v>98700</v>
       </c>
       <c r="K27" s="3">
         <v>-75900</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10500</v>
+        <v>-10300</v>
       </c>
       <c r="E32" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="F32" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="G32" s="3">
-        <v>-10900</v>
+        <v>-10700</v>
       </c>
       <c r="H32" s="3">
         <v>-7300</v>
       </c>
       <c r="I32" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="J32" s="3">
-        <v>-10100</v>
+        <v>-9900</v>
       </c>
       <c r="K32" s="3">
         <v>-10000</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>129700</v>
+        <v>128200</v>
       </c>
       <c r="E33" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="F33" s="3">
-        <v>47400</v>
+        <v>46800</v>
       </c>
       <c r="G33" s="3">
         <v>2600</v>
       </c>
       <c r="H33" s="3">
-        <v>99600</v>
+        <v>98500</v>
       </c>
       <c r="I33" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="J33" s="3">
-        <v>99900</v>
+        <v>98700</v>
       </c>
       <c r="K33" s="3">
         <v>-75900</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>129700</v>
+        <v>128200</v>
       </c>
       <c r="E35" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="F35" s="3">
-        <v>47400</v>
+        <v>46800</v>
       </c>
       <c r="G35" s="3">
         <v>2600</v>
       </c>
       <c r="H35" s="3">
-        <v>99600</v>
+        <v>98500</v>
       </c>
       <c r="I35" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="J35" s="3">
-        <v>99900</v>
+        <v>98700</v>
       </c>
       <c r="K35" s="3">
         <v>-75900</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130400</v>
+        <v>128900</v>
       </c>
       <c r="E41" s="3">
-        <v>106800</v>
+        <v>105500</v>
       </c>
       <c r="F41" s="3">
-        <v>193800</v>
+        <v>191600</v>
       </c>
       <c r="G41" s="3">
-        <v>56500</v>
+        <v>55800</v>
       </c>
       <c r="H41" s="3">
-        <v>50800</v>
+        <v>50200</v>
       </c>
       <c r="I41" s="3">
-        <v>57500</v>
+        <v>56800</v>
       </c>
       <c r="J41" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="K41" s="3">
         <v>29900</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>190800</v>
+        <v>188600</v>
       </c>
       <c r="E42" s="3">
-        <v>265700</v>
+        <v>262700</v>
       </c>
       <c r="F42" s="3">
-        <v>258100</v>
+        <v>255100</v>
       </c>
       <c r="G42" s="3">
-        <v>150700</v>
+        <v>149000</v>
       </c>
       <c r="H42" s="3">
-        <v>276500</v>
+        <v>273300</v>
       </c>
       <c r="I42" s="3">
-        <v>304400</v>
+        <v>300900</v>
       </c>
       <c r="J42" s="3">
-        <v>309600</v>
+        <v>306000</v>
       </c>
       <c r="K42" s="3">
         <v>233300</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>938200</v>
+        <v>927500</v>
       </c>
       <c r="E43" s="3">
-        <v>830300</v>
+        <v>820800</v>
       </c>
       <c r="F43" s="3">
-        <v>684700</v>
+        <v>676800</v>
       </c>
       <c r="G43" s="3">
-        <v>720700</v>
+        <v>712400</v>
       </c>
       <c r="H43" s="3">
-        <v>683300</v>
+        <v>675500</v>
       </c>
       <c r="I43" s="3">
-        <v>641300</v>
+        <v>634000</v>
       </c>
       <c r="J43" s="3">
-        <v>714400</v>
+        <v>706200</v>
       </c>
       <c r="K43" s="3">
         <v>631800</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>649600</v>
+        <v>642100</v>
       </c>
       <c r="E44" s="3">
-        <v>663600</v>
+        <v>656000</v>
       </c>
       <c r="F44" s="3">
-        <v>593500</v>
+        <v>586700</v>
       </c>
       <c r="G44" s="3">
-        <v>579100</v>
+        <v>572500</v>
       </c>
       <c r="H44" s="3">
-        <v>537600</v>
+        <v>531500</v>
       </c>
       <c r="I44" s="3">
-        <v>511700</v>
+        <v>505800</v>
       </c>
       <c r="J44" s="3">
-        <v>458300</v>
+        <v>453100</v>
       </c>
       <c r="K44" s="3">
         <v>503200</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>224900</v>
+        <v>222300</v>
       </c>
       <c r="E45" s="3">
-        <v>208800</v>
+        <v>206400</v>
       </c>
       <c r="F45" s="3">
-        <v>207500</v>
+        <v>205100</v>
       </c>
       <c r="G45" s="3">
-        <v>236800</v>
+        <v>234100</v>
       </c>
       <c r="H45" s="3">
-        <v>216300</v>
+        <v>213800</v>
       </c>
       <c r="I45" s="3">
-        <v>222600</v>
+        <v>220000</v>
       </c>
       <c r="J45" s="3">
-        <v>194800</v>
+        <v>192600</v>
       </c>
       <c r="K45" s="3">
         <v>164800</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2134000</v>
+        <v>2109500</v>
       </c>
       <c r="E46" s="3">
-        <v>2075200</v>
+        <v>2051400</v>
       </c>
       <c r="F46" s="3">
-        <v>1937600</v>
+        <v>1915400</v>
       </c>
       <c r="G46" s="3">
-        <v>1743800</v>
+        <v>1723800</v>
       </c>
       <c r="H46" s="3">
-        <v>1764500</v>
+        <v>1744300</v>
       </c>
       <c r="I46" s="3">
-        <v>1737500</v>
+        <v>1717500</v>
       </c>
       <c r="J46" s="3">
-        <v>1703900</v>
+        <v>1684400</v>
       </c>
       <c r="K46" s="3">
         <v>1563000</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>98600</v>
+        <v>97500</v>
       </c>
       <c r="E47" s="3">
-        <v>125800</v>
+        <v>124300</v>
       </c>
       <c r="F47" s="3">
-        <v>110500</v>
+        <v>109200</v>
       </c>
       <c r="G47" s="3">
-        <v>116000</v>
+        <v>114700</v>
       </c>
       <c r="H47" s="3">
-        <v>55500</v>
+        <v>54900</v>
       </c>
       <c r="I47" s="3">
-        <v>67100</v>
+        <v>66300</v>
       </c>
       <c r="J47" s="3">
-        <v>63100</v>
+        <v>62400</v>
       </c>
       <c r="K47" s="3">
         <v>66300</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>787200</v>
+        <v>778200</v>
       </c>
       <c r="E48" s="3">
-        <v>766400</v>
+        <v>757600</v>
       </c>
       <c r="F48" s="3">
-        <v>746400</v>
+        <v>737900</v>
       </c>
       <c r="G48" s="3">
-        <v>735400</v>
+        <v>726900</v>
       </c>
       <c r="H48" s="3">
-        <v>719200</v>
+        <v>710900</v>
       </c>
       <c r="I48" s="3">
-        <v>708200</v>
+        <v>700000</v>
       </c>
       <c r="J48" s="3">
-        <v>684000</v>
+        <v>676100</v>
       </c>
       <c r="K48" s="3">
         <v>702600</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>486300</v>
+        <v>480700</v>
       </c>
       <c r="E49" s="3">
-        <v>519500</v>
+        <v>513500</v>
       </c>
       <c r="F49" s="3">
-        <v>525600</v>
+        <v>519600</v>
       </c>
       <c r="G49" s="3">
-        <v>536700</v>
+        <v>530500</v>
       </c>
       <c r="H49" s="3">
-        <v>595400</v>
+        <v>588500</v>
       </c>
       <c r="I49" s="3">
-        <v>601100</v>
+        <v>594200</v>
       </c>
       <c r="J49" s="3">
-        <v>413700</v>
+        <v>409000</v>
       </c>
       <c r="K49" s="3">
         <v>411200</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134000</v>
+        <v>132400</v>
       </c>
       <c r="E52" s="3">
-        <v>149400</v>
+        <v>147700</v>
       </c>
       <c r="F52" s="3">
-        <v>149800</v>
+        <v>148100</v>
       </c>
       <c r="G52" s="3">
-        <v>166400</v>
+        <v>164400</v>
       </c>
       <c r="H52" s="3">
-        <v>177000</v>
+        <v>175000</v>
       </c>
       <c r="I52" s="3">
-        <v>169900</v>
+        <v>167900</v>
       </c>
       <c r="J52" s="3">
-        <v>170700</v>
+        <v>168700</v>
       </c>
       <c r="K52" s="3">
         <v>161500</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3640000</v>
+        <v>3598200</v>
       </c>
       <c r="E54" s="3">
-        <v>3636300</v>
+        <v>3594500</v>
       </c>
       <c r="F54" s="3">
-        <v>3470000</v>
+        <v>3430100</v>
       </c>
       <c r="G54" s="3">
-        <v>3298200</v>
+        <v>3260300</v>
       </c>
       <c r="H54" s="3">
-        <v>3311600</v>
+        <v>3273600</v>
       </c>
       <c r="I54" s="3">
-        <v>3283700</v>
+        <v>3246100</v>
       </c>
       <c r="J54" s="3">
-        <v>3035400</v>
+        <v>3000600</v>
       </c>
       <c r="K54" s="3">
         <v>2904600</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>334000</v>
+        <v>330100</v>
       </c>
       <c r="E57" s="3">
-        <v>373900</v>
+        <v>369600</v>
       </c>
       <c r="F57" s="3">
-        <v>310300</v>
+        <v>306800</v>
       </c>
       <c r="G57" s="3">
-        <v>301600</v>
+        <v>298100</v>
       </c>
       <c r="H57" s="3">
-        <v>298400</v>
+        <v>295000</v>
       </c>
       <c r="I57" s="3">
-        <v>248800</v>
+        <v>246000</v>
       </c>
       <c r="J57" s="3">
-        <v>217700</v>
+        <v>215200</v>
       </c>
       <c r="K57" s="3">
         <v>237400</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>317500</v>
+        <v>313900</v>
       </c>
       <c r="E58" s="3">
-        <v>355600</v>
+        <v>351500</v>
       </c>
       <c r="F58" s="3">
-        <v>313800</v>
+        <v>310200</v>
       </c>
       <c r="G58" s="3">
-        <v>182100</v>
+        <v>180000</v>
       </c>
       <c r="H58" s="3">
-        <v>271400</v>
+        <v>268300</v>
       </c>
       <c r="I58" s="3">
-        <v>324000</v>
+        <v>320300</v>
       </c>
       <c r="J58" s="3">
-        <v>271800</v>
+        <v>268700</v>
       </c>
       <c r="K58" s="3">
         <v>200900</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>471200</v>
+        <v>465800</v>
       </c>
       <c r="E59" s="3">
-        <v>466700</v>
+        <v>461400</v>
       </c>
       <c r="F59" s="3">
+        <v>460400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>476300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>451800</v>
+      </c>
+      <c r="I59" s="3">
         <v>465800</v>
       </c>
-      <c r="G59" s="3">
-        <v>481800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>457000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>471200</v>
-      </c>
       <c r="J59" s="3">
-        <v>462100</v>
+        <v>456800</v>
       </c>
       <c r="K59" s="3">
         <v>424000</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1122700</v>
+        <v>1109900</v>
       </c>
       <c r="E60" s="3">
-        <v>1196200</v>
+        <v>1182500</v>
       </c>
       <c r="F60" s="3">
-        <v>1089900</v>
+        <v>1077400</v>
       </c>
       <c r="G60" s="3">
-        <v>965500</v>
+        <v>954400</v>
       </c>
       <c r="H60" s="3">
-        <v>1026900</v>
+        <v>1015100</v>
       </c>
       <c r="I60" s="3">
-        <v>1044100</v>
+        <v>1032100</v>
       </c>
       <c r="J60" s="3">
-        <v>951700</v>
+        <v>940800</v>
       </c>
       <c r="K60" s="3">
         <v>862400</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78100</v>
+        <v>77200</v>
       </c>
       <c r="E61" s="3">
-        <v>80600</v>
+        <v>79700</v>
       </c>
       <c r="F61" s="3">
-        <v>82300</v>
+        <v>81400</v>
       </c>
       <c r="G61" s="3">
-        <v>85100</v>
+        <v>84100</v>
       </c>
       <c r="H61" s="3">
-        <v>87100</v>
+        <v>86100</v>
       </c>
       <c r="I61" s="3">
-        <v>88700</v>
+        <v>87700</v>
       </c>
       <c r="J61" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="K61" s="3">
         <v>16600</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35200</v>
+        <v>34800</v>
       </c>
       <c r="E62" s="3">
-        <v>31500</v>
+        <v>31100</v>
       </c>
       <c r="F62" s="3">
-        <v>35800</v>
+        <v>35400</v>
       </c>
       <c r="G62" s="3">
-        <v>33600</v>
+        <v>33200</v>
       </c>
       <c r="H62" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I62" s="3">
-        <v>36900</v>
+        <v>36500</v>
       </c>
       <c r="J62" s="3">
-        <v>41000</v>
+        <v>40500</v>
       </c>
       <c r="K62" s="3">
         <v>43800</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1236100</v>
+        <v>1221900</v>
       </c>
       <c r="E66" s="3">
-        <v>1308300</v>
+        <v>1293300</v>
       </c>
       <c r="F66" s="3">
-        <v>1208000</v>
+        <v>1194200</v>
       </c>
       <c r="G66" s="3">
-        <v>1084200</v>
+        <v>1071700</v>
       </c>
       <c r="H66" s="3">
-        <v>1150700</v>
+        <v>1137500</v>
       </c>
       <c r="I66" s="3">
-        <v>1169700</v>
+        <v>1156300</v>
       </c>
       <c r="J66" s="3">
-        <v>1009700</v>
+        <v>998100</v>
       </c>
       <c r="K66" s="3">
         <v>922800</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2227300</v>
+        <v>2201700</v>
       </c>
       <c r="E72" s="3">
-        <v>2151800</v>
+        <v>2127100</v>
       </c>
       <c r="F72" s="3">
-        <v>2077900</v>
+        <v>2054100</v>
       </c>
       <c r="G72" s="3">
-        <v>2028900</v>
+        <v>2005600</v>
       </c>
       <c r="H72" s="3">
-        <v>2025300</v>
+        <v>2002100</v>
       </c>
       <c r="I72" s="3">
-        <v>1979200</v>
+        <v>1956500</v>
       </c>
       <c r="J72" s="3">
-        <v>1903700</v>
+        <v>1881800</v>
       </c>
       <c r="K72" s="3">
         <v>1838400</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2403900</v>
+        <v>2376300</v>
       </c>
       <c r="E76" s="3">
-        <v>2327900</v>
+        <v>2301200</v>
       </c>
       <c r="F76" s="3">
-        <v>2261900</v>
+        <v>2236000</v>
       </c>
       <c r="G76" s="3">
-        <v>2214000</v>
+        <v>2188600</v>
       </c>
       <c r="H76" s="3">
-        <v>2161000</v>
+        <v>2136200</v>
       </c>
       <c r="I76" s="3">
-        <v>2114000</v>
+        <v>2089800</v>
       </c>
       <c r="J76" s="3">
-        <v>2025700</v>
+        <v>2002400</v>
       </c>
       <c r="K76" s="3">
         <v>1981800</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>129700</v>
+        <v>128200</v>
       </c>
       <c r="E81" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="F81" s="3">
-        <v>47400</v>
+        <v>46800</v>
       </c>
       <c r="G81" s="3">
         <v>2600</v>
       </c>
       <c r="H81" s="3">
-        <v>99600</v>
+        <v>98500</v>
       </c>
       <c r="I81" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="J81" s="3">
-        <v>99900</v>
+        <v>98700</v>
       </c>
       <c r="K81" s="3">
         <v>-75900</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="E83" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="F83" s="3">
-        <v>41400</v>
+        <v>40900</v>
       </c>
       <c r="G83" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="H83" s="3">
-        <v>42800</v>
+        <v>42300</v>
       </c>
       <c r="I83" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="J83" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="K83" s="3">
         <v>41100</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66700</v>
+        <v>66000</v>
       </c>
       <c r="E89" s="3">
-        <v>-45100</v>
+        <v>-44500</v>
       </c>
       <c r="F89" s="3">
-        <v>147200</v>
+        <v>145600</v>
       </c>
       <c r="G89" s="3">
-        <v>55800</v>
+        <v>55200</v>
       </c>
       <c r="H89" s="3">
-        <v>120900</v>
+        <v>119600</v>
       </c>
       <c r="I89" s="3">
-        <v>142600</v>
+        <v>141000</v>
       </c>
       <c r="J89" s="3">
-        <v>33300</v>
+        <v>32900</v>
       </c>
       <c r="K89" s="3">
         <v>98100</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46800</v>
+        <v>-46300</v>
       </c>
       <c r="E91" s="3">
-        <v>-41800</v>
+        <v>-41300</v>
       </c>
       <c r="F91" s="3">
-        <v>-37600</v>
+        <v>-37100</v>
       </c>
       <c r="G91" s="3">
-        <v>-37500</v>
+        <v>-37000</v>
       </c>
       <c r="H91" s="3">
-        <v>-32700</v>
+        <v>-32300</v>
       </c>
       <c r="I91" s="3">
-        <v>-19600</v>
+        <v>-19400</v>
       </c>
       <c r="J91" s="3">
-        <v>-19500</v>
+        <v>-19300</v>
       </c>
       <c r="K91" s="3">
         <v>-16200</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>51900</v>
+        <v>51300</v>
       </c>
       <c r="E94" s="3">
-        <v>-73300</v>
+        <v>-72400</v>
       </c>
       <c r="F94" s="3">
-        <v>-123500</v>
+        <v>-122100</v>
       </c>
       <c r="G94" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="H94" s="3">
-        <v>-16300</v>
+        <v>-16100</v>
       </c>
       <c r="I94" s="3">
-        <v>-205500</v>
+        <v>-203200</v>
       </c>
       <c r="J94" s="3">
-        <v>-106800</v>
+        <v>-105600</v>
       </c>
       <c r="K94" s="3">
         <v>108500</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-94300</v>
+        <v>-93200</v>
       </c>
       <c r="E100" s="3">
-        <v>29600</v>
+        <v>29200</v>
       </c>
       <c r="F100" s="3">
-        <v>112900</v>
+        <v>111600</v>
       </c>
       <c r="G100" s="3">
-        <v>-98700</v>
+        <v>-97600</v>
       </c>
       <c r="H100" s="3">
-        <v>-111900</v>
+        <v>-110700</v>
       </c>
       <c r="I100" s="3">
-        <v>93900</v>
+        <v>92800</v>
       </c>
       <c r="J100" s="3">
-        <v>71100</v>
+        <v>70200</v>
       </c>
       <c r="K100" s="3">
         <v>-217300</v>
@@ -6367,7 +6367,7 @@
         <v>-700</v>
       </c>
       <c r="E101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="E102" s="3">
-        <v>-86900</v>
+        <v>-85900</v>
       </c>
       <c r="F102" s="3">
-        <v>137200</v>
+        <v>135600</v>
       </c>
       <c r="G102" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H102" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="I102" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="J102" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K102" s="3">
         <v>-10200</v>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>744600</v>
+        <v>680700</v>
       </c>
       <c r="E8" s="3">
-        <v>635600</v>
+        <v>666000</v>
       </c>
       <c r="F8" s="3">
-        <v>610900</v>
+        <v>721600</v>
       </c>
       <c r="G8" s="3">
-        <v>636900</v>
+        <v>615900</v>
       </c>
       <c r="H8" s="3">
-        <v>632700</v>
+        <v>592000</v>
       </c>
       <c r="I8" s="3">
+        <v>617200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>613100</v>
+      </c>
+      <c r="K8" s="3">
         <v>570700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>572600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>584400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>659600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>528100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>543400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>520900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>502100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>491900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>511100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>550300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>512800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>479500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>489800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>510800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>346900</v>
+        <v>320800</v>
       </c>
       <c r="E9" s="3">
-        <v>303600</v>
+        <v>307800</v>
       </c>
       <c r="F9" s="3">
-        <v>283100</v>
+        <v>336100</v>
       </c>
       <c r="G9" s="3">
-        <v>294000</v>
+        <v>294200</v>
       </c>
       <c r="H9" s="3">
-        <v>291400</v>
+        <v>274300</v>
       </c>
       <c r="I9" s="3">
+        <v>284900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>282400</v>
+      </c>
+      <c r="K9" s="3">
         <v>250900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>277900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>268100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>280100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>255200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>258600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>240100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>225800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>217900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>237900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>240700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>239400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>232300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>239200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>209000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>397800</v>
+        <v>359900</v>
       </c>
       <c r="E10" s="3">
-        <v>332000</v>
+        <v>358200</v>
       </c>
       <c r="F10" s="3">
-        <v>327800</v>
+        <v>385400</v>
       </c>
       <c r="G10" s="3">
-        <v>342900</v>
+        <v>321800</v>
       </c>
       <c r="H10" s="3">
-        <v>341200</v>
+        <v>317700</v>
       </c>
       <c r="I10" s="3">
+        <v>332300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>330600</v>
+      </c>
+      <c r="K10" s="3">
         <v>319800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>294700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>316200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>379500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>272900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>284800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>280800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>276300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>274000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>273200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>309600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>273300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>247200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>250500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>301800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1016,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>54300</v>
+        <v>50800</v>
       </c>
       <c r="E12" s="3">
-        <v>55200</v>
+        <v>48600</v>
       </c>
       <c r="F12" s="3">
-        <v>49400</v>
+        <v>52600</v>
       </c>
       <c r="G12" s="3">
-        <v>49600</v>
+        <v>53500</v>
       </c>
       <c r="H12" s="3">
-        <v>52800</v>
+        <v>47900</v>
       </c>
       <c r="I12" s="3">
+        <v>48100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K12" s="3">
         <v>48000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>50400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>49000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>46700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>45900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>44700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>46000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>50600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>50400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>58400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>63000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>55800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>69100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>59000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>64000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,58 +1160,64 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>94100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>23700</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>77200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>10100</v>
+        <v>23000</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>74800</v>
       </c>
       <c r="J14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>176000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>11</v>
+      <c r="P14" s="3">
+        <v>1100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,76 +1234,88 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20100</v>
+        <v>19100</v>
       </c>
       <c r="E15" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="F15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="M15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="N15" s="3">
         <v>22000</v>
       </c>
-      <c r="G15" s="3">
-        <v>22000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>22200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>20700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>18600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>19700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>22000</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>19400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>19300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>19100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>17800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>17200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>19900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>18700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>18300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>17100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>17000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>18300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>588100</v>
+        <v>661700</v>
       </c>
       <c r="E17" s="3">
-        <v>550200</v>
+        <v>550400</v>
       </c>
       <c r="F17" s="3">
-        <v>537700</v>
+        <v>569900</v>
       </c>
       <c r="G17" s="3">
-        <v>608500</v>
+        <v>533200</v>
       </c>
       <c r="H17" s="3">
-        <v>525300</v>
+        <v>521100</v>
       </c>
       <c r="I17" s="3">
+        <v>589700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>509000</v>
+      </c>
+      <c r="K17" s="3">
         <v>466000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>487300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>662600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>559100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>418900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>471100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>443400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>435400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>428800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>472900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>477900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>457700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>472900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>446600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>431000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>156500</v>
+        <v>19000</v>
       </c>
       <c r="E18" s="3">
-        <v>85400</v>
+        <v>115600</v>
       </c>
       <c r="F18" s="3">
-        <v>73200</v>
+        <v>151700</v>
       </c>
       <c r="G18" s="3">
-        <v>28400</v>
+        <v>82700</v>
       </c>
       <c r="H18" s="3">
-        <v>107400</v>
+        <v>70900</v>
       </c>
       <c r="I18" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K18" s="3">
         <v>104700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>85300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-78200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>109200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>72300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>77500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>66700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>63000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>38300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>72400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>55100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>6600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>43200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>79800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10300</v>
+        <v>16000</v>
       </c>
       <c r="E20" s="3">
-        <v>13100</v>
+        <v>8600</v>
       </c>
       <c r="F20" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="G20" s="3">
-        <v>10700</v>
+        <v>12700</v>
       </c>
       <c r="H20" s="3">
-        <v>7300</v>
+        <v>9900</v>
       </c>
       <c r="I20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K20" s="3">
         <v>11800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>9900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>11700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>15200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>12500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>18500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>7700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>205400</v>
+        <v>72100</v>
       </c>
       <c r="E21" s="3">
-        <v>136000</v>
+        <v>161500</v>
       </c>
       <c r="F21" s="3">
-        <v>124400</v>
+        <v>199100</v>
       </c>
       <c r="G21" s="3">
-        <v>80700</v>
+        <v>131700</v>
       </c>
       <c r="H21" s="3">
-        <v>156900</v>
+        <v>120500</v>
       </c>
       <c r="I21" s="3">
+        <v>78200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K21" s="3">
         <v>157100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>133600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-27200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>155400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>163200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>129400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>124300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>118800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>108200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>131400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>101800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>54700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>86000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>123700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="3">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="G22" s="3">
         <v>2400</v>
       </c>
       <c r="H22" s="3">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="I22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>3200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>2300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>163800</v>
+        <v>31100</v>
       </c>
       <c r="E23" s="3">
-        <v>95900</v>
+        <v>121600</v>
       </c>
       <c r="F23" s="3">
-        <v>79600</v>
+        <v>158800</v>
       </c>
       <c r="G23" s="3">
-        <v>36700</v>
+        <v>93000</v>
       </c>
       <c r="H23" s="3">
-        <v>111400</v>
+        <v>77100</v>
       </c>
       <c r="I23" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K23" s="3">
         <v>113600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>92300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-70300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>105300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>116800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>79200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>78500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>76400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>66200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>54200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>86000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>56000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>11200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>43900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>81600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35700</v>
+        <v>20100</v>
       </c>
       <c r="E24" s="3">
-        <v>22200</v>
+        <v>33100</v>
       </c>
       <c r="F24" s="3">
-        <v>32800</v>
+        <v>34600</v>
       </c>
       <c r="G24" s="3">
-        <v>34200</v>
+        <v>21500</v>
       </c>
       <c r="H24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>38700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="O24" s="3">
+        <v>25700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Q24" s="3">
         <v>12900</v>
       </c>
-      <c r="I24" s="3">
-        <v>38700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>25700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>20400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>12900</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>24200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>14900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>16800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>128200</v>
+        <v>11000</v>
       </c>
       <c r="E26" s="3">
-        <v>73700</v>
+        <v>88500</v>
       </c>
       <c r="F26" s="3">
-        <v>46800</v>
+        <v>124200</v>
       </c>
       <c r="G26" s="3">
-        <v>2600</v>
+        <v>71500</v>
       </c>
       <c r="H26" s="3">
-        <v>98500</v>
+        <v>45400</v>
       </c>
       <c r="I26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K26" s="3">
         <v>74800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>98700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-75900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>150100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>91100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>58800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>65600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>66600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>60300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>49100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>61800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>41200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>8500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>43100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>64800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>128200</v>
+        <v>11000</v>
       </c>
       <c r="E27" s="3">
-        <v>73700</v>
+        <v>88500</v>
       </c>
       <c r="F27" s="3">
-        <v>46800</v>
+        <v>124200</v>
       </c>
       <c r="G27" s="3">
-        <v>2600</v>
+        <v>71500</v>
       </c>
       <c r="H27" s="3">
-        <v>98500</v>
+        <v>45400</v>
       </c>
       <c r="I27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K27" s="3">
         <v>74800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>98700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-75900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>150100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>91100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>58800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>65600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>66600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>60300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>49100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>61800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>41200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>8500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>43100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>64800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2089,11 +2210,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>11</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>11</v>
@@ -2107,17 +2228,17 @@
       <c r="Q29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="3">
         <v>-5400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>11</v>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10300</v>
+        <v>-16000</v>
       </c>
       <c r="E32" s="3">
-        <v>-13100</v>
+        <v>-8600</v>
       </c>
       <c r="F32" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="G32" s="3">
-        <v>-10700</v>
+        <v>-12700</v>
       </c>
       <c r="H32" s="3">
-        <v>-7300</v>
+        <v>-9900</v>
       </c>
       <c r="I32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-9900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-11700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-15200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-18500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-7700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>128200</v>
+        <v>11000</v>
       </c>
       <c r="E33" s="3">
-        <v>73700</v>
+        <v>88500</v>
       </c>
       <c r="F33" s="3">
-        <v>46800</v>
+        <v>124200</v>
       </c>
       <c r="G33" s="3">
-        <v>2600</v>
+        <v>71500</v>
       </c>
       <c r="H33" s="3">
-        <v>98500</v>
+        <v>45400</v>
       </c>
       <c r="I33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K33" s="3">
         <v>74800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>98700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-75900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>150100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>91100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>58800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>65600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>66600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>60300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>43700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>48400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>41200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>8500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>43100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>64800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>128200</v>
+        <v>11000</v>
       </c>
       <c r="E35" s="3">
-        <v>73700</v>
+        <v>88500</v>
       </c>
       <c r="F35" s="3">
-        <v>46800</v>
+        <v>124200</v>
       </c>
       <c r="G35" s="3">
-        <v>2600</v>
+        <v>71500</v>
       </c>
       <c r="H35" s="3">
-        <v>98500</v>
+        <v>45400</v>
       </c>
       <c r="I35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K35" s="3">
         <v>74800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>98700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-75900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>150100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>91100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>58800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>65600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>66600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>60300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>43700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>48400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>41200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>8500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>43100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>64800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2832,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128900</v>
+        <v>182400</v>
       </c>
       <c r="E41" s="3">
-        <v>105500</v>
+        <v>272700</v>
       </c>
       <c r="F41" s="3">
-        <v>191600</v>
+        <v>124900</v>
       </c>
       <c r="G41" s="3">
-        <v>55800</v>
+        <v>102300</v>
       </c>
       <c r="H41" s="3">
-        <v>50200</v>
+        <v>185700</v>
       </c>
       <c r="I41" s="3">
+        <v>54100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K41" s="3">
         <v>56800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>26500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>41400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>28400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>30100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>50000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>29000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>38100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>29100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>35600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>40800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>53300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>83100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>188600</v>
+        <v>369500</v>
       </c>
       <c r="E42" s="3">
-        <v>262700</v>
+        <v>165600</v>
       </c>
       <c r="F42" s="3">
-        <v>255100</v>
+        <v>182800</v>
       </c>
       <c r="G42" s="3">
-        <v>149000</v>
+        <v>254500</v>
       </c>
       <c r="H42" s="3">
-        <v>273300</v>
+        <v>247200</v>
       </c>
       <c r="I42" s="3">
+        <v>144400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>264800</v>
+      </c>
+      <c r="K42" s="3">
         <v>300900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>306000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>233300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>350900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>338400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>304800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>312000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>206300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>177300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>265100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>288400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>207300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>169900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>196600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>194500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>927500</v>
+        <v>886400</v>
       </c>
       <c r="E43" s="3">
-        <v>820800</v>
+        <v>826400</v>
       </c>
       <c r="F43" s="3">
-        <v>676800</v>
+        <v>898700</v>
       </c>
       <c r="G43" s="3">
-        <v>712400</v>
+        <v>795400</v>
       </c>
       <c r="H43" s="3">
-        <v>675500</v>
+        <v>655900</v>
       </c>
       <c r="I43" s="3">
+        <v>690400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>654600</v>
+      </c>
+      <c r="K43" s="3">
         <v>634000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>706200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>631800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>599700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>554600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>585400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>551500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>653300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>683200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>587300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>613600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>610300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>594900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>524500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>566600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>642100</v>
+        <v>637100</v>
       </c>
       <c r="E44" s="3">
-        <v>656000</v>
+        <v>621900</v>
       </c>
       <c r="F44" s="3">
-        <v>586700</v>
+        <v>622200</v>
       </c>
       <c r="G44" s="3">
-        <v>572500</v>
+        <v>635700</v>
       </c>
       <c r="H44" s="3">
-        <v>531500</v>
+        <v>568600</v>
       </c>
       <c r="I44" s="3">
+        <v>554700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>515000</v>
+      </c>
+      <c r="K44" s="3">
         <v>505800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>453100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>503200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>481400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>482800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>454300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>458800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>429500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>416400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>420600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>387900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>390400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>406300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>393100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>414100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>222300</v>
+        <v>201400</v>
       </c>
       <c r="E45" s="3">
-        <v>206400</v>
+        <v>202100</v>
       </c>
       <c r="F45" s="3">
-        <v>205100</v>
+        <v>215400</v>
       </c>
       <c r="G45" s="3">
-        <v>234100</v>
+        <v>200000</v>
       </c>
       <c r="H45" s="3">
-        <v>213800</v>
+        <v>198800</v>
       </c>
       <c r="I45" s="3">
+        <v>226800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>207200</v>
+      </c>
+      <c r="K45" s="3">
         <v>220000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>192600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>164800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>176600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>183700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>174500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>182200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>189200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>213000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>274300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>264300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>246000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>234200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>215600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>193600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2109500</v>
+        <v>2276800</v>
       </c>
       <c r="E46" s="3">
-        <v>2051400</v>
+        <v>2088700</v>
       </c>
       <c r="F46" s="3">
-        <v>1915400</v>
+        <v>2044200</v>
       </c>
       <c r="G46" s="3">
-        <v>1723800</v>
+        <v>1987900</v>
       </c>
       <c r="H46" s="3">
-        <v>1744300</v>
+        <v>1856100</v>
       </c>
       <c r="I46" s="3">
+        <v>1670400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1690300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1717500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1684400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1563000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1650000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1587800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1549200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1527700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1528400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1518900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1585500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1583200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1489500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1446100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1383200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1451900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>97500</v>
+        <v>100700</v>
       </c>
       <c r="E47" s="3">
-        <v>124300</v>
+        <v>82000</v>
       </c>
       <c r="F47" s="3">
-        <v>109200</v>
+        <v>94500</v>
       </c>
       <c r="G47" s="3">
-        <v>114700</v>
+        <v>120500</v>
       </c>
       <c r="H47" s="3">
-        <v>54900</v>
+        <v>105800</v>
       </c>
       <c r="I47" s="3">
-        <v>66300</v>
+        <v>111100</v>
       </c>
       <c r="J47" s="3">
-        <v>62400</v>
+        <v>53200</v>
       </c>
       <c r="K47" s="3">
         <v>66300</v>
       </c>
       <c r="L47" s="3">
+        <v>62400</v>
+      </c>
+      <c r="M47" s="3">
+        <v>66300</v>
+      </c>
+      <c r="N47" s="3">
         <v>77900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>56200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>46700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>44200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>52400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>50200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>69700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>74800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>73000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>80600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>97100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>101800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>778200</v>
+        <v>778400</v>
       </c>
       <c r="E48" s="3">
-        <v>757600</v>
+        <v>788400</v>
       </c>
       <c r="F48" s="3">
-        <v>737900</v>
+        <v>754100</v>
       </c>
       <c r="G48" s="3">
-        <v>726900</v>
+        <v>734100</v>
       </c>
       <c r="H48" s="3">
-        <v>710900</v>
+        <v>715000</v>
       </c>
       <c r="I48" s="3">
+        <v>704400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>688900</v>
+      </c>
+      <c r="K48" s="3">
         <v>700000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>676100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>702600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>728300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>743100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>731800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>748800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>748800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>753800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>836800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>841400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>837300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>833100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>787700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>788300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>480700</v>
+        <v>396400</v>
       </c>
       <c r="E49" s="3">
-        <v>513500</v>
+        <v>458000</v>
       </c>
       <c r="F49" s="3">
-        <v>519600</v>
+        <v>465800</v>
       </c>
       <c r="G49" s="3">
-        <v>530500</v>
+        <v>497600</v>
       </c>
       <c r="H49" s="3">
-        <v>588500</v>
+        <v>503500</v>
       </c>
       <c r="I49" s="3">
+        <v>514100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>570300</v>
+      </c>
+      <c r="K49" s="3">
         <v>594200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>409000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>411200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>609200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>657100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>653100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>665700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>678100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>651600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>702900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>696700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>717700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>702200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>670800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>688700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132400</v>
+        <v>113900</v>
       </c>
       <c r="E52" s="3">
-        <v>147700</v>
+        <v>119800</v>
       </c>
       <c r="F52" s="3">
-        <v>148100</v>
+        <v>128300</v>
       </c>
       <c r="G52" s="3">
-        <v>164400</v>
+        <v>143200</v>
       </c>
       <c r="H52" s="3">
-        <v>175000</v>
+        <v>143500</v>
       </c>
       <c r="I52" s="3">
+        <v>159400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K52" s="3">
         <v>167900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>168700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>161500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>147800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>76000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>80400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>89000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>77700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>67400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>71100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>92900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>95900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>90400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>99900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3598200</v>
+        <v>3666200</v>
       </c>
       <c r="E54" s="3">
-        <v>3594500</v>
+        <v>3536900</v>
       </c>
       <c r="F54" s="3">
-        <v>3430100</v>
+        <v>3486800</v>
       </c>
       <c r="G54" s="3">
-        <v>3260300</v>
+        <v>3483200</v>
       </c>
       <c r="H54" s="3">
-        <v>3273600</v>
+        <v>3323900</v>
       </c>
       <c r="I54" s="3">
+        <v>3159400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3172300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3246100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3000600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2904600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3213300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3120200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3050000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3066900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3096600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3052200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3262200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3267300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3210400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3157900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3029100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3130700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>330100</v>
+        <v>320200</v>
       </c>
       <c r="E57" s="3">
-        <v>369600</v>
+        <v>306600</v>
       </c>
       <c r="F57" s="3">
-        <v>306800</v>
+        <v>319900</v>
       </c>
       <c r="G57" s="3">
-        <v>298100</v>
+        <v>358200</v>
       </c>
       <c r="H57" s="3">
-        <v>295000</v>
+        <v>297300</v>
       </c>
       <c r="I57" s="3">
+        <v>288900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K57" s="3">
         <v>246000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>215200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>237400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>212100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>203900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>196900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>215700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>186000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>195900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>232100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>210800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>205200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>191200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>184900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>183400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>313900</v>
+        <v>351800</v>
       </c>
       <c r="E58" s="3">
-        <v>351500</v>
+        <v>277100</v>
       </c>
       <c r="F58" s="3">
-        <v>310200</v>
+        <v>304200</v>
       </c>
       <c r="G58" s="3">
-        <v>180000</v>
+        <v>340600</v>
       </c>
       <c r="H58" s="3">
-        <v>268300</v>
+        <v>300600</v>
       </c>
       <c r="I58" s="3">
+        <v>174500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K58" s="3">
         <v>320300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>268700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>223400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>243600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>221600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>258900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>369200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>372500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>370500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>440300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>415200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>374500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>602700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>720400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>505100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>463600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>451400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>447100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>446200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>461500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>437800</v>
+      </c>
+      <c r="K59" s="3">
         <v>465800</v>
       </c>
-      <c r="E59" s="3">
-        <v>461400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>460400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>476300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>451800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>465800</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>456800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>424000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>405100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>390300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>389200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>371900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>387500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>360500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>405100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>407400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>396700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>381600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>383700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>409100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1109900</v>
+        <v>1177100</v>
       </c>
       <c r="E60" s="3">
-        <v>1182500</v>
+        <v>1047300</v>
       </c>
       <c r="F60" s="3">
-        <v>1077400</v>
+        <v>1075500</v>
       </c>
       <c r="G60" s="3">
-        <v>954400</v>
+        <v>1145900</v>
       </c>
       <c r="H60" s="3">
-        <v>1015100</v>
+        <v>1044100</v>
       </c>
       <c r="I60" s="3">
+        <v>924900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>983700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1032100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>940800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>862400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>840600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>837900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>807700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>846400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>942700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>928900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1007700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1058400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1017100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>947400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1171300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1313000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>74800</v>
+      </c>
+      <c r="G61" s="3">
         <v>77200</v>
       </c>
-      <c r="E61" s="3">
-        <v>79700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>81400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>84100</v>
-      </c>
       <c r="H61" s="3">
-        <v>86100</v>
+        <v>78900</v>
       </c>
       <c r="I61" s="3">
+        <v>81500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K61" s="3">
         <v>87700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>16600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>210000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>228900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>297700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>334200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>364800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>345000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>362800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>353700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>360800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>355100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>75100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>78800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34800</v>
+        <v>31800</v>
       </c>
       <c r="E62" s="3">
-        <v>31100</v>
+        <v>35000</v>
       </c>
       <c r="F62" s="3">
-        <v>35400</v>
+        <v>33700</v>
       </c>
       <c r="G62" s="3">
-        <v>33200</v>
+        <v>30200</v>
       </c>
       <c r="H62" s="3">
-        <v>36300</v>
+        <v>34300</v>
       </c>
       <c r="I62" s="3">
+        <v>32200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K62" s="3">
         <v>36500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>40500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>43800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>49300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>44600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>47800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>50200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>51400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>54100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>63100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>66700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>70700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>70600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>73400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>71000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1221900</v>
+        <v>1280800</v>
       </c>
       <c r="E66" s="3">
-        <v>1293300</v>
+        <v>1157900</v>
       </c>
       <c r="F66" s="3">
-        <v>1194200</v>
+        <v>1184000</v>
       </c>
       <c r="G66" s="3">
-        <v>1071700</v>
+        <v>1253300</v>
       </c>
       <c r="H66" s="3">
-        <v>1137500</v>
+        <v>1157200</v>
       </c>
       <c r="I66" s="3">
+        <v>1038500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1102300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1156300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>998100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>922800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1099800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1111300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1153200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1230800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1358900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1327900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1433600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1478800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1448600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1373200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1319800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1462700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2201700</v>
+        <v>2235700</v>
       </c>
       <c r="E72" s="3">
-        <v>2127100</v>
+        <v>2223300</v>
       </c>
       <c r="F72" s="3">
-        <v>2054100</v>
+        <v>2133500</v>
       </c>
       <c r="G72" s="3">
-        <v>2005600</v>
+        <v>2061200</v>
       </c>
       <c r="H72" s="3">
-        <v>2002100</v>
+        <v>1990500</v>
       </c>
       <c r="I72" s="3">
+        <v>1943500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1940100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1956500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1881800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1838400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1972100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1875000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1756300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1696200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1592200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1580100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1663800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1618700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1569400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1587400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1505100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1461100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2376300</v>
+        <v>2385400</v>
       </c>
       <c r="E76" s="3">
-        <v>2301200</v>
+        <v>2379000</v>
       </c>
       <c r="F76" s="3">
-        <v>2236000</v>
+        <v>2302800</v>
       </c>
       <c r="G76" s="3">
-        <v>2188600</v>
+        <v>2230000</v>
       </c>
       <c r="H76" s="3">
-        <v>2136200</v>
+        <v>2166700</v>
       </c>
       <c r="I76" s="3">
+        <v>2120800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2070000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2089800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2002400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1981800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2113400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2008900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1896900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1836100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1737700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1724300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1828600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1788500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1761800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1784700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1709300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1667900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>128200</v>
+        <v>11000</v>
       </c>
       <c r="E81" s="3">
-        <v>73700</v>
+        <v>88500</v>
       </c>
       <c r="F81" s="3">
-        <v>46800</v>
+        <v>124200</v>
       </c>
       <c r="G81" s="3">
-        <v>2600</v>
+        <v>71500</v>
       </c>
       <c r="H81" s="3">
-        <v>98500</v>
+        <v>45400</v>
       </c>
       <c r="I81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K81" s="3">
         <v>74800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>98700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-75900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>150100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>91100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>58800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>65600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>66600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>60300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>43700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>48400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>41200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>8500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>43100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>64800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38600</v>
+        <v>37000</v>
       </c>
       <c r="E83" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="F83" s="3">
-        <v>40900</v>
+        <v>37400</v>
       </c>
       <c r="G83" s="3">
-        <v>41600</v>
+        <v>36400</v>
       </c>
       <c r="H83" s="3">
-        <v>42300</v>
+        <v>39700</v>
       </c>
       <c r="I83" s="3">
+        <v>40300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K83" s="3">
         <v>40600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>38300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>45900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>42400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>42000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>42100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>39600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>39400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>43400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>43000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>42500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>40500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>39400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>39800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>66000</v>
+        <v>114200</v>
       </c>
       <c r="E89" s="3">
-        <v>-44500</v>
+        <v>217000</v>
       </c>
       <c r="F89" s="3">
-        <v>145600</v>
+        <v>63900</v>
       </c>
       <c r="G89" s="3">
-        <v>55200</v>
+        <v>-43200</v>
       </c>
       <c r="H89" s="3">
-        <v>119600</v>
+        <v>141100</v>
       </c>
       <c r="I89" s="3">
+        <v>53500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>115900</v>
+      </c>
+      <c r="K89" s="3">
         <v>141000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>32900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>98100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>138900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>135100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>90800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>220400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>141800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-66400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>83600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>108700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>97000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-28600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>117400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>72100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46300</v>
+        <v>-46800</v>
       </c>
       <c r="E91" s="3">
-        <v>-41300</v>
+        <v>-51800</v>
       </c>
       <c r="F91" s="3">
-        <v>-37100</v>
+        <v>-44800</v>
       </c>
       <c r="G91" s="3">
-        <v>-37000</v>
+        <v>-40100</v>
       </c>
       <c r="H91" s="3">
-        <v>-32300</v>
+        <v>-36000</v>
       </c>
       <c r="I91" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-16200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-14800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-14500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-23800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-30500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-21800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-39800</v>
       </c>
       <c r="V91" s="3">
         <v>-40700</v>
       </c>
       <c r="W91" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-40900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>51300</v>
+        <v>-275300</v>
       </c>
       <c r="E94" s="3">
-        <v>-72400</v>
+        <v>-34600</v>
       </c>
       <c r="F94" s="3">
-        <v>-122100</v>
+        <v>49700</v>
       </c>
       <c r="G94" s="3">
-        <v>48600</v>
+        <v>-70200</v>
       </c>
       <c r="H94" s="3">
-        <v>-16100</v>
+        <v>-118300</v>
       </c>
       <c r="I94" s="3">
+        <v>47100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-203200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-105600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>108500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-16500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-50700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-104100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>45800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>11500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-147800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-75600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-44600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>28400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-93200</v>
+        <v>63800</v>
       </c>
       <c r="E100" s="3">
-        <v>29200</v>
+        <v>-32200</v>
       </c>
       <c r="F100" s="3">
-        <v>111600</v>
+        <v>-90300</v>
       </c>
       <c r="G100" s="3">
-        <v>-97600</v>
+        <v>28300</v>
       </c>
       <c r="H100" s="3">
-        <v>-110700</v>
+        <v>108200</v>
       </c>
       <c r="I100" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K100" s="3">
         <v>92800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>70200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-217300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-109600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-86700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-75900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-143000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-83800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>15800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-87300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>32400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-28000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>18700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-101900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-48500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="K101" s="3">
+        <v>900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>600</v>
+      </c>
+      <c r="N101" s="3">
+        <v>200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>700</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="S101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V101" s="3">
+        <v>500</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
-        <v>900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>500</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23400</v>
+        <v>-89200</v>
       </c>
       <c r="E102" s="3">
-        <v>-85900</v>
+        <v>150200</v>
       </c>
       <c r="F102" s="3">
-        <v>135600</v>
+        <v>22700</v>
       </c>
       <c r="G102" s="3">
-        <v>6900</v>
+        <v>-83300</v>
       </c>
       <c r="H102" s="3">
-        <v>-7900</v>
+        <v>131400</v>
       </c>
       <c r="I102" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K102" s="3">
         <v>31500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-10200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-28000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>21200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>8900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-6100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-31000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>51300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>680700</v>
+        <v>646700</v>
       </c>
       <c r="E8" s="3">
-        <v>666000</v>
+        <v>674200</v>
       </c>
       <c r="F8" s="3">
-        <v>721600</v>
+        <v>659600</v>
       </c>
       <c r="G8" s="3">
-        <v>615900</v>
+        <v>714600</v>
       </c>
       <c r="H8" s="3">
-        <v>592000</v>
+        <v>610000</v>
       </c>
       <c r="I8" s="3">
-        <v>617200</v>
+        <v>586300</v>
       </c>
       <c r="J8" s="3">
+        <v>611300</v>
+      </c>
+      <c r="K8" s="3">
         <v>613100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>570700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>572600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>584400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>659600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>528100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>543400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>520900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>502100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>491900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>511100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>550300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>512800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>479500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>489800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>510800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>320800</v>
+        <v>324200</v>
       </c>
       <c r="E9" s="3">
-        <v>307800</v>
+        <v>317800</v>
       </c>
       <c r="F9" s="3">
-        <v>336100</v>
+        <v>304900</v>
       </c>
       <c r="G9" s="3">
-        <v>294200</v>
+        <v>332900</v>
       </c>
       <c r="H9" s="3">
-        <v>274300</v>
+        <v>291300</v>
       </c>
       <c r="I9" s="3">
-        <v>284900</v>
+        <v>271700</v>
       </c>
       <c r="J9" s="3">
+        <v>282200</v>
+      </c>
+      <c r="K9" s="3">
         <v>282400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>250900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>277900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>268100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>280100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>255200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>258600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>240100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>225800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>217900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>237900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>240700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>239400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>232300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>239200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>209000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>359900</v>
+        <v>322500</v>
       </c>
       <c r="E10" s="3">
-        <v>358200</v>
+        <v>356400</v>
       </c>
       <c r="F10" s="3">
-        <v>385400</v>
+        <v>354800</v>
       </c>
       <c r="G10" s="3">
-        <v>321800</v>
+        <v>381700</v>
       </c>
       <c r="H10" s="3">
-        <v>317700</v>
+        <v>318700</v>
       </c>
       <c r="I10" s="3">
-        <v>332300</v>
+        <v>314700</v>
       </c>
       <c r="J10" s="3">
+        <v>329100</v>
+      </c>
+      <c r="K10" s="3">
         <v>330600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>319800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>294700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>316200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>379500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>272900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>284800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>280800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>276300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>274000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>273200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>309600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>273300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>247200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>250500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>301800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50800</v>
+        <v>50500</v>
       </c>
       <c r="E12" s="3">
-        <v>48600</v>
+        <v>50300</v>
       </c>
       <c r="F12" s="3">
-        <v>52600</v>
+        <v>48100</v>
       </c>
       <c r="G12" s="3">
-        <v>53500</v>
+        <v>52100</v>
       </c>
       <c r="H12" s="3">
-        <v>47900</v>
+        <v>53000</v>
       </c>
       <c r="I12" s="3">
-        <v>48100</v>
+        <v>47400</v>
       </c>
       <c r="J12" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K12" s="3">
         <v>51200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>49000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>46700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>45900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>44700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>46000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>50600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>50400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>58400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>63000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>55800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>69100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>59000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>64000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,52 +1183,55 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>94100</v>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="3">
+        <v>93200</v>
+      </c>
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>74800</v>
+        <v>22800</v>
       </c>
       <c r="J14" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K14" s="3">
         <v>9800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>176000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>11</v>
@@ -1219,8 +1239,8 @@
       <c r="S14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1240,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="L15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="M15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="N15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="O15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="P15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="R15" s="3">
         <v>19100</v>
       </c>
-      <c r="E15" s="3">
-        <v>19500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>19500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>21400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>21500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>20700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>18600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>19700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>22000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>19400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>19100</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>19900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>18300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17000</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>18300</v>
       </c>
       <c r="Z15" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>661700</v>
+        <v>495300</v>
       </c>
       <c r="E17" s="3">
-        <v>550400</v>
+        <v>655300</v>
       </c>
       <c r="F17" s="3">
-        <v>569900</v>
+        <v>545100</v>
       </c>
       <c r="G17" s="3">
-        <v>533200</v>
+        <v>564400</v>
       </c>
       <c r="H17" s="3">
-        <v>521100</v>
+        <v>528100</v>
       </c>
       <c r="I17" s="3">
-        <v>589700</v>
+        <v>516100</v>
       </c>
       <c r="J17" s="3">
+        <v>584000</v>
+      </c>
+      <c r="K17" s="3">
         <v>509000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>466000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>487300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>662600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>559100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>418900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>471100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>443400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>435400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>428800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>472900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>477900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>457700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>472900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>446600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>431000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19000</v>
+        <v>151400</v>
       </c>
       <c r="E18" s="3">
-        <v>115600</v>
+        <v>18800</v>
       </c>
       <c r="F18" s="3">
-        <v>151700</v>
+        <v>114500</v>
       </c>
       <c r="G18" s="3">
-        <v>82700</v>
+        <v>150200</v>
       </c>
       <c r="H18" s="3">
-        <v>70900</v>
+        <v>81900</v>
       </c>
       <c r="I18" s="3">
-        <v>27500</v>
+        <v>70200</v>
       </c>
       <c r="J18" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K18" s="3">
         <v>104100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>104700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>85300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-78200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>109200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>72300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>38300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>72400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>55100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>43200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>79800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P20" s="3">
+        <v>11700</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>15200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>12500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="U20" s="3">
+        <v>18500</v>
+      </c>
+      <c r="V20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>11800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>9900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>9000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>11700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>12500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>5700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>18500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>16000</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>72100</v>
+        <v>223800</v>
       </c>
       <c r="E21" s="3">
-        <v>161500</v>
+        <v>71400</v>
       </c>
       <c r="F21" s="3">
-        <v>199100</v>
+        <v>160000</v>
       </c>
       <c r="G21" s="3">
-        <v>131700</v>
+        <v>197200</v>
       </c>
       <c r="H21" s="3">
-        <v>120500</v>
+        <v>130500</v>
       </c>
       <c r="I21" s="3">
-        <v>78200</v>
+        <v>119400</v>
       </c>
       <c r="J21" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K21" s="3">
         <v>152000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>157100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>133600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-27200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>163200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>129400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>124300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>118800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>131400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>101800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>54700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>86000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>123700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
-        <v>2400</v>
-      </c>
       <c r="J22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K22" s="3">
         <v>3200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3000</v>
       </c>
       <c r="L22" s="3">
         <v>3000</v>
       </c>
       <c r="M22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2600</v>
       </c>
       <c r="T22" s="3">
         <v>2600</v>
       </c>
       <c r="U22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>31100</v>
+        <v>181700</v>
       </c>
       <c r="E23" s="3">
-        <v>121600</v>
+        <v>30800</v>
       </c>
       <c r="F23" s="3">
-        <v>158800</v>
+        <v>120400</v>
       </c>
       <c r="G23" s="3">
-        <v>93000</v>
+        <v>157200</v>
       </c>
       <c r="H23" s="3">
-        <v>77100</v>
+        <v>92100</v>
       </c>
       <c r="I23" s="3">
-        <v>35600</v>
+        <v>76400</v>
       </c>
       <c r="J23" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K23" s="3">
         <v>107900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>92300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-70300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>116800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>79200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>78500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>76400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>54200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>86000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>56000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>43900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>81600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20100</v>
+        <v>34500</v>
       </c>
       <c r="E24" s="3">
-        <v>33100</v>
+        <v>19900</v>
       </c>
       <c r="F24" s="3">
-        <v>34600</v>
+        <v>32800</v>
       </c>
       <c r="G24" s="3">
-        <v>21500</v>
+        <v>34200</v>
       </c>
       <c r="H24" s="3">
-        <v>31800</v>
+        <v>21300</v>
       </c>
       <c r="I24" s="3">
-        <v>33100</v>
+        <v>31400</v>
       </c>
       <c r="J24" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-44800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>16800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11000</v>
+        <v>147300</v>
       </c>
       <c r="E26" s="3">
-        <v>88500</v>
+        <v>10900</v>
       </c>
       <c r="F26" s="3">
-        <v>124200</v>
+        <v>87600</v>
       </c>
       <c r="G26" s="3">
-        <v>71500</v>
+        <v>123000</v>
       </c>
       <c r="H26" s="3">
-        <v>45400</v>
+        <v>70800</v>
       </c>
       <c r="I26" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>95400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>98700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-75900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>150100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>91100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>58800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>66600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>49100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>61800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>41200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>43100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>64800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11000</v>
+        <v>147300</v>
       </c>
       <c r="E27" s="3">
-        <v>88500</v>
+        <v>10900</v>
       </c>
       <c r="F27" s="3">
-        <v>124200</v>
+        <v>87600</v>
       </c>
       <c r="G27" s="3">
-        <v>71500</v>
+        <v>123000</v>
       </c>
       <c r="H27" s="3">
-        <v>45400</v>
+        <v>70800</v>
       </c>
       <c r="I27" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>95400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>98700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-75900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>150100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>91100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>66600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>61800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>41200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>43100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>64800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2216,8 +2277,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>11</v>
@@ -2234,14 +2295,14 @@
       <c r="S29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="3">
         <v>-5400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>11</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="V32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11000</v>
+        <v>147300</v>
       </c>
       <c r="E33" s="3">
-        <v>88500</v>
+        <v>10900</v>
       </c>
       <c r="F33" s="3">
-        <v>124200</v>
+        <v>87600</v>
       </c>
       <c r="G33" s="3">
-        <v>71500</v>
+        <v>123000</v>
       </c>
       <c r="H33" s="3">
-        <v>45400</v>
+        <v>70800</v>
       </c>
       <c r="I33" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>95400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-75900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>150100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>91100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>58800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>65600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>66600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>41200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>8500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>43100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>64800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11000</v>
+        <v>147300</v>
       </c>
       <c r="E35" s="3">
-        <v>88500</v>
+        <v>10900</v>
       </c>
       <c r="F35" s="3">
-        <v>124200</v>
+        <v>87600</v>
       </c>
       <c r="G35" s="3">
-        <v>71500</v>
+        <v>123000</v>
       </c>
       <c r="H35" s="3">
-        <v>45400</v>
+        <v>70800</v>
       </c>
       <c r="I35" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>95400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-75900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>150100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>91100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>58800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>65600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>66600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>41200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>8500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>43100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>64800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>182400</v>
+        <v>78100</v>
       </c>
       <c r="E41" s="3">
-        <v>272700</v>
+        <v>180700</v>
       </c>
       <c r="F41" s="3">
-        <v>124900</v>
+        <v>270000</v>
       </c>
       <c r="G41" s="3">
-        <v>102300</v>
+        <v>123800</v>
       </c>
       <c r="H41" s="3">
-        <v>185700</v>
+        <v>101300</v>
       </c>
       <c r="I41" s="3">
-        <v>54100</v>
+        <v>183900</v>
       </c>
       <c r="J41" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K41" s="3">
         <v>48700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>23200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>50000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>40800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>53300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>83100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>369500</v>
+        <v>351200</v>
       </c>
       <c r="E42" s="3">
-        <v>165600</v>
+        <v>366000</v>
       </c>
       <c r="F42" s="3">
-        <v>182800</v>
+        <v>164000</v>
       </c>
       <c r="G42" s="3">
-        <v>254500</v>
+        <v>181100</v>
       </c>
       <c r="H42" s="3">
-        <v>247200</v>
+        <v>252100</v>
       </c>
       <c r="I42" s="3">
-        <v>144400</v>
+        <v>244800</v>
       </c>
       <c r="J42" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K42" s="3">
         <v>264800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>300900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>306000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>233300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>350900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>338400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>304800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>312000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>206300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>177300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>265100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>288400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>207300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>169900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>196600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>194500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>886400</v>
+        <v>954200</v>
       </c>
       <c r="E43" s="3">
-        <v>826400</v>
+        <v>877900</v>
       </c>
       <c r="F43" s="3">
-        <v>898700</v>
+        <v>818500</v>
       </c>
       <c r="G43" s="3">
-        <v>795400</v>
+        <v>890100</v>
       </c>
       <c r="H43" s="3">
-        <v>655900</v>
+        <v>787800</v>
       </c>
       <c r="I43" s="3">
-        <v>690400</v>
+        <v>649600</v>
       </c>
       <c r="J43" s="3">
+        <v>683800</v>
+      </c>
+      <c r="K43" s="3">
         <v>654600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>634000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>706200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>631800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>599700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>554600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>585400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>551500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>653300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>683200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>587300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>613600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>610300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>594900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>524500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>566600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>637100</v>
+        <v>642400</v>
       </c>
       <c r="E44" s="3">
-        <v>621900</v>
+        <v>631000</v>
       </c>
       <c r="F44" s="3">
-        <v>622200</v>
+        <v>616000</v>
       </c>
       <c r="G44" s="3">
-        <v>635700</v>
+        <v>616300</v>
       </c>
       <c r="H44" s="3">
-        <v>568600</v>
+        <v>629600</v>
       </c>
       <c r="I44" s="3">
-        <v>554700</v>
+        <v>563100</v>
       </c>
       <c r="J44" s="3">
+        <v>549400</v>
+      </c>
+      <c r="K44" s="3">
         <v>515000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>505800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>453100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>503200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>481400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>482800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>454300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>458800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>429500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>416400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>420600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>387900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>390400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>406300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>393100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>414100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>201400</v>
+        <v>202400</v>
       </c>
       <c r="E45" s="3">
-        <v>202100</v>
+        <v>199500</v>
       </c>
       <c r="F45" s="3">
-        <v>215400</v>
+        <v>200200</v>
       </c>
       <c r="G45" s="3">
-        <v>200000</v>
+        <v>213400</v>
       </c>
       <c r="H45" s="3">
-        <v>198800</v>
+        <v>198100</v>
       </c>
       <c r="I45" s="3">
-        <v>226800</v>
+        <v>196900</v>
       </c>
       <c r="J45" s="3">
+        <v>224600</v>
+      </c>
+      <c r="K45" s="3">
         <v>207200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>220000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>192600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>164800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>176600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>183700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>174500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>182200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>189200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>213000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>274300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>264300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>246000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>234200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>215600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>193600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2276800</v>
+        <v>2228400</v>
       </c>
       <c r="E46" s="3">
-        <v>2088700</v>
+        <v>2255000</v>
       </c>
       <c r="F46" s="3">
-        <v>2044200</v>
+        <v>2068700</v>
       </c>
       <c r="G46" s="3">
-        <v>1987900</v>
+        <v>2024600</v>
       </c>
       <c r="H46" s="3">
-        <v>1856100</v>
+        <v>1968800</v>
       </c>
       <c r="I46" s="3">
-        <v>1670400</v>
+        <v>1838300</v>
       </c>
       <c r="J46" s="3">
+        <v>1654400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1690300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1717500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1684400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1563000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1650000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1587800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1549200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1527700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1528400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1518900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1585500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1583200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1489500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1446100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1383200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1451900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100700</v>
+        <v>65400</v>
       </c>
       <c r="E47" s="3">
-        <v>82000</v>
+        <v>99700</v>
       </c>
       <c r="F47" s="3">
-        <v>94500</v>
+        <v>81200</v>
       </c>
       <c r="G47" s="3">
-        <v>120500</v>
+        <v>93500</v>
       </c>
       <c r="H47" s="3">
-        <v>105800</v>
+        <v>119300</v>
       </c>
       <c r="I47" s="3">
-        <v>111100</v>
+        <v>104800</v>
       </c>
       <c r="J47" s="3">
+        <v>110100</v>
+      </c>
+      <c r="K47" s="3">
         <v>53200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>62400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>77900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>46700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>44200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>52400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>50200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>69700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>74800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>73000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>80600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>97100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>101800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>778400</v>
+        <v>791400</v>
       </c>
       <c r="E48" s="3">
-        <v>788400</v>
+        <v>770900</v>
       </c>
       <c r="F48" s="3">
-        <v>754100</v>
+        <v>780800</v>
       </c>
       <c r="G48" s="3">
-        <v>734100</v>
+        <v>746800</v>
       </c>
       <c r="H48" s="3">
-        <v>715000</v>
+        <v>727100</v>
       </c>
       <c r="I48" s="3">
-        <v>704400</v>
+        <v>708200</v>
       </c>
       <c r="J48" s="3">
+        <v>697700</v>
+      </c>
+      <c r="K48" s="3">
         <v>688900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>676100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>702600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>728300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>743100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>731800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>748800</v>
       </c>
       <c r="R48" s="3">
         <v>748800</v>
       </c>
       <c r="S48" s="3">
+        <v>748800</v>
+      </c>
+      <c r="T48" s="3">
         <v>753800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>836800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>841400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>837300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>833100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>787700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>788300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>396400</v>
+        <v>449000</v>
       </c>
       <c r="E49" s="3">
-        <v>458000</v>
+        <v>392600</v>
       </c>
       <c r="F49" s="3">
-        <v>465800</v>
+        <v>453600</v>
       </c>
       <c r="G49" s="3">
-        <v>497600</v>
+        <v>461400</v>
       </c>
       <c r="H49" s="3">
-        <v>503500</v>
+        <v>492900</v>
       </c>
       <c r="I49" s="3">
-        <v>514100</v>
+        <v>498700</v>
       </c>
       <c r="J49" s="3">
+        <v>509200</v>
+      </c>
+      <c r="K49" s="3">
         <v>570300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>594200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>409000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>411200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>609200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>657100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>653100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>665700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>678100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>651600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>702900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>696700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>717700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>702200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>670800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>688700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>113900</v>
+        <v>135800</v>
       </c>
       <c r="E52" s="3">
-        <v>119800</v>
+        <v>112800</v>
       </c>
       <c r="F52" s="3">
-        <v>128300</v>
+        <v>118600</v>
       </c>
       <c r="G52" s="3">
-        <v>143200</v>
+        <v>127100</v>
       </c>
       <c r="H52" s="3">
-        <v>143500</v>
+        <v>141800</v>
       </c>
       <c r="I52" s="3">
-        <v>159400</v>
+        <v>142200</v>
       </c>
       <c r="J52" s="3">
+        <v>157800</v>
+      </c>
+      <c r="K52" s="3">
         <v>169500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>167900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>168700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>161500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>147800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>76000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>89000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>71100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>92900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>95900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>90400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>99900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3666200</v>
+        <v>3670100</v>
       </c>
       <c r="E54" s="3">
-        <v>3536900</v>
+        <v>3631100</v>
       </c>
       <c r="F54" s="3">
-        <v>3486800</v>
+        <v>3503000</v>
       </c>
       <c r="G54" s="3">
-        <v>3483200</v>
+        <v>3453400</v>
       </c>
       <c r="H54" s="3">
-        <v>3323900</v>
+        <v>3449900</v>
       </c>
       <c r="I54" s="3">
-        <v>3159400</v>
+        <v>3292100</v>
       </c>
       <c r="J54" s="3">
+        <v>3129100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3172300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3246100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3000600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2904600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3213300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3120200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3050000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3066900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3096600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3052200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3262200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3267300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3210400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3157900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3029100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3130700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>320200</v>
+        <v>310600</v>
       </c>
       <c r="E57" s="3">
-        <v>306600</v>
+        <v>317100</v>
       </c>
       <c r="F57" s="3">
-        <v>319900</v>
+        <v>303700</v>
       </c>
       <c r="G57" s="3">
-        <v>358200</v>
+        <v>316800</v>
       </c>
       <c r="H57" s="3">
-        <v>297300</v>
+        <v>354700</v>
       </c>
       <c r="I57" s="3">
-        <v>288900</v>
+        <v>294400</v>
       </c>
       <c r="J57" s="3">
+        <v>286100</v>
+      </c>
+      <c r="K57" s="3">
         <v>285900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>246000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>215200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>237400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>212100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>203900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>196900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>215700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>186000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>195900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>232100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>210800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>205200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>191200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>184900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>183400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>351800</v>
+        <v>282300</v>
       </c>
       <c r="E58" s="3">
-        <v>277100</v>
+        <v>348400</v>
       </c>
       <c r="F58" s="3">
-        <v>304200</v>
+        <v>274400</v>
       </c>
       <c r="G58" s="3">
-        <v>340600</v>
+        <v>301300</v>
       </c>
       <c r="H58" s="3">
-        <v>300600</v>
+        <v>337400</v>
       </c>
       <c r="I58" s="3">
-        <v>174500</v>
+        <v>297700</v>
       </c>
       <c r="J58" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K58" s="3">
         <v>260000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>320300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>268700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>223400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>243600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>221600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>258900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>369200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>372500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>370500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>440300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>415200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>374500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>602700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>720400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>505100</v>
+        <v>532900</v>
       </c>
       <c r="E59" s="3">
-        <v>463600</v>
+        <v>500300</v>
       </c>
       <c r="F59" s="3">
-        <v>451400</v>
+        <v>459200</v>
       </c>
       <c r="G59" s="3">
         <v>447100</v>
       </c>
       <c r="H59" s="3">
-        <v>446200</v>
+        <v>442800</v>
       </c>
       <c r="I59" s="3">
-        <v>461500</v>
+        <v>441900</v>
       </c>
       <c r="J59" s="3">
+        <v>457100</v>
+      </c>
+      <c r="K59" s="3">
         <v>437800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>465800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>456800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>424000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>405100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>390300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>389200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>371900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>387500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>360500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>405100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>407400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>396700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>381600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>383700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>409100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1177100</v>
+        <v>1125800</v>
       </c>
       <c r="E60" s="3">
-        <v>1047300</v>
+        <v>1165800</v>
       </c>
       <c r="F60" s="3">
-        <v>1075500</v>
+        <v>1037300</v>
       </c>
       <c r="G60" s="3">
-        <v>1145900</v>
+        <v>1065200</v>
       </c>
       <c r="H60" s="3">
-        <v>1044100</v>
+        <v>1134900</v>
       </c>
       <c r="I60" s="3">
-        <v>924900</v>
+        <v>1034000</v>
       </c>
       <c r="J60" s="3">
+        <v>916000</v>
+      </c>
+      <c r="K60" s="3">
         <v>983700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1032100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>940800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>862400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>840600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>837900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>807700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>846400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>942700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>928900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1007700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1058400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1017100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>947400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1171300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1313000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71900</v>
+        <v>23600</v>
       </c>
       <c r="E61" s="3">
-        <v>75500</v>
+        <v>71300</v>
       </c>
       <c r="F61" s="3">
         <v>74800</v>
       </c>
       <c r="G61" s="3">
-        <v>77200</v>
+        <v>74100</v>
       </c>
       <c r="H61" s="3">
-        <v>78900</v>
+        <v>76500</v>
       </c>
       <c r="I61" s="3">
-        <v>81500</v>
+        <v>78100</v>
       </c>
       <c r="J61" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K61" s="3">
         <v>83400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>87700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>210000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>228900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>297700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>334200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>364800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>345000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>362800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>353700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>360800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>355100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>75100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>78800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31800</v>
+        <v>35900</v>
       </c>
       <c r="E62" s="3">
-        <v>35000</v>
+        <v>31500</v>
       </c>
       <c r="F62" s="3">
-        <v>33700</v>
+        <v>34700</v>
       </c>
       <c r="G62" s="3">
-        <v>30200</v>
+        <v>33400</v>
       </c>
       <c r="H62" s="3">
-        <v>34300</v>
+        <v>29900</v>
       </c>
       <c r="I62" s="3">
-        <v>32200</v>
+        <v>34000</v>
       </c>
       <c r="J62" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K62" s="3">
         <v>35200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>43800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>49300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>50200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>51400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>54100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>63100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>66700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>70700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>70600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>73400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>71000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1280800</v>
+        <v>1185300</v>
       </c>
       <c r="E66" s="3">
-        <v>1157900</v>
+        <v>1268500</v>
       </c>
       <c r="F66" s="3">
-        <v>1184000</v>
+        <v>1146800</v>
       </c>
       <c r="G66" s="3">
-        <v>1253300</v>
+        <v>1172700</v>
       </c>
       <c r="H66" s="3">
-        <v>1157200</v>
+        <v>1241200</v>
       </c>
       <c r="I66" s="3">
-        <v>1038500</v>
+        <v>1146100</v>
       </c>
       <c r="J66" s="3">
+        <v>1028600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1102300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1156300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>998100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>922800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1099800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1111300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1153200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1230800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1358900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1327900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1433600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1478800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1448600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1373200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1319800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1462700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2235700</v>
+        <v>2362500</v>
       </c>
       <c r="E72" s="3">
-        <v>2223300</v>
+        <v>2214300</v>
       </c>
       <c r="F72" s="3">
-        <v>2133500</v>
+        <v>2202000</v>
       </c>
       <c r="G72" s="3">
-        <v>2061200</v>
+        <v>2113100</v>
       </c>
       <c r="H72" s="3">
-        <v>1990500</v>
+        <v>2041500</v>
       </c>
       <c r="I72" s="3">
-        <v>1943500</v>
+        <v>1971400</v>
       </c>
       <c r="J72" s="3">
+        <v>1924900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1940100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1956500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1881800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1838400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1972100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1875000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1756300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1696200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1592200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1580100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1663800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1618700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1569400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1587400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1505100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1461100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2385400</v>
+        <v>2484800</v>
       </c>
       <c r="E76" s="3">
-        <v>2379000</v>
+        <v>2362500</v>
       </c>
       <c r="F76" s="3">
-        <v>2302800</v>
+        <v>2356200</v>
       </c>
       <c r="G76" s="3">
-        <v>2230000</v>
+        <v>2280700</v>
       </c>
       <c r="H76" s="3">
-        <v>2166700</v>
+        <v>2208600</v>
       </c>
       <c r="I76" s="3">
-        <v>2120800</v>
+        <v>2146000</v>
       </c>
       <c r="J76" s="3">
+        <v>2100500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2070000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2089800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2002400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1981800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2113400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2008900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1896900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1836100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1737700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1724300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1828600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1788500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1761800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1784700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1709300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1667900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11000</v>
+        <v>147300</v>
       </c>
       <c r="E81" s="3">
-        <v>88500</v>
+        <v>10900</v>
       </c>
       <c r="F81" s="3">
-        <v>124200</v>
+        <v>87600</v>
       </c>
       <c r="G81" s="3">
-        <v>71500</v>
+        <v>123000</v>
       </c>
       <c r="H81" s="3">
-        <v>45400</v>
+        <v>70800</v>
       </c>
       <c r="I81" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>95400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-75900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>150100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>91100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>58800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>65600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>66600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>41200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>8500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>43100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>64800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>36900</v>
+      </c>
+      <c r="G83" s="3">
         <v>37000</v>
       </c>
-      <c r="E83" s="3">
-        <v>37300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>36400</v>
-      </c>
       <c r="H83" s="3">
-        <v>39700</v>
+        <v>36000</v>
       </c>
       <c r="I83" s="3">
-        <v>40300</v>
+        <v>39300</v>
       </c>
       <c r="J83" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K83" s="3">
         <v>41000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>45900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>42100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>43000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>40500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>39800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>114200</v>
+        <v>82500</v>
       </c>
       <c r="E89" s="3">
-        <v>217000</v>
+        <v>113100</v>
       </c>
       <c r="F89" s="3">
-        <v>63900</v>
+        <v>214900</v>
       </c>
       <c r="G89" s="3">
-        <v>-43200</v>
+        <v>63300</v>
       </c>
       <c r="H89" s="3">
-        <v>141100</v>
+        <v>-42800</v>
       </c>
       <c r="I89" s="3">
-        <v>53500</v>
+        <v>139700</v>
       </c>
       <c r="J89" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K89" s="3">
         <v>115900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>141000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>98100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>135100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>90800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>220400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>141800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-66400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>83600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>108700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>97000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-28600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>117400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>72100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46800</v>
+        <v>-41000</v>
       </c>
       <c r="E91" s="3">
-        <v>-51800</v>
+        <v>-46400</v>
       </c>
       <c r="F91" s="3">
-        <v>-44800</v>
+        <v>-51300</v>
       </c>
       <c r="G91" s="3">
-        <v>-40100</v>
+        <v>-44400</v>
       </c>
       <c r="H91" s="3">
-        <v>-36000</v>
+        <v>-39700</v>
       </c>
       <c r="I91" s="3">
-        <v>-35900</v>
+        <v>-35700</v>
       </c>
       <c r="J91" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-39800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-40900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-275300</v>
+        <v>-61000</v>
       </c>
       <c r="E94" s="3">
-        <v>-34600</v>
+        <v>-272700</v>
       </c>
       <c r="F94" s="3">
-        <v>49700</v>
+        <v>-34200</v>
       </c>
       <c r="G94" s="3">
-        <v>-70200</v>
+        <v>49200</v>
       </c>
       <c r="H94" s="3">
-        <v>-118300</v>
+        <v>-69500</v>
       </c>
       <c r="I94" s="3">
-        <v>47100</v>
+        <v>-117200</v>
       </c>
       <c r="J94" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-203200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-105600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>108500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>45800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-147800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-75600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-44600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>28400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>63800</v>
+        <v>-133900</v>
       </c>
       <c r="E100" s="3">
-        <v>-32200</v>
+        <v>63200</v>
       </c>
       <c r="F100" s="3">
-        <v>-90300</v>
+        <v>-31800</v>
       </c>
       <c r="G100" s="3">
-        <v>28300</v>
+        <v>-89400</v>
       </c>
       <c r="H100" s="3">
-        <v>108200</v>
+        <v>28000</v>
       </c>
       <c r="I100" s="3">
-        <v>-94600</v>
+        <v>107100</v>
       </c>
       <c r="J100" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-107200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>92800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>70200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-217300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-86700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-143000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-83800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-87300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>32400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-28000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>18700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-101900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-48500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8100</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-89200</v>
+        <v>-106100</v>
       </c>
       <c r="E102" s="3">
-        <v>150200</v>
+        <v>-88300</v>
       </c>
       <c r="F102" s="3">
-        <v>22700</v>
+        <v>148800</v>
       </c>
       <c r="G102" s="3">
-        <v>-83300</v>
+        <v>22500</v>
       </c>
       <c r="H102" s="3">
-        <v>131400</v>
+        <v>-82500</v>
       </c>
       <c r="I102" s="3">
-        <v>6700</v>
+        <v>130200</v>
       </c>
       <c r="J102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>21200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-13800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-31000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>51300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>646700</v>
+        <v>825300</v>
       </c>
       <c r="E8" s="3">
-        <v>674200</v>
+        <v>768700</v>
       </c>
       <c r="F8" s="3">
+        <v>635800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>662700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>648500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>702500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>599700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>586300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>611300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>613100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>570700</v>
+      </c>
+      <c r="O8" s="3">
+        <v>572600</v>
+      </c>
+      <c r="P8" s="3">
+        <v>584400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>659600</v>
       </c>
-      <c r="G8" s="3">
-        <v>714600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>610000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>586300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>611300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>613100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>570700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>572600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>584400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>659600</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>528100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>543400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>520900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>502100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>491900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>511100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>550300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>512800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>479500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>489800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>510800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>324200</v>
+        <v>336500</v>
       </c>
       <c r="E9" s="3">
-        <v>317800</v>
+        <v>314600</v>
       </c>
       <c r="F9" s="3">
-        <v>304900</v>
+        <v>318700</v>
       </c>
       <c r="G9" s="3">
-        <v>332900</v>
+        <v>312400</v>
       </c>
       <c r="H9" s="3">
-        <v>291300</v>
+        <v>299700</v>
       </c>
       <c r="I9" s="3">
+        <v>327300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>286400</v>
+      </c>
+      <c r="K9" s="3">
         <v>271700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>282200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>282400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>250900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>277900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>268100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>280100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>255200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>258600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>240100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>225800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>217900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>237900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>240700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>239400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>232300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>239200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>209000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>322500</v>
+        <v>488700</v>
       </c>
       <c r="E10" s="3">
-        <v>356400</v>
+        <v>454000</v>
       </c>
       <c r="F10" s="3">
-        <v>354800</v>
+        <v>317000</v>
       </c>
       <c r="G10" s="3">
-        <v>381700</v>
+        <v>350400</v>
       </c>
       <c r="H10" s="3">
-        <v>318700</v>
+        <v>348800</v>
       </c>
       <c r="I10" s="3">
+        <v>375300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>313300</v>
+      </c>
+      <c r="K10" s="3">
         <v>314700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>329100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>330600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>319800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>294700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>316200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>379500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>272900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>284800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>280800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>276300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>274000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>273200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>309600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>273300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>247200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>250500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>301800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50500</v>
+        <v>55600</v>
       </c>
       <c r="E12" s="3">
-        <v>50300</v>
+        <v>56500</v>
       </c>
       <c r="F12" s="3">
-        <v>48100</v>
+        <v>49600</v>
       </c>
       <c r="G12" s="3">
+        <v>49500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>47300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>51200</v>
+      </c>
+      <c r="J12" s="3">
         <v>52100</v>
       </c>
-      <c r="H12" s="3">
-        <v>53000</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>47400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>47600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>51200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>48000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>50400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>49000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>46700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>45900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>44700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>46000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>50600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>50400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>58400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>63000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>55800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>69100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>59000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>64000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,67 +1219,73 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3">
-        <v>93200</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>91600</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>22800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>74100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>9800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>176000</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1100</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>11</v>
+      <c r="S14" s="3">
+        <v>1100</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,85 +1302,97 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="E15" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="H15" s="3">
         <v>19000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K15" s="3">
+        <v>21100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="M15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="N15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="P15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="S15" s="3">
         <v>19300</v>
       </c>
-      <c r="G15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>21100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>21200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>21500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>20700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>18600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>19700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>22000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>19400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>19300</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>19100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>17800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>17200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>19900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>18700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>18300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>17100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>17000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>18300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>18300</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>495300</v>
+        <v>625000</v>
       </c>
       <c r="E17" s="3">
-        <v>655300</v>
+        <v>572100</v>
       </c>
       <c r="F17" s="3">
-        <v>545100</v>
+        <v>486900</v>
       </c>
       <c r="G17" s="3">
-        <v>564400</v>
+        <v>644200</v>
       </c>
       <c r="H17" s="3">
-        <v>528100</v>
+        <v>535900</v>
       </c>
       <c r="I17" s="3">
+        <v>554900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>519100</v>
+      </c>
+      <c r="K17" s="3">
         <v>516100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>584000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>509000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>466000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>487300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>662600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>559100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>418900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>471100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>443400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>435400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>428800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>472900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>477900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>457700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>472900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>446600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>431000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>151400</v>
+        <v>200200</v>
       </c>
       <c r="E18" s="3">
-        <v>18800</v>
+        <v>196600</v>
       </c>
       <c r="F18" s="3">
-        <v>114500</v>
+        <v>148900</v>
       </c>
       <c r="G18" s="3">
-        <v>150200</v>
+        <v>18500</v>
       </c>
       <c r="H18" s="3">
-        <v>81900</v>
+        <v>112600</v>
       </c>
       <c r="I18" s="3">
+        <v>147700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K18" s="3">
         <v>70200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>27300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>104100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>104700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>85300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-78200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>109200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>72300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>77500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>66700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>63000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>38300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>72400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>55100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>6600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>43200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>79800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1614,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34600</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
-        <v>15900</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="3">
-        <v>8500</v>
+        <v>34000</v>
       </c>
       <c r="G20" s="3">
-        <v>9900</v>
+        <v>15600</v>
       </c>
       <c r="H20" s="3">
-        <v>12500</v>
+        <v>8400</v>
       </c>
       <c r="I20" s="3">
         <v>9800</v>
       </c>
       <c r="J20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L20" s="3">
         <v>10300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>9900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>11700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>15200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>12500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>18500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>4200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>7700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>4100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>223800</v>
+        <v>244200</v>
       </c>
       <c r="E21" s="3">
-        <v>71400</v>
+        <v>238300</v>
       </c>
       <c r="F21" s="3">
-        <v>160000</v>
+        <v>220100</v>
       </c>
       <c r="G21" s="3">
-        <v>197200</v>
+        <v>70200</v>
       </c>
       <c r="H21" s="3">
-        <v>130500</v>
+        <v>157300</v>
       </c>
       <c r="I21" s="3">
+        <v>193800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>128300</v>
+      </c>
+      <c r="K21" s="3">
         <v>119400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>77500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>152000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>157100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>133600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-27200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>155400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>163200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>129400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>124300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>118800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>108200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>100100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>131400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>101800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>54700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>86000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>123700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>5100</v>
       </c>
       <c r="E22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="V22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AB22" s="3">
         <v>2300</v>
       </c>
-      <c r="K22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>8300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="W22" s="3">
-        <v>3200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>181700</v>
+        <v>199300</v>
       </c>
       <c r="E23" s="3">
-        <v>30800</v>
+        <v>196400</v>
       </c>
       <c r="F23" s="3">
-        <v>120400</v>
+        <v>178600</v>
       </c>
       <c r="G23" s="3">
-        <v>157200</v>
+        <v>30300</v>
       </c>
       <c r="H23" s="3">
-        <v>92100</v>
+        <v>118400</v>
       </c>
       <c r="I23" s="3">
+        <v>154600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K23" s="3">
         <v>76400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>35300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>107900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>113600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>92300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-70300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>105300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>116800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>79200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>78500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>76400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>66200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>54200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>86000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>56000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>11200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>43900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>81600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34500</v>
+        <v>47200</v>
       </c>
       <c r="E24" s="3">
-        <v>19900</v>
+        <v>60700</v>
       </c>
       <c r="F24" s="3">
+        <v>33900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>32200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>33700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>31400</v>
+      </c>
+      <c r="L24" s="3">
         <v>32800</v>
       </c>
-      <c r="G24" s="3">
-        <v>34200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>31400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>32800</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>38700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-6500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-44800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>25700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>20400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>12900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>9800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>5900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>5100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>24200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>14900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>2600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>16800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>147300</v>
+        <v>152000</v>
       </c>
       <c r="E26" s="3">
-        <v>10900</v>
+        <v>135700</v>
       </c>
       <c r="F26" s="3">
-        <v>87600</v>
+        <v>144800</v>
       </c>
       <c r="G26" s="3">
-        <v>123000</v>
+        <v>10700</v>
       </c>
       <c r="H26" s="3">
-        <v>70800</v>
+        <v>86100</v>
       </c>
       <c r="I26" s="3">
+        <v>120900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K26" s="3">
         <v>44900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>95400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>74800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>98700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-75900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>150100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>91100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>58800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>65600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>66600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>60300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>49100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>61800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>41200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>8500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>43100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>64800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>147300</v>
+        <v>152000</v>
       </c>
       <c r="E27" s="3">
-        <v>10900</v>
+        <v>135700</v>
       </c>
       <c r="F27" s="3">
-        <v>87600</v>
+        <v>144800</v>
       </c>
       <c r="G27" s="3">
-        <v>123000</v>
+        <v>10700</v>
       </c>
       <c r="H27" s="3">
-        <v>70800</v>
+        <v>86100</v>
       </c>
       <c r="I27" s="3">
+        <v>120900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K27" s="3">
         <v>44900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>95400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>74800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>98700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-75900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>150100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>91100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>58800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>65600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>66600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>60300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>49100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>61800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>41200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>8500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>43100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>64800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2280,11 +2401,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>11</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>11</v>
@@ -2298,17 +2419,17 @@
       <c r="T29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="3">
         <v>-5400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>11</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34600</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
-        <v>-15900</v>
+        <v>-3600</v>
       </c>
       <c r="F32" s="3">
-        <v>-8500</v>
+        <v>-34000</v>
       </c>
       <c r="G32" s="3">
-        <v>-9900</v>
+        <v>-15600</v>
       </c>
       <c r="H32" s="3">
-        <v>-12500</v>
+        <v>-8400</v>
       </c>
       <c r="I32" s="3">
         <v>-9800</v>
       </c>
       <c r="J32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="L32" s="3">
         <v>-10300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-9900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-15200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-12500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-18500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-4200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147300</v>
+        <v>152000</v>
       </c>
       <c r="E33" s="3">
-        <v>10900</v>
+        <v>135700</v>
       </c>
       <c r="F33" s="3">
-        <v>87600</v>
+        <v>144800</v>
       </c>
       <c r="G33" s="3">
-        <v>123000</v>
+        <v>10700</v>
       </c>
       <c r="H33" s="3">
-        <v>70800</v>
+        <v>86100</v>
       </c>
       <c r="I33" s="3">
+        <v>120900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K33" s="3">
         <v>44900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>95400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>74800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>98700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-75900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>150100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>91100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>58800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>65600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>66600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>60300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>43700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>48400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>41200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>8500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>43100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>64800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147300</v>
+        <v>152000</v>
       </c>
       <c r="E35" s="3">
-        <v>10900</v>
+        <v>135700</v>
       </c>
       <c r="F35" s="3">
-        <v>87600</v>
+        <v>144800</v>
       </c>
       <c r="G35" s="3">
-        <v>123000</v>
+        <v>10700</v>
       </c>
       <c r="H35" s="3">
-        <v>70800</v>
+        <v>86100</v>
       </c>
       <c r="I35" s="3">
+        <v>120900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K35" s="3">
         <v>44900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>95400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>74800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>98700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-75900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>150100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>91100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>58800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>65600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>66600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>60300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>43700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>48400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>41200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>8500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>43100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>64800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78100</v>
+        <v>76300</v>
       </c>
       <c r="E41" s="3">
-        <v>180700</v>
+        <v>110900</v>
       </c>
       <c r="F41" s="3">
-        <v>270000</v>
+        <v>76800</v>
       </c>
       <c r="G41" s="3">
-        <v>123800</v>
+        <v>177600</v>
       </c>
       <c r="H41" s="3">
-        <v>101300</v>
+        <v>265500</v>
       </c>
       <c r="I41" s="3">
+        <v>121700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>99600</v>
+      </c>
+      <c r="K41" s="3">
         <v>183900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>53600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>48700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>56800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>26500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>29900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>41400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>28400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>30100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>23200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>50000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>29000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>38100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>29100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>35600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>40800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>53300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>83100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>351200</v>
+        <v>514900</v>
       </c>
       <c r="E42" s="3">
-        <v>366000</v>
+        <v>225300</v>
       </c>
       <c r="F42" s="3">
-        <v>164000</v>
+        <v>345300</v>
       </c>
       <c r="G42" s="3">
-        <v>181100</v>
+        <v>359800</v>
       </c>
       <c r="H42" s="3">
-        <v>252100</v>
+        <v>161200</v>
       </c>
       <c r="I42" s="3">
+        <v>178000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>247800</v>
+      </c>
+      <c r="K42" s="3">
         <v>244800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>143000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>264800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>300900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>306000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>233300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>350900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>338400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>304800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>312000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>206300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>177300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>265100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>288400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>207300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>169900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>196600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>194500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>954200</v>
+        <v>942800</v>
       </c>
       <c r="E43" s="3">
-        <v>877900</v>
+        <v>975800</v>
       </c>
       <c r="F43" s="3">
-        <v>818500</v>
+        <v>938100</v>
       </c>
       <c r="G43" s="3">
-        <v>890100</v>
+        <v>863000</v>
       </c>
       <c r="H43" s="3">
-        <v>787800</v>
+        <v>804600</v>
       </c>
       <c r="I43" s="3">
+        <v>875100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>774400</v>
+      </c>
+      <c r="K43" s="3">
         <v>649600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>683800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>654600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>634000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>706200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>631800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>599700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>554600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>585400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>551500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>653300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>683200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>587300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>613600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>610300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>594900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>524500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>566600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>642400</v>
+        <v>601300</v>
       </c>
       <c r="E44" s="3">
-        <v>631000</v>
+        <v>597800</v>
       </c>
       <c r="F44" s="3">
-        <v>616000</v>
+        <v>631600</v>
       </c>
       <c r="G44" s="3">
-        <v>616300</v>
+        <v>620300</v>
       </c>
       <c r="H44" s="3">
-        <v>629600</v>
+        <v>605500</v>
       </c>
       <c r="I44" s="3">
+        <v>605800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>618900</v>
+      </c>
+      <c r="K44" s="3">
         <v>563100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>549400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>515000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>505800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>453100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>503200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>481400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>482800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>454300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>458800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>429500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>416400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>420600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>387900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>390400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>406300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>393100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>414100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>202400</v>
+        <v>235500</v>
       </c>
       <c r="E45" s="3">
-        <v>199500</v>
+        <v>230800</v>
       </c>
       <c r="F45" s="3">
-        <v>200200</v>
+        <v>199000</v>
       </c>
       <c r="G45" s="3">
-        <v>213400</v>
+        <v>196100</v>
       </c>
       <c r="H45" s="3">
-        <v>198100</v>
+        <v>196800</v>
       </c>
       <c r="I45" s="3">
+        <v>209700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>194800</v>
+      </c>
+      <c r="K45" s="3">
         <v>196900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>224600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>207200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>220000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>192600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>164800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>176600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>183700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>174500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>182200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>189200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>213000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>274300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>264300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>246000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>234200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>215600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>193600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2228400</v>
+        <v>2370800</v>
       </c>
       <c r="E46" s="3">
-        <v>2255000</v>
+        <v>2140600</v>
       </c>
       <c r="F46" s="3">
-        <v>2068700</v>
+        <v>2190600</v>
       </c>
       <c r="G46" s="3">
-        <v>2024600</v>
+        <v>2216800</v>
       </c>
       <c r="H46" s="3">
-        <v>1968800</v>
+        <v>2033600</v>
       </c>
       <c r="I46" s="3">
+        <v>1990300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1935500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1838300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1654400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1690300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1717500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1684400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1563000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1650000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1587800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1549200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1527700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1528400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1518900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1585500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1583200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1489500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1446100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1383200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1451900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65400</v>
+        <v>76500</v>
       </c>
       <c r="E47" s="3">
-        <v>99700</v>
+        <v>74400</v>
       </c>
       <c r="F47" s="3">
-        <v>81200</v>
+        <v>64300</v>
       </c>
       <c r="G47" s="3">
-        <v>93500</v>
+        <v>98000</v>
       </c>
       <c r="H47" s="3">
-        <v>119300</v>
+        <v>79900</v>
       </c>
       <c r="I47" s="3">
+        <v>92000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>117300</v>
+      </c>
+      <c r="K47" s="3">
         <v>104800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>110100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>53200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>66300</v>
-      </c>
-      <c r="M47" s="3">
-        <v>62400</v>
       </c>
       <c r="N47" s="3">
         <v>66300</v>
       </c>
       <c r="O47" s="3">
+        <v>62400</v>
+      </c>
+      <c r="P47" s="3">
+        <v>66300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>77900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>56200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>46700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>44200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>52400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>50200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>69700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>74800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>73000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>80600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>97100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>101800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>791400</v>
+        <v>792300</v>
       </c>
       <c r="E48" s="3">
-        <v>770900</v>
+        <v>777900</v>
       </c>
       <c r="F48" s="3">
-        <v>780800</v>
+        <v>778000</v>
       </c>
       <c r="G48" s="3">
-        <v>746800</v>
+        <v>757800</v>
       </c>
       <c r="H48" s="3">
-        <v>727100</v>
+        <v>767600</v>
       </c>
       <c r="I48" s="3">
+        <v>734200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>714800</v>
+      </c>
+      <c r="K48" s="3">
         <v>708200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>697700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>688900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>700000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>676100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>702600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>728300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>743100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>731800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>748800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>748800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>753800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>836800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>841400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>837300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>833100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>787700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>788300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>449000</v>
+        <v>431500</v>
       </c>
       <c r="E49" s="3">
-        <v>392600</v>
+        <v>439900</v>
       </c>
       <c r="F49" s="3">
-        <v>453600</v>
+        <v>441400</v>
       </c>
       <c r="G49" s="3">
-        <v>461400</v>
+        <v>386000</v>
       </c>
       <c r="H49" s="3">
-        <v>492900</v>
+        <v>445900</v>
       </c>
       <c r="I49" s="3">
+        <v>453500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>484500</v>
+      </c>
+      <c r="K49" s="3">
         <v>498700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>509200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>570300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>594200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>409000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>411200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>609200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>657100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>653100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>665700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>678100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>651600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>702900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>696700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>717700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>702200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>670800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>688700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>135800</v>
+        <v>99200</v>
       </c>
       <c r="E52" s="3">
-        <v>112800</v>
+        <v>114100</v>
       </c>
       <c r="F52" s="3">
-        <v>118600</v>
+        <v>133500</v>
       </c>
       <c r="G52" s="3">
-        <v>127100</v>
+        <v>110900</v>
       </c>
       <c r="H52" s="3">
-        <v>141800</v>
+        <v>116600</v>
       </c>
       <c r="I52" s="3">
+        <v>124900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>139400</v>
+      </c>
+      <c r="K52" s="3">
         <v>142200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>157800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>169500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>167900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>168700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>161500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>147800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>76000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>69200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>80400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>89000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>77700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>67400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>71100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>92900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>95900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>90400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>99900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3670100</v>
+        <v>3770400</v>
       </c>
       <c r="E54" s="3">
-        <v>3631100</v>
+        <v>3547000</v>
       </c>
       <c r="F54" s="3">
-        <v>3503000</v>
+        <v>3607900</v>
       </c>
       <c r="G54" s="3">
-        <v>3453400</v>
+        <v>3569600</v>
       </c>
       <c r="H54" s="3">
-        <v>3449900</v>
+        <v>3443700</v>
       </c>
       <c r="I54" s="3">
+        <v>3394900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3391400</v>
+      </c>
+      <c r="K54" s="3">
         <v>3292100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3129100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3172300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3246100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3000600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2904600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3213300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3120200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3050000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3066900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3096600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3052200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3262200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3267300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3210400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3157900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>3029100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3130700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>310600</v>
+        <v>317200</v>
       </c>
       <c r="E57" s="3">
-        <v>317100</v>
+        <v>277700</v>
       </c>
       <c r="F57" s="3">
-        <v>303700</v>
+        <v>305400</v>
       </c>
       <c r="G57" s="3">
-        <v>316800</v>
+        <v>311700</v>
       </c>
       <c r="H57" s="3">
-        <v>354700</v>
+        <v>298600</v>
       </c>
       <c r="I57" s="3">
+        <v>311500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>348700</v>
+      </c>
+      <c r="K57" s="3">
         <v>294400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>286100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>285900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>246000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>215200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>237400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>212100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>203900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>196900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>215700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>186000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>195900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>232100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>210800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>205200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>191200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>184900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>183400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>282300</v>
+        <v>197600</v>
       </c>
       <c r="E58" s="3">
-        <v>348400</v>
+        <v>188900</v>
       </c>
       <c r="F58" s="3">
-        <v>274400</v>
+        <v>277500</v>
       </c>
       <c r="G58" s="3">
-        <v>301300</v>
+        <v>342500</v>
       </c>
       <c r="H58" s="3">
-        <v>337400</v>
+        <v>269800</v>
       </c>
       <c r="I58" s="3">
+        <v>296200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>331700</v>
+      </c>
+      <c r="K58" s="3">
         <v>297700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>172800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>260000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>320300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>268700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>223400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>243600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>221600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>258900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>369200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>372500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>370500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>440300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>415200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>374500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>602700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>720400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>532900</v>
+        <v>513900</v>
       </c>
       <c r="E59" s="3">
-        <v>500300</v>
+        <v>509000</v>
       </c>
       <c r="F59" s="3">
-        <v>459200</v>
+        <v>523900</v>
       </c>
       <c r="G59" s="3">
-        <v>447100</v>
+        <v>491800</v>
       </c>
       <c r="H59" s="3">
-        <v>442800</v>
+        <v>451400</v>
       </c>
       <c r="I59" s="3">
+        <v>439500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>435300</v>
+      </c>
+      <c r="K59" s="3">
         <v>441900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>457100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>437800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>465800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>456800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>424000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>405100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>390300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>389200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>371900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>387500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>360500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>405100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>407400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>396700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>381600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>383700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>409100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1125800</v>
+        <v>1028600</v>
       </c>
       <c r="E60" s="3">
-        <v>1165800</v>
+        <v>975600</v>
       </c>
       <c r="F60" s="3">
-        <v>1037300</v>
+        <v>1106700</v>
       </c>
       <c r="G60" s="3">
-        <v>1065200</v>
+        <v>1146000</v>
       </c>
       <c r="H60" s="3">
-        <v>1134900</v>
+        <v>1019700</v>
       </c>
       <c r="I60" s="3">
+        <v>1047100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1115700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1034000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>916000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>983700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1032100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>940800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>862400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>840600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>837900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>807700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>846400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>942700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>928900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1007700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1058400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1017100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>947400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1171300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1313000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23600</v>
+        <v>17800</v>
       </c>
       <c r="E61" s="3">
-        <v>71300</v>
+        <v>21900</v>
       </c>
       <c r="F61" s="3">
-        <v>74800</v>
+        <v>23200</v>
       </c>
       <c r="G61" s="3">
-        <v>74100</v>
+        <v>70000</v>
       </c>
       <c r="H61" s="3">
-        <v>76500</v>
+        <v>73500</v>
       </c>
       <c r="I61" s="3">
+        <v>72900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K61" s="3">
         <v>78100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>80700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>83400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>87700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>16600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>210000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>228900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>297700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>334200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>364800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>345000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>362800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>353700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>360800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>355100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>75100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>78800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35900</v>
+        <v>38800</v>
       </c>
       <c r="E62" s="3">
-        <v>31500</v>
+        <v>35600</v>
       </c>
       <c r="F62" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="G62" s="3">
-        <v>33400</v>
+        <v>31000</v>
       </c>
       <c r="H62" s="3">
-        <v>29900</v>
+        <v>34100</v>
       </c>
       <c r="I62" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K62" s="3">
         <v>34000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>31900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>35200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>36500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>40500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>43800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>49300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>44600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>47800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>50200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>51400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>54100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>63100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>66700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>70700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>70600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>73400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>71000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1185300</v>
+        <v>1085200</v>
       </c>
       <c r="E66" s="3">
-        <v>1268500</v>
+        <v>1033100</v>
       </c>
       <c r="F66" s="3">
-        <v>1146800</v>
+        <v>1165200</v>
       </c>
       <c r="G66" s="3">
-        <v>1172700</v>
+        <v>1247000</v>
       </c>
       <c r="H66" s="3">
-        <v>1241200</v>
+        <v>1127400</v>
       </c>
       <c r="I66" s="3">
+        <v>1152800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1220200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1146100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1028600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1102300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1156300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>998100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>922800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1099800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1111300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1153200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1230800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1358900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1327900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1433600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1478800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1448600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1373200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1319800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1462700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2362500</v>
+        <v>2548800</v>
       </c>
       <c r="E72" s="3">
-        <v>2214300</v>
+        <v>2397800</v>
       </c>
       <c r="F72" s="3">
-        <v>2202000</v>
+        <v>2322500</v>
       </c>
       <c r="G72" s="3">
-        <v>2113100</v>
+        <v>2176800</v>
       </c>
       <c r="H72" s="3">
-        <v>2041500</v>
+        <v>2164700</v>
       </c>
       <c r="I72" s="3">
+        <v>2077300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2006900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1971400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1924900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1940100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1956500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1881800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1838400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1972100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1875000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1756300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1696200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1592200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1580100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1663800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1618700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1569400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1587400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1505100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1461100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2484800</v>
+        <v>2685100</v>
       </c>
       <c r="E76" s="3">
-        <v>2362500</v>
+        <v>2513900</v>
       </c>
       <c r="F76" s="3">
-        <v>2356200</v>
+        <v>2442700</v>
       </c>
       <c r="G76" s="3">
-        <v>2280700</v>
+        <v>2322500</v>
       </c>
       <c r="H76" s="3">
-        <v>2208600</v>
+        <v>2316300</v>
       </c>
       <c r="I76" s="3">
+        <v>2242100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2171200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2146000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2100500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2070000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2089800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2002400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1981800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2113400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2008900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1896900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1836100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1737700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1724300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1828600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1788500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1761800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1784700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1709300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1667900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147300</v>
+        <v>152000</v>
       </c>
       <c r="E81" s="3">
-        <v>10900</v>
+        <v>135700</v>
       </c>
       <c r="F81" s="3">
-        <v>87600</v>
+        <v>144800</v>
       </c>
       <c r="G81" s="3">
-        <v>123000</v>
+        <v>10700</v>
       </c>
       <c r="H81" s="3">
-        <v>70800</v>
+        <v>86100</v>
       </c>
       <c r="I81" s="3">
+        <v>120900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>69600</v>
+      </c>
+      <c r="K81" s="3">
         <v>44900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>95400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>74800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>98700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-75900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>150100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>91100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>58800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>65600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>66600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>60300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>43700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>48400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>41200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>8500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>43100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>64800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37800</v>
+        <v>39900</v>
       </c>
       <c r="E83" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="F83" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="G83" s="3">
-        <v>37000</v>
+        <v>36100</v>
       </c>
       <c r="H83" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="I83" s="3">
+        <v>36400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K83" s="3">
         <v>39300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>39900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>40600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>38300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>41100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>45900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>42400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>42000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>42100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>39600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>39400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>43400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>43000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>42500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>40500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>39400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>39800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82500</v>
+        <v>283500</v>
       </c>
       <c r="E89" s="3">
         <v>113100</v>
       </c>
       <c r="F89" s="3">
-        <v>214900</v>
+        <v>81100</v>
       </c>
       <c r="G89" s="3">
-        <v>63300</v>
+        <v>111200</v>
       </c>
       <c r="H89" s="3">
-        <v>-42800</v>
+        <v>211300</v>
       </c>
       <c r="I89" s="3">
+        <v>62200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K89" s="3">
         <v>139700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>52900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>115900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>141000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>32900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>98100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>138900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>135100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>90800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>220400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>141800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-66400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>83600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>108700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>97000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-28600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>117400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>72100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41000</v>
+        <v>-35700</v>
       </c>
       <c r="E91" s="3">
-        <v>-46400</v>
+        <v>-30600</v>
       </c>
       <c r="F91" s="3">
-        <v>-51300</v>
+        <v>-40300</v>
       </c>
       <c r="G91" s="3">
-        <v>-44400</v>
+        <v>-45600</v>
       </c>
       <c r="H91" s="3">
-        <v>-39700</v>
+        <v>-50400</v>
       </c>
       <c r="I91" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-35600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-19400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-19300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-16200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-14800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-23800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-20700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-18000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-30500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-21800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-39800</v>
       </c>
       <c r="Y91" s="3">
         <v>-40700</v>
       </c>
       <c r="Z91" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-40900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-61000</v>
+        <v>-321900</v>
       </c>
       <c r="E94" s="3">
-        <v>-272700</v>
+        <v>69900</v>
       </c>
       <c r="F94" s="3">
-        <v>-34200</v>
+        <v>-60000</v>
       </c>
       <c r="G94" s="3">
-        <v>49200</v>
+        <v>-268000</v>
       </c>
       <c r="H94" s="3">
-        <v>-69500</v>
+        <v>-33700</v>
       </c>
       <c r="I94" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-117200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>46600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-203200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-105600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>108500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-16500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-104100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-38700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>45800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>11500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-147800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-75600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-44600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>28400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-133900</v>
+        <v>7100</v>
       </c>
       <c r="E100" s="3">
-        <v>63200</v>
+        <v>-150500</v>
       </c>
       <c r="F100" s="3">
-        <v>-31800</v>
+        <v>-131700</v>
       </c>
       <c r="G100" s="3">
-        <v>-89400</v>
+        <v>62100</v>
       </c>
       <c r="H100" s="3">
-        <v>28000</v>
+        <v>-31300</v>
       </c>
       <c r="I100" s="3">
+        <v>-87900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K100" s="3">
         <v>107100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-93700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-107200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>92800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>70200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-217300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-109600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-86700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-75900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-143000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-83800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>15800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-87300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>32400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-28000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>18700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-101900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-48500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>900</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P101" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>200</v>
+      </c>
+      <c r="R101" s="3">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="V101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
-        <v>700</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="Z101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
-        <v>900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>600</v>
-      </c>
-      <c r="O101" s="3">
-        <v>200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W101" s="3">
-        <v>500</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-106100</v>
+        <v>-34500</v>
       </c>
       <c r="E102" s="3">
-        <v>-88300</v>
+        <v>34100</v>
       </c>
       <c r="F102" s="3">
-        <v>148800</v>
+        <v>-104300</v>
       </c>
       <c r="G102" s="3">
-        <v>22500</v>
+        <v>-86800</v>
       </c>
       <c r="H102" s="3">
-        <v>-82500</v>
+        <v>146200</v>
       </c>
       <c r="I102" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="K102" s="3">
         <v>130200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>31500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-10200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-28000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>21200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>8900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-6900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-6100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-31000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>51300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>RDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>825300</v>
+        <v>761300</v>
       </c>
       <c r="E8" s="3">
-        <v>768700</v>
+        <v>818500</v>
       </c>
       <c r="F8" s="3">
-        <v>635800</v>
+        <v>762400</v>
       </c>
       <c r="G8" s="3">
-        <v>662700</v>
+        <v>630500</v>
       </c>
       <c r="H8" s="3">
-        <v>648500</v>
+        <v>657300</v>
       </c>
       <c r="I8" s="3">
-        <v>702500</v>
+        <v>643200</v>
       </c>
       <c r="J8" s="3">
+        <v>696800</v>
+      </c>
+      <c r="K8" s="3">
         <v>599700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>586300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>611300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>613100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>570700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>572600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>584400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>659600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>528100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>543400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>520900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>502100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>491900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>511100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>550300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>512800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>479500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>489800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>510800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>336500</v>
+        <v>326100</v>
       </c>
       <c r="E9" s="3">
-        <v>314600</v>
+        <v>333800</v>
       </c>
       <c r="F9" s="3">
-        <v>318700</v>
+        <v>312000</v>
       </c>
       <c r="G9" s="3">
-        <v>312400</v>
+        <v>316100</v>
       </c>
       <c r="H9" s="3">
-        <v>299700</v>
+        <v>309800</v>
       </c>
       <c r="I9" s="3">
-        <v>327300</v>
+        <v>297200</v>
       </c>
       <c r="J9" s="3">
+        <v>324600</v>
+      </c>
+      <c r="K9" s="3">
         <v>286400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>271700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>282200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>250900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>277900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>268100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>280100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>255200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>258600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>240100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>225800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>217900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>237900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>240700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>239400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>232300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>239200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>209000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>488700</v>
+        <v>435200</v>
       </c>
       <c r="E10" s="3">
-        <v>454000</v>
+        <v>484700</v>
       </c>
       <c r="F10" s="3">
-        <v>317000</v>
+        <v>450300</v>
       </c>
       <c r="G10" s="3">
-        <v>350400</v>
+        <v>314400</v>
       </c>
       <c r="H10" s="3">
-        <v>348800</v>
+        <v>347500</v>
       </c>
       <c r="I10" s="3">
-        <v>375300</v>
+        <v>345900</v>
       </c>
       <c r="J10" s="3">
+        <v>372200</v>
+      </c>
+      <c r="K10" s="3">
         <v>313300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>314700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>329100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>330600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>319800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>294700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>316200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>379500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>272900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>284800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>280800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>276300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>274000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>273200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>309600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>273300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>247200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>250500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>301800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>55600</v>
+        <v>64900</v>
       </c>
       <c r="E12" s="3">
-        <v>56500</v>
+        <v>55200</v>
       </c>
       <c r="F12" s="3">
-        <v>49600</v>
+        <v>56000</v>
       </c>
       <c r="G12" s="3">
-        <v>49500</v>
+        <v>49200</v>
       </c>
       <c r="H12" s="3">
-        <v>47300</v>
+        <v>49100</v>
       </c>
       <c r="I12" s="3">
+        <v>46900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>47400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>47600</v>
+      </c>
+      <c r="N12" s="3">
         <v>51200</v>
       </c>
-      <c r="J12" s="3">
-        <v>52100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>47400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>47600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>51200</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>49000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>46700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>45900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>44700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>46000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>50600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>50400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>58400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>63000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>55800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>69100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>59000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>64000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,61 +1242,64 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3">
-        <v>91600</v>
-      </c>
       <c r="H14" s="3">
+        <v>90900</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>22800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>74100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>176000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="3">
         <v>1100</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>11</v>
@@ -1287,8 +1307,8 @@
       <c r="V14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1308,91 +1328,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>20500</v>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="3">
-        <v>19800</v>
+        <v>20300</v>
       </c>
       <c r="F15" s="3">
         <v>19700</v>
       </c>
       <c r="G15" s="3">
-        <v>18600</v>
+        <v>19500</v>
       </c>
       <c r="H15" s="3">
-        <v>19000</v>
+        <v>18500</v>
       </c>
       <c r="I15" s="3">
         <v>18900</v>
       </c>
       <c r="J15" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K15" s="3">
         <v>18900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>19100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>19900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>18700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>18300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>17100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>17000</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>18300</v>
       </c>
       <c r="AC15" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>625000</v>
+        <v>611600</v>
       </c>
       <c r="E17" s="3">
-        <v>572100</v>
+        <v>619900</v>
       </c>
       <c r="F17" s="3">
-        <v>486900</v>
+        <v>567400</v>
       </c>
       <c r="G17" s="3">
-        <v>644200</v>
+        <v>482900</v>
       </c>
       <c r="H17" s="3">
-        <v>535900</v>
+        <v>638900</v>
       </c>
       <c r="I17" s="3">
-        <v>554900</v>
+        <v>531500</v>
       </c>
       <c r="J17" s="3">
+        <v>550300</v>
+      </c>
+      <c r="K17" s="3">
         <v>519100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>516100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>584000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>509000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>466000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>487300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>662600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>559100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>418900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>471100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>443400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>435400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>428800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>472900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>477900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>457700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>472900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>446600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>431000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200200</v>
+        <v>149700</v>
       </c>
       <c r="E18" s="3">
-        <v>196600</v>
+        <v>198600</v>
       </c>
       <c r="F18" s="3">
-        <v>148900</v>
+        <v>195000</v>
       </c>
       <c r="G18" s="3">
-        <v>18500</v>
+        <v>147600</v>
       </c>
       <c r="H18" s="3">
-        <v>112600</v>
+        <v>18400</v>
       </c>
       <c r="I18" s="3">
-        <v>147700</v>
+        <v>111700</v>
       </c>
       <c r="J18" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K18" s="3">
         <v>80500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>70200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>104100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>104700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>85300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-78200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>109200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>72300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>77500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>66700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>63000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>38300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>72400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>55100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>43200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>79800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1649,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E20" s="3">
         <v>4100</v>
       </c>
-      <c r="E20" s="3">
-        <v>3600</v>
-      </c>
       <c r="F20" s="3">
-        <v>34000</v>
+        <v>3500</v>
       </c>
       <c r="G20" s="3">
-        <v>15600</v>
+        <v>33700</v>
       </c>
       <c r="H20" s="3">
-        <v>8400</v>
+        <v>15500</v>
       </c>
       <c r="I20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L20" s="3">
         <v>9800</v>
       </c>
-      <c r="J20" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>15200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>18500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>16000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>4100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>244200</v>
+        <v>198800</v>
       </c>
       <c r="E21" s="3">
-        <v>238300</v>
+        <v>242200</v>
       </c>
       <c r="F21" s="3">
-        <v>220100</v>
+        <v>236300</v>
       </c>
       <c r="G21" s="3">
-        <v>70200</v>
+        <v>218200</v>
       </c>
       <c r="H21" s="3">
-        <v>157300</v>
+        <v>69600</v>
       </c>
       <c r="I21" s="3">
-        <v>193800</v>
+        <v>156000</v>
       </c>
       <c r="J21" s="3">
+        <v>192200</v>
+      </c>
+      <c r="K21" s="3">
         <v>128300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>119400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>77500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>152000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>157100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>133600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-27200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>155400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>163200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>129400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>124300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>118800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>108200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>131400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>101800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>54700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>86000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>123700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2600</v>
       </c>
-      <c r="I22" s="3">
-        <v>2900</v>
-      </c>
       <c r="J22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3000</v>
       </c>
       <c r="O22" s="3">
         <v>3000</v>
       </c>
       <c r="P22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2600</v>
       </c>
       <c r="W22" s="3">
         <v>2600</v>
       </c>
       <c r="X22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y22" s="3">
         <v>2500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>199300</v>
+        <v>160300</v>
       </c>
       <c r="E23" s="3">
-        <v>196400</v>
+        <v>197600</v>
       </c>
       <c r="F23" s="3">
-        <v>178600</v>
+        <v>194800</v>
       </c>
       <c r="G23" s="3">
-        <v>30300</v>
+        <v>177200</v>
       </c>
       <c r="H23" s="3">
-        <v>118400</v>
+        <v>30000</v>
       </c>
       <c r="I23" s="3">
-        <v>154600</v>
+        <v>117400</v>
       </c>
       <c r="J23" s="3">
+        <v>153300</v>
+      </c>
+      <c r="K23" s="3">
         <v>90500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>113600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>92300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>105300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>116800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>79200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>78500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>76400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>54200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>86000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>56000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>11200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>43900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>81600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47200</v>
+        <v>44300</v>
       </c>
       <c r="E24" s="3">
-        <v>60700</v>
+        <v>46800</v>
       </c>
       <c r="F24" s="3">
-        <v>33900</v>
+        <v>60200</v>
       </c>
       <c r="G24" s="3">
-        <v>19600</v>
+        <v>33600</v>
       </c>
       <c r="H24" s="3">
-        <v>32200</v>
+        <v>19400</v>
       </c>
       <c r="I24" s="3">
-        <v>33700</v>
+        <v>32000</v>
       </c>
       <c r="J24" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K24" s="3">
         <v>20900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-44800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>14900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>16800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>152000</v>
+        <v>116000</v>
       </c>
       <c r="E26" s="3">
-        <v>135700</v>
+        <v>150800</v>
       </c>
       <c r="F26" s="3">
-        <v>144800</v>
+        <v>134500</v>
       </c>
       <c r="G26" s="3">
-        <v>10700</v>
+        <v>143600</v>
       </c>
       <c r="H26" s="3">
-        <v>86100</v>
+        <v>10600</v>
       </c>
       <c r="I26" s="3">
-        <v>120900</v>
+        <v>85400</v>
       </c>
       <c r="J26" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K26" s="3">
         <v>69600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>44900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>95400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>74800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>98700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>150100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>91100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>58800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>65600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>66600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>49100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>61800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>41200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>8500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>43100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>64800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>152000</v>
+        <v>116000</v>
       </c>
       <c r="E27" s="3">
-        <v>135700</v>
+        <v>150800</v>
       </c>
       <c r="F27" s="3">
-        <v>144800</v>
+        <v>134500</v>
       </c>
       <c r="G27" s="3">
-        <v>10700</v>
+        <v>143600</v>
       </c>
       <c r="H27" s="3">
-        <v>86100</v>
+        <v>10600</v>
       </c>
       <c r="I27" s="3">
-        <v>120900</v>
+        <v>85400</v>
       </c>
       <c r="J27" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K27" s="3">
         <v>69600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>44900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>95400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>74800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>98700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>150100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>91100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>58800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>66600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>49100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>61800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>41200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>8500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>43100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>64800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2407,8 +2468,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>11</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>11</v>
@@ -2425,14 +2486,14 @@
       <c r="V29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" s="3">
         <v>-5400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>11</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3600</v>
-      </c>
       <c r="F32" s="3">
-        <v>-34000</v>
+        <v>-3500</v>
       </c>
       <c r="G32" s="3">
-        <v>-15600</v>
+        <v>-33700</v>
       </c>
       <c r="H32" s="3">
-        <v>-8400</v>
+        <v>-15500</v>
       </c>
       <c r="I32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-9800</v>
       </c>
-      <c r="J32" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-15200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-18500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-4100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>152000</v>
+        <v>116000</v>
       </c>
       <c r="E33" s="3">
-        <v>135700</v>
+        <v>150800</v>
       </c>
       <c r="F33" s="3">
-        <v>144800</v>
+        <v>134500</v>
       </c>
       <c r="G33" s="3">
-        <v>10700</v>
+        <v>143600</v>
       </c>
       <c r="H33" s="3">
-        <v>86100</v>
+        <v>10600</v>
       </c>
       <c r="I33" s="3">
-        <v>120900</v>
+        <v>85400</v>
       </c>
       <c r="J33" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K33" s="3">
         <v>69600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>95400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>98700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>150100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>91100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>58800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>65600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>66600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>60300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>43700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>41200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>8500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>43100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>64800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>152000</v>
+        <v>116000</v>
       </c>
       <c r="E35" s="3">
-        <v>135700</v>
+        <v>150800</v>
       </c>
       <c r="F35" s="3">
-        <v>144800</v>
+        <v>134500</v>
       </c>
       <c r="G35" s="3">
-        <v>10700</v>
+        <v>143600</v>
       </c>
       <c r="H35" s="3">
-        <v>86100</v>
+        <v>10600</v>
       </c>
       <c r="I35" s="3">
-        <v>120900</v>
+        <v>85400</v>
       </c>
       <c r="J35" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K35" s="3">
         <v>69600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>95400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>98700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>150100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>91100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>58800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>65600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>66600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>60300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>43700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>41200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>8500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>43100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>64800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3180,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>76300</v>
+        <v>69900</v>
       </c>
       <c r="E41" s="3">
-        <v>110900</v>
+        <v>75700</v>
       </c>
       <c r="F41" s="3">
-        <v>76800</v>
+        <v>110000</v>
       </c>
       <c r="G41" s="3">
-        <v>177600</v>
+        <v>76100</v>
       </c>
       <c r="H41" s="3">
-        <v>265500</v>
+        <v>176200</v>
       </c>
       <c r="I41" s="3">
-        <v>121700</v>
+        <v>263300</v>
       </c>
       <c r="J41" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K41" s="3">
         <v>99600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>50000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>29000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>38100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>35600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>40800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>53300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>83100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>514900</v>
+        <v>677300</v>
       </c>
       <c r="E42" s="3">
-        <v>225300</v>
+        <v>510700</v>
       </c>
       <c r="F42" s="3">
-        <v>345300</v>
+        <v>223400</v>
       </c>
       <c r="G42" s="3">
-        <v>359800</v>
+        <v>342400</v>
       </c>
       <c r="H42" s="3">
-        <v>161200</v>
+        <v>356800</v>
       </c>
       <c r="I42" s="3">
-        <v>178000</v>
+        <v>159900</v>
       </c>
       <c r="J42" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K42" s="3">
         <v>247800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>244800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>143000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>264800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>300900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>306000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>233300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>350900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>338400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>304800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>312000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>206300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>177300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>265100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>288400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>207300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>169900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>196600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>194500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>942800</v>
+        <v>908800</v>
       </c>
       <c r="E43" s="3">
-        <v>975800</v>
+        <v>935000</v>
       </c>
       <c r="F43" s="3">
-        <v>938100</v>
+        <v>967800</v>
       </c>
       <c r="G43" s="3">
-        <v>863000</v>
+        <v>930400</v>
       </c>
       <c r="H43" s="3">
-        <v>804600</v>
+        <v>856000</v>
       </c>
       <c r="I43" s="3">
-        <v>875100</v>
+        <v>798000</v>
       </c>
       <c r="J43" s="3">
+        <v>867900</v>
+      </c>
+      <c r="K43" s="3">
         <v>774400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>649600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>683800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>654600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>634000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>706200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>631800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>599700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>554600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>585400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>551500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>653300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>683200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>587300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>613600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>610300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>594900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>524500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>566600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>601300</v>
+        <v>588400</v>
       </c>
       <c r="E44" s="3">
-        <v>597800</v>
+        <v>596400</v>
       </c>
       <c r="F44" s="3">
-        <v>631600</v>
+        <v>592900</v>
       </c>
       <c r="G44" s="3">
-        <v>620300</v>
+        <v>626400</v>
       </c>
       <c r="H44" s="3">
-        <v>605500</v>
+        <v>615200</v>
       </c>
       <c r="I44" s="3">
-        <v>605800</v>
+        <v>600600</v>
       </c>
       <c r="J44" s="3">
+        <v>600900</v>
+      </c>
+      <c r="K44" s="3">
         <v>618900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>563100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>549400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>515000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>505800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>453100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>503200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>481400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>482800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>454300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>458800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>429500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>416400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>420600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>387900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>390400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>406300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>393100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>414100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>235500</v>
+        <v>257500</v>
       </c>
       <c r="E45" s="3">
-        <v>230800</v>
+        <v>233600</v>
       </c>
       <c r="F45" s="3">
-        <v>199000</v>
+        <v>228900</v>
       </c>
       <c r="G45" s="3">
-        <v>196100</v>
+        <v>197300</v>
       </c>
       <c r="H45" s="3">
-        <v>196800</v>
+        <v>194500</v>
       </c>
       <c r="I45" s="3">
-        <v>209700</v>
+        <v>195200</v>
       </c>
       <c r="J45" s="3">
+        <v>208000</v>
+      </c>
+      <c r="K45" s="3">
         <v>194800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>196900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>224600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>207200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>220000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>192600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>164800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>176600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>183700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>174500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>182200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>189200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>213000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>274300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>264300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>246000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>234200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>215600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>193600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2370800</v>
+        <v>2501900</v>
       </c>
       <c r="E46" s="3">
-        <v>2140600</v>
+        <v>2351300</v>
       </c>
       <c r="F46" s="3">
-        <v>2190600</v>
+        <v>2123100</v>
       </c>
       <c r="G46" s="3">
-        <v>2216800</v>
+        <v>2172700</v>
       </c>
       <c r="H46" s="3">
-        <v>2033600</v>
+        <v>2198600</v>
       </c>
       <c r="I46" s="3">
-        <v>1990300</v>
+        <v>2017000</v>
       </c>
       <c r="J46" s="3">
+        <v>1974000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1935500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1838300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1654400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1690300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1717500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1684400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1650000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1587800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1549200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1527700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1528400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1518900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1585500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1583200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1489500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1446100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1383200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1451900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76500</v>
+        <v>64800</v>
       </c>
       <c r="E47" s="3">
-        <v>74400</v>
+        <v>75900</v>
       </c>
       <c r="F47" s="3">
-        <v>64300</v>
+        <v>73800</v>
       </c>
       <c r="G47" s="3">
-        <v>98000</v>
+        <v>63800</v>
       </c>
       <c r="H47" s="3">
-        <v>79900</v>
+        <v>97200</v>
       </c>
       <c r="I47" s="3">
-        <v>92000</v>
+        <v>79200</v>
       </c>
       <c r="J47" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K47" s="3">
         <v>117300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>104800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>110100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>66300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>56200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>46700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>44200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>52400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>50200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>69700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>74800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>73000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>80600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>97100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>101800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>792300</v>
+        <v>803500</v>
       </c>
       <c r="E48" s="3">
-        <v>777900</v>
+        <v>785800</v>
       </c>
       <c r="F48" s="3">
-        <v>778000</v>
+        <v>771500</v>
       </c>
       <c r="G48" s="3">
-        <v>757800</v>
+        <v>771700</v>
       </c>
       <c r="H48" s="3">
-        <v>767600</v>
+        <v>751600</v>
       </c>
       <c r="I48" s="3">
-        <v>734200</v>
+        <v>761300</v>
       </c>
       <c r="J48" s="3">
+        <v>728200</v>
+      </c>
+      <c r="K48" s="3">
         <v>714800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>708200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>697700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>688900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>676100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>702600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>728300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>743100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>731800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>748800</v>
       </c>
       <c r="U48" s="3">
         <v>748800</v>
       </c>
       <c r="V48" s="3">
+        <v>748800</v>
+      </c>
+      <c r="W48" s="3">
         <v>753800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>836800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>841400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>837300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>833100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>787700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>788300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>431500</v>
+        <v>424300</v>
       </c>
       <c r="E49" s="3">
-        <v>439900</v>
+        <v>428000</v>
       </c>
       <c r="F49" s="3">
-        <v>441400</v>
+        <v>436300</v>
       </c>
       <c r="G49" s="3">
-        <v>386000</v>
+        <v>437800</v>
       </c>
       <c r="H49" s="3">
-        <v>445900</v>
+        <v>382800</v>
       </c>
       <c r="I49" s="3">
-        <v>453500</v>
+        <v>442300</v>
       </c>
       <c r="J49" s="3">
+        <v>449800</v>
+      </c>
+      <c r="K49" s="3">
         <v>484500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>498700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>509200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>570300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>594200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>409000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>411200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>609200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>657100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>653100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>665700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>678100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>651600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>702900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>696700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>717700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>702200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>670800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>688700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>99200</v>
+        <v>96700</v>
       </c>
       <c r="E52" s="3">
-        <v>114100</v>
+        <v>98400</v>
       </c>
       <c r="F52" s="3">
-        <v>133500</v>
+        <v>113200</v>
       </c>
       <c r="G52" s="3">
-        <v>110900</v>
+        <v>132400</v>
       </c>
       <c r="H52" s="3">
-        <v>116600</v>
+        <v>110000</v>
       </c>
       <c r="I52" s="3">
-        <v>124900</v>
+        <v>115700</v>
       </c>
       <c r="J52" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K52" s="3">
         <v>139400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>142200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>157800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>169500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>167900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>168700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>161500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>147800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>76000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>80400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>89000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>77700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>67400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>71100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>92900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>95900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>90400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>99900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3770400</v>
+        <v>3891200</v>
       </c>
       <c r="E54" s="3">
-        <v>3547000</v>
+        <v>3739400</v>
       </c>
       <c r="F54" s="3">
-        <v>3607900</v>
+        <v>3517900</v>
       </c>
       <c r="G54" s="3">
-        <v>3569600</v>
+        <v>3578300</v>
       </c>
       <c r="H54" s="3">
-        <v>3443700</v>
+        <v>3540300</v>
       </c>
       <c r="I54" s="3">
-        <v>3394900</v>
+        <v>3415400</v>
       </c>
       <c r="J54" s="3">
+        <v>3367100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3391400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3292100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3129100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3172300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3246100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3000600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2904600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3213300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3120200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3050000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3066900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3096600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3052200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3262200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3267300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3210400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3157900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3029100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3130700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>317200</v>
+        <v>319700</v>
       </c>
       <c r="E57" s="3">
-        <v>277700</v>
+        <v>314600</v>
       </c>
       <c r="F57" s="3">
-        <v>305400</v>
+        <v>275400</v>
       </c>
       <c r="G57" s="3">
-        <v>311700</v>
+        <v>302900</v>
       </c>
       <c r="H57" s="3">
-        <v>298600</v>
+        <v>309200</v>
       </c>
       <c r="I57" s="3">
-        <v>311500</v>
+        <v>296100</v>
       </c>
       <c r="J57" s="3">
+        <v>308900</v>
+      </c>
+      <c r="K57" s="3">
         <v>348700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>294400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>286100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>285900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>246000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>215200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>237400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>212100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>203900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>196900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>215700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>186000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>195900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>232100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>210800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>205200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>191200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>184900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>183400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>197600</v>
+        <v>147400</v>
       </c>
       <c r="E58" s="3">
-        <v>188900</v>
+        <v>195900</v>
       </c>
       <c r="F58" s="3">
-        <v>277500</v>
+        <v>187300</v>
       </c>
       <c r="G58" s="3">
-        <v>342500</v>
+        <v>275200</v>
       </c>
       <c r="H58" s="3">
-        <v>269800</v>
+        <v>339700</v>
       </c>
       <c r="I58" s="3">
-        <v>296200</v>
+        <v>267600</v>
       </c>
       <c r="J58" s="3">
+        <v>293700</v>
+      </c>
+      <c r="K58" s="3">
         <v>331700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>297700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>172800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>260000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>320300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>268700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>223400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>243600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>221600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>258900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>369200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>372500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>370500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>440300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>415200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>374500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>602700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>720400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>513900</v>
+        <v>570700</v>
       </c>
       <c r="E59" s="3">
-        <v>509000</v>
+        <v>509600</v>
       </c>
       <c r="F59" s="3">
-        <v>523900</v>
+        <v>504900</v>
       </c>
       <c r="G59" s="3">
-        <v>491800</v>
+        <v>519600</v>
       </c>
       <c r="H59" s="3">
-        <v>451400</v>
+        <v>487800</v>
       </c>
       <c r="I59" s="3">
-        <v>439500</v>
+        <v>447700</v>
       </c>
       <c r="J59" s="3">
+        <v>435900</v>
+      </c>
+      <c r="K59" s="3">
         <v>435300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>441900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>457100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>437800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>465800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>456800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>424000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>405100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>390300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>389200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>371900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>387500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>360500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>405100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>407400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>396700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>381600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>383700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>409100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1028600</v>
+        <v>1037900</v>
       </c>
       <c r="E60" s="3">
-        <v>975600</v>
+        <v>1020200</v>
       </c>
       <c r="F60" s="3">
-        <v>1106700</v>
+        <v>967600</v>
       </c>
       <c r="G60" s="3">
-        <v>1146000</v>
+        <v>1097700</v>
       </c>
       <c r="H60" s="3">
-        <v>1019700</v>
+        <v>1136600</v>
       </c>
       <c r="I60" s="3">
-        <v>1047100</v>
+        <v>1011400</v>
       </c>
       <c r="J60" s="3">
+        <v>1038600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1115700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1034000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>916000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>983700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1032100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>940800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>862400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>840600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>837900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>807700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>846400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>942700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>928900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1007700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1058400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1017100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>947400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1171300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1313000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17800</v>
+        <v>15500</v>
       </c>
       <c r="E61" s="3">
-        <v>21900</v>
+        <v>17600</v>
       </c>
       <c r="F61" s="3">
-        <v>23200</v>
+        <v>21700</v>
       </c>
       <c r="G61" s="3">
-        <v>70000</v>
+        <v>23000</v>
       </c>
       <c r="H61" s="3">
-        <v>73500</v>
+        <v>69500</v>
       </c>
       <c r="I61" s="3">
         <v>72900</v>
       </c>
       <c r="J61" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K61" s="3">
         <v>75200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>78100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>80700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>83400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>87700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>210000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>228900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>297700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>334200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>364800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>345000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>362800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>353700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>360800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>355100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>75100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>78800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38800</v>
+        <v>45200</v>
       </c>
       <c r="E62" s="3">
-        <v>35600</v>
+        <v>38500</v>
       </c>
       <c r="F62" s="3">
         <v>35300</v>
       </c>
       <c r="G62" s="3">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="H62" s="3">
-        <v>34100</v>
+        <v>30700</v>
       </c>
       <c r="I62" s="3">
-        <v>32800</v>
+        <v>33800</v>
       </c>
       <c r="J62" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K62" s="3">
         <v>29400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>43800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>49300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>47800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>50200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>51400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>54100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>63100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>66700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>70700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>70600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>73400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>71000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1085200</v>
+        <v>1098500</v>
       </c>
       <c r="E66" s="3">
-        <v>1033100</v>
+        <v>1076300</v>
       </c>
       <c r="F66" s="3">
-        <v>1165200</v>
+        <v>1024600</v>
       </c>
       <c r="G66" s="3">
-        <v>1247000</v>
+        <v>1155600</v>
       </c>
       <c r="H66" s="3">
-        <v>1127400</v>
+        <v>1236800</v>
       </c>
       <c r="I66" s="3">
-        <v>1152800</v>
+        <v>1118100</v>
       </c>
       <c r="J66" s="3">
+        <v>1143400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1220200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1146100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1028600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1102300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1156300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>998100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>922800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1099800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1111300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1153200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1230800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1358900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1327900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1433600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1478800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1448600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1373200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1319800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1462700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2548800</v>
+        <v>2643900</v>
       </c>
       <c r="E72" s="3">
-        <v>2397800</v>
+        <v>2527900</v>
       </c>
       <c r="F72" s="3">
-        <v>2322500</v>
+        <v>2378100</v>
       </c>
       <c r="G72" s="3">
-        <v>2176800</v>
+        <v>2303500</v>
       </c>
       <c r="H72" s="3">
-        <v>2164700</v>
+        <v>2158900</v>
       </c>
       <c r="I72" s="3">
-        <v>2077300</v>
+        <v>2147000</v>
       </c>
       <c r="J72" s="3">
+        <v>2060300</v>
+      </c>
+      <c r="K72" s="3">
         <v>2006900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1971400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1924900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1940100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1956500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1881800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1838400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1972100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1875000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1756300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1696200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1592200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1580100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1663800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1618700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1569400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1587400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1505100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1461100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2685100</v>
+        <v>2792700</v>
       </c>
       <c r="E76" s="3">
-        <v>2513900</v>
+        <v>2663100</v>
       </c>
       <c r="F76" s="3">
-        <v>2442700</v>
+        <v>2493300</v>
       </c>
       <c r="G76" s="3">
-        <v>2322500</v>
+        <v>2422700</v>
       </c>
       <c r="H76" s="3">
-        <v>2316300</v>
+        <v>2303500</v>
       </c>
       <c r="I76" s="3">
-        <v>2242100</v>
+        <v>2297300</v>
       </c>
       <c r="J76" s="3">
+        <v>2223700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2171200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2146000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2100500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2070000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2089800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2002400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1981800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2113400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2008900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1896900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1836100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1737700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1724300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1828600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1788500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1761800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1784700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1709300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1667900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>152000</v>
+        <v>116000</v>
       </c>
       <c r="E81" s="3">
-        <v>135700</v>
+        <v>150800</v>
       </c>
       <c r="F81" s="3">
-        <v>144800</v>
+        <v>134500</v>
       </c>
       <c r="G81" s="3">
-        <v>10700</v>
+        <v>143600</v>
       </c>
       <c r="H81" s="3">
-        <v>86100</v>
+        <v>10600</v>
       </c>
       <c r="I81" s="3">
-        <v>120900</v>
+        <v>85400</v>
       </c>
       <c r="J81" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K81" s="3">
         <v>69600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>95400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>98700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>150100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>91100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>58800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>65600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>66600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>60300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>43700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>41200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>8500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>43100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>64800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>37800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>36900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>35800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>35400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>39300</v>
+      </c>
+      <c r="M83" s="3">
         <v>39900</v>
       </c>
-      <c r="E83" s="3">
-        <v>38100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>37200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>36100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>36300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>36400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>35400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>39300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>39900</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>45900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>42400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>42500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>40500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>39400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>39800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>283500</v>
+        <v>237900</v>
       </c>
       <c r="E89" s="3">
-        <v>113100</v>
+        <v>281200</v>
       </c>
       <c r="F89" s="3">
-        <v>81100</v>
+        <v>112200</v>
       </c>
       <c r="G89" s="3">
-        <v>111200</v>
+        <v>80500</v>
       </c>
       <c r="H89" s="3">
-        <v>211300</v>
+        <v>110200</v>
       </c>
       <c r="I89" s="3">
-        <v>62200</v>
+        <v>209500</v>
       </c>
       <c r="J89" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-42000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>139700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>115900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>98100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>138900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>135100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>90800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>220400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>141800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-66400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>83600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>108700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>97000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-28600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>117400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>72100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2582000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2925000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2511000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3305000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3741000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4138000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3581000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-35700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-30600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-40300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-45600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-43700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-40700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-39800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-40900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-321900</v>
+        <v>-190700</v>
       </c>
       <c r="E94" s="3">
-        <v>69900</v>
+        <v>-319300</v>
       </c>
       <c r="F94" s="3">
-        <v>-60000</v>
+        <v>69300</v>
       </c>
       <c r="G94" s="3">
-        <v>-268000</v>
+        <v>-59500</v>
       </c>
       <c r="H94" s="3">
-        <v>-33700</v>
+        <v>-265800</v>
       </c>
       <c r="I94" s="3">
-        <v>48400</v>
+        <v>-33400</v>
       </c>
       <c r="J94" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-68300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-117200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>46600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-203200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-105600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>108500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-50700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-104100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>45800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>11500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-147800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-75600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-44600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>28400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7100</v>
+        <v>-52000</v>
       </c>
       <c r="E100" s="3">
-        <v>-150500</v>
+        <v>7000</v>
       </c>
       <c r="F100" s="3">
-        <v>-131700</v>
+        <v>-149300</v>
       </c>
       <c r="G100" s="3">
-        <v>62100</v>
+        <v>-130600</v>
       </c>
       <c r="H100" s="3">
-        <v>-31300</v>
+        <v>61600</v>
       </c>
       <c r="I100" s="3">
-        <v>-87900</v>
+        <v>-31000</v>
       </c>
       <c r="J100" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="K100" s="3">
         <v>27600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>107100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-93700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-107200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>92800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>70200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-217300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-109600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-86700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-75900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-143000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-83800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>15800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-87300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>32400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>18700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-101900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-48500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>-1100</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>7900</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34500</v>
+        <v>-5800</v>
       </c>
       <c r="E102" s="3">
-        <v>34100</v>
+        <v>-34300</v>
       </c>
       <c r="F102" s="3">
-        <v>-104300</v>
+        <v>33800</v>
       </c>
       <c r="G102" s="3">
-        <v>-86800</v>
+        <v>-103400</v>
       </c>
       <c r="H102" s="3">
-        <v>146200</v>
+        <v>-86100</v>
       </c>
       <c r="I102" s="3">
-        <v>22100</v>
+        <v>145000</v>
       </c>
       <c r="J102" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-81100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>130200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-28000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>21200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>8900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-31000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>51300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RDY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>814700</v>
+      </c>
+      <c r="E8" s="3">
         <v>761300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>818500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>762400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>630500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>657300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>643200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>696800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>599700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>586300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>611300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>613100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>570700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>572600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>584400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>659600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>528100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>543400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>520900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>502100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>491900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>511100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>550300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>512800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>479500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>489800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>510800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>336500</v>
+      </c>
+      <c r="E9" s="3">
         <v>326100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>333800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>312000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>316100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>309800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>297200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>324600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>286400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>271700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>282400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>250900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>277900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>268100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>280100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>255200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>258600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>240100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>225800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>217900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>237900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>240700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>239400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>232300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>239200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>209000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>478200</v>
+      </c>
+      <c r="E10" s="3">
         <v>435200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>484700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>450300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>314400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>347500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>345900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>372200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>313300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>314700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>329100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>330600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>319800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>294700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>316200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>379500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>272900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>284800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>280800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>276300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>274000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>273200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>309600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>273300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>247200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>250500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>301800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>64900</v>
+        <v>57200</v>
       </c>
       <c r="E12" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F12" s="3">
         <v>55200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>56000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>49200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>49100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>46900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>50800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>47400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>47600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>48000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>50400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>49000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>46700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>45900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>44700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>46000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>50600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>50400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>58400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>63000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>55800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>69100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>59000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>64000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,64 +1262,67 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>6500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>90900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>22800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>74100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>176000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>11</v>
@@ -1310,8 +1330,8 @@
       <c r="W14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1331,94 +1351,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
+      <c r="D15" s="3">
+        <v>23700</v>
       </c>
       <c r="E15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F15" s="3">
         <v>20300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>18500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>19300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>19100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>17800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>19900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>18700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>18300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>17100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>17000</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>18300</v>
       </c>
       <c r="AD15" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>601500</v>
+      </c>
+      <c r="E17" s="3">
         <v>611600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>619900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>567400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>482900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>638900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>531500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>550300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>519100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>516100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>584000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>509000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>466000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>487300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>662600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>559100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>418900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>471100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>443400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>435400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>428800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>472900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>477900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>457700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>472900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>446600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>431000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E18" s="3">
         <v>149700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>198600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>195000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>147600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>111700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>146500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>104100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>85300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-78200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>109200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>72300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>66700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>63000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>38300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>72400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>55100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>43200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>79800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10600</v>
+        <v>14500</v>
       </c>
       <c r="E20" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>33700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>15200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>18500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>16000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>4200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>7700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>4100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>198800</v>
+        <v>270900</v>
       </c>
       <c r="E21" s="3">
+        <v>203100</v>
+      </c>
+      <c r="F21" s="3">
         <v>242200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>236300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>218200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>69600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>156000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>119400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>152000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>157100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>133600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-27200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>155400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>163200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>129400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>124300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>118800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>108200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>100100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>131400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>101800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>54700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>86000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>123700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+      <c r="D22" s="3">
+        <v>4500</v>
       </c>
       <c r="E22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F22" s="3">
         <v>5100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3000</v>
       </c>
       <c r="P22" s="3">
         <v>3000</v>
       </c>
       <c r="Q22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>2600</v>
       </c>
       <c r="X22" s="3">
         <v>2600</v>
       </c>
       <c r="Y22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z22" s="3">
         <v>2500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>223200</v>
+      </c>
+      <c r="E23" s="3">
         <v>160300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>197600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>194800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>177200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>117400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>153300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>90500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>113600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>92300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-70300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>105300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>116800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>79200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>78500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>76400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>54200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>86000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>56000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>11200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>43900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>81600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E24" s="3">
         <v>44300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>60200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>33600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-44800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>24200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>14900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>16800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E26" s="3">
         <v>116000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>150800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>134500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>143600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>85400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>119900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>44900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>95400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>74800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>98700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-75900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>150100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>91100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>58800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>65600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>66600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>49100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>61800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>41200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>8500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>43100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>64800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E27" s="3">
         <v>116000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>150800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>134500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>143600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>85400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>119900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>44900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>95400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>74800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>98700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-75900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>150100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>91100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>58800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>65600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>66600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>49100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>61800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>41200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>8500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>43100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>64800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2471,8 +2532,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>11</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>11</v>
@@ -2489,14 +2550,14 @@
       <c r="W29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>11</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10600</v>
+        <v>-14500</v>
       </c>
       <c r="E32" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-33700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-15200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-18500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E33" s="3">
         <v>116000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>150800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>134500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>143600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>85400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>119900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>95400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>98700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-75900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>150100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>91100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>58800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>65600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>66600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>60300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>43700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>48400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>41200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>8500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>43100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>64800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E35" s="3">
         <v>116000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>150800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>134500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>143600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>85400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>119900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>95400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>98700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-75900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>150100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>91100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>58800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>65600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>66600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>60300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>43700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>48400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>41200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>8500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>43100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>64800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69900</v>
+        <v>72700</v>
       </c>
       <c r="E41" s="3">
+        <v>67900</v>
+      </c>
+      <c r="F41" s="3">
         <v>75700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>110000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>176200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>263300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>120700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>183900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>53600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>50000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>38100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>29100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>35600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>40800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>53300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>83100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>641200</v>
+      </c>
+      <c r="E42" s="3">
         <v>677300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>510700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>223400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>342400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>356800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>159900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>176500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>247800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>244800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>143000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>264800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>306000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>233300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>350900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>338400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>304800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>312000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>206300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>177300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>265100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>288400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>207300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>169900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>196600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>194500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>933900</v>
+      </c>
+      <c r="E43" s="3">
         <v>908800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>935000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>967800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>930400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>856000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>798000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>867900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>774400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>649600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>683800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>654600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>634000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>706200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>631800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>599700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>554600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>585400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>551500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>653300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>683200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>587300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>613600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>610300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>594900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>524500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>566600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>633500</v>
+      </c>
+      <c r="E44" s="3">
         <v>588400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>596400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>592900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>626400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>615200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>618900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>563100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>549400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>515000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>505800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>453100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>503200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>481400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>482800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>454300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>458800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>429500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>416400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>420600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>387900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>390400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>406300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>393100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>414100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>257500</v>
+        <v>260700</v>
       </c>
       <c r="E45" s="3">
+        <v>259500</v>
+      </c>
+      <c r="F45" s="3">
         <v>233600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>228900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>197300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>194500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>195200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>208000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>194800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>196900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>224600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>207200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>220000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>192600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>164800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>176600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>183700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>174500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>182200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>189200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>213000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>274300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>264300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>246000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>234200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>215600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>193600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2542000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2501900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2351300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2123100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2172700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2198600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2017000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1974000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1935500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1838300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1654400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1690300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1717500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1684400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1563000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1650000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1587800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1549200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1527700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1528400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1518900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1585500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1583200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1489500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1446100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1383200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1451900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E47" s="3">
         <v>64800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>75900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>73800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>63800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>97200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>79200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>91200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>104800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>110100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>66300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>62400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>66300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>77900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>46700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>44200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>52400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>50200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>69700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>74800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>73000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>80600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>97100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>101800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>812500</v>
+      </c>
+      <c r="E48" s="3">
         <v>803500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>785800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>771500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>771700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>751600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>761300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>728200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>714800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>708200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>697700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>688900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>676100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>702600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>728300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>743100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>731800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>748800</v>
       </c>
       <c r="V48" s="3">
         <v>748800</v>
       </c>
       <c r="W48" s="3">
+        <v>748800</v>
+      </c>
+      <c r="X48" s="3">
         <v>753800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>836800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>841400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>837300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>833100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>787700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>788300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>511500</v>
+      </c>
+      <c r="E49" s="3">
         <v>424300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>428000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>436300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>437800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>382800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>442300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>449800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>484500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>498700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>509200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>570300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>594200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>409000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>411200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>609200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>657100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>653100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>665700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>678100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>651600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>702900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>696700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>717700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>702200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>670800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>688700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E52" s="3">
         <v>96700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>98400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>113200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>132400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>110000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>115700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>123900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>139400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>142200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>157800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>169500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>167900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>168700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>161500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>147800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>76000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>80400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>89000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>77700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>67400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>71100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>92900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>95900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>90400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>99900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4050600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3891200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3739400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3517900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3578300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3540300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3415400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3367100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3391400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3292100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3129100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3172300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3246100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3000600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2904600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3213300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3120200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3050000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3066900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3096600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3052200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3262200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3267300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3210400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3157900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3029100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3130700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>334700</v>
+      </c>
+      <c r="E57" s="3">
         <v>319700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>314600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>275400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>302900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>309200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>296100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>308900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>348700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>294400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>286100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>285900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>246000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>215200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>237400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>212100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>203900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>196900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>215700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>186000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>195900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>232100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>210800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>205200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>191200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>184900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>183400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E58" s="3">
         <v>147400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>195900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>187300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>275200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>339700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>267600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>293700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>331700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>297700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>172800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>260000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>320300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>268700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>223400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>243600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>221600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>258900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>369200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>372500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>370500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>440300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>415200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>374500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>602700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>720400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E59" s="3">
         <v>570700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>509600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>504900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>519600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>487800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>447700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>435900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>435300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>441900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>457100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>437800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>465800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>456800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>424000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>405100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>390300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>389200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>371900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>387500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>360500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>405100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>407400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>396700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>381600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>383700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>409100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>976500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1037900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1020200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>967600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1097700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1136600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1011400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1038600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1115700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1034000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>916000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>983700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1032100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>940800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>862400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>840600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>837900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>807700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>846400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>942700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>928900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1007700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1058400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1017100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>947400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1171300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1313000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E61" s="3">
         <v>15500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>21700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>23000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>69500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>72900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>72300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>78100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>80700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>83400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>87700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>210000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>228900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>297700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>334200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>364800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>345000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>362800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>353700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>360800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>355100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>75100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>78800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E62" s="3">
         <v>45200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>33800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>43800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>49300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>47800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>50200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>51400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>54100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>63100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>66700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>70700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>70600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>73400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>71000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1085500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1098500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1076300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1024600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1155600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1236800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1118100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1143400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1220200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1146100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1028600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1102300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1156300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>998100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>922800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1099800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1111300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1153200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1230800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1358900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1327900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1433600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1478800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1448600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1373200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1319800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1462700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2813100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2643900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2527900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2378100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2303500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2158900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2147000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2060300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2006900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1971400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1924900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1940100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1956500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1881800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1838400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1972100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1875000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1756300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1696200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1592200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1580100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1663800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1618700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1569400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1587400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1505100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1461100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2965200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2792700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2663100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2493300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2422700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2303500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2297300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2223700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2171200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2146000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2100500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2070000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2089800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2002400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1981800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2113400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2008900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1896900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1836100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1737700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1724300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1828600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1788500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1761800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1784700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1709300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1667900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>169600</v>
+      </c>
+      <c r="E81" s="3">
         <v>116000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>150800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>134500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>143600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>85400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>119900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>95400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>98700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-75900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>150100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>91100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>58800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>65600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>66600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>60300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>43700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>48400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>41200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>8500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>43100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>64800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E83" s="3">
         <v>38600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>40600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>42500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>40500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>39400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>39800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E89" s="3">
         <v>237900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>281200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>112200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>80500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>110200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>209500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>61700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>139700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>52900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>115900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>98100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>138900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>135100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>90800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>220400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>141800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-66400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>83600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>108700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>97000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-28600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>117400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>72100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3639000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2582000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2925000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2511000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3305000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3741000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4138000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3581000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-39800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-40900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-190700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-319300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>69300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-265800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>48000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-117200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>46600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-203200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-105600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>108500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-50700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-104100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-38700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>45800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>11500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-147800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-75600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-44600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>28400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-52000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-149300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-130600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>61600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-31000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-87200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>107100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-93700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-107200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>92800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>70200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-217300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-109600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-86700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-75900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-143000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-83800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>15800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-87300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>32400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>18700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-101900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-48500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7859,167 +8108,173 @@
         <v>-1100</v>
       </c>
       <c r="E101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-34300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-103400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-86100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>145000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-81100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>130200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-28000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>21200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>8900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-31000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>51300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-55500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RDY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>814700</v>
+        <v>827700</v>
       </c>
       <c r="E8" s="3">
-        <v>761300</v>
+        <v>810600</v>
       </c>
       <c r="F8" s="3">
-        <v>818500</v>
+        <v>757500</v>
       </c>
       <c r="G8" s="3">
-        <v>762400</v>
+        <v>814400</v>
       </c>
       <c r="H8" s="3">
-        <v>630500</v>
+        <v>758600</v>
       </c>
       <c r="I8" s="3">
-        <v>657300</v>
+        <v>627400</v>
       </c>
       <c r="J8" s="3">
+        <v>654000</v>
+      </c>
+      <c r="K8" s="3">
         <v>643200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>696800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>599700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>586300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>611300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>613100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>570700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>572600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>584400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>659600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>528100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>543400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>520900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>502100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>491900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>511100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>550300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>512800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>479500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>489800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>510800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>494100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>336500</v>
+        <v>342100</v>
       </c>
       <c r="E9" s="3">
-        <v>326100</v>
+        <v>334800</v>
       </c>
       <c r="F9" s="3">
-        <v>333800</v>
+        <v>324500</v>
       </c>
       <c r="G9" s="3">
-        <v>312000</v>
+        <v>332100</v>
       </c>
       <c r="H9" s="3">
-        <v>316100</v>
+        <v>310500</v>
       </c>
       <c r="I9" s="3">
-        <v>309800</v>
+        <v>314600</v>
       </c>
       <c r="J9" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K9" s="3">
         <v>297200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>324600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>286400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>271700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>282200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>282400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>250900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>277900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>268100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>280100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>255200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>258600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>240100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>225800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>217900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>237900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>240700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>239400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>232300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>239200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>209000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>217200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>478200</v>
+        <v>485600</v>
       </c>
       <c r="E10" s="3">
-        <v>435200</v>
+        <v>475800</v>
       </c>
       <c r="F10" s="3">
-        <v>484700</v>
+        <v>433000</v>
       </c>
       <c r="G10" s="3">
-        <v>450300</v>
+        <v>482300</v>
       </c>
       <c r="H10" s="3">
-        <v>314400</v>
+        <v>448100</v>
       </c>
       <c r="I10" s="3">
-        <v>347500</v>
+        <v>312900</v>
       </c>
       <c r="J10" s="3">
+        <v>345800</v>
+      </c>
+      <c r="K10" s="3">
         <v>345900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>372200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>313300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>314700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>329100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>330600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>319800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>294700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>316200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>379500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>272900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>284800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>280800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>276300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>274000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>273200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>309600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>273300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>247200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>250500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>301800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>276900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>57200</v>
+        <v>62100</v>
       </c>
       <c r="E12" s="3">
-        <v>61600</v>
+        <v>56900</v>
       </c>
       <c r="F12" s="3">
-        <v>55200</v>
+        <v>61300</v>
       </c>
       <c r="G12" s="3">
-        <v>56000</v>
+        <v>54900</v>
       </c>
       <c r="H12" s="3">
-        <v>49200</v>
+        <v>55700</v>
       </c>
       <c r="I12" s="3">
-        <v>49100</v>
+        <v>49000</v>
       </c>
       <c r="J12" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K12" s="3">
         <v>46900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>50800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>47400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>47600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>48000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>50400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>49000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>46700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>45900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>44700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>46000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>50600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>50400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>58400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>63000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>55800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>69100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>59000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>64000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,67 +1282,70 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3">
-        <v>90900</v>
-      </c>
       <c r="J14" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>22800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>74100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>176000</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="3">
         <v>1100</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>11</v>
@@ -1333,8 +1353,8 @@
       <c r="X14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1354,97 +1374,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>23700</v>
+        <v>25400</v>
       </c>
       <c r="E15" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>19300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="L15" s="3">
+        <v>18800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>21100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="P15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="R15" s="3">
+        <v>18600</v>
+      </c>
+      <c r="S15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="T15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="U15" s="3">
         <v>19400</v>
       </c>
-      <c r="F15" s="3">
-        <v>20300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>19700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>19500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>18900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>18800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>18900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>21100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>21200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>21500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>20700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>18600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>19700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>22000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>19400</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>19300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>19100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>19900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>18700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>18300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>17100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>17000</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>18300</v>
       </c>
       <c r="AE15" s="3">
         <v>18300</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>601500</v>
+        <v>612700</v>
       </c>
       <c r="E17" s="3">
-        <v>611600</v>
+        <v>598500</v>
       </c>
       <c r="F17" s="3">
-        <v>619900</v>
+        <v>608600</v>
       </c>
       <c r="G17" s="3">
-        <v>567400</v>
+        <v>616800</v>
       </c>
       <c r="H17" s="3">
-        <v>482900</v>
+        <v>564600</v>
       </c>
       <c r="I17" s="3">
-        <v>638900</v>
+        <v>480500</v>
       </c>
       <c r="J17" s="3">
+        <v>635800</v>
+      </c>
+      <c r="K17" s="3">
         <v>531500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>550300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>519100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>516100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>584000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>509000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>466000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>487300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>662600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>559100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>418900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>471100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>443400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>435400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>428800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>472900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>477900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>457700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>472900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>446600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>431000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>447500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>213200</v>
+        <v>214900</v>
       </c>
       <c r="E18" s="3">
-        <v>149700</v>
+        <v>212200</v>
       </c>
       <c r="F18" s="3">
-        <v>198600</v>
+        <v>148900</v>
       </c>
       <c r="G18" s="3">
-        <v>195000</v>
+        <v>197600</v>
       </c>
       <c r="H18" s="3">
-        <v>147600</v>
+        <v>194000</v>
       </c>
       <c r="I18" s="3">
-        <v>18400</v>
+        <v>146900</v>
       </c>
       <c r="J18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K18" s="3">
         <v>111700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>146500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>104100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>104700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>85300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-78200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>109200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>72300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>66700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>63000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>38300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>72400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>55100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>43200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>79800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>46700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="E20" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="F20" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3500</v>
       </c>
-      <c r="H20" s="3">
-        <v>33700</v>
-      </c>
       <c r="I20" s="3">
-        <v>15500</v>
+        <v>33600</v>
       </c>
       <c r="J20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>11700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>15200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>18500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>16000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>7700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>4100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>270900</v>
+        <v>280000</v>
       </c>
       <c r="E21" s="3">
-        <v>203100</v>
+        <v>269500</v>
       </c>
       <c r="F21" s="3">
-        <v>242200</v>
+        <v>202100</v>
       </c>
       <c r="G21" s="3">
-        <v>236300</v>
+        <v>241000</v>
       </c>
       <c r="H21" s="3">
-        <v>218200</v>
+        <v>235100</v>
       </c>
       <c r="I21" s="3">
-        <v>69600</v>
+        <v>217200</v>
       </c>
       <c r="J21" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K21" s="3">
         <v>156000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>119400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>152000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>157100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>133600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-27200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>163200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>129400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>124300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>118800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>108200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>100100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>131400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>101800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>54700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>86000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>123700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>93800</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
-        <v>5100</v>
-      </c>
       <c r="G22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3000</v>
       </c>
       <c r="Q22" s="3">
         <v>3000</v>
       </c>
       <c r="R22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2700</v>
-      </c>
-      <c r="X22" s="3">
-        <v>2600</v>
       </c>
       <c r="Y22" s="3">
         <v>2600</v>
       </c>
       <c r="Z22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA22" s="3">
         <v>2500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>2700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>2300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>223200</v>
+        <v>230200</v>
       </c>
       <c r="E23" s="3">
-        <v>160300</v>
+        <v>222100</v>
       </c>
       <c r="F23" s="3">
-        <v>197600</v>
+        <v>159500</v>
       </c>
       <c r="G23" s="3">
-        <v>194800</v>
+        <v>196600</v>
       </c>
       <c r="H23" s="3">
-        <v>177200</v>
+        <v>193800</v>
       </c>
       <c r="I23" s="3">
-        <v>30000</v>
+        <v>176300</v>
       </c>
       <c r="J23" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K23" s="3">
         <v>117400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>153300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>90500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>107900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>113600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>92300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-70300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>105300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>116800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>79200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>78500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>76400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>66200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>54200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>86000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>56000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>11200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>43900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>81600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53700</v>
+        <v>52100</v>
       </c>
       <c r="E24" s="3">
-        <v>44300</v>
+        <v>53400</v>
       </c>
       <c r="F24" s="3">
-        <v>46800</v>
+        <v>44100</v>
       </c>
       <c r="G24" s="3">
-        <v>60200</v>
+        <v>46600</v>
       </c>
       <c r="H24" s="3">
-        <v>33600</v>
+        <v>59900</v>
       </c>
       <c r="I24" s="3">
-        <v>19400</v>
+        <v>33400</v>
       </c>
       <c r="J24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K24" s="3">
         <v>32000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-44800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>24200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>14900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>16800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>12200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169600</v>
+        <v>178000</v>
       </c>
       <c r="E26" s="3">
-        <v>116000</v>
+        <v>168700</v>
       </c>
       <c r="F26" s="3">
-        <v>150800</v>
+        <v>115400</v>
       </c>
       <c r="G26" s="3">
-        <v>134500</v>
+        <v>150000</v>
       </c>
       <c r="H26" s="3">
-        <v>143600</v>
+        <v>133900</v>
       </c>
       <c r="I26" s="3">
-        <v>10600</v>
+        <v>142900</v>
       </c>
       <c r="J26" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K26" s="3">
         <v>85400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>119900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>69600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>44900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>95400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>98700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-75900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>150100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>91100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>58800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>65600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>66600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>60300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>49100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>61800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>41200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>8500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>43100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>64800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169600</v>
+        <v>178000</v>
       </c>
       <c r="E27" s="3">
-        <v>116000</v>
+        <v>168700</v>
       </c>
       <c r="F27" s="3">
-        <v>150800</v>
+        <v>115400</v>
       </c>
       <c r="G27" s="3">
-        <v>134500</v>
+        <v>150000</v>
       </c>
       <c r="H27" s="3">
-        <v>143600</v>
+        <v>133900</v>
       </c>
       <c r="I27" s="3">
-        <v>10600</v>
+        <v>142900</v>
       </c>
       <c r="J27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K27" s="3">
         <v>85400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>119900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>69600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>44900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>95400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>98700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-75900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>150100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>91100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>58800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>65600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>66600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>60300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>49100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>61800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>41200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>8500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>43100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>64800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2535,8 +2596,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>11</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>11</v>
@@ -2553,14 +2614,14 @@
       <c r="X29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-13400</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>11</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14500</v>
+        <v>-19500</v>
       </c>
       <c r="E32" s="3">
-        <v>-14900</v>
+        <v>-14400</v>
       </c>
       <c r="F32" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-33700</v>
-      </c>
       <c r="I32" s="3">
-        <v>-15500</v>
+        <v>-33600</v>
       </c>
       <c r="J32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-11700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-15200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-18500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-7700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-4100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169600</v>
+        <v>178000</v>
       </c>
       <c r="E33" s="3">
-        <v>116000</v>
+        <v>168700</v>
       </c>
       <c r="F33" s="3">
-        <v>150800</v>
+        <v>115400</v>
       </c>
       <c r="G33" s="3">
-        <v>134500</v>
+        <v>150000</v>
       </c>
       <c r="H33" s="3">
-        <v>143600</v>
+        <v>133900</v>
       </c>
       <c r="I33" s="3">
-        <v>10600</v>
+        <v>142900</v>
       </c>
       <c r="J33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K33" s="3">
         <v>85400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>119900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>95400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>98700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-75900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>150100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>91100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>58800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>65600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>66600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>60300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>43700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>48400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>41200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>8500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>43100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>64800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169600</v>
+        <v>178000</v>
       </c>
       <c r="E35" s="3">
-        <v>116000</v>
+        <v>168700</v>
       </c>
       <c r="F35" s="3">
-        <v>150800</v>
+        <v>115400</v>
       </c>
       <c r="G35" s="3">
-        <v>134500</v>
+        <v>150000</v>
       </c>
       <c r="H35" s="3">
-        <v>143600</v>
+        <v>133900</v>
       </c>
       <c r="I35" s="3">
-        <v>10600</v>
+        <v>142900</v>
       </c>
       <c r="J35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K35" s="3">
         <v>85400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>119900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>95400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>98700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-75900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>150100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>91100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>58800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>65600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>66600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>60300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>43700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>48400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>41200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>8500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>43100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>64800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>72700</v>
+        <v>161100</v>
       </c>
       <c r="E41" s="3">
-        <v>67900</v>
+        <v>72400</v>
       </c>
       <c r="F41" s="3">
-        <v>75700</v>
+        <v>67600</v>
       </c>
       <c r="G41" s="3">
-        <v>110000</v>
+        <v>75300</v>
       </c>
       <c r="H41" s="3">
-        <v>76100</v>
+        <v>109400</v>
       </c>
       <c r="I41" s="3">
-        <v>176200</v>
+        <v>75800</v>
       </c>
       <c r="J41" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K41" s="3">
         <v>263300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>183900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>53600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>30100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>50000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>38100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>29100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>35600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>40800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>53300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>83100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>641200</v>
+        <v>654300</v>
       </c>
       <c r="E42" s="3">
-        <v>677300</v>
+        <v>638000</v>
       </c>
       <c r="F42" s="3">
-        <v>510700</v>
+        <v>673900</v>
       </c>
       <c r="G42" s="3">
-        <v>223400</v>
+        <v>508200</v>
       </c>
       <c r="H42" s="3">
-        <v>342400</v>
+        <v>222300</v>
       </c>
       <c r="I42" s="3">
-        <v>356800</v>
+        <v>340700</v>
       </c>
       <c r="J42" s="3">
+        <v>355000</v>
+      </c>
+      <c r="K42" s="3">
         <v>159900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>176500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>247800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>244800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>143000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>264800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>306000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>233300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>350900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>338400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>304800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>312000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>206300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>177300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>265100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>288400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>207300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>169900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>196600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>194500</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>260900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>933900</v>
+        <v>851900</v>
       </c>
       <c r="E43" s="3">
-        <v>908800</v>
+        <v>929300</v>
       </c>
       <c r="F43" s="3">
-        <v>935000</v>
+        <v>904300</v>
       </c>
       <c r="G43" s="3">
-        <v>967800</v>
+        <v>930400</v>
       </c>
       <c r="H43" s="3">
-        <v>930400</v>
+        <v>963000</v>
       </c>
       <c r="I43" s="3">
-        <v>856000</v>
+        <v>925800</v>
       </c>
       <c r="J43" s="3">
+        <v>851700</v>
+      </c>
+      <c r="K43" s="3">
         <v>798000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>867900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>774400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>649600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>683800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>654600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>634000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>706200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>631800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>599700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>554600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>585400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>551500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>653300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>683200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>587300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>613600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>610300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>594900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>524500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>566600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>509000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>633500</v>
+        <v>680800</v>
       </c>
       <c r="E44" s="3">
-        <v>588400</v>
+        <v>630300</v>
       </c>
       <c r="F44" s="3">
-        <v>596400</v>
+        <v>585500</v>
       </c>
       <c r="G44" s="3">
-        <v>592900</v>
+        <v>593400</v>
       </c>
       <c r="H44" s="3">
-        <v>626400</v>
+        <v>590000</v>
       </c>
       <c r="I44" s="3">
-        <v>615200</v>
+        <v>623300</v>
       </c>
       <c r="J44" s="3">
+        <v>612100</v>
+      </c>
+      <c r="K44" s="3">
         <v>600600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>600900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>618900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>563100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>549400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>515000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>505800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>453100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>503200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>481400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>482800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>454300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>458800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>429500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>416400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>420600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>387900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>390400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>406300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>393100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>414100</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>393000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>260700</v>
+        <v>270700</v>
       </c>
       <c r="E45" s="3">
-        <v>259500</v>
+        <v>259400</v>
       </c>
       <c r="F45" s="3">
-        <v>233600</v>
+        <v>258200</v>
       </c>
       <c r="G45" s="3">
-        <v>228900</v>
+        <v>232500</v>
       </c>
       <c r="H45" s="3">
-        <v>197300</v>
+        <v>227800</v>
       </c>
       <c r="I45" s="3">
-        <v>194500</v>
+        <v>196400</v>
       </c>
       <c r="J45" s="3">
+        <v>193600</v>
+      </c>
+      <c r="K45" s="3">
         <v>195200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>208000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>194800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>196900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>224600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>207200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>220000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>192600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>164800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>176600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>183700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>174500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>182200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>189200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>213000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>274300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>264300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>246000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>234200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>215600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>193600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>183600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2542000</v>
+        <v>2618900</v>
       </c>
       <c r="E46" s="3">
-        <v>2501900</v>
+        <v>2529400</v>
       </c>
       <c r="F46" s="3">
-        <v>2351300</v>
+        <v>2489500</v>
       </c>
       <c r="G46" s="3">
-        <v>2123100</v>
+        <v>2339700</v>
       </c>
       <c r="H46" s="3">
-        <v>2172700</v>
+        <v>2112500</v>
       </c>
       <c r="I46" s="3">
-        <v>2198600</v>
+        <v>2161900</v>
       </c>
       <c r="J46" s="3">
+        <v>2187700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2017000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1974000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1935500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1838300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1654400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1690300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1717500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1684400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1563000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1650000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1587800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1549200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1527700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1528400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1518900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1585500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1583200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1489500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1446100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1383200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1451900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1380200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>59300</v>
+        <v>71300</v>
       </c>
       <c r="E47" s="3">
-        <v>64800</v>
+        <v>59000</v>
       </c>
       <c r="F47" s="3">
-        <v>75900</v>
+        <v>64500</v>
       </c>
       <c r="G47" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="H47" s="3">
-        <v>63800</v>
+        <v>73500</v>
       </c>
       <c r="I47" s="3">
-        <v>97200</v>
+        <v>63400</v>
       </c>
       <c r="J47" s="3">
+        <v>96700</v>
+      </c>
+      <c r="K47" s="3">
         <v>79200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>91200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>117300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>110100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>66300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>62400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>66300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>77900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>46700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>44200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>52400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>50200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>69700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>74800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>73000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>80600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>97100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>101800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>812500</v>
+        <v>847900</v>
       </c>
       <c r="E48" s="3">
-        <v>803500</v>
+        <v>808500</v>
       </c>
       <c r="F48" s="3">
-        <v>785800</v>
+        <v>799500</v>
       </c>
       <c r="G48" s="3">
-        <v>771500</v>
+        <v>781900</v>
       </c>
       <c r="H48" s="3">
-        <v>771700</v>
+        <v>767700</v>
       </c>
       <c r="I48" s="3">
-        <v>751600</v>
+        <v>767800</v>
       </c>
       <c r="J48" s="3">
+        <v>747900</v>
+      </c>
+      <c r="K48" s="3">
         <v>761300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>728200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>714800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>708200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>697700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>688900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>676100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>702600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>728300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>743100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>731800</v>
-      </c>
-      <c r="V48" s="3">
-        <v>748800</v>
       </c>
       <c r="W48" s="3">
         <v>748800</v>
       </c>
       <c r="X48" s="3">
+        <v>748800</v>
+      </c>
+      <c r="Y48" s="3">
         <v>753800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>836800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>841400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>837300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>833100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>787700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>788300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>772400</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>511500</v>
+        <v>496600</v>
       </c>
       <c r="E49" s="3">
-        <v>424300</v>
+        <v>508900</v>
       </c>
       <c r="F49" s="3">
-        <v>428000</v>
+        <v>422200</v>
       </c>
       <c r="G49" s="3">
-        <v>436300</v>
+        <v>425900</v>
       </c>
       <c r="H49" s="3">
-        <v>437800</v>
+        <v>434100</v>
       </c>
       <c r="I49" s="3">
-        <v>382800</v>
+        <v>435600</v>
       </c>
       <c r="J49" s="3">
+        <v>380900</v>
+      </c>
+      <c r="K49" s="3">
         <v>442300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>449800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>484500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>498700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>509200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>570300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>594200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>409000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>411200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>609200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>657100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>653100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>665700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>678100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>651600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>702900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>696700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>717700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>702200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>670800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>688700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>699600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>125300</v>
+        <v>140100</v>
       </c>
       <c r="E52" s="3">
-        <v>96700</v>
+        <v>124700</v>
       </c>
       <c r="F52" s="3">
-        <v>98400</v>
+        <v>96200</v>
       </c>
       <c r="G52" s="3">
-        <v>113200</v>
+        <v>97900</v>
       </c>
       <c r="H52" s="3">
-        <v>132400</v>
+        <v>112600</v>
       </c>
       <c r="I52" s="3">
-        <v>110000</v>
+        <v>131800</v>
       </c>
       <c r="J52" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K52" s="3">
         <v>115700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>123900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>139400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>142200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>157800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>169500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>167900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>168700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>161500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>147800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>76000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>80400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>89000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>77700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>67400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>71100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>92900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>95900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>90400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>99900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4050600</v>
+        <v>4174700</v>
       </c>
       <c r="E54" s="3">
-        <v>3891200</v>
+        <v>4030500</v>
       </c>
       <c r="F54" s="3">
-        <v>3739400</v>
+        <v>3871900</v>
       </c>
       <c r="G54" s="3">
-        <v>3517900</v>
+        <v>3720900</v>
       </c>
       <c r="H54" s="3">
-        <v>3578300</v>
+        <v>3500400</v>
       </c>
       <c r="I54" s="3">
-        <v>3540300</v>
+        <v>3560600</v>
       </c>
       <c r="J54" s="3">
+        <v>3522700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3415400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3367100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3391400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3292100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3129100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3172300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3246100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3000600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2904600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3213300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3120200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3050000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3066900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3096600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3052200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3262200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3267300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3210400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3157900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3029100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3130700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3037300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>334700</v>
+        <v>366700</v>
       </c>
       <c r="E57" s="3">
-        <v>319700</v>
+        <v>333000</v>
       </c>
       <c r="F57" s="3">
-        <v>314600</v>
+        <v>318100</v>
       </c>
       <c r="G57" s="3">
-        <v>275400</v>
+        <v>313100</v>
       </c>
       <c r="H57" s="3">
-        <v>302900</v>
+        <v>274000</v>
       </c>
       <c r="I57" s="3">
-        <v>309200</v>
+        <v>301400</v>
       </c>
       <c r="J57" s="3">
+        <v>307600</v>
+      </c>
+      <c r="K57" s="3">
         <v>296100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>308900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>348700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>294400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>286100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>285900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>246000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>215200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>212100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>203900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>196900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>215700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>186000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>195900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>232100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>210800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>205200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>191200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>184900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>183400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>169200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91800</v>
+        <v>86500</v>
       </c>
       <c r="E58" s="3">
-        <v>147400</v>
+        <v>91300</v>
       </c>
       <c r="F58" s="3">
-        <v>195900</v>
+        <v>146700</v>
       </c>
       <c r="G58" s="3">
-        <v>187300</v>
+        <v>195000</v>
       </c>
       <c r="H58" s="3">
-        <v>275200</v>
+        <v>186400</v>
       </c>
       <c r="I58" s="3">
-        <v>339700</v>
+        <v>273800</v>
       </c>
       <c r="J58" s="3">
+        <v>338000</v>
+      </c>
+      <c r="K58" s="3">
         <v>267600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>293700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>331700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>297700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>172800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>260000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>320300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>268700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>223400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>243600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>221600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>258900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>369200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>372500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>370500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>440300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>415200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>374500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>602700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>720400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>686300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>550000</v>
+        <v>559500</v>
       </c>
       <c r="E59" s="3">
-        <v>570700</v>
+        <v>547300</v>
       </c>
       <c r="F59" s="3">
-        <v>509600</v>
+        <v>567900</v>
       </c>
       <c r="G59" s="3">
-        <v>504900</v>
+        <v>507100</v>
       </c>
       <c r="H59" s="3">
-        <v>519600</v>
+        <v>502400</v>
       </c>
       <c r="I59" s="3">
-        <v>487800</v>
+        <v>517000</v>
       </c>
       <c r="J59" s="3">
+        <v>485300</v>
+      </c>
+      <c r="K59" s="3">
         <v>447700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>435900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>435300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>441900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>457100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>437800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>465800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>456800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>424000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>405100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>390300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>389200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>371900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>387500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>360500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>405100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>407400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>396700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>381600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>383700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>409100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>377600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>976500</v>
+        <v>1012700</v>
       </c>
       <c r="E60" s="3">
-        <v>1037900</v>
+        <v>971600</v>
       </c>
       <c r="F60" s="3">
-        <v>1020200</v>
+        <v>1032700</v>
       </c>
       <c r="G60" s="3">
-        <v>967600</v>
+        <v>1015100</v>
       </c>
       <c r="H60" s="3">
-        <v>1097700</v>
+        <v>962800</v>
       </c>
       <c r="I60" s="3">
-        <v>1136600</v>
+        <v>1092200</v>
       </c>
       <c r="J60" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1011400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1038600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1115700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1034000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>916000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>983700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1032100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>940800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>862400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>840600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>837900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>807700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>846400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>942700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>928900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1007700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1058400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1017100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>947400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1171300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1313000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1233100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59600</v>
+        <v>72700</v>
       </c>
       <c r="E61" s="3">
-        <v>15500</v>
+        <v>59300</v>
       </c>
       <c r="F61" s="3">
-        <v>17600</v>
+        <v>15400</v>
       </c>
       <c r="G61" s="3">
-        <v>21700</v>
+        <v>17500</v>
       </c>
       <c r="H61" s="3">
-        <v>23000</v>
+        <v>21600</v>
       </c>
       <c r="I61" s="3">
-        <v>69500</v>
+        <v>22900</v>
       </c>
       <c r="J61" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K61" s="3">
         <v>72900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>72300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>78100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>80700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>83400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>87700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>210000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>228900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>297700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>334200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>364800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>345000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>362800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>353700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>360800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>355100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>75100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>78800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>147100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49400</v>
+        <v>44600</v>
       </c>
       <c r="E62" s="3">
-        <v>45200</v>
+        <v>49100</v>
       </c>
       <c r="F62" s="3">
-        <v>38500</v>
+        <v>45000</v>
       </c>
       <c r="G62" s="3">
-        <v>35300</v>
+        <v>38300</v>
       </c>
       <c r="H62" s="3">
-        <v>35000</v>
+        <v>35200</v>
       </c>
       <c r="I62" s="3">
-        <v>30700</v>
+        <v>34800</v>
       </c>
       <c r="J62" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K62" s="3">
         <v>33800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>31900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>43800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>49300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>44600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>50200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>51400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>54100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>63100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>66700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>70700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>70600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>73400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>71000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>68700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1085500</v>
+        <v>1130100</v>
       </c>
       <c r="E66" s="3">
-        <v>1098500</v>
+        <v>1080100</v>
       </c>
       <c r="F66" s="3">
-        <v>1076300</v>
+        <v>1093100</v>
       </c>
       <c r="G66" s="3">
-        <v>1024600</v>
+        <v>1071000</v>
       </c>
       <c r="H66" s="3">
-        <v>1155600</v>
+        <v>1019500</v>
       </c>
       <c r="I66" s="3">
-        <v>1236800</v>
+        <v>1149900</v>
       </c>
       <c r="J66" s="3">
+        <v>1230700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1118100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1143400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1220200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1146100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1028600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1102300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1156300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>998100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>922800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1099800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1111300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1153200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1230800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1358900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1327900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1433600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1478800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1448600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1373200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1319800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1462700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1449000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2813100</v>
+        <v>2895000</v>
       </c>
       <c r="E72" s="3">
-        <v>2643900</v>
+        <v>2799200</v>
       </c>
       <c r="F72" s="3">
-        <v>2527900</v>
+        <v>2630800</v>
       </c>
       <c r="G72" s="3">
-        <v>2378100</v>
+        <v>2515400</v>
       </c>
       <c r="H72" s="3">
-        <v>2303500</v>
+        <v>2366300</v>
       </c>
       <c r="I72" s="3">
-        <v>2158900</v>
+        <v>2292000</v>
       </c>
       <c r="J72" s="3">
+        <v>2148200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2147000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2060300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2006900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1971400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1924900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1940100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1956500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1881800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1838400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1972100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1875000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1756300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1696200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1592200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1580100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1663800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1618700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1569400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1587400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1505100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1461100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1395300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2965200</v>
+        <v>3044600</v>
       </c>
       <c r="E76" s="3">
-        <v>2792700</v>
+        <v>2950500</v>
       </c>
       <c r="F76" s="3">
-        <v>2663100</v>
+        <v>2778800</v>
       </c>
       <c r="G76" s="3">
-        <v>2493300</v>
+        <v>2649900</v>
       </c>
       <c r="H76" s="3">
-        <v>2422700</v>
+        <v>2480900</v>
       </c>
       <c r="I76" s="3">
-        <v>2303500</v>
+        <v>2410700</v>
       </c>
       <c r="J76" s="3">
+        <v>2292000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2297300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2223700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2171200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2146000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2100500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2070000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2089800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2002400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1981800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2113400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2008900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1896900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1836100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1737700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1724300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1828600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1788500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1761800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1784700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1709300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1667900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1588300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169600</v>
+        <v>178000</v>
       </c>
       <c r="E81" s="3">
-        <v>116000</v>
+        <v>168700</v>
       </c>
       <c r="F81" s="3">
-        <v>150800</v>
+        <v>115400</v>
       </c>
       <c r="G81" s="3">
-        <v>134500</v>
+        <v>150000</v>
       </c>
       <c r="H81" s="3">
-        <v>143600</v>
+        <v>133900</v>
       </c>
       <c r="I81" s="3">
-        <v>10600</v>
+        <v>142900</v>
       </c>
       <c r="J81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K81" s="3">
         <v>85400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>119900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>95400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>98700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-75900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>150100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>91100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>58800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>65600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>66600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>60300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>43700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>48400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>41200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>8500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>43100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>64800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43100</v>
+        <v>45600</v>
       </c>
       <c r="E83" s="3">
-        <v>38600</v>
+        <v>42900</v>
       </c>
       <c r="F83" s="3">
-        <v>39500</v>
+        <v>38400</v>
       </c>
       <c r="G83" s="3">
-        <v>37800</v>
+        <v>39400</v>
       </c>
       <c r="H83" s="3">
-        <v>36900</v>
+        <v>37600</v>
       </c>
       <c r="I83" s="3">
-        <v>35800</v>
+        <v>36700</v>
       </c>
       <c r="J83" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K83" s="3">
         <v>36000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>40600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>42500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>40500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>39400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>39800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>136000</v>
+        <v>215600</v>
       </c>
       <c r="E89" s="3">
-        <v>237900</v>
+        <v>135300</v>
       </c>
       <c r="F89" s="3">
-        <v>281200</v>
+        <v>236700</v>
       </c>
       <c r="G89" s="3">
-        <v>112200</v>
+        <v>279800</v>
       </c>
       <c r="H89" s="3">
-        <v>80500</v>
+        <v>111700</v>
       </c>
       <c r="I89" s="3">
-        <v>110200</v>
+        <v>80100</v>
       </c>
       <c r="J89" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K89" s="3">
         <v>209500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-42000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>139700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>52900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>115900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>141000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>98100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>138900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>135100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>90800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>220400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>141800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-66400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>83600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>108700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>97000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-28600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>117400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>72100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>37300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3684000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3639000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2582000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2925000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2511000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3305000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3741000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4138000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3581000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-39800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-40900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-42900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99600</v>
+        <v>-54300</v>
       </c>
       <c r="E94" s="3">
-        <v>-190700</v>
+        <v>-99100</v>
       </c>
       <c r="F94" s="3">
-        <v>-319300</v>
+        <v>-189700</v>
       </c>
       <c r="G94" s="3">
-        <v>69300</v>
+        <v>-317700</v>
       </c>
       <c r="H94" s="3">
-        <v>-59500</v>
+        <v>69000</v>
       </c>
       <c r="I94" s="3">
-        <v>-265800</v>
+        <v>-59200</v>
       </c>
       <c r="J94" s="3">
+        <v>-264500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-33400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>48000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-117200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>46600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-203200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-105600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>108500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-50700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-104100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>45800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>11500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-147800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-75600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-44600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>28400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-358800</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17800</v>
       </c>
-      <c r="E100" s="3">
-        <v>-52000</v>
-      </c>
       <c r="F100" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="G100" s="3">
         <v>7000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-149300</v>
-      </c>
       <c r="H100" s="3">
-        <v>-130600</v>
+        <v>-148500</v>
       </c>
       <c r="I100" s="3">
-        <v>61600</v>
+        <v>-129900</v>
       </c>
       <c r="J100" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-31000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-87200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>107100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-93700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>92800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>70200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-217300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-109600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-86700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-75900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-143000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-83800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>15800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-87300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>32400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-28000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>18700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-101900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-48500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
         <v>-1100</v>
       </c>
       <c r="F101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>17500</v>
+        <v>75900</v>
       </c>
       <c r="E102" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-34300</v>
-      </c>
       <c r="G102" s="3">
-        <v>33800</v>
+        <v>-34100</v>
       </c>
       <c r="H102" s="3">
-        <v>-103400</v>
+        <v>33600</v>
       </c>
       <c r="I102" s="3">
-        <v>-86100</v>
+        <v>-102900</v>
       </c>
       <c r="J102" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K102" s="3">
         <v>145000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-81100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>130200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-28000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>21200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>8900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-13800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-31000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>51300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-55500</v>
       </c>
     </row>
